--- a/result.xlsx
+++ b/result.xlsx
@@ -448,7 +448,7 @@
     <row r="2">
       <c r="A2" t="inlineStr">
         <is>
-          <t>en:simper</t>
+          <t>simper</t>
         </is>
       </c>
       <c r="B2" t="inlineStr">
@@ -460,7 +460,7 @@
     <row r="3">
       <c r="A3" t="inlineStr">
         <is>
-          <t>en:sire</t>
+          <t>sire</t>
         </is>
       </c>
       <c r="B3" t="inlineStr">
@@ -472,7 +472,7 @@
     <row r="4">
       <c r="A4" t="inlineStr">
         <is>
-          <t>en:what</t>
+          <t>what</t>
         </is>
       </c>
       <c r="B4" t="inlineStr">
@@ -484,7 +484,7 @@
     <row r="5">
       <c r="A5" t="inlineStr">
         <is>
-          <t>en:trifles</t>
+          <t>trifles</t>
         </is>
       </c>
       <c r="B5" t="inlineStr">
@@ -496,7 +496,7 @@
     <row r="6">
       <c r="A6" t="inlineStr">
         <is>
-          <t>en:mittens</t>
+          <t>mittens</t>
         </is>
       </c>
       <c r="B6" t="inlineStr">
@@ -508,7 +508,7 @@
     <row r="7">
       <c r="A7" t="inlineStr">
         <is>
-          <t>en:apt</t>
+          <t>apt</t>
         </is>
       </c>
       <c r="B7" t="inlineStr">
@@ -520,7 +520,7 @@
     <row r="8">
       <c r="A8" t="inlineStr">
         <is>
-          <t>en:Goodness</t>
+          <t>Goodness</t>
         </is>
       </c>
       <c r="B8" t="inlineStr">
@@ -532,7 +532,7 @@
     <row r="9">
       <c r="A9" t="inlineStr">
         <is>
-          <t>en:russets</t>
+          <t>russets</t>
         </is>
       </c>
       <c r="B9" t="inlineStr">
@@ -544,7 +544,7 @@
     <row r="10">
       <c r="A10" t="inlineStr">
         <is>
-          <t>en:ringlets</t>
+          <t>ringlets</t>
         </is>
       </c>
       <c r="B10" t="inlineStr">
@@ -556,7 +556,7 @@
     <row r="11">
       <c r="A11" t="inlineStr">
         <is>
-          <t>en:to and fro</t>
+          <t>to and fro</t>
         </is>
       </c>
       <c r="B11" t="inlineStr">
@@ -568,7 +568,7 @@
     <row r="12">
       <c r="A12" t="inlineStr">
         <is>
-          <t>en:there</t>
+          <t>there</t>
         </is>
       </c>
       <c r="B12" t="inlineStr">
@@ -580,7 +580,7 @@
     <row r="13">
       <c r="A13" t="inlineStr">
         <is>
-          <t>en:pious</t>
+          <t>pious</t>
         </is>
       </c>
       <c r="B13" t="inlineStr">
@@ -592,7 +592,7 @@
     <row r="14">
       <c r="A14" t="inlineStr">
         <is>
-          <t>en:trump</t>
+          <t>trump</t>
         </is>
       </c>
       <c r="B14" t="inlineStr">
@@ -604,7 +604,7 @@
     <row r="15">
       <c r="A15" t="inlineStr">
         <is>
-          <t>en:russet</t>
+          <t>russet</t>
         </is>
       </c>
       <c r="B15" t="inlineStr">
@@ -616,7 +616,7 @@
     <row r="16">
       <c r="A16" t="inlineStr">
         <is>
-          <t>en:warbled</t>
+          <t>warbled</t>
         </is>
       </c>
       <c r="B16" t="inlineStr">
@@ -628,7 +628,7 @@
     <row r="17">
       <c r="A17" t="inlineStr">
         <is>
-          <t>en:arnica</t>
+          <t>arnica</t>
         </is>
       </c>
       <c r="B17" t="inlineStr">
@@ -640,7 +640,7 @@
     <row r="18">
       <c r="A18" t="inlineStr">
         <is>
-          <t>en:vittles</t>
+          <t>vittles</t>
         </is>
       </c>
       <c r="B18" t="inlineStr">
@@ -652,7 +652,7 @@
     <row r="19">
       <c r="A19" t="inlineStr">
         <is>
-          <t>en:dismally</t>
+          <t>dismally</t>
         </is>
       </c>
       <c r="B19" t="inlineStr">
@@ -664,7 +664,7 @@
     <row r="20">
       <c r="A20" t="inlineStr">
         <is>
-          <t>en:quiver</t>
+          <t>quiver</t>
         </is>
       </c>
       <c r="B20" t="inlineStr">
@@ -676,7 +676,7 @@
     <row r="21">
       <c r="A21" t="inlineStr">
         <is>
-          <t>en:fro</t>
+          <t>fro</t>
         </is>
       </c>
       <c r="B21" t="inlineStr">
@@ -688,7 +688,7 @@
     <row r="22">
       <c r="A22" t="inlineStr">
         <is>
-          <t>en:frolic</t>
+          <t>frolic</t>
         </is>
       </c>
       <c r="B22" t="inlineStr">
@@ -700,7 +700,7 @@
     <row r="23">
       <c r="A23" t="inlineStr">
         <is>
-          <t>en:chaplain</t>
+          <t>chaplain</t>
         </is>
       </c>
       <c r="B23" t="inlineStr">
@@ -712,7 +712,7 @@
     <row r="24">
       <c r="A24" t="inlineStr">
         <is>
-          <t>en:rumpling</t>
+          <t>rumpling</t>
         </is>
       </c>
       <c r="B24" t="inlineStr">
@@ -724,7 +724,7 @@
     <row r="25">
       <c r="A25" t="inlineStr">
         <is>
-          <t>en:capers</t>
+          <t>capers</t>
         </is>
       </c>
       <c r="B25" t="inlineStr">
@@ -736,7 +736,7 @@
     <row r="26">
       <c r="A26" t="inlineStr">
         <is>
-          <t>en:quilt</t>
+          <t>quilt</t>
         </is>
       </c>
       <c r="B26" t="inlineStr">
@@ -748,7 +748,7 @@
     <row r="27">
       <c r="A27" t="inlineStr">
         <is>
-          <t>en:forlornly</t>
+          <t>forlornly</t>
         </is>
       </c>
       <c r="B27" t="inlineStr">
@@ -760,7 +760,7 @@
     <row r="28">
       <c r="A28" t="inlineStr">
         <is>
-          <t>en:poplins</t>
+          <t>poplins</t>
         </is>
       </c>
       <c r="B28" t="inlineStr">
@@ -772,7 +772,7 @@
     <row r="29">
       <c r="A29" t="inlineStr">
         <is>
-          <t>en:skylarking</t>
+          <t>skylarking</t>
         </is>
       </c>
       <c r="B29" t="inlineStr">
@@ -784,7 +784,7 @@
     <row r="30">
       <c r="A30" t="inlineStr">
         <is>
-          <t>en:bosom</t>
+          <t>bosom</t>
         </is>
       </c>
       <c r="B30" t="inlineStr">
@@ -796,7 +796,7 @@
     <row r="31">
       <c r="A31" t="inlineStr">
         <is>
-          <t>en:thwart</t>
+          <t>thwart</t>
         </is>
       </c>
       <c r="B31" t="inlineStr">
@@ -808,7 +808,7 @@
     <row r="32">
       <c r="A32" t="inlineStr">
         <is>
-          <t>en:bequeaths</t>
+          <t>bequeaths</t>
         </is>
       </c>
       <c r="B32" t="inlineStr">
@@ -820,7 +820,7 @@
     <row r="33">
       <c r="A33" t="inlineStr">
         <is>
-          <t>en:Do</t>
+          <t>Do</t>
         </is>
       </c>
       <c r="B33" t="inlineStr">
@@ -832,7 +832,7 @@
     <row r="34">
       <c r="A34" t="inlineStr">
         <is>
-          <t>en:suppose</t>
+          <t>suppose</t>
         </is>
       </c>
       <c r="B34" t="inlineStr">
@@ -844,7 +844,7 @@
     <row r="35">
       <c r="A35" t="inlineStr">
         <is>
-          <t>en:stout</t>
+          <t>stout</t>
         </is>
       </c>
       <c r="B35" t="inlineStr">
@@ -856,7 +856,7 @@
     <row r="36">
       <c r="A36" t="inlineStr">
         <is>
-          <t>en:spangles</t>
+          <t>spangles</t>
         </is>
       </c>
       <c r="B36" t="inlineStr">
@@ -868,7 +868,7 @@
     <row r="37">
       <c r="A37" t="inlineStr">
         <is>
-          <t>en:merrier</t>
+          <t>merrier</t>
         </is>
       </c>
       <c r="B37" t="inlineStr">
@@ -880,7 +880,7 @@
     <row r="38">
       <c r="A38" t="inlineStr">
         <is>
-          <t>en:frill</t>
+          <t>frill</t>
         </is>
       </c>
       <c r="B38" t="inlineStr">
@@ -892,7 +892,7 @@
     <row r="39">
       <c r="A39" t="inlineStr">
         <is>
-          <t>en:wistful</t>
+          <t>wistful</t>
         </is>
       </c>
       <c r="B39" t="inlineStr">
@@ -904,7 +904,7 @@
     <row r="40">
       <c r="A40" t="inlineStr">
         <is>
-          <t>en:gruel</t>
+          <t>gruel</t>
         </is>
       </c>
       <c r="B40" t="inlineStr">
@@ -916,7 +916,7 @@
     <row r="41">
       <c r="A41" t="inlineStr">
         <is>
-          <t>en:breadth</t>
+          <t>breadth</t>
         </is>
       </c>
       <c r="B41" t="inlineStr">
@@ -928,7 +928,7 @@
     <row r="42">
       <c r="A42" t="inlineStr">
         <is>
-          <t>en:vanities</t>
+          <t>vanities</t>
         </is>
       </c>
       <c r="B42" t="inlineStr">
@@ -940,7 +940,7 @@
     <row r="43">
       <c r="A43" t="inlineStr">
         <is>
-          <t>en:pegging</t>
+          <t>pegging</t>
         </is>
       </c>
       <c r="B43" t="inlineStr">
@@ -952,7 +952,7 @@
     <row r="44">
       <c r="A44" t="inlineStr">
         <is>
-          <t>en:blunderbuss</t>
+          <t>blunderbuss</t>
         </is>
       </c>
       <c r="B44" t="inlineStr">
@@ -964,7 +964,7 @@
     <row r="45">
       <c r="A45" t="inlineStr">
         <is>
-          <t>en:garland</t>
+          <t>garland</t>
         </is>
       </c>
       <c r="B45" t="inlineStr">
@@ -976,7 +976,7 @@
     <row r="46">
       <c r="A46" t="inlineStr">
         <is>
-          <t>en:tin</t>
+          <t>tin</t>
         </is>
       </c>
       <c r="B46" t="inlineStr">
@@ -988,7 +988,7 @@
     <row r="47">
       <c r="A47" t="inlineStr">
         <is>
-          <t>en:marred</t>
+          <t>marred</t>
         </is>
       </c>
       <c r="B47" t="inlineStr">
@@ -1000,7 +1000,7 @@
     <row r="48">
       <c r="A48" t="inlineStr">
         <is>
-          <t>en:posy</t>
+          <t>posy</t>
         </is>
       </c>
       <c r="B48" t="inlineStr">
@@ -1012,7 +1012,7 @@
     <row r="49">
       <c r="A49" t="inlineStr">
         <is>
-          <t>en:blithely</t>
+          <t>blithely</t>
         </is>
       </c>
       <c r="B49" t="inlineStr">
@@ -1024,7 +1024,7 @@
     <row r="50">
       <c r="A50" t="inlineStr">
         <is>
-          <t>en:wailing</t>
+          <t>wailing</t>
         </is>
       </c>
       <c r="B50" t="inlineStr">
@@ -1036,7 +1036,7 @@
     <row r="51">
       <c r="A51" t="inlineStr">
         <is>
-          <t>en:abashed</t>
+          <t>abashed</t>
         </is>
       </c>
       <c r="B51" t="inlineStr">
@@ -1048,7 +1048,7 @@
     <row r="52">
       <c r="A52" t="inlineStr">
         <is>
-          <t>en:chintz</t>
+          <t>chintz</t>
         </is>
       </c>
       <c r="B52" t="inlineStr">
@@ -1060,7 +1060,7 @@
     <row r="53">
       <c r="A53" t="inlineStr">
         <is>
-          <t>en:petulantly</t>
+          <t>petulantly</t>
         </is>
       </c>
       <c r="B53" t="inlineStr">
@@ -1072,7 +1072,7 @@
     <row r="54">
       <c r="A54" t="inlineStr">
         <is>
-          <t>en:bureaus</t>
+          <t>bureaus</t>
         </is>
       </c>
       <c r="B54" t="inlineStr">
@@ -1084,7 +1084,7 @@
     <row r="55">
       <c r="A55" t="inlineStr">
         <is>
-          <t>en:cabalistic</t>
+          <t>cabalistic</t>
         </is>
       </c>
       <c r="B55" t="inlineStr">
@@ -1096,7 +1096,7 @@
     <row r="56">
       <c r="A56" t="inlineStr">
         <is>
-          <t>en:gayest</t>
+          <t>gayest</t>
         </is>
       </c>
       <c r="B56" t="inlineStr">
@@ -1108,7 +1108,7 @@
     <row r="57">
       <c r="A57" t="inlineStr">
         <is>
-          <t>en:quirk</t>
+          <t>quirk</t>
         </is>
       </c>
       <c r="B57" t="inlineStr">
@@ -1120,7 +1120,7 @@
     <row r="58">
       <c r="A58" t="inlineStr">
         <is>
-          <t>en:romps</t>
+          <t>romps</t>
         </is>
       </c>
       <c r="B58" t="inlineStr">
@@ -1132,7 +1132,7 @@
     <row r="59">
       <c r="A59" t="inlineStr">
         <is>
-          <t>en:enacted</t>
+          <t>enacted</t>
         </is>
       </c>
       <c r="B59" t="inlineStr">
@@ -1144,7 +1144,7 @@
     <row r="60">
       <c r="A60" t="inlineStr">
         <is>
-          <t>en:harum-scarum</t>
+          <t>harum-scarum</t>
         </is>
       </c>
       <c r="B60" t="inlineStr">
@@ -1156,7 +1156,7 @@
     <row r="61">
       <c r="A61" t="inlineStr">
         <is>
-          <t>en:morsel</t>
+          <t>morsel</t>
         </is>
       </c>
       <c r="B61" t="inlineStr">
@@ -1168,7 +1168,7 @@
     <row r="62">
       <c r="A62" t="inlineStr">
         <is>
-          <t>en:inkstand</t>
+          <t>inkstand</t>
         </is>
       </c>
       <c r="B62" t="inlineStr">
@@ -1180,7 +1180,7 @@
     <row r="63">
       <c r="A63" t="inlineStr">
         <is>
-          <t>en:flurry</t>
+          <t>flurry</t>
         </is>
       </c>
       <c r="B63" t="inlineStr">
@@ -1192,7 +1192,7 @@
     <row r="64">
       <c r="A64" t="inlineStr">
         <is>
-          <t>en:fretful</t>
+          <t>fretful</t>
         </is>
       </c>
       <c r="B64" t="inlineStr">
@@ -1204,7 +1204,7 @@
     <row r="65">
       <c r="A65" t="inlineStr">
         <is>
-          <t>en:revel</t>
+          <t>revel</t>
         </is>
       </c>
       <c r="B65" t="inlineStr">
@@ -1216,7 +1216,7 @@
     <row r="66">
       <c r="A66" t="inlineStr">
         <is>
-          <t>en:tempest</t>
+          <t>tempest</t>
         </is>
       </c>
       <c r="B66" t="inlineStr">
@@ -1228,7 +1228,7 @@
     <row r="67">
       <c r="A67" t="inlineStr">
         <is>
-          <t>en:deportment</t>
+          <t>deportment</t>
         </is>
       </c>
       <c r="B67" t="inlineStr">
@@ -1240,7 +1240,7 @@
     <row r="68">
       <c r="A68" t="inlineStr">
         <is>
-          <t>en:plaintive</t>
+          <t>plaintive</t>
         </is>
       </c>
       <c r="B68" t="inlineStr">
@@ -1252,7 +1252,7 @@
     <row r="69">
       <c r="A69" t="inlineStr">
         <is>
-          <t>en:dolly</t>
+          <t>dolly</t>
         </is>
       </c>
       <c r="B69" t="inlineStr">
@@ -1264,7 +1264,7 @@
     <row r="70">
       <c r="A70" t="inlineStr">
         <is>
-          <t>en:croak</t>
+          <t>croak</t>
         </is>
       </c>
       <c r="B70" t="inlineStr">
@@ -1276,7 +1276,7 @@
     <row r="71">
       <c r="A71" t="inlineStr">
         <is>
-          <t>en:crossest</t>
+          <t>crossest</t>
         </is>
       </c>
       <c r="B71" t="inlineStr">
@@ -1288,7 +1288,7 @@
     <row r="72">
       <c r="A72" t="inlineStr">
         <is>
-          <t>en:lavished</t>
+          <t>lavished</t>
         </is>
       </c>
       <c r="B72" t="inlineStr">
@@ -1300,7 +1300,7 @@
     <row r="73">
       <c r="A73" t="inlineStr">
         <is>
-          <t>en:sermon</t>
+          <t>sermon</t>
         </is>
       </c>
       <c r="B73" t="inlineStr">
@@ -1312,7 +1312,7 @@
     <row r="74">
       <c r="A74" t="inlineStr">
         <is>
-          <t>en:burr</t>
+          <t>burr</t>
         </is>
       </c>
       <c r="B74" t="inlineStr">
@@ -1324,7 +1324,7 @@
     <row r="75">
       <c r="A75" t="inlineStr">
         <is>
-          <t>en:carnelian</t>
+          <t>carnelian</t>
         </is>
       </c>
       <c r="B75" t="inlineStr">
@@ -1336,7 +1336,7 @@
     <row r="76">
       <c r="A76" t="inlineStr">
         <is>
-          <t>en:meekly</t>
+          <t>meekly</t>
         </is>
       </c>
       <c r="B76" t="inlineStr">
@@ -1348,7 +1348,7 @@
     <row r="77">
       <c r="A77" t="inlineStr">
         <is>
-          <t>en:perilous</t>
+          <t>perilous</t>
         </is>
       </c>
       <c r="B77" t="inlineStr">
@@ -1360,7 +1360,7 @@
     <row r="78">
       <c r="A78" t="inlineStr">
         <is>
-          <t>en:lark</t>
+          <t>lark</t>
         </is>
       </c>
       <c r="B78" t="inlineStr">
@@ -1372,7 +1372,7 @@
     <row r="79">
       <c r="A79" t="inlineStr">
         <is>
-          <t>en:droning</t>
+          <t>droning</t>
         </is>
       </c>
       <c r="B79" t="inlineStr">
@@ -1384,7 +1384,7 @@
     <row r="80">
       <c r="A80" t="inlineStr">
         <is>
-          <t>en:fretting</t>
+          <t>fretting</t>
         </is>
       </c>
       <c r="B80" t="inlineStr">
@@ -1396,7 +1396,7 @@
     <row r="81">
       <c r="A81" t="inlineStr">
         <is>
-          <t>en:moil</t>
+          <t>moil</t>
         </is>
       </c>
       <c r="B81" t="inlineStr">
@@ -1408,7 +1408,7 @@
     <row r="82">
       <c r="A82" t="inlineStr">
         <is>
-          <t>en:ludicrous</t>
+          <t>ludicrous</t>
         </is>
       </c>
       <c r="B82" t="inlineStr">
@@ -1420,7 +1420,7 @@
     <row r="83">
       <c r="A83" t="inlineStr">
         <is>
-          <t>en:irascible</t>
+          <t>irascible</t>
         </is>
       </c>
       <c r="B83" t="inlineStr">
@@ -1432,7 +1432,7 @@
     <row r="84">
       <c r="A84" t="inlineStr">
         <is>
-          <t>en:toil</t>
+          <t>toil</t>
         </is>
       </c>
       <c r="B84" t="inlineStr">
@@ -1444,7 +1444,7 @@
     <row r="85">
       <c r="A85" t="inlineStr">
         <is>
-          <t>en:forlorn</t>
+          <t>forlorn</t>
         </is>
       </c>
       <c r="B85" t="inlineStr">
@@ -1456,7 +1456,7 @@
     <row r="86">
       <c r="A86" t="inlineStr">
         <is>
-          <t>en:cross</t>
+          <t>cross</t>
         </is>
       </c>
       <c r="B86" t="inlineStr">
@@ -1468,7 +1468,7 @@
     <row r="87">
       <c r="A87" t="inlineStr">
         <is>
-          <t>en:betokening</t>
+          <t>betokening</t>
         </is>
       </c>
       <c r="B87" t="inlineStr">
@@ -1480,7 +1480,7 @@
     <row r="88">
       <c r="A88" t="inlineStr">
         <is>
-          <t>en:mantelpiece</t>
+          <t>mantelpiece</t>
         </is>
       </c>
       <c r="B88" t="inlineStr">
@@ -1492,7 +1492,7 @@
     <row r="89">
       <c r="A89" t="inlineStr">
         <is>
-          <t>en:heaps</t>
+          <t>heaps</t>
         </is>
       </c>
       <c r="B89" t="inlineStr">
@@ -1504,7 +1504,7 @@
     <row r="90">
       <c r="A90" t="inlineStr">
         <is>
-          <t>en:merriment</t>
+          <t>merriment</t>
         </is>
       </c>
       <c r="B90" t="inlineStr">
@@ -1516,7 +1516,7 @@
     <row r="91">
       <c r="A91" t="inlineStr">
         <is>
-          <t>en:gruff</t>
+          <t>gruff</t>
         </is>
       </c>
       <c r="B91" t="inlineStr">
@@ -1528,7 +1528,7 @@
     <row r="92">
       <c r="A92" t="inlineStr">
         <is>
-          <t>en:dickens</t>
+          <t>dickens</t>
         </is>
       </c>
       <c r="B92" t="inlineStr">
@@ -1540,7 +1540,7 @@
     <row r="93">
       <c r="A93" t="inlineStr">
         <is>
-          <t>en:redoubtable</t>
+          <t>redoubtable</t>
         </is>
       </c>
       <c r="B93" t="inlineStr">
@@ -1552,7 +1552,7 @@
     <row r="94">
       <c r="A94" t="inlineStr">
         <is>
-          <t>en:vivacity</t>
+          <t>vivacity</t>
         </is>
       </c>
       <c r="B94" t="inlineStr">
@@ -1564,7 +1564,7 @@
     <row r="95">
       <c r="A95" t="inlineStr">
         <is>
-          <t>en:midst</t>
+          <t>midst</t>
         </is>
       </c>
       <c r="B95" t="inlineStr">
@@ -1576,7 +1576,7 @@
     <row r="96">
       <c r="A96" t="inlineStr">
         <is>
-          <t>en:indolent</t>
+          <t>indolent</t>
         </is>
       </c>
       <c r="B96" t="inlineStr">
@@ -1588,7 +1588,7 @@
     <row r="97">
       <c r="A97" t="inlineStr">
         <is>
-          <t>en:coddling</t>
+          <t>coddling</t>
         </is>
       </c>
       <c r="B97" t="inlineStr">
@@ -1600,7 +1600,7 @@
     <row r="98">
       <c r="A98" t="inlineStr">
         <is>
-          <t>en:tableaux</t>
+          <t>tableaux</t>
         </is>
       </c>
       <c r="B98" t="inlineStr">
@@ -1612,7 +1612,7 @@
     <row r="99">
       <c r="A99" t="inlineStr">
         <is>
-          <t>en:voraciously</t>
+          <t>voraciously</t>
         </is>
       </c>
       <c r="B99" t="inlineStr">
@@ -1624,7 +1624,7 @@
     <row r="100">
       <c r="A100" t="inlineStr">
         <is>
-          <t>en:beatitude</t>
+          <t>beatitude</t>
         </is>
       </c>
       <c r="B100" t="inlineStr">
@@ -1636,7 +1636,7 @@
     <row r="101">
       <c r="A101" t="inlineStr">
         <is>
-          <t>en:with</t>
+          <t>with</t>
         </is>
       </c>
       <c r="B101" t="inlineStr">
@@ -1648,7 +1648,7 @@
     <row r="102">
       <c r="A102" t="inlineStr">
         <is>
-          <t>en:nimble</t>
+          <t>nimble</t>
         </is>
       </c>
       <c r="B102" t="inlineStr">
@@ -1660,7 +1660,7 @@
     <row r="103">
       <c r="A103" t="inlineStr">
         <is>
-          <t>en:cordially</t>
+          <t>cordially</t>
         </is>
       </c>
       <c r="B103" t="inlineStr">
@@ -1672,7 +1672,7 @@
     <row r="104">
       <c r="A104" t="inlineStr">
         <is>
-          <t>en:blunder</t>
+          <t>blunder</t>
         </is>
       </c>
       <c r="B104" t="inlineStr">
@@ -1684,7 +1684,7 @@
     <row r="105">
       <c r="A105" t="inlineStr">
         <is>
-          <t>en:countenance</t>
+          <t>countenance</t>
         </is>
       </c>
       <c r="B105" t="inlineStr">
@@ -1696,7 +1696,7 @@
     <row r="106">
       <c r="A106" t="inlineStr">
         <is>
-          <t>en:recess</t>
+          <t>recess</t>
         </is>
       </c>
       <c r="B106" t="inlineStr">
@@ -1708,7 +1708,7 @@
     <row r="107">
       <c r="A107" t="inlineStr">
         <is>
-          <t>en:limes</t>
+          <t>limes</t>
         </is>
       </c>
       <c r="B107" t="inlineStr">
@@ -1720,7 +1720,7 @@
     <row r="108">
       <c r="A108" t="inlineStr">
         <is>
-          <t>en:ferrule</t>
+          <t>ferrule</t>
         </is>
       </c>
       <c r="B108" t="inlineStr">
@@ -1732,7 +1732,7 @@
     <row r="109">
       <c r="A109" t="inlineStr">
         <is>
-          <t>en:neuralgia</t>
+          <t>neuralgia</t>
         </is>
       </c>
       <c r="B109" t="inlineStr">
@@ -1744,7 +1744,7 @@
     <row r="110">
       <c r="A110" t="inlineStr">
         <is>
-          <t>en:relent</t>
+          <t>relent</t>
         </is>
       </c>
       <c r="B110" t="inlineStr">
@@ -1756,7 +1756,7 @@
     <row r="111">
       <c r="A111" t="inlineStr">
         <is>
-          <t>en:inexorable</t>
+          <t>inexorable</t>
         </is>
       </c>
       <c r="B111" t="inlineStr">
@@ -1768,7 +1768,7 @@
     <row r="112">
       <c r="A112" t="inlineStr">
         <is>
-          <t>en:indignant</t>
+          <t>indignant</t>
         </is>
       </c>
       <c r="B112" t="inlineStr">
@@ -1780,7 +1780,7 @@
     <row r="113">
       <c r="A113" t="inlineStr">
         <is>
-          <t>en:beseech</t>
+          <t>beseech</t>
         </is>
       </c>
       <c r="B113" t="inlineStr">
@@ -1792,7 +1792,7 @@
     <row r="114">
       <c r="A114" t="inlineStr">
         <is>
-          <t>en:demoiselles</t>
+          <t>demoiselles</t>
         </is>
       </c>
       <c r="B114" t="inlineStr">
@@ -1804,7 +1804,7 @@
     <row r="115">
       <c r="A115" t="inlineStr">
         <is>
-          <t>en:aggravating</t>
+          <t>aggravating</t>
         </is>
       </c>
       <c r="B115" t="inlineStr">
@@ -1816,7 +1816,7 @@
     <row r="116">
       <c r="A116" t="inlineStr">
         <is>
-          <t>en:banisters</t>
+          <t>banisters</t>
         </is>
       </c>
       <c r="B116" t="inlineStr">
@@ -1828,7 +1828,7 @@
     <row r="117">
       <c r="A117" t="inlineStr">
         <is>
-          <t>en:Fiddlesticks</t>
+          <t>Fiddlesticks</t>
         </is>
       </c>
       <c r="B117" t="inlineStr">
@@ -1840,7 +1840,7 @@
     <row r="118">
       <c r="A118" t="inlineStr">
         <is>
-          <t>en:skirmishes</t>
+          <t>skirmishes</t>
         </is>
       </c>
       <c r="B118" t="inlineStr">
@@ -1852,7 +1852,7 @@
     <row r="119">
       <c r="A119" t="inlineStr">
         <is>
-          <t>en:fib</t>
+          <t>fib</t>
         </is>
       </c>
       <c r="B119" t="inlineStr">
@@ -1864,7 +1864,7 @@
     <row r="120">
       <c r="A120" t="inlineStr">
         <is>
-          <t>en:calamity</t>
+          <t>calamity</t>
         </is>
       </c>
       <c r="B120" t="inlineStr">
@@ -1876,7 +1876,7 @@
     <row r="121">
       <c r="A121" t="inlineStr">
         <is>
-          <t>en:abominable</t>
+          <t>abominable</t>
         </is>
       </c>
       <c r="B121" t="inlineStr">
@@ -1888,7 +1888,7 @@
     <row r="122">
       <c r="A122" t="inlineStr">
         <is>
-          <t>en:overtures</t>
+          <t>overtures</t>
         </is>
       </c>
       <c r="B122" t="inlineStr">
@@ -1900,7 +1900,7 @@
     <row r="123">
       <c r="A123" t="inlineStr">
         <is>
-          <t>en:harboring</t>
+          <t>harboring</t>
         </is>
       </c>
       <c r="B123" t="inlineStr">
@@ -1912,7 +1912,7 @@
     <row r="124">
       <c r="A124" t="inlineStr">
         <is>
-          <t>en:confounded</t>
+          <t>confounded</t>
         </is>
       </c>
       <c r="B124" t="inlineStr">
@@ -1924,7 +1924,7 @@
     <row r="125">
       <c r="A125" t="inlineStr">
         <is>
-          <t>en:intricate</t>
+          <t>intricate</t>
         </is>
       </c>
       <c r="B125" t="inlineStr">
@@ -1936,7 +1936,7 @@
     <row r="126">
       <c r="A126" t="inlineStr">
         <is>
-          <t>en:scarcely</t>
+          <t>scarcely</t>
         </is>
       </c>
       <c r="B126" t="inlineStr">
@@ -1948,7 +1948,7 @@
     <row r="127">
       <c r="A127" t="inlineStr">
         <is>
-          <t>en:reproof</t>
+          <t>reproof</t>
         </is>
       </c>
       <c r="B127" t="inlineStr">
@@ -1960,7 +1960,7 @@
     <row r="128">
       <c r="A128" t="inlineStr">
         <is>
-          <t>en:mend</t>
+          <t>mend</t>
         </is>
       </c>
       <c r="B128" t="inlineStr">
@@ -1972,7 +1972,7 @@
     <row r="129">
       <c r="A129" t="inlineStr">
         <is>
-          <t>en:disheveled</t>
+          <t>disheveled</t>
         </is>
       </c>
       <c r="B129" t="inlineStr">
@@ -1984,7 +1984,7 @@
     <row r="130">
       <c r="A130" t="inlineStr">
         <is>
-          <t>en:rebuked</t>
+          <t>rebuked</t>
         </is>
       </c>
       <c r="B130" t="inlineStr">
@@ -1996,7 +1996,7 @@
     <row r="131">
       <c r="A131" t="inlineStr">
         <is>
-          <t>en:grieved</t>
+          <t>grieved</t>
         </is>
       </c>
       <c r="B131" t="inlineStr">
@@ -2008,7 +2008,7 @@
     <row r="132">
       <c r="A132" t="inlineStr">
         <is>
-          <t>en:measles</t>
+          <t>measles</t>
         </is>
       </c>
       <c r="B132" t="inlineStr">
@@ -2020,7 +2020,7 @@
     <row r="133">
       <c r="A133" t="inlineStr">
         <is>
-          <t>en:dilapidated</t>
+          <t>dilapidated</t>
         </is>
       </c>
       <c r="B133" t="inlineStr">
@@ -2032,7 +2032,7 @@
     <row r="134">
       <c r="A134" t="inlineStr">
         <is>
-          <t>en:poplin</t>
+          <t>poplin</t>
         </is>
       </c>
       <c r="B134" t="inlineStr">
@@ -2044,7 +2044,7 @@
     <row r="135">
       <c r="A135" t="inlineStr">
         <is>
-          <t>en:surveying</t>
+          <t>surveying</t>
         </is>
       </c>
       <c r="B135" t="inlineStr">
@@ -2056,7 +2056,7 @@
     <row r="136">
       <c r="A136" t="inlineStr">
         <is>
-          <t>en:fare</t>
+          <t>fare</t>
         </is>
       </c>
       <c r="B136" t="inlineStr">
@@ -2068,7 +2068,7 @@
     <row r="137">
       <c r="A137" t="inlineStr">
         <is>
-          <t>en:despondency</t>
+          <t>despondency</t>
         </is>
       </c>
       <c r="B137" t="inlineStr">
@@ -2080,7 +2080,7 @@
     <row r="138">
       <c r="A138" t="inlineStr">
         <is>
-          <t>en:ferns</t>
+          <t>ferns</t>
         </is>
       </c>
       <c r="B138" t="inlineStr">
@@ -2092,7 +2092,7 @@
     <row r="139">
       <c r="A139" t="inlineStr">
         <is>
-          <t>en:dawdle</t>
+          <t>dawdle</t>
         </is>
       </c>
       <c r="B139" t="inlineStr">
@@ -2104,7 +2104,7 @@
     <row r="140">
       <c r="A140" t="inlineStr">
         <is>
-          <t>en:dotes</t>
+          <t>dotes</t>
         </is>
       </c>
       <c r="B140" t="inlineStr">
@@ -2116,7 +2116,7 @@
     <row r="141">
       <c r="A141" t="inlineStr">
         <is>
-          <t>en:filagree</t>
+          <t>filagree</t>
         </is>
       </c>
       <c r="B141" t="inlineStr">
@@ -2128,7 +2128,7 @@
     <row r="142">
       <c r="A142" t="inlineStr">
         <is>
-          <t>en:magpies</t>
+          <t>magpies</t>
         </is>
       </c>
       <c r="B142" t="inlineStr">
@@ -2140,7 +2140,7 @@
     <row r="143">
       <c r="A143" t="inlineStr">
         <is>
-          <t>en:lest</t>
+          <t>lest</t>
         </is>
       </c>
       <c r="B143" t="inlineStr">
@@ -2152,7 +2152,7 @@
     <row r="144">
       <c r="A144" t="inlineStr">
         <is>
-          <t>en:blithe</t>
+          <t>blithe</t>
         </is>
       </c>
       <c r="B144" t="inlineStr">
@@ -2164,7 +2164,7 @@
     <row r="145">
       <c r="A145" t="inlineStr">
         <is>
-          <t>en:tiff</t>
+          <t>tiff</t>
         </is>
       </c>
       <c r="B145" t="inlineStr">
@@ -2176,7 +2176,7 @@
     <row r="146">
       <c r="A146" t="inlineStr">
         <is>
-          <t>en:alacrity</t>
+          <t>alacrity</t>
         </is>
       </c>
       <c r="B146" t="inlineStr">
@@ -2188,7 +2188,7 @@
     <row r="147">
       <c r="A147" t="inlineStr">
         <is>
-          <t>en:languid</t>
+          <t>languid</t>
         </is>
       </c>
       <c r="B147" t="inlineStr">
@@ -2200,7 +2200,7 @@
     <row r="148">
       <c r="A148" t="inlineStr">
         <is>
-          <t>en:fess</t>
+          <t>fess</t>
         </is>
       </c>
       <c r="B148" t="inlineStr">
@@ -2212,7 +2212,7 @@
     <row r="149">
       <c r="A149" t="inlineStr">
         <is>
-          <t>en:solemn</t>
+          <t>solemn</t>
         </is>
       </c>
       <c r="B149" t="inlineStr">
@@ -2224,7 +2224,7 @@
     <row r="150">
       <c r="A150" t="inlineStr">
         <is>
-          <t>en:dash</t>
+          <t>dash</t>
         </is>
       </c>
       <c r="B150" t="inlineStr">
@@ -2236,7 +2236,7 @@
     <row r="151">
       <c r="A151" t="inlineStr">
         <is>
-          <t>en:garret</t>
+          <t>garret</t>
         </is>
       </c>
       <c r="B151" t="inlineStr">
@@ -2248,7 +2248,7 @@
     <row r="152">
       <c r="A152" t="inlineStr">
         <is>
-          <t>en:reverence</t>
+          <t>reverence</t>
         </is>
       </c>
       <c r="B152" t="inlineStr">
@@ -2260,7 +2260,7 @@
     <row r="153">
       <c r="A153" t="inlineStr">
         <is>
-          <t>en:doth</t>
+          <t>doth</t>
         </is>
       </c>
       <c r="B153" t="inlineStr">
@@ -2272,7 +2272,7 @@
     <row r="154">
       <c r="A154" t="inlineStr">
         <is>
-          <t>en:mirth</t>
+          <t>mirth</t>
         </is>
       </c>
       <c r="B154" t="inlineStr">
@@ -2284,7 +2284,7 @@
     <row r="155">
       <c r="A155" t="inlineStr">
         <is>
-          <t>en:Yonder</t>
+          <t>Yonder</t>
         </is>
       </c>
       <c r="B155" t="inlineStr">
@@ -2296,7 +2296,7 @@
     <row r="156">
       <c r="A156" t="inlineStr">
         <is>
-          <t>en:throng</t>
+          <t>throng</t>
         </is>
       </c>
       <c r="B156" t="inlineStr">
@@ -2308,7 +2308,7 @@
     <row r="157">
       <c r="A157" t="inlineStr">
         <is>
-          <t>en:scornfully</t>
+          <t>scornfully</t>
         </is>
       </c>
       <c r="B157" t="inlineStr">
@@ -2320,7 +2320,7 @@
     <row r="158">
       <c r="A158" t="inlineStr">
         <is>
-          <t>en:fetlock</t>
+          <t>fetlock</t>
         </is>
       </c>
       <c r="B158" t="inlineStr">
@@ -2332,7 +2332,7 @@
     <row r="159">
       <c r="A159" t="inlineStr">
         <is>
-          <t>en:prostrate</t>
+          <t>prostrate</t>
         </is>
       </c>
       <c r="B159" t="inlineStr">
@@ -2344,7 +2344,7 @@
     <row r="160">
       <c r="A160" t="inlineStr">
         <is>
-          <t>en:keg</t>
+          <t>keg</t>
         </is>
       </c>
       <c r="B160" t="inlineStr">
@@ -2356,7 +2356,7 @@
     <row r="161">
       <c r="A161" t="inlineStr">
         <is>
-          <t>en:Bereavement</t>
+          <t>Bereavement</t>
         </is>
       </c>
       <c r="B161" t="inlineStr">
@@ -2368,7 +2368,7 @@
     <row r="162">
       <c r="A162" t="inlineStr">
         <is>
-          <t>en:tucks</t>
+          <t>tucks</t>
         </is>
       </c>
       <c r="B162" t="inlineStr">
@@ -2380,7 +2380,7 @@
     <row r="163">
       <c r="A163" t="inlineStr">
         <is>
-          <t>en:rogue</t>
+          <t>rogue</t>
         </is>
       </c>
       <c r="B163" t="inlineStr">
@@ -2392,7 +2392,7 @@
     <row r="164">
       <c r="A164" t="inlineStr">
         <is>
-          <t>en:jiffy</t>
+          <t>jiffy</t>
         </is>
       </c>
       <c r="B164" t="inlineStr">
@@ -2404,7 +2404,7 @@
     <row r="165">
       <c r="A165" t="inlineStr">
         <is>
-          <t>en:adjourn</t>
+          <t>adjourn</t>
         </is>
       </c>
       <c r="B165" t="inlineStr">
@@ -2416,7 +2416,7 @@
     <row r="166">
       <c r="A166" t="inlineStr">
         <is>
-          <t>en:nightingales</t>
+          <t>nightingales</t>
         </is>
       </c>
       <c r="B166" t="inlineStr">
@@ -2428,7 +2428,7 @@
     <row r="167">
       <c r="A167" t="inlineStr">
         <is>
-          <t>en:warbler</t>
+          <t>warbler</t>
         </is>
       </c>
       <c r="B167" t="inlineStr">
@@ -2440,7 +2440,7 @@
     <row r="168">
       <c r="A168" t="inlineStr">
         <is>
-          <t>en:breadths</t>
+          <t>breadths</t>
         </is>
       </c>
       <c r="B168" t="inlineStr">
@@ -2452,7 +2452,7 @@
     <row r="169">
       <c r="A169" t="inlineStr">
         <is>
-          <t>en:tranquility</t>
+          <t>tranquility</t>
         </is>
       </c>
       <c r="B169" t="inlineStr">
@@ -2464,7 +2464,7 @@
     <row r="170">
       <c r="A170" t="inlineStr">
         <is>
-          <t>en:fared</t>
+          <t>fared</t>
         </is>
       </c>
       <c r="B170" t="inlineStr">
@@ -2476,7 +2476,7 @@
     <row r="171">
       <c r="A171" t="inlineStr">
         <is>
-          <t>en:ennui</t>
+          <t>ennui</t>
         </is>
       </c>
       <c r="B171" t="inlineStr">
@@ -2488,7 +2488,7 @@
     <row r="172">
       <c r="A172" t="inlineStr">
         <is>
-          <t>en:larder</t>
+          <t>larder</t>
         </is>
       </c>
       <c r="B172" t="inlineStr">
@@ -2500,7 +2500,7 @@
     <row r="173">
       <c r="A173" t="inlineStr">
         <is>
-          <t>en:speckled</t>
+          <t>speckled</t>
         </is>
       </c>
       <c r="B173" t="inlineStr">
@@ -2512,7 +2512,7 @@
     <row r="174">
       <c r="A174" t="inlineStr">
         <is>
-          <t>en:saleratus</t>
+          <t>saleratus</t>
         </is>
       </c>
       <c r="B174" t="inlineStr">
@@ -2524,7 +2524,7 @@
     <row r="175">
       <c r="A175" t="inlineStr">
         <is>
-          <t>en:viands</t>
+          <t>viands</t>
         </is>
       </c>
       <c r="B175" t="inlineStr">
@@ -2536,7 +2536,7 @@
     <row r="176">
       <c r="A176" t="inlineStr">
         <is>
-          <t>en:palatable</t>
+          <t>palatable</t>
         </is>
       </c>
       <c r="B176" t="inlineStr">
@@ -2548,7 +2548,7 @@
     <row r="177">
       <c r="A177" t="inlineStr">
         <is>
-          <t>en:of</t>
+          <t>of</t>
         </is>
       </c>
       <c r="B177" t="inlineStr">
@@ -2560,7 +2560,7 @@
     <row r="178">
       <c r="A178" t="inlineStr">
         <is>
-          <t>en:chagrin</t>
+          <t>chagrin</t>
         </is>
       </c>
       <c r="B178" t="inlineStr">
@@ -2572,7 +2572,7 @@
     <row r="179">
       <c r="A179" t="inlineStr">
         <is>
-          <t>en:sea</t>
+          <t>sea</t>
         </is>
       </c>
       <c r="B179" t="inlineStr">
@@ -2584,7 +2584,7 @@
     <row r="180">
       <c r="A180" t="inlineStr">
         <is>
-          <t>en:wry</t>
+          <t>wry</t>
         </is>
       </c>
       <c r="B180" t="inlineStr">
@@ -2596,7 +2596,7 @@
     <row r="181">
       <c r="A181" t="inlineStr">
         <is>
-          <t>en:hid</t>
+          <t>hid</t>
         </is>
       </c>
       <c r="B181" t="inlineStr">
@@ -2608,7 +2608,7 @@
     <row r="182">
       <c r="A182" t="inlineStr">
         <is>
-          <t>en:precipitately</t>
+          <t>precipitately</t>
         </is>
       </c>
       <c r="B182" t="inlineStr">
@@ -2620,7 +2620,7 @@
     <row r="183">
       <c r="A183" t="inlineStr">
         <is>
-          <t>en:repose</t>
+          <t>repose</t>
         </is>
       </c>
       <c r="B183" t="inlineStr">
@@ -2632,7 +2632,7 @@
     <row r="184">
       <c r="A184" t="inlineStr">
         <is>
-          <t>en:primmed</t>
+          <t>primmed</t>
         </is>
       </c>
       <c r="B184" t="inlineStr">
@@ -2644,7 +2644,7 @@
     <row r="185">
       <c r="A185" t="inlineStr">
         <is>
-          <t>en:fete</t>
+          <t>fete</t>
         </is>
       </c>
       <c r="B185" t="inlineStr">
@@ -2656,7 +2656,7 @@
     <row r="186">
       <c r="A186" t="inlineStr">
         <is>
-          <t>en:anointed</t>
+          <t>anointed</t>
         </is>
       </c>
       <c r="B186" t="inlineStr">
@@ -2668,7 +2668,7 @@
     <row r="187">
       <c r="A187" t="inlineStr">
         <is>
-          <t>en:cordial</t>
+          <t>cordial</t>
         </is>
       </c>
       <c r="B187" t="inlineStr">
@@ -2680,7 +2680,7 @@
     <row r="188">
       <c r="A188" t="inlineStr">
         <is>
-          <t>en:wherry</t>
+          <t>wherry</t>
         </is>
       </c>
       <c r="B188" t="inlineStr">
@@ -2692,7 +2692,7 @@
     <row r="189">
       <c r="A189" t="inlineStr">
         <is>
-          <t>en:riotous</t>
+          <t>riotous</t>
         </is>
       </c>
       <c r="B189" t="inlineStr">
@@ -2704,7 +2704,7 @@
     <row r="190">
       <c r="A190" t="inlineStr">
         <is>
-          <t>en:ruffled</t>
+          <t>ruffled</t>
         </is>
       </c>
       <c r="B190" t="inlineStr">
@@ -2716,7 +2716,7 @@
     <row r="191">
       <c r="A191" t="inlineStr">
         <is>
-          <t>en:wicket</t>
+          <t>wicket</t>
         </is>
       </c>
       <c r="B191" t="inlineStr">
@@ -2728,7 +2728,7 @@
     <row r="192">
       <c r="A192" t="inlineStr">
         <is>
-          <t>en:exultation</t>
+          <t>exultation</t>
         </is>
       </c>
       <c r="B192" t="inlineStr">
@@ -2740,7 +2740,7 @@
     <row r="193">
       <c r="A193" t="inlineStr">
         <is>
-          <t>en:exult</t>
+          <t>exult</t>
         </is>
       </c>
       <c r="B193" t="inlineStr">
@@ -2752,7 +2752,7 @@
     <row r="194">
       <c r="A194" t="inlineStr">
         <is>
-          <t>en:nettles</t>
+          <t>nettles</t>
         </is>
       </c>
       <c r="B194" t="inlineStr">
@@ -2764,7 +2764,7 @@
     <row r="195">
       <c r="A195" t="inlineStr">
         <is>
-          <t>en:simmering</t>
+          <t>simmering</t>
         </is>
       </c>
       <c r="B195" t="inlineStr">
@@ -2776,7 +2776,7 @@
     <row r="196">
       <c r="A196" t="inlineStr">
         <is>
-          <t>en:dyspeptic</t>
+          <t>dyspeptic</t>
         </is>
       </c>
       <c r="B196" t="inlineStr">
@@ -2788,7 +2788,7 @@
     <row r="197">
       <c r="A197" t="inlineStr">
         <is>
-          <t>en:and</t>
+          <t>and</t>
         </is>
       </c>
       <c r="B197" t="inlineStr">
@@ -2800,7 +2800,7 @@
     <row r="198">
       <c r="A198" t="inlineStr">
         <is>
-          <t>en:adjourned</t>
+          <t>adjourned</t>
         </is>
       </c>
       <c r="B198" t="inlineStr">
@@ -2812,7 +2812,7 @@
     <row r="199">
       <c r="A199" t="inlineStr">
         <is>
-          <t>en:colt</t>
+          <t>colt</t>
         </is>
       </c>
       <c r="B199" t="inlineStr">
@@ -2824,7 +2824,7 @@
     <row r="200">
       <c r="A200" t="inlineStr">
         <is>
-          <t>en:ruinous</t>
+          <t>ruinous</t>
         </is>
       </c>
       <c r="B200" t="inlineStr">
@@ -2836,7 +2836,7 @@
     <row r="201">
       <c r="A201" t="inlineStr">
         <is>
-          <t>en:mauve</t>
+          <t>mauve</t>
         </is>
       </c>
       <c r="B201" t="inlineStr">
@@ -2848,7 +2848,7 @@
     <row r="202">
       <c r="A202" t="inlineStr">
         <is>
-          <t>en:lexicon</t>
+          <t>lexicon</t>
         </is>
       </c>
       <c r="B202" t="inlineStr">
@@ -2860,7 +2860,7 @@
     <row r="203">
       <c r="A203" t="inlineStr">
         <is>
-          <t>en:veil</t>
+          <t>veil</t>
         </is>
       </c>
       <c r="B203" t="inlineStr">
@@ -2872,7 +2872,7 @@
     <row r="204">
       <c r="A204" t="inlineStr">
         <is>
-          <t>en:corridor</t>
+          <t>corridor</t>
         </is>
       </c>
       <c r="B204" t="inlineStr">
@@ -2884,7 +2884,7 @@
     <row r="205">
       <c r="A205" t="inlineStr">
         <is>
-          <t>en:effigies</t>
+          <t>effigies</t>
         </is>
       </c>
       <c r="B205" t="inlineStr">
@@ -2896,7 +2896,7 @@
     <row r="206">
       <c r="A206" t="inlineStr">
         <is>
-          <t>en:Snuffbox</t>
+          <t>Snuffbox</t>
         </is>
       </c>
       <c r="B206" t="inlineStr">
@@ -2908,7 +2908,7 @@
     <row r="207">
       <c r="A207" t="inlineStr">
         <is>
-          <t>en:sepulchral</t>
+          <t>sepulchral</t>
         </is>
       </c>
       <c r="B207" t="inlineStr">
@@ -2920,7 +2920,7 @@
     <row r="208">
       <c r="A208" t="inlineStr">
         <is>
-          <t>en:hornpipe</t>
+          <t>hornpipe</t>
         </is>
       </c>
       <c r="B208" t="inlineStr">
@@ -2932,7 +2932,7 @@
     <row r="209">
       <c r="A209" t="inlineStr">
         <is>
-          <t>en:lee</t>
+          <t>lee</t>
         </is>
       </c>
       <c r="B209" t="inlineStr">
@@ -2944,7 +2944,7 @@
     <row r="210">
       <c r="A210" t="inlineStr">
         <is>
-          <t>en:scuppers</t>
+          <t>scuppers</t>
         </is>
       </c>
       <c r="B210" t="inlineStr">
@@ -2956,7 +2956,7 @@
     <row r="211">
       <c r="A211" t="inlineStr">
         <is>
-          <t>en:Cutlasses</t>
+          <t>Cutlasses</t>
         </is>
       </c>
       <c r="B211" t="inlineStr">
@@ -2968,7 +2968,7 @@
     <row r="212">
       <c r="A212" t="inlineStr">
         <is>
-          <t>en:What</t>
+          <t>What</t>
         </is>
       </c>
       <c r="B212" t="inlineStr">
@@ -2980,7 +2980,7 @@
     <row r="213">
       <c r="A213" t="inlineStr">
         <is>
-          <t>en:rigmarole</t>
+          <t>rigmarole</t>
         </is>
       </c>
       <c r="B213" t="inlineStr">
@@ -2992,7 +2992,7 @@
     <row r="214">
       <c r="A214" t="inlineStr">
         <is>
-          <t>en:nautical</t>
+          <t>nautical</t>
         </is>
       </c>
       <c r="B214" t="inlineStr">
@@ -3004,7 +3004,7 @@
     <row r="215">
       <c r="A215" t="inlineStr">
         <is>
-          <t>en:pell-mell</t>
+          <t>pell-mell</t>
         </is>
       </c>
       <c r="B215" t="inlineStr">
@@ -3016,7 +3016,7 @@
     <row r="216">
       <c r="A216" t="inlineStr">
         <is>
-          <t>en:diver</t>
+          <t>diver</t>
         </is>
       </c>
       <c r="B216" t="inlineStr">
@@ -3028,7 +3028,7 @@
     <row r="217">
       <c r="A217" t="inlineStr">
         <is>
-          <t>en:imploringly</t>
+          <t>imploringly</t>
         </is>
       </c>
       <c r="B217" t="inlineStr">
@@ -3040,7 +3040,7 @@
     <row r="218">
       <c r="A218" t="inlineStr">
         <is>
-          <t>en:disdainful</t>
+          <t>disdainful</t>
         </is>
       </c>
       <c r="B218" t="inlineStr">
@@ -3052,7 +3052,7 @@
     <row r="219">
       <c r="A219" t="inlineStr">
         <is>
-          <t>en:governess</t>
+          <t>governess</t>
         </is>
       </c>
       <c r="B219" t="inlineStr">
@@ -3064,7 +3064,7 @@
     <row r="220">
       <c r="A220" t="inlineStr">
         <is>
-          <t>en:romping</t>
+          <t>romping</t>
         </is>
       </c>
       <c r="B220" t="inlineStr">
@@ -3076,7 +3076,7 @@
     <row r="221">
       <c r="A221" t="inlineStr">
         <is>
-          <t>en:chaperone</t>
+          <t>chaperone</t>
         </is>
       </c>
       <c r="B221" t="inlineStr">
@@ -3088,7 +3088,7 @@
     <row r="222">
       <c r="A222" t="inlineStr">
         <is>
-          <t>en:fastidious</t>
+          <t>fastidious</t>
         </is>
       </c>
       <c r="B222" t="inlineStr">
@@ -3100,7 +3100,7 @@
     <row r="223">
       <c r="A223" t="inlineStr">
         <is>
-          <t>en:shunned</t>
+          <t>shunned</t>
         </is>
       </c>
       <c r="B223" t="inlineStr">
@@ -3112,7 +3112,7 @@
     <row r="224">
       <c r="A224" t="inlineStr">
         <is>
-          <t>en:espied</t>
+          <t>espied</t>
         </is>
       </c>
       <c r="B224" t="inlineStr">
@@ -3124,7 +3124,7 @@
     <row r="225">
       <c r="A225" t="inlineStr">
         <is>
-          <t>en:stints</t>
+          <t>stints</t>
         </is>
       </c>
       <c r="B225" t="inlineStr">
@@ -3136,7 +3136,7 @@
     <row r="226">
       <c r="A226" t="inlineStr">
         <is>
-          <t>en:haymaking</t>
+          <t>haymaking</t>
         </is>
       </c>
       <c r="B226" t="inlineStr">
@@ -3148,7 +3148,7 @@
     <row r="227">
       <c r="A227" t="inlineStr">
         <is>
-          <t>en:cones</t>
+          <t>cones</t>
         </is>
       </c>
       <c r="B227" t="inlineStr">
@@ -3160,7 +3160,7 @@
     <row r="228">
       <c r="A228" t="inlineStr">
         <is>
-          <t>en:disperse</t>
+          <t>disperse</t>
         </is>
       </c>
       <c r="B228" t="inlineStr">
@@ -3172,7 +3172,7 @@
     <row r="229">
       <c r="A229" t="inlineStr">
         <is>
-          <t>en:gnats</t>
+          <t>gnats</t>
         </is>
       </c>
       <c r="B229" t="inlineStr">
@@ -3184,7 +3184,7 @@
     <row r="230">
       <c r="A230" t="inlineStr">
         <is>
-          <t>en:reprovingly</t>
+          <t>reprovingly</t>
         </is>
       </c>
       <c r="B230" t="inlineStr">
@@ -3196,7 +3196,7 @@
     <row r="231">
       <c r="A231" t="inlineStr">
         <is>
-          <t>en:snivel</t>
+          <t>snivel</t>
         </is>
       </c>
       <c r="B231" t="inlineStr">
@@ -3208,7 +3208,7 @@
     <row r="232">
       <c r="A232" t="inlineStr">
         <is>
-          <t>en:coverlet</t>
+          <t>coverlet</t>
         </is>
       </c>
       <c r="B232" t="inlineStr">
@@ -3220,7 +3220,7 @@
     <row r="233">
       <c r="A233" t="inlineStr">
         <is>
-          <t>en:benignant</t>
+          <t>benignant</t>
         </is>
       </c>
       <c r="B233" t="inlineStr">
@@ -3232,7 +3232,7 @@
     <row r="234">
       <c r="A234" t="inlineStr">
         <is>
-          <t>en:solace</t>
+          <t>solace</t>
         </is>
       </c>
       <c r="B234" t="inlineStr">
@@ -3244,7 +3244,7 @@
     <row r="235">
       <c r="A235" t="inlineStr">
         <is>
-          <t>en:hose</t>
+          <t>hose</t>
         </is>
       </c>
       <c r="B235" t="inlineStr">
@@ -3256,7 +3256,7 @@
     <row r="236">
       <c r="A236" t="inlineStr">
         <is>
-          <t>en:pome</t>
+          <t>pome</t>
         </is>
       </c>
       <c r="B236" t="inlineStr">
@@ -3268,7 +3268,7 @@
     <row r="237">
       <c r="A237" t="inlineStr">
         <is>
-          <t>en:shorn</t>
+          <t>shorn</t>
         </is>
       </c>
       <c r="B237" t="inlineStr">
@@ -3280,7 +3280,7 @@
     <row r="238">
       <c r="A238" t="inlineStr">
         <is>
-          <t>en:camphor</t>
+          <t>camphor</t>
         </is>
       </c>
       <c r="B238" t="inlineStr">
@@ -3292,7 +3292,7 @@
     <row r="239">
       <c r="A239" t="inlineStr">
         <is>
-          <t>en:Scarlet fever</t>
+          <t>Scarlet fever</t>
         </is>
       </c>
       <c r="B239" t="inlineStr">
@@ -3304,7 +3304,7 @@
     <row r="240">
       <c r="A240" t="inlineStr">
         <is>
-          <t>en:belladonna</t>
+          <t>belladonna</t>
         </is>
       </c>
       <c r="B240" t="inlineStr">
@@ -3316,7 +3316,7 @@
     <row r="241">
       <c r="A241" t="inlineStr">
         <is>
-          <t>en:gallivanting</t>
+          <t>gallivanting</t>
         </is>
       </c>
       <c r="B241" t="inlineStr">
@@ -3328,7 +3328,7 @@
     <row r="242">
       <c r="A242" t="inlineStr">
         <is>
-          <t>en:trotting</t>
+          <t>trotting</t>
         </is>
       </c>
       <c r="B242" t="inlineStr">
@@ -3340,7 +3340,7 @@
     <row r="243">
       <c r="A243" t="inlineStr">
         <is>
-          <t>en:porcupine</t>
+          <t>porcupine</t>
         </is>
       </c>
       <c r="B243" t="inlineStr">
@@ -3352,7 +3352,7 @@
     <row r="244">
       <c r="A244" t="inlineStr">
         <is>
-          <t>en:reconciled</t>
+          <t>reconciled</t>
         </is>
       </c>
       <c r="B244" t="inlineStr">
@@ -3364,7 +3364,7 @@
     <row r="245">
       <c r="A245" t="inlineStr">
         <is>
-          <t>en:gadding</t>
+          <t>gadding</t>
         </is>
       </c>
       <c r="B245" t="inlineStr">
@@ -3376,7 +3376,7 @@
     <row r="246">
       <c r="A246" t="inlineStr">
         <is>
-          <t>en:cockles</t>
+          <t>cockles</t>
         </is>
       </c>
       <c r="B246" t="inlineStr">
@@ -3388,7 +3388,7 @@
     <row r="247">
       <c r="A247" t="inlineStr">
         <is>
-          <t>en:looking</t>
+          <t>looking</t>
         </is>
       </c>
       <c r="B247" t="inlineStr">
@@ -3400,7 +3400,7 @@
     <row r="248">
       <c r="A248" t="inlineStr">
         <is>
-          <t>en:fortnight</t>
+          <t>fortnight</t>
         </is>
       </c>
       <c r="B248" t="inlineStr">
@@ -3412,7 +3412,7 @@
     <row r="249">
       <c r="A249" t="inlineStr">
         <is>
-          <t>en:interferingest</t>
+          <t>interferingest</t>
         </is>
       </c>
       <c r="B249" t="inlineStr">
@@ -3424,7 +3424,7 @@
     <row r="250">
       <c r="A250" t="inlineStr">
         <is>
-          <t>en:chap</t>
+          <t>chap</t>
         </is>
       </c>
       <c r="B250" t="inlineStr">
@@ -3436,7 +3436,7 @@
     <row r="251">
       <c r="A251" t="inlineStr">
         <is>
-          <t>en:vigil</t>
+          <t>vigil</t>
         </is>
       </c>
       <c r="B251" t="inlineStr">
@@ -3448,7 +3448,7 @@
     <row r="252">
       <c r="A252" t="inlineStr">
         <is>
-          <t>en:unutterably</t>
+          <t>unutterably</t>
         </is>
       </c>
       <c r="B252" t="inlineStr">
@@ -3460,7 +3460,7 @@
     <row r="253">
       <c r="A253" t="inlineStr">
         <is>
-          <t>en:affable</t>
+          <t>affable</t>
         </is>
       </c>
       <c r="B253" t="inlineStr">
@@ -3472,7 +3472,7 @@
     <row r="254">
       <c r="A254" t="inlineStr">
         <is>
-          <t>en:incorrigible</t>
+          <t>incorrigible</t>
         </is>
       </c>
       <c r="B254" t="inlineStr">
@@ -3484,7 +3484,7 @@
     <row r="255">
       <c r="A255" t="inlineStr">
         <is>
-          <t>en:he</t>
+          <t>he</t>
         </is>
       </c>
       <c r="B255" t="inlineStr">
@@ -3496,7 +3496,7 @@
     <row r="256">
       <c r="A256" t="inlineStr">
         <is>
-          <t>en:retaliation</t>
+          <t>retaliation</t>
         </is>
       </c>
       <c r="B256" t="inlineStr">
@@ -3508,7 +3508,7 @@
     <row r="257">
       <c r="A257" t="inlineStr">
         <is>
-          <t>en:distributed</t>
+          <t>distributed</t>
         </is>
       </c>
       <c r="B257" t="inlineStr">
@@ -3520,7 +3520,7 @@
     <row r="258">
       <c r="A258" t="inlineStr">
         <is>
-          <t>en:scrape</t>
+          <t>scrape</t>
         </is>
       </c>
       <c r="B258" t="inlineStr">
@@ -3532,7 +3532,7 @@
     <row r="259">
       <c r="A259" t="inlineStr">
         <is>
-          <t>en:roguish</t>
+          <t>roguish</t>
         </is>
       </c>
       <c r="B259" t="inlineStr">
@@ -3544,7 +3544,7 @@
     <row r="260">
       <c r="A260" t="inlineStr">
         <is>
-          <t>en:sentinel</t>
+          <t>sentinel</t>
         </is>
       </c>
       <c r="B260" t="inlineStr">
@@ -3556,7 +3556,7 @@
     <row r="261">
       <c r="A261" t="inlineStr">
         <is>
-          <t>en:abase</t>
+          <t>abase</t>
         </is>
       </c>
       <c r="B261" t="inlineStr">
@@ -3568,7 +3568,7 @@
     <row r="262">
       <c r="A262" t="inlineStr">
         <is>
-          <t>en:damsel</t>
+          <t>damsel</t>
         </is>
       </c>
       <c r="B262" t="inlineStr">
@@ -3580,7 +3580,7 @@
     <row r="263">
       <c r="A263" t="inlineStr">
         <is>
-          <t>en:relenting</t>
+          <t>relenting</t>
         </is>
       </c>
       <c r="B263" t="inlineStr">
@@ -3592,7 +3592,7 @@
     <row r="264">
       <c r="A264" t="inlineStr">
         <is>
-          <t>en:contrite</t>
+          <t>contrite</t>
         </is>
       </c>
       <c r="B264" t="inlineStr">
@@ -3604,7 +3604,7 @@
     <row r="265">
       <c r="A265" t="inlineStr">
         <is>
-          <t>en:collared</t>
+          <t>collared</t>
         </is>
       </c>
       <c r="B265" t="inlineStr">
@@ -3616,7 +3616,7 @@
     <row r="266">
       <c r="A266" t="inlineStr">
         <is>
-          <t>en:pummelled</t>
+          <t>pummelled</t>
         </is>
       </c>
       <c r="B266" t="inlineStr">
@@ -3628,7 +3628,7 @@
     <row r="267">
       <c r="A267" t="inlineStr">
         <is>
-          <t>en:propitiate</t>
+          <t>propitiate</t>
         </is>
       </c>
       <c r="B267" t="inlineStr">
@@ -3640,7 +3640,7 @@
     <row r="268">
       <c r="A268" t="inlineStr">
         <is>
-          <t>en:placid</t>
+          <t>placid</t>
         </is>
       </c>
       <c r="B268" t="inlineStr">
@@ -3652,7 +3652,7 @@
     <row r="269">
       <c r="A269" t="inlineStr">
         <is>
-          <t>en:hussy</t>
+          <t>hussy</t>
         </is>
       </c>
       <c r="B269" t="inlineStr">
@@ -3664,7 +3664,7 @@
     <row r="270">
       <c r="A270" t="inlineStr">
         <is>
-          <t>en:deuce</t>
+          <t>deuce</t>
         </is>
       </c>
       <c r="B270" t="inlineStr">
@@ -3676,7 +3676,7 @@
     <row r="271">
       <c r="A271" t="inlineStr">
         <is>
-          <t>en:dolefully</t>
+          <t>dolefully</t>
         </is>
       </c>
       <c r="B271" t="inlineStr">
@@ -3688,7 +3688,7 @@
     <row r="272">
       <c r="A272" t="inlineStr">
         <is>
-          <t>en:alluded</t>
+          <t>alluded</t>
         </is>
       </c>
       <c r="B272" t="inlineStr">
@@ -3700,7 +3700,7 @@
     <row r="273">
       <c r="A273" t="inlineStr">
         <is>
-          <t>en:hastened</t>
+          <t>hastened</t>
         </is>
       </c>
       <c r="B273" t="inlineStr">
@@ -3712,7 +3712,7 @@
     <row r="274">
       <c r="A274" t="inlineStr">
         <is>
-          <t>en:somersault</t>
+          <t>somersault</t>
         </is>
       </c>
       <c r="B274" t="inlineStr">
@@ -3724,7 +3724,7 @@
     <row r="275">
       <c r="A275" t="inlineStr">
         <is>
-          <t>en:shearing</t>
+          <t>shearing</t>
         </is>
       </c>
       <c r="B275" t="inlineStr">
@@ -3736,7 +3736,7 @@
     <row r="276">
       <c r="A276" t="inlineStr">
         <is>
-          <t>en:make</t>
+          <t>make</t>
         </is>
       </c>
       <c r="B276" t="inlineStr">
@@ -3748,7 +3748,7 @@
     <row r="277">
       <c r="A277" t="inlineStr">
         <is>
-          <t>en:pettishly</t>
+          <t>pettishly</t>
         </is>
       </c>
       <c r="B277" t="inlineStr">
@@ -3760,7 +3760,7 @@
     <row r="278">
       <c r="A278" t="inlineStr">
         <is>
-          <t>en:hobbling</t>
+          <t>hobbling</t>
         </is>
       </c>
       <c r="B278" t="inlineStr">
@@ -3772,7 +3772,7 @@
     <row r="279">
       <c r="A279" t="inlineStr">
         <is>
-          <t>en:folly</t>
+          <t>folly</t>
         </is>
       </c>
       <c r="B279" t="inlineStr">
@@ -3784,7 +3784,7 @@
     <row r="280">
       <c r="A280" t="inlineStr">
         <is>
-          <t>en:threshold</t>
+          <t>threshold</t>
         </is>
       </c>
       <c r="B280" t="inlineStr">
@@ -3796,7 +3796,7 @@
     <row r="281">
       <c r="A281" t="inlineStr">
         <is>
-          <t>en:aforesaid</t>
+          <t>aforesaid</t>
         </is>
       </c>
       <c r="B281" t="inlineStr">
@@ -3808,7 +3808,7 @@
     <row r="282">
       <c r="A282" t="inlineStr">
         <is>
-          <t>en:abject</t>
+          <t>abject</t>
         </is>
       </c>
       <c r="B282" t="inlineStr">
@@ -3820,7 +3820,7 @@
     <row r="283">
       <c r="A283" t="inlineStr">
         <is>
-          <t>en:halves</t>
+          <t>halves</t>
         </is>
       </c>
       <c r="B283" t="inlineStr">
@@ -3832,7 +3832,7 @@
     <row r="284">
       <c r="A284" t="inlineStr">
         <is>
-          <t>en:perilously</t>
+          <t>perilously</t>
         </is>
       </c>
       <c r="B284" t="inlineStr">
@@ -3844,7 +3844,7 @@
     <row r="285">
       <c r="A285" t="inlineStr">
         <is>
-          <t>en:infallible</t>
+          <t>infallible</t>
         </is>
       </c>
       <c r="B285" t="inlineStr">
@@ -3856,7 +3856,7 @@
     <row r="286">
       <c r="A286" t="inlineStr">
         <is>
-          <t>en:tranquilly</t>
+          <t>tranquilly</t>
         </is>
       </c>
       <c r="B286" t="inlineStr">
@@ -3868,7 +3868,7 @@
     <row r="287">
       <c r="A287" t="inlineStr">
         <is>
-          <t>en:pinafore</t>
+          <t>pinafore</t>
         </is>
       </c>
       <c r="B287" t="inlineStr">
@@ -3880,7 +3880,7 @@
     <row r="288">
       <c r="A288" t="inlineStr">
         <is>
-          <t>en:appeased</t>
+          <t>appeased</t>
         </is>
       </c>
       <c r="B288" t="inlineStr">
@@ -3892,7 +3892,7 @@
     <row r="289">
       <c r="A289" t="inlineStr">
         <is>
-          <t>en:rattle</t>
+          <t>rattle</t>
         </is>
       </c>
       <c r="B289" t="inlineStr">
@@ -3904,7 +3904,7 @@
     <row r="290">
       <c r="A290" t="inlineStr">
         <is>
-          <t>en:molehill</t>
+          <t>molehill</t>
         </is>
       </c>
       <c r="B290" t="inlineStr">
@@ -3916,7 +3916,7 @@
     <row r="291">
       <c r="A291" t="inlineStr">
         <is>
-          <t>en:expatiating</t>
+          <t>expatiating</t>
         </is>
       </c>
       <c r="B291" t="inlineStr">
@@ -3928,7 +3928,7 @@
     <row r="292">
       <c r="A292" t="inlineStr">
         <is>
-          <t>en:impetuous</t>
+          <t>impetuous</t>
         </is>
       </c>
       <c r="B292" t="inlineStr">
@@ -3940,7 +3940,7 @@
     <row r="293">
       <c r="A293" t="inlineStr">
         <is>
-          <t>en:spinsters</t>
+          <t>spinsters</t>
         </is>
       </c>
       <c r="B293" t="inlineStr">
@@ -3952,7 +3952,7 @@
     <row r="294">
       <c r="A294" t="inlineStr">
         <is>
-          <t>en:prance</t>
+          <t>prance</t>
         </is>
       </c>
       <c r="B294" t="inlineStr">
@@ -3964,7 +3964,7 @@
     <row r="295">
       <c r="A295" t="inlineStr">
         <is>
-          <t>en:ardor</t>
+          <t>ardor</t>
         </is>
       </c>
       <c r="B295" t="inlineStr">
@@ -3976,7 +3976,7 @@
     <row r="296">
       <c r="A296" t="inlineStr">
         <is>
-          <t>en:Swarthy</t>
+          <t>Swarthy</t>
         </is>
       </c>
       <c r="B296" t="inlineStr">
@@ -3988,7 +3988,7 @@
     <row r="297">
       <c r="A297" t="inlineStr">
         <is>
-          <t>en:excavated</t>
+          <t>excavated</t>
         </is>
       </c>
       <c r="B297" t="inlineStr">
@@ -4000,7 +4000,7 @@
     <row r="298">
       <c r="A298" t="inlineStr">
         <is>
-          <t>en:feasible</t>
+          <t>feasible</t>
         </is>
       </c>
       <c r="B298" t="inlineStr">
@@ -4012,7 +4012,7 @@
     <row r="299">
       <c r="A299" t="inlineStr">
         <is>
-          <t>en:senna</t>
+          <t>senna</t>
         </is>
       </c>
       <c r="B299" t="inlineStr">
@@ -4024,7 +4024,7 @@
     <row r="300">
       <c r="A300" t="inlineStr">
         <is>
-          <t>en:whetted</t>
+          <t>whetted</t>
         </is>
       </c>
       <c r="B300" t="inlineStr">
@@ -4036,7 +4036,7 @@
     <row r="301">
       <c r="A301" t="inlineStr">
         <is>
-          <t>en:genteel</t>
+          <t>genteel</t>
         </is>
       </c>
       <c r="B301" t="inlineStr">
@@ -4048,7 +4048,7 @@
     <row r="302">
       <c r="A302" t="inlineStr">
         <is>
-          <t>en:beguiled</t>
+          <t>beguiled</t>
         </is>
       </c>
       <c r="B302" t="inlineStr">
@@ -4060,7 +4060,7 @@
     <row r="303">
       <c r="A303" t="inlineStr">
         <is>
-          <t>en:suavity</t>
+          <t>suavity</t>
         </is>
       </c>
       <c r="B303" t="inlineStr">
@@ -4072,7 +4072,7 @@
     <row r="304">
       <c r="A304" t="inlineStr">
         <is>
-          <t>en:foibles</t>
+          <t>foibles</t>
         </is>
       </c>
       <c r="B304" t="inlineStr">
@@ -4084,7 +4084,7 @@
     <row r="305">
       <c r="A305" t="inlineStr">
         <is>
-          <t>en:efface</t>
+          <t>efface</t>
         </is>
       </c>
       <c r="B305" t="inlineStr">
@@ -4096,7 +4096,7 @@
     <row r="306">
       <c r="A306" t="inlineStr">
         <is>
-          <t>en:vestige</t>
+          <t>vestige</t>
         </is>
       </c>
       <c r="B306" t="inlineStr">
@@ -4108,7 +4108,7 @@
     <row r="307">
       <c r="A307" t="inlineStr">
         <is>
-          <t>en:surfeit</t>
+          <t>surfeit</t>
         </is>
       </c>
       <c r="B307" t="inlineStr">
@@ -4120,7 +4120,7 @@
     <row r="308">
       <c r="A308" t="inlineStr">
         <is>
-          <t>en:messes</t>
+          <t>messes</t>
         </is>
       </c>
       <c r="B308" t="inlineStr">
@@ -4132,7 +4132,7 @@
     <row r="309">
       <c r="A309" t="inlineStr">
         <is>
-          <t>en:rakishly</t>
+          <t>rakishly</t>
         </is>
       </c>
       <c r="B309" t="inlineStr">
@@ -4144,7 +4144,7 @@
     <row r="310">
       <c r="A310" t="inlineStr">
         <is>
-          <t>en:askew</t>
+          <t>askew</t>
         </is>
       </c>
       <c r="B310" t="inlineStr">
@@ -4156,7 +4156,7 @@
     <row r="311">
       <c r="A311" t="inlineStr">
         <is>
-          <t>en:as</t>
+          <t>as</t>
         </is>
       </c>
       <c r="B311" t="inlineStr">
@@ -4168,7 +4168,7 @@
     <row r="312">
       <c r="A312" t="inlineStr">
         <is>
-          <t>en:forsook</t>
+          <t>forsook</t>
         </is>
       </c>
       <c r="B312" t="inlineStr">
@@ -4180,7 +4180,7 @@
     <row r="313">
       <c r="A313" t="inlineStr">
         <is>
-          <t>en:living</t>
+          <t>living</t>
         </is>
       </c>
       <c r="B313" t="inlineStr">
@@ -4192,7 +4192,7 @@
     <row r="314">
       <c r="A314" t="inlineStr">
         <is>
-          <t>en:afflatus</t>
+          <t>afflatus</t>
         </is>
       </c>
       <c r="B314" t="inlineStr">
@@ -4204,7 +4204,7 @@
     <row r="315">
       <c r="A315" t="inlineStr">
         <is>
-          <t>en:emerged</t>
+          <t>emerged</t>
         </is>
       </c>
       <c r="B315" t="inlineStr">
@@ -4216,7 +4216,7 @@
     <row r="316">
       <c r="A316" t="inlineStr">
         <is>
-          <t>en:despondent</t>
+          <t>despondent</t>
         </is>
       </c>
       <c r="B316" t="inlineStr">
@@ -4228,7 +4228,7 @@
     <row r="317">
       <c r="A317" t="inlineStr">
         <is>
-          <t>en:artlessly</t>
+          <t>artlessly</t>
         </is>
       </c>
       <c r="B317" t="inlineStr">
@@ -4240,7 +4240,7 @@
     <row r="318">
       <c r="A318" t="inlineStr">
         <is>
-          <t>en:spinster</t>
+          <t>spinster</t>
         </is>
       </c>
       <c r="B318" t="inlineStr">
@@ -4252,7 +4252,7 @@
     <row r="319">
       <c r="A319" t="inlineStr">
         <is>
-          <t>en:concatenation</t>
+          <t>concatenation</t>
         </is>
       </c>
       <c r="B319" t="inlineStr">
@@ -4264,7 +4264,7 @@
     <row r="320">
       <c r="A320" t="inlineStr">
         <is>
-          <t>en:disquiet</t>
+          <t>disquiet</t>
         </is>
       </c>
       <c r="B320" t="inlineStr">
@@ -4276,7 +4276,7 @@
     <row r="321">
       <c r="A321" t="inlineStr">
         <is>
-          <t>en:denouement</t>
+          <t>denouement</t>
         </is>
       </c>
       <c r="B321" t="inlineStr">
@@ -4288,7 +4288,7 @@
     <row r="322">
       <c r="A322" t="inlineStr">
         <is>
-          <t>en:candor</t>
+          <t>candor</t>
         </is>
       </c>
       <c r="B322" t="inlineStr">
@@ -4300,7 +4300,7 @@
     <row r="323">
       <c r="A323" t="inlineStr">
         <is>
-          <t>en:coquettish</t>
+          <t>coquettish</t>
         </is>
       </c>
       <c r="B323" t="inlineStr">
@@ -4312,7 +4312,7 @@
     <row r="324">
       <c r="A324" t="inlineStr">
         <is>
-          <t>en:bedaubed</t>
+          <t>bedaubed</t>
         </is>
       </c>
       <c r="B324" t="inlineStr">
@@ -4324,7 +4324,7 @@
     <row r="325">
       <c r="A325" t="inlineStr">
         <is>
-          <t>en:derisive</t>
+          <t>derisive</t>
         </is>
       </c>
       <c r="B325" t="inlineStr">
@@ -4336,7 +4336,7 @@
     <row r="326">
       <c r="A326" t="inlineStr">
         <is>
-          <t>en:conducive</t>
+          <t>conducive</t>
         </is>
       </c>
       <c r="B326" t="inlineStr">
@@ -4348,7 +4348,7 @@
     <row r="327">
       <c r="A327" t="inlineStr">
         <is>
-          <t>en:assuage</t>
+          <t>assuage</t>
         </is>
       </c>
       <c r="B327" t="inlineStr">
@@ -4360,7 +4360,7 @@
     <row r="328">
       <c r="A328" t="inlineStr">
         <is>
-          <t>en:pangs</t>
+          <t>pangs</t>
         </is>
       </c>
       <c r="B328" t="inlineStr">
@@ -4372,7 +4372,7 @@
     <row r="329">
       <c r="A329" t="inlineStr">
         <is>
-          <t>en:stern</t>
+          <t>stern</t>
         </is>
       </c>
       <c r="B329" t="inlineStr">
@@ -4384,7 +4384,7 @@
     <row r="330">
       <c r="A330" t="inlineStr">
         <is>
-          <t>en:furbelows</t>
+          <t>furbelows</t>
         </is>
       </c>
       <c r="B330" t="inlineStr">
@@ -4396,7 +4396,7 @@
     <row r="331">
       <c r="A331" t="inlineStr">
         <is>
-          <t>en:shirking</t>
+          <t>shirking</t>
         </is>
       </c>
       <c r="B331" t="inlineStr">
@@ -4408,7 +4408,7 @@
     <row r="332">
       <c r="A332" t="inlineStr">
         <is>
-          <t>en:mantua</t>
+          <t>mantua</t>
         </is>
       </c>
       <c r="B332" t="inlineStr">
@@ -4420,7 +4420,7 @@
     <row r="333">
       <c r="A333" t="inlineStr">
         <is>
-          <t>en:sober</t>
+          <t>sober</t>
         </is>
       </c>
       <c r="B333" t="inlineStr">
@@ -4432,7 +4432,7 @@
     <row r="334">
       <c r="A334" t="inlineStr">
         <is>
-          <t>en:organdie</t>
+          <t>organdie</t>
         </is>
       </c>
       <c r="B334" t="inlineStr">
@@ -4444,7 +4444,7 @@
     <row r="335">
       <c r="A335" t="inlineStr">
         <is>
-          <t>en:wear</t>
+          <t>wear</t>
         </is>
       </c>
       <c r="B335" t="inlineStr">
@@ -4456,7 +4456,7 @@
     <row r="336">
       <c r="A336" t="inlineStr">
         <is>
-          <t>en:I'm</t>
+          <t>I'm</t>
         </is>
       </c>
       <c r="B336" t="inlineStr">
@@ -4468,7 +4468,7 @@
     <row r="337">
       <c r="A337" t="inlineStr">
         <is>
-          <t>en:There</t>
+          <t>There</t>
         </is>
       </c>
       <c r="B337" t="inlineStr">
@@ -4480,7 +4480,7 @@
     <row r="338">
       <c r="A338" t="inlineStr">
         <is>
-          <t>en:shawl</t>
+          <t>shawl</t>
         </is>
       </c>
       <c r="B338" t="inlineStr">
@@ -4492,7 +4492,7 @@
     <row r="339">
       <c r="A339" t="inlineStr">
         <is>
-          <t>en:draped</t>
+          <t>draped</t>
         </is>
       </c>
       <c r="B339" t="inlineStr">
@@ -4504,7 +4504,7 @@
     <row r="340">
       <c r="A340" t="inlineStr">
         <is>
-          <t>en:haughty</t>
+          <t>haughty</t>
         </is>
       </c>
       <c r="B340" t="inlineStr">
@@ -4516,7 +4516,7 @@
     <row r="341">
       <c r="A341" t="inlineStr">
         <is>
-          <t>en:plucky</t>
+          <t>plucky</t>
         </is>
       </c>
       <c r="B341" t="inlineStr">
@@ -4528,7 +4528,7 @@
     <row r="342">
       <c r="A342" t="inlineStr">
         <is>
-          <t>en:encampment</t>
+          <t>encampment</t>
         </is>
       </c>
       <c r="B342" t="inlineStr">
@@ -4540,7 +4540,7 @@
     <row r="343">
       <c r="A343" t="inlineStr">
         <is>
-          <t>en:bespattered</t>
+          <t>bespattered</t>
         </is>
       </c>
       <c r="B343" t="inlineStr">
@@ -4552,7 +4552,7 @@
     <row r="344">
       <c r="A344" t="inlineStr">
         <is>
-          <t>en:mollified</t>
+          <t>mollified</t>
         </is>
       </c>
       <c r="B344" t="inlineStr">
@@ -4564,7 +4564,7 @@
     <row r="345">
       <c r="A345" t="inlineStr">
         <is>
-          <t>en:puritanical</t>
+          <t>puritanical</t>
         </is>
       </c>
       <c r="B345" t="inlineStr">
@@ -4576,7 +4576,7 @@
     <row r="346">
       <c r="A346" t="inlineStr">
         <is>
-          <t>en:confiding</t>
+          <t>confiding</t>
         </is>
       </c>
       <c r="B346" t="inlineStr">
@@ -4588,7 +4588,7 @@
     <row r="347">
       <c r="A347" t="inlineStr">
         <is>
-          <t>en:morose</t>
+          <t>morose</t>
         </is>
       </c>
       <c r="B347" t="inlineStr">
@@ -4600,7 +4600,7 @@
     <row r="348">
       <c r="A348" t="inlineStr">
         <is>
-          <t>en:affably</t>
+          <t>affably</t>
         </is>
       </c>
       <c r="B348" t="inlineStr">
@@ -4612,7 +4612,7 @@
     <row r="349">
       <c r="A349" t="inlineStr">
         <is>
-          <t>en:adhered</t>
+          <t>adhered</t>
         </is>
       </c>
       <c r="B349" t="inlineStr">
@@ -4624,7 +4624,7 @@
     <row r="350">
       <c r="A350" t="inlineStr">
         <is>
-          <t>en:vellum</t>
+          <t>vellum</t>
         </is>
       </c>
       <c r="B350" t="inlineStr">
@@ -4636,7 +4636,7 @@
     <row r="351">
       <c r="A351" t="inlineStr">
         <is>
-          <t>en:martyrdom</t>
+          <t>martyrdom</t>
         </is>
       </c>
       <c r="B351" t="inlineStr">
@@ -4648,7 +4648,7 @@
     <row r="352">
       <c r="A352" t="inlineStr">
         <is>
-          <t>en:espousing</t>
+          <t>espousing</t>
         </is>
       </c>
       <c r="B352" t="inlineStr">
@@ -4660,7 +4660,7 @@
     <row r="353">
       <c r="A353" t="inlineStr">
         <is>
-          <t>en:exonerate</t>
+          <t>exonerate</t>
         </is>
       </c>
       <c r="B353" t="inlineStr">
@@ -4672,7 +4672,7 @@
     <row r="354">
       <c r="A354" t="inlineStr">
         <is>
-          <t>en:magnanimity</t>
+          <t>magnanimity</t>
         </is>
       </c>
       <c r="B354" t="inlineStr">
@@ -4684,7 +4684,7 @@
     <row r="355">
       <c r="A355" t="inlineStr">
         <is>
-          <t>en:phalanx</t>
+          <t>phalanx</t>
         </is>
       </c>
       <c r="B355" t="inlineStr">
@@ -4696,7 +4696,7 @@
     <row r="356">
       <c r="A356" t="inlineStr">
         <is>
-          <t>en:gangway</t>
+          <t>gangway</t>
         </is>
       </c>
       <c r="B356" t="inlineStr">
@@ -4708,7 +4708,7 @@
     <row r="357">
       <c r="A357" t="inlineStr">
         <is>
-          <t>en:Irish</t>
+          <t>Irish</t>
         </is>
       </c>
       <c r="B357" t="inlineStr">
@@ -4720,7 +4720,7 @@
     <row r="358">
       <c r="A358" t="inlineStr">
         <is>
-          <t>en:hens</t>
+          <t>hens</t>
         </is>
       </c>
       <c r="B358" t="inlineStr">
@@ -4732,7 +4732,7 @@
     <row r="359">
       <c r="A359" t="inlineStr">
         <is>
-          <t>en:dissipated</t>
+          <t>dissipated</t>
         </is>
       </c>
       <c r="B359" t="inlineStr">
@@ -4744,7 +4744,7 @@
     <row r="360">
       <c r="A360" t="inlineStr">
         <is>
-          <t>en:disquietude</t>
+          <t>disquietude</t>
         </is>
       </c>
       <c r="B360" t="inlineStr">
@@ -4756,7 +4756,7 @@
     <row r="361">
       <c r="A361" t="inlineStr">
         <is>
-          <t>en:feeble</t>
+          <t>feeble</t>
         </is>
       </c>
       <c r="B361" t="inlineStr">
@@ -4768,7 +4768,7 @@
     <row r="362">
       <c r="A362" t="inlineStr">
         <is>
-          <t>en:ardent</t>
+          <t>ardent</t>
         </is>
       </c>
       <c r="B362" t="inlineStr">
@@ -4780,7 +4780,7 @@
     <row r="363">
       <c r="A363" t="inlineStr">
         <is>
-          <t>en:chivalrous</t>
+          <t>chivalrous</t>
         </is>
       </c>
       <c r="B363" t="inlineStr">
@@ -4792,7 +4792,7 @@
     <row r="364">
       <c r="A364" t="inlineStr">
         <is>
-          <t>en:acquiesced</t>
+          <t>acquiesced</t>
         </is>
       </c>
       <c r="B364" t="inlineStr">
@@ -4804,7 +4804,7 @@
     <row r="365">
       <c r="A365" t="inlineStr">
         <is>
-          <t>en:effervescence</t>
+          <t>effervescence</t>
         </is>
       </c>
       <c r="B365" t="inlineStr">
@@ -4816,7 +4816,7 @@
     <row r="366">
       <c r="A366" t="inlineStr">
         <is>
-          <t>en:meerschaum</t>
+          <t>meerschaum</t>
         </is>
       </c>
       <c r="B366" t="inlineStr">
@@ -4828,7 +4828,7 @@
     <row r="367">
       <c r="A367" t="inlineStr">
         <is>
-          <t>en:mantlepiece</t>
+          <t>mantlepiece</t>
         </is>
       </c>
       <c r="B367" t="inlineStr">
@@ -4840,7 +4840,7 @@
     <row r="368">
       <c r="A368" t="inlineStr">
         <is>
-          <t>en:omitting</t>
+          <t>omitting</t>
         </is>
       </c>
       <c r="B368" t="inlineStr">
@@ -4852,7 +4852,7 @@
     <row r="369">
       <c r="A369" t="inlineStr">
         <is>
-          <t>en:nom de plume</t>
+          <t>nom de plume</t>
         </is>
       </c>
       <c r="B369" t="inlineStr">
@@ -4864,7 +4864,7 @@
     <row r="370">
       <c r="A370" t="inlineStr">
         <is>
-          <t>en:ransacked</t>
+          <t>ransacked</t>
         </is>
       </c>
       <c r="B370" t="inlineStr">
@@ -4876,7 +4876,7 @@
     <row r="371">
       <c r="A371" t="inlineStr">
         <is>
-          <t>en:benevolence</t>
+          <t>benevolence</t>
         </is>
       </c>
       <c r="B371" t="inlineStr">
@@ -4888,7 +4888,7 @@
     <row r="372">
       <c r="A372" t="inlineStr">
         <is>
-          <t>en:loquacity</t>
+          <t>loquacity</t>
         </is>
       </c>
       <c r="B372" t="inlineStr">
@@ -4900,7 +4900,7 @@
     <row r="373">
       <c r="A373" t="inlineStr">
         <is>
-          <t>en:mollusks</t>
+          <t>mollusks</t>
         </is>
       </c>
       <c r="B373" t="inlineStr">
@@ -4912,7 +4912,7 @@
     <row r="374">
       <c r="A374" t="inlineStr">
         <is>
-          <t>en:viper</t>
+          <t>viper</t>
         </is>
       </c>
       <c r="B374" t="inlineStr">
@@ -4924,7 +4924,7 @@
     <row r="375">
       <c r="A375" t="inlineStr">
         <is>
-          <t>en:cumbrous</t>
+          <t>cumbrous</t>
         </is>
       </c>
       <c r="B375" t="inlineStr">
@@ -4936,7 +4936,7 @@
     <row r="376">
       <c r="A376" t="inlineStr">
         <is>
-          <t>en:commencement</t>
+          <t>commencement</t>
         </is>
       </c>
       <c r="B376" t="inlineStr">
@@ -4948,7 +4948,7 @@
     <row r="377">
       <c r="A377" t="inlineStr">
         <is>
-          <t>en:stalwart</t>
+          <t>stalwart</t>
         </is>
       </c>
       <c r="B377" t="inlineStr">
@@ -4960,7 +4960,7 @@
     <row r="378">
       <c r="A378" t="inlineStr">
         <is>
-          <t>en:salutation</t>
+          <t>salutation</t>
         </is>
       </c>
       <c r="B378" t="inlineStr">
@@ -4972,7 +4972,7 @@
     <row r="379">
       <c r="A379" t="inlineStr">
         <is>
-          <t>en:inelegantly</t>
+          <t>inelegantly</t>
         </is>
       </c>
       <c r="B379" t="inlineStr">
@@ -4984,7 +4984,7 @@
     <row r="380">
       <c r="A380" t="inlineStr">
         <is>
-          <t>en:unalterable</t>
+          <t>unalterable</t>
         </is>
       </c>
       <c r="B380" t="inlineStr">
@@ -4996,7 +4996,7 @@
     <row r="381">
       <c r="A381" t="inlineStr">
         <is>
-          <t>en:peeps</t>
+          <t>peeps</t>
         </is>
       </c>
       <c r="B381" t="inlineStr">
@@ -5008,7 +5008,7 @@
     <row r="382">
       <c r="A382" t="inlineStr">
         <is>
-          <t>en:aplomb</t>
+          <t>aplomb</t>
         </is>
       </c>
       <c r="B382" t="inlineStr">
@@ -5020,7 +5020,7 @@
     <row r="383">
       <c r="A383" t="inlineStr">
         <is>
-          <t>en:piquante</t>
+          <t>piquante</t>
         </is>
       </c>
       <c r="B383" t="inlineStr">
@@ -5032,7 +5032,7 @@
     <row r="384">
       <c r="A384" t="inlineStr">
         <is>
-          <t>en:abdicate</t>
+          <t>abdicate</t>
         </is>
       </c>
       <c r="B384" t="inlineStr">
@@ -5044,7 +5044,7 @@
     <row r="385">
       <c r="A385" t="inlineStr">
         <is>
-          <t>en:bereft</t>
+          <t>bereft</t>
         </is>
       </c>
       <c r="B385" t="inlineStr">
@@ -5056,7 +5056,7 @@
     <row r="386">
       <c r="A386" t="inlineStr">
         <is>
-          <t>en:wean</t>
+          <t>wean</t>
         </is>
       </c>
       <c r="B386" t="inlineStr">
@@ -5068,7 +5068,7 @@
     <row r="387">
       <c r="A387" t="inlineStr">
         <is>
-          <t>en:obstreperous</t>
+          <t>obstreperous</t>
         </is>
       </c>
       <c r="B387" t="inlineStr">
@@ -5080,7 +5080,7 @@
     <row r="388">
       <c r="A388" t="inlineStr">
         <is>
-          <t>en:unconquerable</t>
+          <t>unconquerable</t>
         </is>
       </c>
       <c r="B388" t="inlineStr">
@@ -5092,7 +5092,7 @@
     <row r="389">
       <c r="A389" t="inlineStr">
         <is>
-          <t>en:perjured</t>
+          <t>perjured</t>
         </is>
       </c>
       <c r="B389" t="inlineStr">
@@ -5104,7 +5104,7 @@
     <row r="390">
       <c r="A390" t="inlineStr">
         <is>
-          <t>en:ignominiously</t>
+          <t>ignominiously</t>
         </is>
       </c>
       <c r="B390" t="inlineStr">
@@ -5116,7 +5116,7 @@
     <row r="391">
       <c r="A391" t="inlineStr">
         <is>
-          <t>en:harangue</t>
+          <t>harangue</t>
         </is>
       </c>
       <c r="B391" t="inlineStr">
@@ -5128,7 +5128,7 @@
     <row r="392">
       <c r="A392" t="inlineStr">
         <is>
-          <t>en:millinery</t>
+          <t>millinery</t>
         </is>
       </c>
       <c r="B392" t="inlineStr">
@@ -5140,7 +5140,7 @@
     <row r="393">
       <c r="A393" t="inlineStr">
         <is>
-          <t>en:distaff</t>
+          <t>distaff</t>
         </is>
       </c>
       <c r="B393" t="inlineStr">
@@ -5152,7 +5152,7 @@
     <row r="394">
       <c r="A394" t="inlineStr">
         <is>
-          <t>en:effigy</t>
+          <t>effigy</t>
         </is>
       </c>
       <c r="B394" t="inlineStr">
@@ -5164,7 +5164,7 @@
     <row r="395">
       <c r="A395" t="inlineStr">
         <is>
-          <t>en:tomb</t>
+          <t>tomb</t>
         </is>
       </c>
       <c r="B395" t="inlineStr">
@@ -5176,7 +5176,7 @@
     <row r="396">
       <c r="A396" t="inlineStr">
         <is>
-          <t>en:roving</t>
+          <t>roving</t>
         </is>
       </c>
       <c r="B396" t="inlineStr">
@@ -5188,7 +5188,7 @@
     <row r="397">
       <c r="A397" t="inlineStr">
         <is>
-          <t>en:dauber</t>
+          <t>dauber</t>
         </is>
       </c>
       <c r="B397" t="inlineStr">
@@ -5200,7 +5200,7 @@
     <row r="398">
       <c r="A398" t="inlineStr">
         <is>
-          <t>en:gridiron</t>
+          <t>gridiron</t>
         </is>
       </c>
       <c r="B398" t="inlineStr">
@@ -5212,7 +5212,7 @@
     <row r="399">
       <c r="A399" t="inlineStr">
         <is>
-          <t>en:concocting</t>
+          <t>concocting</t>
         </is>
       </c>
       <c r="B399" t="inlineStr">
@@ -5224,7 +5224,7 @@
     <row r="400">
       <c r="A400" t="inlineStr">
         <is>
-          <t>en:beguile</t>
+          <t>beguile</t>
         </is>
       </c>
       <c r="B400" t="inlineStr">
@@ -5236,7 +5236,7 @@
     <row r="401">
       <c r="A401" t="inlineStr">
         <is>
-          <t>en:charred</t>
+          <t>charred</t>
         </is>
       </c>
       <c r="B401" t="inlineStr">
@@ -5248,7 +5248,7 @@
     <row r="402">
       <c r="A402" t="inlineStr">
         <is>
-          <t>en:bough</t>
+          <t>bough</t>
         </is>
       </c>
       <c r="B402" t="inlineStr">
@@ -5260,7 +5260,7 @@
     <row r="403">
       <c r="A403" t="inlineStr">
         <is>
-          <t>en:desultory</t>
+          <t>desultory</t>
         </is>
       </c>
       <c r="B403" t="inlineStr">
@@ -5272,7 +5272,7 @@
     <row r="404">
       <c r="A404" t="inlineStr">
         <is>
-          <t>en:humbug</t>
+          <t>humbug</t>
         </is>
       </c>
       <c r="B404" t="inlineStr">
@@ -5284,7 +5284,7 @@
     <row r="405">
       <c r="A405" t="inlineStr">
         <is>
-          <t>en:fickleness</t>
+          <t>fickleness</t>
         </is>
       </c>
       <c r="B405" t="inlineStr">
@@ -5296,7 +5296,7 @@
     <row r="406">
       <c r="A406" t="inlineStr">
         <is>
-          <t>en:drew</t>
+          <t>drew</t>
         </is>
       </c>
       <c r="B406" t="inlineStr">
@@ -5308,7 +5308,7 @@
     <row r="407">
       <c r="A407" t="inlineStr">
         <is>
-          <t>en:pertinaciously</t>
+          <t>pertinaciously</t>
         </is>
       </c>
       <c r="B407" t="inlineStr">
@@ -5320,7 +5320,7 @@
     <row r="408">
       <c r="A408" t="inlineStr">
         <is>
-          <t>en:feet</t>
+          <t>feet</t>
         </is>
       </c>
       <c r="B408" t="inlineStr">
@@ -5332,7 +5332,7 @@
     <row r="409">
       <c r="A409" t="inlineStr">
         <is>
-          <t>en:luxuriously</t>
+          <t>luxuriously</t>
         </is>
       </c>
       <c r="B409" t="inlineStr">
@@ -5344,7 +5344,7 @@
     <row r="410">
       <c r="A410" t="inlineStr">
         <is>
-          <t>en:invigorating</t>
+          <t>invigorating</t>
         </is>
       </c>
       <c r="B410" t="inlineStr">
@@ -5356,7 +5356,7 @@
     <row r="411">
       <c r="A411" t="inlineStr">
         <is>
-          <t>en:abnegation</t>
+          <t>abnegation</t>
         </is>
       </c>
       <c r="B411" t="inlineStr">
@@ -5368,7 +5368,7 @@
     <row r="412">
       <c r="A412" t="inlineStr">
         <is>
-          <t>en:humdrum</t>
+          <t>humdrum</t>
         </is>
       </c>
       <c r="B412" t="inlineStr">
@@ -5380,7 +5380,7 @@
     <row r="413">
       <c r="A413" t="inlineStr">
         <is>
-          <t>en:falter</t>
+          <t>falter</t>
         </is>
       </c>
       <c r="B413" t="inlineStr">
@@ -5392,7 +5392,7 @@
     <row r="414">
       <c r="A414" t="inlineStr">
         <is>
-          <t>en:clutches</t>
+          <t>clutches</t>
         </is>
       </c>
       <c r="B414" t="inlineStr">
@@ -5404,7 +5404,7 @@
     <row r="415">
       <c r="A415" t="inlineStr">
         <is>
-          <t>en:comelier</t>
+          <t>comelier</t>
         </is>
       </c>
       <c r="B415" t="inlineStr">
@@ -5416,7 +5416,7 @@
     <row r="416">
       <c r="A416" t="inlineStr">
         <is>
-          <t>en:henpecked</t>
+          <t>henpecked</t>
         </is>
       </c>
       <c r="B416" t="inlineStr">
@@ -5428,7 +5428,7 @@
     <row r="417">
       <c r="A417" t="inlineStr">
         <is>
-          <t>en:baseness</t>
+          <t>baseness</t>
         </is>
       </c>
       <c r="B417" t="inlineStr">
@@ -5440,7 +5440,7 @@
     <row r="418">
       <c r="A418" t="inlineStr">
         <is>
-          <t>en:chatelaine</t>
+          <t>chatelaine</t>
         </is>
       </c>
       <c r="B418" t="inlineStr">
@@ -5452,7 +5452,7 @@
     <row r="419">
       <c r="A419" t="inlineStr">
         <is>
-          <t>en:twinge</t>
+          <t>twinge</t>
         </is>
       </c>
       <c r="B419" t="inlineStr">
@@ -5464,7 +5464,7 @@
     <row r="420">
       <c r="A420" t="inlineStr">
         <is>
-          <t>en:salubrious</t>
+          <t>salubrious</t>
         </is>
       </c>
       <c r="B420" t="inlineStr">
@@ -5476,7 +5476,7 @@
     <row r="421">
       <c r="A421" t="inlineStr">
         <is>
-          <t>en:balmy</t>
+          <t>balmy</t>
         </is>
       </c>
       <c r="B421" t="inlineStr">
@@ -5488,7 +5488,7 @@
     <row r="422">
       <c r="A422" t="inlineStr">
         <is>
-          <t>en:obligingly</t>
+          <t>obligingly</t>
         </is>
       </c>
       <c r="B422" t="inlineStr">
@@ -5500,7 +5500,7 @@
     <row r="423">
       <c r="A423" t="inlineStr">
         <is>
-          <t>en:paradisiacal</t>
+          <t>paradisiacal</t>
         </is>
       </c>
       <c r="B423" t="inlineStr">
@@ -5512,7 +5512,7 @@
     <row r="424">
       <c r="A424" t="inlineStr">
         <is>
-          <t>en:ragamuffins</t>
+          <t>ragamuffins</t>
         </is>
       </c>
       <c r="B424" t="inlineStr">
@@ -5524,7 +5524,7 @@
     <row r="425">
       <c r="A425" t="inlineStr">
         <is>
-          <t>en:precincts</t>
+          <t>precincts</t>
         </is>
       </c>
       <c r="B425" t="inlineStr">
@@ -5536,7 +5536,7 @@
     <row r="426">
       <c r="A426" t="inlineStr">
         <is>
-          <t>en:despond</t>
+          <t>despond</t>
         </is>
       </c>
       <c r="B426" t="inlineStr">
@@ -5548,7 +5548,7 @@
     <row r="427">
       <c r="A427" t="inlineStr">
         <is>
-          <t>en:candour</t>
+          <t>candour</t>
         </is>
       </c>
       <c r="B427" t="inlineStr">
@@ -5560,7 +5560,7 @@
     <row r="428">
       <c r="A428" t="inlineStr">
         <is>
-          <t>en:supercilious</t>
+          <t>supercilious</t>
         </is>
       </c>
       <c r="B428" t="inlineStr">
@@ -5572,7 +5572,7 @@
     <row r="429">
       <c r="A429" t="inlineStr">
         <is>
-          <t>en:apothecary</t>
+          <t>apothecary</t>
         </is>
       </c>
       <c r="B429" t="inlineStr">
@@ -5584,7 +5584,7 @@
     <row r="430">
       <c r="A430" t="inlineStr">
         <is>
-          <t>en:ragout</t>
+          <t>ragout</t>
         </is>
       </c>
       <c r="B430" t="inlineStr">
@@ -5596,7 +5596,7 @@
     <row r="431">
       <c r="A431" t="inlineStr">
         <is>
-          <t>en:amendment</t>
+          <t>amendment</t>
         </is>
       </c>
       <c r="B431" t="inlineStr">
@@ -5608,7 +5608,7 @@
     <row r="432">
       <c r="A432" t="inlineStr">
         <is>
-          <t>en:witticisms</t>
+          <t>witticisms</t>
         </is>
       </c>
       <c r="B432" t="inlineStr">
@@ -5620,7 +5620,7 @@
     <row r="433">
       <c r="A433" t="inlineStr">
         <is>
-          <t>en:censure</t>
+          <t>censure</t>
         </is>
       </c>
       <c r="B433" t="inlineStr">
@@ -5632,7 +5632,7 @@
     <row r="434">
       <c r="A434" t="inlineStr">
         <is>
-          <t>en:odious</t>
+          <t>odious</t>
         </is>
       </c>
       <c r="B434" t="inlineStr">
@@ -5644,7 +5644,7 @@
     <row r="435">
       <c r="A435" t="inlineStr">
         <is>
-          <t>en:contrive</t>
+          <t>contrive</t>
         </is>
       </c>
       <c r="B435" t="inlineStr">
@@ -5656,7 +5656,7 @@
     <row r="436">
       <c r="A436" t="inlineStr">
         <is>
-          <t>en:inclination</t>
+          <t>inclination</t>
         </is>
       </c>
       <c r="B436" t="inlineStr">
@@ -5668,7 +5668,7 @@
     <row r="437">
       <c r="A437" t="inlineStr">
         <is>
-          <t>en:reel</t>
+          <t>reel</t>
         </is>
       </c>
       <c r="B437" t="inlineStr">
@@ -5680,7 +5680,7 @@
     <row r="438">
       <c r="A438" t="inlineStr">
         <is>
-          <t>en:affront</t>
+          <t>affront</t>
         </is>
       </c>
       <c r="B438" t="inlineStr">
@@ -5692,7 +5692,7 @@
     <row r="439">
       <c r="A439" t="inlineStr">
         <is>
-          <t>en:iniquitous</t>
+          <t>iniquitous</t>
         </is>
       </c>
       <c r="B439" t="inlineStr">
@@ -5704,7 +5704,7 @@
     <row r="440">
       <c r="A440" t="inlineStr">
         <is>
-          <t>en:clergyman</t>
+          <t>clergyman</t>
         </is>
       </c>
       <c r="B440" t="inlineStr">
@@ -5716,7 +5716,7 @@
     <row r="441">
       <c r="A441" t="inlineStr">
         <is>
-          <t>en:parishioners</t>
+          <t>parishioners</t>
         </is>
       </c>
       <c r="B441" t="inlineStr">
@@ -5728,7 +5728,7 @@
     <row r="442">
       <c r="A442" t="inlineStr">
         <is>
-          <t>en:servility</t>
+          <t>servility</t>
         </is>
       </c>
       <c r="B442" t="inlineStr">
@@ -5740,7 +5740,7 @@
     <row r="443">
       <c r="A443" t="inlineStr">
         <is>
-          <t>en:condescension</t>
+          <t>condescension</t>
         </is>
       </c>
       <c r="B443" t="inlineStr">
@@ -5752,7 +5752,7 @@
     <row r="444">
       <c r="A444" t="inlineStr">
         <is>
-          <t>en:affability</t>
+          <t>affability</t>
         </is>
       </c>
       <c r="B444" t="inlineStr">
@@ -5764,7 +5764,7 @@
     <row r="445">
       <c r="A445" t="inlineStr">
         <is>
-          <t>en:duchess</t>
+          <t>duchess</t>
         </is>
       </c>
       <c r="B445" t="inlineStr">
@@ -5776,7 +5776,7 @@
     <row r="446">
       <c r="A446" t="inlineStr">
         <is>
-          <t>en:obsequiousness</t>
+          <t>obsequiousness</t>
         </is>
       </c>
       <c r="B446" t="inlineStr">
@@ -5788,7 +5788,7 @@
     <row r="447">
       <c r="A447" t="inlineStr">
         <is>
-          <t>en:avowal</t>
+          <t>avowal</t>
         </is>
       </c>
       <c r="B447" t="inlineStr">
@@ -5800,7 +5800,7 @@
     <row r="448">
       <c r="A448" t="inlineStr">
         <is>
-          <t>en:cessation</t>
+          <t>cessation</t>
         </is>
       </c>
       <c r="B448" t="inlineStr">
@@ -5812,7 +5812,7 @@
     <row r="449">
       <c r="A449" t="inlineStr">
         <is>
-          <t>en:the</t>
+          <t>the</t>
         </is>
       </c>
       <c r="B449" t="inlineStr">
@@ -5824,7 +5824,7 @@
     <row r="450">
       <c r="A450" t="inlineStr">
         <is>
-          <t>en:veracity</t>
+          <t>veracity</t>
         </is>
       </c>
       <c r="B450" t="inlineStr">
@@ -5836,7 +5836,7 @@
     <row r="451">
       <c r="A451" t="inlineStr">
         <is>
-          <t>en:scruple</t>
+          <t>scruple</t>
         </is>
       </c>
       <c r="B451" t="inlineStr">
@@ -5848,7 +5848,7 @@
     <row r="452">
       <c r="A452" t="inlineStr">
         <is>
-          <t>en:taciturn</t>
+          <t>taciturn</t>
         </is>
       </c>
       <c r="B452" t="inlineStr">
@@ -5860,7 +5860,7 @@
     <row r="453">
       <c r="A453" t="inlineStr">
         <is>
-          <t>en:hauteur</t>
+          <t>hauteur</t>
         </is>
       </c>
       <c r="B453" t="inlineStr">
@@ -5872,7 +5872,7 @@
     <row r="454">
       <c r="A454" t="inlineStr">
         <is>
-          <t>en:upbraiding</t>
+          <t>upbraiding</t>
         </is>
       </c>
       <c r="B454" t="inlineStr">
@@ -5884,7 +5884,7 @@
     <row r="455">
       <c r="A455" t="inlineStr">
         <is>
-          <t>en:incumbent</t>
+          <t>incumbent</t>
         </is>
       </c>
       <c r="B455" t="inlineStr">
@@ -5896,7 +5896,7 @@
     <row r="456">
       <c r="A456" t="inlineStr">
         <is>
-          <t>en:stanzas</t>
+          <t>stanzas</t>
         </is>
       </c>
       <c r="B456" t="inlineStr">
@@ -5908,7 +5908,7 @@
     <row r="457">
       <c r="A457" t="inlineStr">
         <is>
-          <t>en:tithes</t>
+          <t>tithes</t>
         </is>
       </c>
       <c r="B457" t="inlineStr">
@@ -5920,7 +5920,7 @@
     <row r="458">
       <c r="A458" t="inlineStr">
         <is>
-          <t>en:especially</t>
+          <t>especially</t>
         </is>
       </c>
       <c r="B458" t="inlineStr">
@@ -5932,7 +5932,7 @@
     <row r="459">
       <c r="A459" t="inlineStr">
         <is>
-          <t>en:preferment</t>
+          <t>preferment</t>
         </is>
       </c>
       <c r="B459" t="inlineStr">
@@ -5944,7 +5944,7 @@
     <row r="460">
       <c r="A460" t="inlineStr">
         <is>
-          <t>en:languor</t>
+          <t>languor</t>
         </is>
       </c>
       <c r="B460" t="inlineStr">
@@ -5956,7 +5956,7 @@
     <row r="461">
       <c r="A461" t="inlineStr">
         <is>
-          <t>en:eclipsed</t>
+          <t>eclipsed</t>
         </is>
       </c>
       <c r="B461" t="inlineStr">
@@ -5968,7 +5968,7 @@
     <row r="462">
       <c r="A462" t="inlineStr">
         <is>
-          <t>en:hitherto</t>
+          <t>hitherto</t>
         </is>
       </c>
       <c r="B462" t="inlineStr">
@@ -5980,7 +5980,7 @@
     <row r="463">
       <c r="A463" t="inlineStr">
         <is>
-          <t>en:felicitations</t>
+          <t>felicitations</t>
         </is>
       </c>
       <c r="B463" t="inlineStr">
@@ -5992,7 +5992,7 @@
     <row r="464">
       <c r="A464" t="inlineStr">
         <is>
-          <t>en:gaiety</t>
+          <t>gaiety</t>
         </is>
       </c>
       <c r="B464" t="inlineStr">
@@ -6004,7 +6004,7 @@
     <row r="465">
       <c r="A465" t="inlineStr">
         <is>
-          <t>en:assiduous</t>
+          <t>assiduous</t>
         </is>
       </c>
       <c r="B465" t="inlineStr">
@@ -6016,7 +6016,7 @@
     <row r="466">
       <c r="A466" t="inlineStr">
         <is>
-          <t>en:other</t>
+          <t>other</t>
         </is>
       </c>
       <c r="B466" t="inlineStr">
@@ -6028,7 +6028,7 @@
     <row r="467">
       <c r="A467" t="inlineStr">
         <is>
-          <t>en:was</t>
+          <t>was</t>
         </is>
       </c>
       <c r="B467" t="inlineStr">
@@ -6040,7 +6040,7 @@
     <row r="468">
       <c r="A468" t="inlineStr">
         <is>
-          <t>en:alms</t>
+          <t>alms</t>
         </is>
       </c>
       <c r="B468" t="inlineStr">
@@ -6052,7 +6052,7 @@
     <row r="469">
       <c r="A469" t="inlineStr">
         <is>
-          <t>en:dreamy</t>
+          <t>dreamy</t>
         </is>
       </c>
       <c r="B469" t="inlineStr">
@@ -6064,7 +6064,7 @@
     <row r="470">
       <c r="A470" t="inlineStr">
         <is>
-          <t>en:musings</t>
+          <t>musings</t>
         </is>
       </c>
       <c r="B470" t="inlineStr">
@@ -6076,7 +6076,7 @@
     <row r="471">
       <c r="A471" t="inlineStr">
         <is>
-          <t>en:scrutinised</t>
+          <t>scrutinised</t>
         </is>
       </c>
       <c r="B471" t="inlineStr">
@@ -6088,7 +6088,7 @@
     <row r="472">
       <c r="A472" t="inlineStr">
         <is>
-          <t>en:impoverished</t>
+          <t>impoverished</t>
         </is>
       </c>
       <c r="B472" t="inlineStr">
@@ -6100,7 +6100,7 @@
     <row r="473">
       <c r="A473" t="inlineStr">
         <is>
-          <t>en:voluptuous</t>
+          <t>voluptuous</t>
         </is>
       </c>
       <c r="B473" t="inlineStr">
@@ -6112,7 +6112,7 @@
     <row r="474">
       <c r="A474" t="inlineStr">
         <is>
-          <t>en:canticle</t>
+          <t>canticle</t>
         </is>
       </c>
       <c r="B474" t="inlineStr">
@@ -6124,7 +6124,7 @@
     <row r="475">
       <c r="A475" t="inlineStr">
         <is>
-          <t>en:vehemence</t>
+          <t>vehemence</t>
         </is>
       </c>
       <c r="B475" t="inlineStr">
@@ -6136,7 +6136,7 @@
     <row r="476">
       <c r="A476" t="inlineStr">
         <is>
-          <t>en:coffer</t>
+          <t>coffer</t>
         </is>
       </c>
       <c r="B476" t="inlineStr">
@@ -6148,7 +6148,7 @@
     <row r="477">
       <c r="A477" t="inlineStr">
         <is>
-          <t>en:doleful</t>
+          <t>doleful</t>
         </is>
       </c>
       <c r="B477" t="inlineStr">
@@ -6160,7 +6160,7 @@
     <row r="478">
       <c r="A478" t="inlineStr">
         <is>
-          <t>en:respite</t>
+          <t>respite</t>
         </is>
       </c>
       <c r="B478" t="inlineStr">
@@ -6172,7 +6172,7 @@
     <row r="479">
       <c r="A479" t="inlineStr">
         <is>
-          <t>en:intricacies</t>
+          <t>intricacies</t>
         </is>
       </c>
       <c r="B479" t="inlineStr">
@@ -6184,7 +6184,7 @@
     <row r="480">
       <c r="A480" t="inlineStr">
         <is>
-          <t>en:cadaverous</t>
+          <t>cadaverous</t>
         </is>
       </c>
       <c r="B480" t="inlineStr">
@@ -6196,7 +6196,7 @@
     <row r="481">
       <c r="A481" t="inlineStr">
         <is>
-          <t>en:neurasthenic</t>
+          <t>neurasthenic</t>
         </is>
       </c>
       <c r="B481" t="inlineStr">
@@ -6208,7 +6208,7 @@
     <row r="482">
       <c r="A482" t="inlineStr">
         <is>
-          <t>en:ineffable</t>
+          <t>ineffable</t>
         </is>
       </c>
       <c r="B482" t="inlineStr">
@@ -6220,7 +6220,7 @@
     <row r="483">
       <c r="A483" t="inlineStr">
         <is>
-          <t>en:fulcrum</t>
+          <t>fulcrum</t>
         </is>
       </c>
       <c r="B483" t="inlineStr">
@@ -6232,7 +6232,7 @@
     <row r="484">
       <c r="A484" t="inlineStr">
         <is>
-          <t>en:profundity</t>
+          <t>profundity</t>
         </is>
       </c>
       <c r="B484" t="inlineStr">
@@ -6244,7 +6244,7 @@
     <row r="485">
       <c r="A485" t="inlineStr">
         <is>
-          <t>en:arduous</t>
+          <t>arduous</t>
         </is>
       </c>
       <c r="B485" t="inlineStr">
@@ -6256,7 +6256,7 @@
     <row r="486">
       <c r="A486" t="inlineStr">
         <is>
-          <t>en:insatiable</t>
+          <t>insatiable</t>
         </is>
       </c>
       <c r="B486" t="inlineStr">
@@ -6268,7 +6268,7 @@
     <row r="487">
       <c r="A487" t="inlineStr">
         <is>
-          <t>en:limpid</t>
+          <t>limpid</t>
         </is>
       </c>
       <c r="B487" t="inlineStr">
@@ -6280,7 +6280,7 @@
     <row r="488">
       <c r="A488" t="inlineStr">
         <is>
-          <t>en:acacias</t>
+          <t>acacias</t>
         </is>
       </c>
       <c r="B488" t="inlineStr">
@@ -6292,7 +6292,7 @@
     <row r="489">
       <c r="A489" t="inlineStr">
         <is>
-          <t>en:Inexorable</t>
+          <t>Inexorable</t>
         </is>
       </c>
       <c r="B489" t="inlineStr">
@@ -6304,7 +6304,7 @@
     <row r="490">
       <c r="A490" t="inlineStr">
         <is>
-          <t>en:repugnance</t>
+          <t>repugnance</t>
         </is>
       </c>
       <c r="B490" t="inlineStr">
@@ -6316,7 +6316,7 @@
     <row r="491">
       <c r="A491" t="inlineStr">
         <is>
-          <t>en:insurmountable</t>
+          <t>insurmountable</t>
         </is>
       </c>
       <c r="B491" t="inlineStr">
@@ -6328,7 +6328,7 @@
     <row r="492">
       <c r="A492" t="inlineStr">
         <is>
-          <t>en:sarcoma</t>
+          <t>sarcoma</t>
         </is>
       </c>
       <c r="B492" t="inlineStr">
@@ -6340,7 +6340,7 @@
     <row r="493">
       <c r="A493" t="inlineStr">
         <is>
-          <t>en:hackneyed</t>
+          <t>hackneyed</t>
         </is>
       </c>
       <c r="B493" t="inlineStr">
@@ -6352,7 +6352,7 @@
     <row r="494">
       <c r="A494" t="inlineStr">
         <is>
-          <t>en:ravages</t>
+          <t>ravages</t>
         </is>
       </c>
       <c r="B494" t="inlineStr">
@@ -6364,7 +6364,7 @@
     <row r="495">
       <c r="A495" t="inlineStr">
         <is>
-          <t>en:travail</t>
+          <t>travail</t>
         </is>
       </c>
       <c r="B495" t="inlineStr">
@@ -6376,7 +6376,7 @@
     <row r="496">
       <c r="A496" t="inlineStr">
         <is>
-          <t>en:Stupefaction</t>
+          <t>Stupefaction</t>
         </is>
       </c>
       <c r="B496" t="inlineStr">
@@ -6388,7 +6388,7 @@
     <row r="497">
       <c r="A497" t="inlineStr">
         <is>
-          <t>en:assuagement</t>
+          <t>assuagement</t>
         </is>
       </c>
       <c r="B497" t="inlineStr">
@@ -6400,7 +6400,7 @@
     <row r="498">
       <c r="A498" t="inlineStr">
         <is>
-          <t>en:retrench</t>
+          <t>retrench</t>
         </is>
       </c>
       <c r="B498" t="inlineStr">
@@ -6412,7 +6412,7 @@
     <row r="499">
       <c r="A499" t="inlineStr">
         <is>
-          <t>en:eulogiums</t>
+          <t>eulogiums</t>
         </is>
       </c>
       <c r="B499" t="inlineStr">
@@ -6424,7 +6424,7 @@
     <row r="500">
       <c r="A500" t="inlineStr">
         <is>
-          <t>en:brusque</t>
+          <t>brusque</t>
         </is>
       </c>
       <c r="B500" t="inlineStr">
@@ -6436,7 +6436,7 @@
     <row r="501">
       <c r="A501" t="inlineStr">
         <is>
-          <t>en:niggard</t>
+          <t>niggard</t>
         </is>
       </c>
       <c r="B501" t="inlineStr">
@@ -6448,7 +6448,7 @@
     <row r="502">
       <c r="A502" t="inlineStr">
         <is>
-          <t>en:palaver</t>
+          <t>palaver</t>
         </is>
       </c>
       <c r="B502" t="inlineStr">
@@ -6460,7 +6460,7 @@
     <row r="503">
       <c r="A503" t="inlineStr">
         <is>
-          <t>en:perspiration</t>
+          <t>perspiration</t>
         </is>
       </c>
       <c r="B503" t="inlineStr">
@@ -6472,7 +6472,7 @@
     <row r="504">
       <c r="A504" t="inlineStr">
         <is>
-          <t>en:askance</t>
+          <t>askance</t>
         </is>
       </c>
       <c r="B504" t="inlineStr">
@@ -6484,7 +6484,7 @@
     <row r="505">
       <c r="A505" t="inlineStr">
         <is>
-          <t>en:conscription</t>
+          <t>conscription</t>
         </is>
       </c>
       <c r="B505" t="inlineStr">
@@ -6496,7 +6496,7 @@
     <row r="506">
       <c r="A506" t="inlineStr">
         <is>
-          <t>en:besotted</t>
+          <t>besotted</t>
         </is>
       </c>
       <c r="B506" t="inlineStr">
@@ -6508,7 +6508,7 @@
     <row r="507">
       <c r="A507" t="inlineStr">
         <is>
-          <t>en:supplanted</t>
+          <t>supplanted</t>
         </is>
       </c>
       <c r="B507" t="inlineStr">
@@ -6520,7 +6520,7 @@
     <row r="508">
       <c r="A508" t="inlineStr">
         <is>
-          <t>en:methinks</t>
+          <t>methinks</t>
         </is>
       </c>
       <c r="B508" t="inlineStr">
@@ -6532,7 +6532,7 @@
     <row r="509">
       <c r="A509" t="inlineStr">
         <is>
-          <t>en:nuptial</t>
+          <t>nuptial</t>
         </is>
       </c>
       <c r="B509" t="inlineStr">
@@ -6544,7 +6544,7 @@
     <row r="510">
       <c r="A510" t="inlineStr">
         <is>
-          <t>en:clad</t>
+          <t>clad</t>
         </is>
       </c>
       <c r="B510" t="inlineStr">
@@ -6556,7 +6556,7 @@
     <row r="511">
       <c r="A511" t="inlineStr">
         <is>
-          <t>en:replied</t>
+          <t>replied</t>
         </is>
       </c>
       <c r="B511" t="inlineStr">
@@ -6568,7 +6568,7 @@
     <row r="512">
       <c r="A512" t="inlineStr">
         <is>
-          <t>en:fealty</t>
+          <t>fealty</t>
         </is>
       </c>
       <c r="B512" t="inlineStr">
@@ -6580,7 +6580,7 @@
     <row r="513">
       <c r="A513" t="inlineStr">
         <is>
-          <t>en:parricides</t>
+          <t>parricides</t>
         </is>
       </c>
       <c r="B513" t="inlineStr">
@@ -6592,7 +6592,7 @@
     <row r="514">
       <c r="A514" t="inlineStr">
         <is>
-          <t>en:dereliction</t>
+          <t>dereliction</t>
         </is>
       </c>
       <c r="B514" t="inlineStr">
@@ -6604,7 +6604,7 @@
     <row r="515">
       <c r="A515" t="inlineStr">
         <is>
-          <t>en:lenity</t>
+          <t>lenity</t>
         </is>
       </c>
       <c r="B515" t="inlineStr">
@@ -6616,7 +6616,7 @@
     <row r="516">
       <c r="A516" t="inlineStr">
         <is>
-          <t>en:impassive</t>
+          <t>impassive</t>
         </is>
       </c>
       <c r="B516" t="inlineStr">
@@ -6628,7 +6628,7 @@
     <row r="517">
       <c r="A517" t="inlineStr">
         <is>
-          <t>en:mustered</t>
+          <t>mustered</t>
         </is>
       </c>
       <c r="B517" t="inlineStr">
@@ -6640,7 +6640,7 @@
     <row r="518">
       <c r="A518" t="inlineStr">
         <is>
-          <t>en:culpable</t>
+          <t>culpable</t>
         </is>
       </c>
       <c r="B518" t="inlineStr">
@@ -6652,7 +6652,7 @@
     <row r="519">
       <c r="A519" t="inlineStr">
         <is>
-          <t>en:imprudence</t>
+          <t>imprudence</t>
         </is>
       </c>
       <c r="B519" t="inlineStr">
@@ -6664,7 +6664,7 @@
     <row r="520">
       <c r="A520" t="inlineStr">
         <is>
-          <t>en:gendarmes</t>
+          <t>gendarmes</t>
         </is>
       </c>
       <c r="B520" t="inlineStr">
@@ -6676,7 +6676,7 @@
     <row r="521">
       <c r="A521" t="inlineStr">
         <is>
-          <t>en:mephitic</t>
+          <t>mephitic</t>
         </is>
       </c>
       <c r="B521" t="inlineStr">
@@ -6688,7 +6688,7 @@
     <row r="522">
       <c r="A522" t="inlineStr">
         <is>
-          <t>en:augmented</t>
+          <t>augmented</t>
         </is>
       </c>
       <c r="B522" t="inlineStr">
@@ -6700,7 +6700,7 @@
     <row r="523">
       <c r="A523" t="inlineStr">
         <is>
-          <t>en:precipitate</t>
+          <t>precipitate</t>
         </is>
       </c>
       <c r="B523" t="inlineStr">
@@ -6712,7 +6712,7 @@
     <row r="524">
       <c r="A524" t="inlineStr">
         <is>
-          <t>en:I</t>
+          <t>I</t>
         </is>
       </c>
       <c r="B524" t="inlineStr">
@@ -6724,7 +6724,7 @@
     <row r="525">
       <c r="A525" t="inlineStr">
         <is>
-          <t>en:abbe</t>
+          <t>abbe</t>
         </is>
       </c>
       <c r="B525" t="inlineStr">
@@ -6736,7 +6736,7 @@
     <row r="526">
       <c r="A526" t="inlineStr">
         <is>
-          <t>en:prurigo</t>
+          <t>prurigo</t>
         </is>
       </c>
       <c r="B526" t="inlineStr">
@@ -6748,7 +6748,7 @@
     <row r="527">
       <c r="A527" t="inlineStr">
         <is>
-          <t>en:garb</t>
+          <t>garb</t>
         </is>
       </c>
       <c r="B527" t="inlineStr">
@@ -6760,7 +6760,7 @@
     <row r="528">
       <c r="A528" t="inlineStr">
         <is>
-          <t>en:execrated</t>
+          <t>execrated</t>
         </is>
       </c>
       <c r="B528" t="inlineStr">
@@ -6772,7 +6772,7 @@
     <row r="529">
       <c r="A529" t="inlineStr">
         <is>
-          <t>en:aghast</t>
+          <t>aghast</t>
         </is>
       </c>
       <c r="B529" t="inlineStr">
@@ -6784,7 +6784,7 @@
     <row r="530">
       <c r="A530" t="inlineStr">
         <is>
-          <t>en:ineptitude</t>
+          <t>ineptitude</t>
         </is>
       </c>
       <c r="B530" t="inlineStr">
@@ -6796,7 +6796,7 @@
     <row r="531">
       <c r="A531" t="inlineStr">
         <is>
-          <t>en:perspicacity</t>
+          <t>perspicacity</t>
         </is>
       </c>
       <c r="B531" t="inlineStr">
@@ -6808,7 +6808,7 @@
     <row r="532">
       <c r="A532" t="inlineStr">
         <is>
-          <t>en:incongruous</t>
+          <t>incongruous</t>
         </is>
       </c>
       <c r="B532" t="inlineStr">
@@ -6820,7 +6820,7 @@
     <row r="533">
       <c r="A533" t="inlineStr">
         <is>
-          <t>en:turnkey</t>
+          <t>turnkey</t>
         </is>
       </c>
       <c r="B533" t="inlineStr">
@@ -6832,7 +6832,7 @@
     <row r="534">
       <c r="A534" t="inlineStr">
         <is>
-          <t>en:drawing</t>
+          <t>drawing</t>
         </is>
       </c>
       <c r="B534" t="inlineStr">
@@ -6844,7 +6844,7 @@
     <row r="535">
       <c r="A535" t="inlineStr">
         <is>
-          <t>en:tattered</t>
+          <t>tattered</t>
         </is>
       </c>
       <c r="B535" t="inlineStr">
@@ -6856,7 +6856,7 @@
     <row r="536">
       <c r="A536" t="inlineStr">
         <is>
-          <t>en:lacerated</t>
+          <t>lacerated</t>
         </is>
       </c>
       <c r="B536" t="inlineStr">
@@ -6868,7 +6868,7 @@
     <row r="537">
       <c r="A537" t="inlineStr">
         <is>
-          <t>en:assemblages</t>
+          <t>assemblages</t>
         </is>
       </c>
       <c r="B537" t="inlineStr">
@@ -6880,7 +6880,7 @@
     <row r="538">
       <c r="A538" t="inlineStr">
         <is>
-          <t>en:besought</t>
+          <t>besought</t>
         </is>
       </c>
       <c r="B538" t="inlineStr">
@@ -6892,7 +6892,7 @@
     <row r="539">
       <c r="A539" t="inlineStr">
         <is>
-          <t>en:precipice</t>
+          <t>precipice</t>
         </is>
       </c>
       <c r="B539" t="inlineStr">
@@ -6904,7 +6904,7 @@
     <row r="540">
       <c r="A540" t="inlineStr">
         <is>
-          <t>en:Possibly</t>
+          <t>Possibly</t>
         </is>
       </c>
       <c r="B540" t="inlineStr">
@@ -6916,7 +6916,7 @@
     <row r="541">
       <c r="A541" t="inlineStr">
         <is>
-          <t>en:suffused</t>
+          <t>suffused</t>
         </is>
       </c>
       <c r="B541" t="inlineStr">
@@ -6928,7 +6928,7 @@
     <row r="542">
       <c r="A542" t="inlineStr">
         <is>
-          <t>en:sagacious</t>
+          <t>sagacious</t>
         </is>
       </c>
       <c r="B542" t="inlineStr">
@@ -6940,7 +6940,7 @@
     <row r="543">
       <c r="A543" t="inlineStr">
         <is>
-          <t>en:munificence</t>
+          <t>munificence</t>
         </is>
       </c>
       <c r="B543" t="inlineStr">
@@ -6952,7 +6952,7 @@
     <row r="544">
       <c r="A544" t="inlineStr">
         <is>
-          <t>en:annuity</t>
+          <t>annuity</t>
         </is>
       </c>
       <c r="B544" t="inlineStr">
@@ -6964,7 +6964,7 @@
     <row r="545">
       <c r="A545" t="inlineStr">
         <is>
-          <t>en:duped</t>
+          <t>duped</t>
         </is>
       </c>
       <c r="B545" t="inlineStr">
@@ -6976,7 +6976,7 @@
     <row r="546">
       <c r="A546" t="inlineStr">
         <is>
-          <t>en:over</t>
+          <t>over</t>
         </is>
       </c>
       <c r="B546" t="inlineStr">
@@ -6988,7 +6988,7 @@
     <row r="547">
       <c r="A547" t="inlineStr">
         <is>
-          <t>en:impetuosity</t>
+          <t>impetuosity</t>
         </is>
       </c>
       <c r="B547" t="inlineStr">
@@ -7000,7 +7000,7 @@
     <row r="548">
       <c r="A548" t="inlineStr">
         <is>
-          <t>en:nabob</t>
+          <t>nabob</t>
         </is>
       </c>
       <c r="B548" t="inlineStr">
@@ -7012,7 +7012,7 @@
     <row r="549">
       <c r="A549" t="inlineStr">
         <is>
-          <t>en:reiterating</t>
+          <t>reiterating</t>
         </is>
       </c>
       <c r="B549" t="inlineStr">
@@ -7024,7 +7024,7 @@
     <row r="550">
       <c r="A550" t="inlineStr">
         <is>
-          <t>en:cupidity</t>
+          <t>cupidity</t>
         </is>
       </c>
       <c r="B550" t="inlineStr">
@@ -7036,7 +7036,7 @@
     <row r="551">
       <c r="A551" t="inlineStr">
         <is>
-          <t>en:infamy</t>
+          <t>infamy</t>
         </is>
       </c>
       <c r="B551" t="inlineStr">
@@ -7048,7 +7048,7 @@
     <row r="552">
       <c r="A552" t="inlineStr">
         <is>
-          <t>en:Frailty</t>
+          <t>Frailty</t>
         </is>
       </c>
       <c r="B552" t="inlineStr">
@@ -7060,7 +7060,7 @@
     <row r="553">
       <c r="A553" t="inlineStr">
         <is>
-          <t>en:vast</t>
+          <t>vast</t>
         </is>
       </c>
       <c r="B553" t="inlineStr">
@@ -7072,7 +7072,7 @@
     <row r="554">
       <c r="A554" t="inlineStr">
         <is>
-          <t>en:eulogium</t>
+          <t>eulogium</t>
         </is>
       </c>
       <c r="B554" t="inlineStr">
@@ -7084,7 +7084,7 @@
     <row r="555">
       <c r="A555" t="inlineStr">
         <is>
-          <t>en:prodigious</t>
+          <t>prodigious</t>
         </is>
       </c>
       <c r="B555" t="inlineStr">
@@ -7096,7 +7096,7 @@
     <row r="556">
       <c r="A556" t="inlineStr">
         <is>
-          <t>en:supplicating</t>
+          <t>supplicating</t>
         </is>
       </c>
       <c r="B556" t="inlineStr">
@@ -7108,7 +7108,7 @@
     <row r="557">
       <c r="A557" t="inlineStr">
         <is>
-          <t>en:solvent</t>
+          <t>solvent</t>
         </is>
       </c>
       <c r="B557" t="inlineStr">
@@ -7120,7 +7120,7 @@
     <row r="558">
       <c r="A558" t="inlineStr">
         <is>
-          <t>en:edifice</t>
+          <t>edifice</t>
         </is>
       </c>
       <c r="B558" t="inlineStr">
@@ -7132,7 +7132,7 @@
     <row r="559">
       <c r="A559" t="inlineStr">
         <is>
-          <t>en:pallid</t>
+          <t>pallid</t>
         </is>
       </c>
       <c r="B559" t="inlineStr">
@@ -7144,7 +7144,7 @@
     <row r="560">
       <c r="A560" t="inlineStr">
         <is>
-          <t>en:odoriferous</t>
+          <t>odoriferous</t>
         </is>
       </c>
       <c r="B560" t="inlineStr">
@@ -7156,7 +7156,7 @@
     <row r="561">
       <c r="A561" t="inlineStr">
         <is>
-          <t>en:fissure</t>
+          <t>fissure</t>
         </is>
       </c>
       <c r="B561" t="inlineStr">
@@ -7168,7 +7168,7 @@
     <row r="562">
       <c r="A562" t="inlineStr">
         <is>
-          <t>en:ransom</t>
+          <t>ransom</t>
         </is>
       </c>
       <c r="B562" t="inlineStr">
@@ -7180,7 +7180,7 @@
     <row r="563">
       <c r="A563" t="inlineStr">
         <is>
-          <t>en:precocity</t>
+          <t>precocity</t>
         </is>
       </c>
       <c r="B563" t="inlineStr">
@@ -7192,7 +7192,7 @@
     <row r="564">
       <c r="A564" t="inlineStr">
         <is>
-          <t>en:acquiescence</t>
+          <t>acquiescence</t>
         </is>
       </c>
       <c r="B564" t="inlineStr">
@@ -7204,7 +7204,7 @@
     <row r="565">
       <c r="A565" t="inlineStr">
         <is>
-          <t>en:sheath</t>
+          <t>sheath</t>
         </is>
       </c>
       <c r="B565" t="inlineStr">
@@ -7216,7 +7216,7 @@
     <row r="566">
       <c r="A566" t="inlineStr">
         <is>
-          <t>en:giddy</t>
+          <t>giddy</t>
         </is>
       </c>
       <c r="B566" t="inlineStr">
@@ -7228,7 +7228,7 @@
     <row r="567">
       <c r="A567" t="inlineStr">
         <is>
-          <t>en:conflagration</t>
+          <t>conflagration</t>
         </is>
       </c>
       <c r="B567" t="inlineStr">
@@ -7240,7 +7240,7 @@
     <row r="568">
       <c r="A568" t="inlineStr">
         <is>
-          <t>en:refulgent</t>
+          <t>refulgent</t>
         </is>
       </c>
       <c r="B568" t="inlineStr">
@@ -7252,7 +7252,7 @@
     <row r="569">
       <c r="A569" t="inlineStr">
         <is>
-          <t>en:viscount</t>
+          <t>viscount</t>
         </is>
       </c>
       <c r="B569" t="inlineStr">
@@ -7264,7 +7264,7 @@
     <row r="570">
       <c r="A570" t="inlineStr">
         <is>
-          <t>en:egregious</t>
+          <t>egregious</t>
         </is>
       </c>
       <c r="B570" t="inlineStr">
@@ -7276,7 +7276,7 @@
     <row r="571">
       <c r="A571" t="inlineStr">
         <is>
-          <t>en:subterfuge</t>
+          <t>subterfuge</t>
         </is>
       </c>
       <c r="B571" t="inlineStr">
@@ -7288,7 +7288,7 @@
     <row r="572">
       <c r="A572" t="inlineStr">
         <is>
-          <t>en:erroneous</t>
+          <t>erroneous</t>
         </is>
       </c>
       <c r="B572" t="inlineStr">
@@ -7300,7 +7300,7 @@
     <row r="573">
       <c r="A573" t="inlineStr">
         <is>
-          <t>en:expiation</t>
+          <t>expiation</t>
         </is>
       </c>
       <c r="B573" t="inlineStr">
@@ -7312,7 +7312,7 @@
     <row r="574">
       <c r="A574" t="inlineStr">
         <is>
-          <t>en:veritable</t>
+          <t>veritable</t>
         </is>
       </c>
       <c r="B574" t="inlineStr">
@@ -7324,7 +7324,7 @@
     <row r="575">
       <c r="A575" t="inlineStr">
         <is>
-          <t>en:puros</t>
+          <t>puros</t>
         </is>
       </c>
       <c r="B575" t="inlineStr">
@@ -7336,7 +7336,7 @@
     <row r="576">
       <c r="A576" t="inlineStr">
         <is>
-          <t>en:sweetmeats</t>
+          <t>sweetmeats</t>
         </is>
       </c>
       <c r="B576" t="inlineStr">
@@ -7348,7 +7348,7 @@
     <row r="577">
       <c r="A577" t="inlineStr">
         <is>
-          <t>en:epistle</t>
+          <t>epistle</t>
         </is>
       </c>
       <c r="B577" t="inlineStr">
@@ -7360,7 +7360,7 @@
     <row r="578">
       <c r="A578" t="inlineStr">
         <is>
-          <t>en:acrimonious</t>
+          <t>acrimonious</t>
         </is>
       </c>
       <c r="B578" t="inlineStr">
@@ -7372,7 +7372,7 @@
     <row r="579">
       <c r="A579" t="inlineStr">
         <is>
-          <t>en:pallor</t>
+          <t>pallor</t>
         </is>
       </c>
       <c r="B579" t="inlineStr">
@@ -7384,7 +7384,7 @@
     <row r="580">
       <c r="A580" t="inlineStr">
         <is>
-          <t>en:pugilist</t>
+          <t>pugilist</t>
         </is>
       </c>
       <c r="B580" t="inlineStr">
@@ -7396,7 +7396,7 @@
     <row r="581">
       <c r="A581" t="inlineStr">
         <is>
-          <t>en:divans</t>
+          <t>divans</t>
         </is>
       </c>
       <c r="B581" t="inlineStr">
@@ -7408,7 +7408,7 @@
     <row r="582">
       <c r="A582" t="inlineStr">
         <is>
-          <t>en:infidels</t>
+          <t>infidels</t>
         </is>
       </c>
       <c r="B582" t="inlineStr">
@@ -7420,7 +7420,7 @@
     <row r="583">
       <c r="A583" t="inlineStr">
         <is>
-          <t>en:carbine</t>
+          <t>carbine</t>
         </is>
       </c>
       <c r="B583" t="inlineStr">
@@ -7432,7 +7432,7 @@
     <row r="584">
       <c r="A584" t="inlineStr">
         <is>
-          <t>en:perusing</t>
+          <t>perusing</t>
         </is>
       </c>
       <c r="B584" t="inlineStr">
@@ -7444,7 +7444,7 @@
     <row r="585">
       <c r="A585" t="inlineStr">
         <is>
-          <t>en:edifying</t>
+          <t>edifying</t>
         </is>
       </c>
       <c r="B585" t="inlineStr">
@@ -7456,7 +7456,7 @@
     <row r="586">
       <c r="A586" t="inlineStr">
         <is>
-          <t>en:concierge</t>
+          <t>concierge</t>
         </is>
       </c>
       <c r="B586" t="inlineStr">
@@ -7468,7 +7468,7 @@
     <row r="587">
       <c r="A587" t="inlineStr">
         <is>
-          <t>en:narghiles</t>
+          <t>narghiles</t>
         </is>
       </c>
       <c r="B587" t="inlineStr">
@@ -7480,7 +7480,7 @@
     <row r="588">
       <c r="A588" t="inlineStr">
         <is>
-          <t>en:cellarets</t>
+          <t>cellarets</t>
         </is>
       </c>
       <c r="B588" t="inlineStr">
@@ -7492,7 +7492,7 @@
     <row r="589">
       <c r="A589" t="inlineStr">
         <is>
-          <t>en:execrable</t>
+          <t>execrable</t>
         </is>
       </c>
       <c r="B589" t="inlineStr">
@@ -7504,7 +7504,7 @@
     <row r="590">
       <c r="A590" t="inlineStr">
         <is>
-          <t>en:sherry</t>
+          <t>sherry</t>
         </is>
       </c>
       <c r="B590" t="inlineStr">
@@ -7516,7 +7516,7 @@
     <row r="591">
       <c r="A591" t="inlineStr">
         <is>
-          <t>en:mesalliance</t>
+          <t>mesalliance</t>
         </is>
       </c>
       <c r="B591" t="inlineStr">
@@ -7528,7 +7528,7 @@
     <row r="592">
       <c r="A592" t="inlineStr">
         <is>
-          <t>en:martlets</t>
+          <t>martlets</t>
         </is>
       </c>
       <c r="B592" t="inlineStr">
@@ -7540,7 +7540,7 @@
     <row r="593">
       <c r="A593" t="inlineStr">
         <is>
-          <t>en:postilions</t>
+          <t>postilions</t>
         </is>
       </c>
       <c r="B593" t="inlineStr">
@@ -7552,7 +7552,7 @@
     <row r="594">
       <c r="A594" t="inlineStr">
         <is>
-          <t>en:commodious</t>
+          <t>commodious</t>
         </is>
       </c>
       <c r="B594" t="inlineStr">
@@ -7564,7 +7564,7 @@
     <row r="595">
       <c r="A595" t="inlineStr">
         <is>
-          <t>en:profess</t>
+          <t>profess</t>
         </is>
       </c>
       <c r="B595" t="inlineStr">
@@ -7576,7 +7576,7 @@
     <row r="596">
       <c r="A596" t="inlineStr">
         <is>
-          <t>en:imperceptibly</t>
+          <t>imperceptibly</t>
         </is>
       </c>
       <c r="B596" t="inlineStr">
@@ -7588,7 +7588,7 @@
     <row r="597">
       <c r="A597" t="inlineStr">
         <is>
-          <t>en:inquietude</t>
+          <t>inquietude</t>
         </is>
       </c>
       <c r="B597" t="inlineStr">
@@ -7600,7 +7600,7 @@
     <row r="598">
       <c r="A598" t="inlineStr">
         <is>
-          <t>en:scrivener</t>
+          <t>scrivener</t>
         </is>
       </c>
       <c r="B598" t="inlineStr">
@@ -7612,7 +7612,7 @@
     <row r="599">
       <c r="A599" t="inlineStr">
         <is>
-          <t>en:environs</t>
+          <t>environs</t>
         </is>
       </c>
       <c r="B599" t="inlineStr">
@@ -7624,7 +7624,7 @@
     <row r="600">
       <c r="A600" t="inlineStr">
         <is>
-          <t>en:haggard</t>
+          <t>haggard</t>
         </is>
       </c>
       <c r="B600" t="inlineStr">
@@ -7636,7 +7636,7 @@
     <row r="601">
       <c r="A601" t="inlineStr">
         <is>
-          <t>en:timorous</t>
+          <t>timorous</t>
         </is>
       </c>
       <c r="B601" t="inlineStr">
@@ -7648,7 +7648,7 @@
     <row r="602">
       <c r="A602" t="inlineStr">
         <is>
-          <t>en:scaffold</t>
+          <t>scaffold</t>
         </is>
       </c>
       <c r="B602" t="inlineStr">
@@ -7660,7 +7660,7 @@
     <row r="603">
       <c r="A603" t="inlineStr">
         <is>
-          <t>en:poniard</t>
+          <t>poniard</t>
         </is>
       </c>
       <c r="B603" t="inlineStr">
@@ -7672,7 +7672,7 @@
     <row r="604">
       <c r="A604" t="inlineStr">
         <is>
-          <t>en:sumptuous</t>
+          <t>sumptuous</t>
         </is>
       </c>
       <c r="B604" t="inlineStr">
@@ -7684,7 +7684,7 @@
     <row r="605">
       <c r="A605" t="inlineStr">
         <is>
-          <t>en:abated</t>
+          <t>abated</t>
         </is>
       </c>
       <c r="B605" t="inlineStr">
@@ -7696,7 +7696,7 @@
     <row r="606">
       <c r="A606" t="inlineStr">
         <is>
-          <t>en:querulous</t>
+          <t>querulous</t>
         </is>
       </c>
       <c r="B606" t="inlineStr">
@@ -7708,7 +7708,7 @@
     <row r="607">
       <c r="A607" t="inlineStr">
         <is>
-          <t>en:sedulously</t>
+          <t>sedulously</t>
         </is>
       </c>
       <c r="B607" t="inlineStr">
@@ -7720,7 +7720,7 @@
     <row r="608">
       <c r="A608" t="inlineStr">
         <is>
-          <t>en:assizes</t>
+          <t>assizes</t>
         </is>
       </c>
       <c r="B608" t="inlineStr">
@@ -7732,7 +7732,7 @@
     <row r="609">
       <c r="A609" t="inlineStr">
         <is>
-          <t>en:lugubrious</t>
+          <t>lugubrious</t>
         </is>
       </c>
       <c r="B609" t="inlineStr">
@@ -7744,7 +7744,7 @@
     <row r="610">
       <c r="A610" t="inlineStr">
         <is>
-          <t>en:inscrutable</t>
+          <t>inscrutable</t>
         </is>
       </c>
       <c r="B610" t="inlineStr">
@@ -7756,7 +7756,7 @@
     <row r="611">
       <c r="A611" t="inlineStr">
         <is>
-          <t>en:Some</t>
+          <t>Some</t>
         </is>
       </c>
       <c r="B611" t="inlineStr">
@@ -7768,7 +7768,7 @@
     <row r="612">
       <c r="A612" t="inlineStr">
         <is>
-          <t>en:sonorous</t>
+          <t>sonorous</t>
         </is>
       </c>
       <c r="B612" t="inlineStr">
@@ -7780,7 +7780,7 @@
     <row r="613">
       <c r="A613" t="inlineStr">
         <is>
-          <t>en:prepossessing</t>
+          <t>prepossessing</t>
         </is>
       </c>
       <c r="B613" t="inlineStr">
@@ -7792,7 +7792,7 @@
     <row r="614">
       <c r="A614" t="inlineStr">
         <is>
-          <t>en:rebuke</t>
+          <t>rebuke</t>
         </is>
       </c>
       <c r="B614" t="inlineStr">
@@ -7804,7 +7804,7 @@
     <row r="615">
       <c r="A615" t="inlineStr">
         <is>
-          <t>en:crest-fallen</t>
+          <t>crest-fallen</t>
         </is>
       </c>
       <c r="B615" t="inlineStr">
@@ -7816,7 +7816,7 @@
     <row r="616">
       <c r="A616" t="inlineStr">
         <is>
-          <t>en:incredulous</t>
+          <t>incredulous</t>
         </is>
       </c>
       <c r="B616" t="inlineStr">
@@ -7828,7 +7828,7 @@
     <row r="617">
       <c r="A617" t="inlineStr">
         <is>
-          <t>en:remiss</t>
+          <t>remiss</t>
         </is>
       </c>
       <c r="B617" t="inlineStr">
@@ -7840,7 +7840,7 @@
     <row r="618">
       <c r="A618" t="inlineStr">
         <is>
-          <t>en:arrogate</t>
+          <t>arrogate</t>
         </is>
       </c>
       <c r="B618" t="inlineStr">
@@ -7852,7 +7852,7 @@
     <row r="619">
       <c r="A619" t="inlineStr">
         <is>
-          <t>en:dappled</t>
+          <t>dappled</t>
         </is>
       </c>
       <c r="B619" t="inlineStr">
@@ -7864,7 +7864,7 @@
     <row r="620">
       <c r="A620" t="inlineStr">
         <is>
-          <t>en:discomfited</t>
+          <t>discomfited</t>
         </is>
       </c>
       <c r="B620" t="inlineStr">
@@ -7876,7 +7876,7 @@
     <row r="621">
       <c r="A621" t="inlineStr">
         <is>
-          <t>en:eulogistic</t>
+          <t>eulogistic</t>
         </is>
       </c>
       <c r="B621" t="inlineStr">
@@ -7888,7 +7888,7 @@
     <row r="622">
       <c r="A622" t="inlineStr">
         <is>
-          <t>en:donned</t>
+          <t>donned</t>
         </is>
       </c>
       <c r="B622" t="inlineStr">
@@ -7900,7 +7900,7 @@
     <row r="623">
       <c r="A623" t="inlineStr">
         <is>
-          <t>en:meagre</t>
+          <t>meagre</t>
         </is>
       </c>
       <c r="B623" t="inlineStr">
@@ -7912,7 +7912,7 @@
     <row r="624">
       <c r="A624" t="inlineStr">
         <is>
-          <t>en:delineated</t>
+          <t>delineated</t>
         </is>
       </c>
       <c r="B624" t="inlineStr">
@@ -7924,7 +7924,7 @@
     <row r="625">
       <c r="A625" t="inlineStr">
         <is>
-          <t>en:chicanery</t>
+          <t>chicanery</t>
         </is>
       </c>
       <c r="B625" t="inlineStr">
@@ -7936,7 +7936,7 @@
     <row r="626">
       <c r="A626" t="inlineStr">
         <is>
-          <t>en:impenetrable</t>
+          <t>impenetrable</t>
         </is>
       </c>
       <c r="B626" t="inlineStr">
@@ -7948,7 +7948,7 @@
     <row r="627">
       <c r="A627" t="inlineStr">
         <is>
-          <t>en:providence</t>
+          <t>providence</t>
         </is>
       </c>
       <c r="B627" t="inlineStr">
@@ -7960,7 +7960,7 @@
     <row r="628">
       <c r="A628" t="inlineStr">
         <is>
-          <t>en:Horticulture</t>
+          <t>Horticulture</t>
         </is>
       </c>
       <c r="B628" t="inlineStr">
@@ -7972,7 +7972,7 @@
     <row r="629">
       <c r="A629" t="inlineStr">
         <is>
-          <t>en:chiding</t>
+          <t>chiding</t>
         </is>
       </c>
       <c r="B629" t="inlineStr">
@@ -7984,7 +7984,7 @@
     <row r="630">
       <c r="A630" t="inlineStr">
         <is>
-          <t>en:overweening</t>
+          <t>overweening</t>
         </is>
       </c>
       <c r="B630" t="inlineStr">
@@ -7996,7 +7996,7 @@
     <row r="631">
       <c r="A631" t="inlineStr">
         <is>
-          <t>en:allotted</t>
+          <t>allotted</t>
         </is>
       </c>
       <c r="B631" t="inlineStr">
@@ -8008,7 +8008,7 @@
     <row r="632">
       <c r="A632" t="inlineStr">
         <is>
-          <t>en:perch</t>
+          <t>perch</t>
         </is>
       </c>
       <c r="B632" t="inlineStr">
@@ -8020,7 +8020,7 @@
     <row r="633">
       <c r="A633" t="inlineStr">
         <is>
-          <t>en:complacently</t>
+          <t>complacently</t>
         </is>
       </c>
       <c r="B633" t="inlineStr">
@@ -8032,7 +8032,7 @@
     <row r="634">
       <c r="A634" t="inlineStr">
         <is>
-          <t>en:cuirass</t>
+          <t>cuirass</t>
         </is>
       </c>
       <c r="B634" t="inlineStr">
@@ -8044,7 +8044,7 @@
     <row r="635">
       <c r="A635" t="inlineStr">
         <is>
-          <t>en:stratagems</t>
+          <t>stratagems</t>
         </is>
       </c>
       <c r="B635" t="inlineStr">
@@ -8056,7 +8056,7 @@
     <row r="636">
       <c r="A636" t="inlineStr">
         <is>
-          <t>en:scrutiny</t>
+          <t>scrutiny</t>
         </is>
       </c>
       <c r="B636" t="inlineStr">
@@ -8068,7 +8068,7 @@
     <row r="637">
       <c r="A637" t="inlineStr">
         <is>
-          <t>en:distempered</t>
+          <t>distempered</t>
         </is>
       </c>
       <c r="B637" t="inlineStr">
@@ -8080,7 +8080,7 @@
     <row r="638">
       <c r="A638" t="inlineStr">
         <is>
-          <t>en:lozenges</t>
+          <t>lozenges</t>
         </is>
       </c>
       <c r="B638" t="inlineStr">
@@ -8092,7 +8092,7 @@
     <row r="639">
       <c r="A639" t="inlineStr">
         <is>
-          <t>en:deglutition</t>
+          <t>deglutition</t>
         </is>
       </c>
       <c r="B639" t="inlineStr">
@@ -8104,7 +8104,7 @@
     <row r="640">
       <c r="A640" t="inlineStr">
         <is>
-          <t>en:betokened</t>
+          <t>betokened</t>
         </is>
       </c>
       <c r="B640" t="inlineStr">
@@ -8116,7 +8116,7 @@
     <row r="641">
       <c r="A641" t="inlineStr">
         <is>
-          <t>en:bachelor</t>
+          <t>bachelor</t>
         </is>
       </c>
       <c r="B641" t="inlineStr">
@@ -8128,7 +8128,7 @@
     <row r="642">
       <c r="A642" t="inlineStr">
         <is>
-          <t>en:dissents</t>
+          <t>dissents</t>
         </is>
       </c>
       <c r="B642" t="inlineStr">
@@ -8140,7 +8140,7 @@
     <row r="643">
       <c r="A643" t="inlineStr">
         <is>
-          <t>en:emboldened</t>
+          <t>emboldened</t>
         </is>
       </c>
       <c r="B643" t="inlineStr">
@@ -8152,7 +8152,7 @@
     <row r="644">
       <c r="A644" t="inlineStr">
         <is>
-          <t>en:proprietor</t>
+          <t>proprietor</t>
         </is>
       </c>
       <c r="B644" t="inlineStr">
@@ -8164,7 +8164,7 @@
     <row r="645">
       <c r="A645" t="inlineStr">
         <is>
-          <t>en:perusal</t>
+          <t>perusal</t>
         </is>
       </c>
       <c r="B645" t="inlineStr">
@@ -8176,7 +8176,7 @@
     <row r="646">
       <c r="A646" t="inlineStr">
         <is>
-          <t>en:lachrymal</t>
+          <t>lachrymal</t>
         </is>
       </c>
       <c r="B646" t="inlineStr">
@@ -8188,7 +8188,7 @@
     <row r="647">
       <c r="A647" t="inlineStr">
         <is>
-          <t>en:superfluous</t>
+          <t>superfluous</t>
         </is>
       </c>
       <c r="B647" t="inlineStr">
@@ -8200,7 +8200,7 @@
     <row r="648">
       <c r="A648" t="inlineStr">
         <is>
-          <t>en:indispensable</t>
+          <t>indispensable</t>
         </is>
       </c>
       <c r="B648" t="inlineStr">
@@ -8212,7 +8212,7 @@
     <row r="649">
       <c r="A649" t="inlineStr">
         <is>
-          <t>en:effrontery</t>
+          <t>effrontery</t>
         </is>
       </c>
       <c r="B649" t="inlineStr">
@@ -8224,7 +8224,7 @@
     <row r="650">
       <c r="A650" t="inlineStr">
         <is>
-          <t>en:avaricious</t>
+          <t>avaricious</t>
         </is>
       </c>
       <c r="B650" t="inlineStr">
@@ -8236,7 +8236,7 @@
     <row r="651">
       <c r="A651" t="inlineStr">
         <is>
-          <t>en:ostensible</t>
+          <t>ostensible</t>
         </is>
       </c>
       <c r="B651" t="inlineStr">
@@ -8248,7 +8248,7 @@
     <row r="652">
       <c r="A652" t="inlineStr">
         <is>
-          <t>en:notary</t>
+          <t>notary</t>
         </is>
       </c>
       <c r="B652" t="inlineStr">
@@ -8260,7 +8260,7 @@
     <row r="653">
       <c r="A653" t="inlineStr">
         <is>
-          <t>en:avarice</t>
+          <t>avarice</t>
         </is>
       </c>
       <c r="B653" t="inlineStr">
@@ -8272,7 +8272,7 @@
     <row r="654">
       <c r="A654" t="inlineStr">
         <is>
-          <t>en:fagged</t>
+          <t>fagged</t>
         </is>
       </c>
       <c r="B654" t="inlineStr">
@@ -8284,7 +8284,7 @@
     <row r="655">
       <c r="A655" t="inlineStr">
         <is>
-          <t>en:redounding</t>
+          <t>redounding</t>
         </is>
       </c>
       <c r="B655" t="inlineStr">
@@ -8296,7 +8296,7 @@
     <row r="656">
       <c r="A656" t="inlineStr">
         <is>
-          <t>en:dormice</t>
+          <t>dormice</t>
         </is>
       </c>
       <c r="B656" t="inlineStr">
@@ -8308,7 +8308,7 @@
     <row r="657">
       <c r="A657" t="inlineStr">
         <is>
-          <t>en:telegraph</t>
+          <t>telegraph</t>
         </is>
       </c>
       <c r="B657" t="inlineStr">
@@ -8320,7 +8320,7 @@
     <row r="658">
       <c r="A658" t="inlineStr">
         <is>
-          <t>en:dissimulate</t>
+          <t>dissimulate</t>
         </is>
       </c>
       <c r="B658" t="inlineStr">
@@ -8332,7 +8332,7 @@
     <row r="659">
       <c r="A659" t="inlineStr">
         <is>
-          <t>en:infanticides</t>
+          <t>infanticides</t>
         </is>
       </c>
       <c r="B659" t="inlineStr">
@@ -8344,7 +8344,7 @@
     <row r="660">
       <c r="A660" t="inlineStr">
         <is>
-          <t>en:carbuncles</t>
+          <t>carbuncles</t>
         </is>
       </c>
       <c r="B660" t="inlineStr">
@@ -8356,7 +8356,7 @@
     <row r="661">
       <c r="A661" t="inlineStr">
         <is>
-          <t>en:exasperated</t>
+          <t>exasperated</t>
         </is>
       </c>
       <c r="B661" t="inlineStr">
@@ -8368,7 +8368,7 @@
     <row r="662">
       <c r="A662" t="inlineStr">
         <is>
-          <t>en:notoriety</t>
+          <t>notoriety</t>
         </is>
       </c>
       <c r="B662" t="inlineStr">
@@ -8380,7 +8380,7 @@
     <row r="663">
       <c r="A663" t="inlineStr">
         <is>
-          <t>en:sanguinary</t>
+          <t>sanguinary</t>
         </is>
       </c>
       <c r="B663" t="inlineStr">
@@ -8392,7 +8392,7 @@
     <row r="664">
       <c r="A664" t="inlineStr">
         <is>
-          <t>en:foppish</t>
+          <t>foppish</t>
         </is>
       </c>
       <c r="B664" t="inlineStr">
@@ -8404,7 +8404,7 @@
     <row r="665">
       <c r="A665" t="inlineStr">
         <is>
-          <t>en:cachucha</t>
+          <t>cachucha</t>
         </is>
       </c>
       <c r="B665" t="inlineStr">
@@ -8416,7 +8416,7 @@
     <row r="666">
       <c r="A666" t="inlineStr">
         <is>
-          <t>en:orangeade</t>
+          <t>orangeade</t>
         </is>
       </c>
       <c r="B666" t="inlineStr">
@@ -8428,7 +8428,7 @@
     <row r="667">
       <c r="A667" t="inlineStr">
         <is>
-          <t>en:auspices</t>
+          <t>auspices</t>
         </is>
       </c>
       <c r="B667" t="inlineStr">
@@ -8440,7 +8440,7 @@
     <row r="668">
       <c r="A668" t="inlineStr">
         <is>
-          <t>en:spectre</t>
+          <t>spectre</t>
         </is>
       </c>
       <c r="B668" t="inlineStr">
@@ -8452,7 +8452,7 @@
     <row r="669">
       <c r="A669" t="inlineStr">
         <is>
-          <t>en:stifle</t>
+          <t>stifle</t>
         </is>
       </c>
       <c r="B669" t="inlineStr">
@@ -8464,7 +8464,7 @@
     <row r="670">
       <c r="A670" t="inlineStr">
         <is>
-          <t>en:dispelled</t>
+          <t>dispelled</t>
         </is>
       </c>
       <c r="B670" t="inlineStr">
@@ -8476,7 +8476,7 @@
     <row r="671">
       <c r="A671" t="inlineStr">
         <is>
-          <t>en:sheathe</t>
+          <t>sheathe</t>
         </is>
       </c>
       <c r="B671" t="inlineStr">
@@ -8488,7 +8488,7 @@
     <row r="672">
       <c r="A672" t="inlineStr">
         <is>
-          <t>en:cajolery</t>
+          <t>cajolery</t>
         </is>
       </c>
       <c r="B672" t="inlineStr">
@@ -8500,7 +8500,7 @@
     <row r="673">
       <c r="A673" t="inlineStr">
         <is>
-          <t>en:remained</t>
+          <t>remained</t>
         </is>
       </c>
       <c r="B673" t="inlineStr">
@@ -8512,7 +8512,7 @@
     <row r="674">
       <c r="A674" t="inlineStr">
         <is>
-          <t>en:ebullition</t>
+          <t>ebullition</t>
         </is>
       </c>
       <c r="B674" t="inlineStr">
@@ -8524,7 +8524,7 @@
     <row r="675">
       <c r="A675" t="inlineStr">
         <is>
-          <t>en:Calumnies</t>
+          <t>Calumnies</t>
         </is>
       </c>
       <c r="B675" t="inlineStr">
@@ -8536,7 +8536,7 @@
     <row r="676">
       <c r="A676" t="inlineStr">
         <is>
-          <t>en:harebrained</t>
+          <t>harebrained</t>
         </is>
       </c>
       <c r="B676" t="inlineStr">
@@ -8548,7 +8548,7 @@
     <row r="677">
       <c r="A677" t="inlineStr">
         <is>
-          <t>en:emetic</t>
+          <t>emetic</t>
         </is>
       </c>
       <c r="B677" t="inlineStr">
@@ -8560,7 +8560,7 @@
     <row r="678">
       <c r="A678" t="inlineStr">
         <is>
-          <t>en:covetous</t>
+          <t>covetous</t>
         </is>
       </c>
       <c r="B678" t="inlineStr">
@@ -8572,7 +8572,7 @@
     <row r="679">
       <c r="A679" t="inlineStr">
         <is>
-          <t>en:Inured</t>
+          <t>Inured</t>
         </is>
       </c>
       <c r="B679" t="inlineStr">
@@ -8584,7 +8584,7 @@
     <row r="680">
       <c r="A680" t="inlineStr">
         <is>
-          <t>en:peril</t>
+          <t>peril</t>
         </is>
       </c>
       <c r="B680" t="inlineStr">
@@ -8596,7 +8596,7 @@
     <row r="681">
       <c r="A681" t="inlineStr">
         <is>
-          <t>en:Reverend</t>
+          <t>Reverend</t>
         </is>
       </c>
       <c r="B681" t="inlineStr">
@@ -8608,7 +8608,7 @@
     <row r="682">
       <c r="A682" t="inlineStr">
         <is>
-          <t>en:abettor</t>
+          <t>abettor</t>
         </is>
       </c>
       <c r="B682" t="inlineStr">
@@ -8620,7 +8620,7 @@
     <row r="683">
       <c r="A683" t="inlineStr">
         <is>
-          <t>en:circumlocution</t>
+          <t>circumlocution</t>
         </is>
       </c>
       <c r="B683" t="inlineStr">
@@ -8632,7 +8632,7 @@
     <row r="684">
       <c r="A684" t="inlineStr">
         <is>
-          <t>en:retains</t>
+          <t>retains</t>
         </is>
       </c>
       <c r="B684" t="inlineStr">
@@ -8644,7 +8644,7 @@
     <row r="685">
       <c r="A685" t="inlineStr">
         <is>
-          <t>en:renounce</t>
+          <t>renounce</t>
         </is>
       </c>
       <c r="B685" t="inlineStr">
@@ -8656,7 +8656,7 @@
     <row r="686">
       <c r="A686" t="inlineStr">
         <is>
-          <t>en:simoom</t>
+          <t>simoom</t>
         </is>
       </c>
       <c r="B686" t="inlineStr">
@@ -8668,7 +8668,7 @@
     <row r="687">
       <c r="A687" t="inlineStr">
         <is>
-          <t>en:codicil</t>
+          <t>codicil</t>
         </is>
       </c>
       <c r="B687" t="inlineStr">
@@ -8680,7 +8680,7 @@
     <row r="688">
       <c r="A688" t="inlineStr">
         <is>
-          <t>en:pointedness</t>
+          <t>pointedness</t>
         </is>
       </c>
       <c r="B688" t="inlineStr">
@@ -8692,7 +8692,7 @@
     <row r="689">
       <c r="A689" t="inlineStr">
         <is>
-          <t>en:encumbrance</t>
+          <t>encumbrance</t>
         </is>
       </c>
       <c r="B689" t="inlineStr">
@@ -8704,7 +8704,7 @@
     <row r="690">
       <c r="A690" t="inlineStr">
         <is>
-          <t>en:imbibe</t>
+          <t>imbibe</t>
         </is>
       </c>
       <c r="B690" t="inlineStr">
@@ -8716,7 +8716,7 @@
     <row r="691">
       <c r="A691" t="inlineStr">
         <is>
-          <t>en:vexatious</t>
+          <t>vexatious</t>
         </is>
       </c>
       <c r="B691" t="inlineStr">
@@ -8728,7 +8728,7 @@
     <row r="692">
       <c r="A692" t="inlineStr">
         <is>
-          <t>en:opulence</t>
+          <t>opulence</t>
         </is>
       </c>
       <c r="B692" t="inlineStr">
@@ -8740,7 +8740,7 @@
     <row r="693">
       <c r="A693" t="inlineStr">
         <is>
-          <t>en:interlocutor</t>
+          <t>interlocutor</t>
         </is>
       </c>
       <c r="B693" t="inlineStr">
@@ -8752,7 +8752,7 @@
     <row r="694">
       <c r="A694" t="inlineStr">
         <is>
-          <t>en:pygmy</t>
+          <t>pygmy</t>
         </is>
       </c>
       <c r="B694" t="inlineStr">
@@ -8764,7 +8764,7 @@
     <row r="695">
       <c r="A695" t="inlineStr">
         <is>
-          <t>en:ottoman</t>
+          <t>ottoman</t>
         </is>
       </c>
       <c r="B695" t="inlineStr">
@@ -8776,7 +8776,7 @@
     <row r="696">
       <c r="A696" t="inlineStr">
         <is>
-          <t>en:vociferated</t>
+          <t>vociferated</t>
         </is>
       </c>
       <c r="B696" t="inlineStr">
@@ -8788,7 +8788,7 @@
     <row r="697">
       <c r="A697" t="inlineStr">
         <is>
-          <t>en:precocious</t>
+          <t>precocious</t>
         </is>
       </c>
       <c r="B697" t="inlineStr">
@@ -8800,7 +8800,7 @@
     <row r="698">
       <c r="A698" t="inlineStr">
         <is>
-          <t>en:sacrilegious</t>
+          <t>sacrilegious</t>
         </is>
       </c>
       <c r="B698" t="inlineStr">
@@ -8812,7 +8812,7 @@
     <row r="699">
       <c r="A699" t="inlineStr">
         <is>
-          <t>en:prostrated</t>
+          <t>prostrated</t>
         </is>
       </c>
       <c r="B699" t="inlineStr">
@@ -8824,7 +8824,7 @@
     <row r="700">
       <c r="A700" t="inlineStr">
         <is>
-          <t>en:indissolubly</t>
+          <t>indissolubly</t>
         </is>
       </c>
       <c r="B700" t="inlineStr">
@@ -8836,7 +8836,7 @@
     <row r="701">
       <c r="A701" t="inlineStr">
         <is>
-          <t>en:vacillating</t>
+          <t>vacillating</t>
         </is>
       </c>
       <c r="B701" t="inlineStr">
@@ -8848,7 +8848,7 @@
     <row r="702">
       <c r="A702" t="inlineStr">
         <is>
-          <t>en:astutely</t>
+          <t>astutely</t>
         </is>
       </c>
       <c r="B702" t="inlineStr">
@@ -8860,7 +8860,7 @@
     <row r="703">
       <c r="A703" t="inlineStr">
         <is>
-          <t>en:gainsaid</t>
+          <t>gainsaid</t>
         </is>
       </c>
       <c r="B703" t="inlineStr">
@@ -8872,7 +8872,7 @@
     <row r="704">
       <c r="A704" t="inlineStr">
         <is>
-          <t>en:wanton</t>
+          <t>wanton</t>
         </is>
       </c>
       <c r="B704" t="inlineStr">
@@ -8884,7 +8884,7 @@
     <row r="705">
       <c r="A705" t="inlineStr">
         <is>
-          <t>en:yeoman</t>
+          <t>yeoman</t>
         </is>
       </c>
       <c r="B705" t="inlineStr">
@@ -8896,7 +8896,7 @@
     <row r="706">
       <c r="A706" t="inlineStr">
         <is>
-          <t>en:corroborated</t>
+          <t>corroborated</t>
         </is>
       </c>
       <c r="B706" t="inlineStr">
@@ -8908,7 +8908,7 @@
     <row r="707">
       <c r="A707" t="inlineStr">
         <is>
-          <t>en:garrulous</t>
+          <t>garrulous</t>
         </is>
       </c>
       <c r="B707" t="inlineStr">
@@ -8920,7 +8920,7 @@
     <row r="708">
       <c r="A708" t="inlineStr">
         <is>
-          <t>en:chastened</t>
+          <t>chastened</t>
         </is>
       </c>
       <c r="B708" t="inlineStr">
@@ -8932,7 +8932,7 @@
     <row r="709">
       <c r="A709" t="inlineStr">
         <is>
-          <t>en:tussling</t>
+          <t>tussling</t>
         </is>
       </c>
       <c r="B709" t="inlineStr">
@@ -8944,7 +8944,7 @@
     <row r="710">
       <c r="A710" t="inlineStr">
         <is>
-          <t>en:brougham</t>
+          <t>brougham</t>
         </is>
       </c>
       <c r="B710" t="inlineStr">
@@ -8956,7 +8956,7 @@
     <row r="711">
       <c r="A711" t="inlineStr">
         <is>
-          <t>en:pedestal</t>
+          <t>pedestal</t>
         </is>
       </c>
       <c r="B711" t="inlineStr">
@@ -8968,7 +8968,7 @@
     <row r="712">
       <c r="A712" t="inlineStr">
         <is>
-          <t>en:commiseration</t>
+          <t>commiseration</t>
         </is>
       </c>
       <c r="B712" t="inlineStr">
@@ -8980,7 +8980,7 @@
     <row r="713">
       <c r="A713" t="inlineStr">
         <is>
-          <t>en:evening</t>
+          <t>evening</t>
         </is>
       </c>
       <c r="B713" t="inlineStr">
@@ -8992,7 +8992,7 @@
     <row r="714">
       <c r="A714" t="inlineStr">
         <is>
-          <t>en:languidly</t>
+          <t>languidly</t>
         </is>
       </c>
       <c r="B714" t="inlineStr">
@@ -9004,7 +9004,7 @@
     <row r="715">
       <c r="A715" t="inlineStr">
         <is>
-          <t>en:ribaldry</t>
+          <t>ribaldry</t>
         </is>
       </c>
       <c r="B715" t="inlineStr">
@@ -9016,7 +9016,7 @@
     <row r="716">
       <c r="A716" t="inlineStr">
         <is>
-          <t>en:incredulity</t>
+          <t>incredulity</t>
         </is>
       </c>
       <c r="B716" t="inlineStr">
@@ -9028,7 +9028,7 @@
     <row r="717">
       <c r="A717" t="inlineStr">
         <is>
-          <t>en:gimlets</t>
+          <t>gimlets</t>
         </is>
       </c>
       <c r="B717" t="inlineStr">
@@ -9040,7 +9040,7 @@
     <row r="718">
       <c r="A718" t="inlineStr">
         <is>
-          <t>en:tawny</t>
+          <t>tawny</t>
         </is>
       </c>
       <c r="B718" t="inlineStr">
@@ -9052,7 +9052,7 @@
     <row r="719">
       <c r="A719" t="inlineStr">
         <is>
-          <t>en:austerity</t>
+          <t>austerity</t>
         </is>
       </c>
       <c r="B719" t="inlineStr">
@@ -9064,7 +9064,7 @@
     <row r="720">
       <c r="A720" t="inlineStr">
         <is>
-          <t>en:swarthy</t>
+          <t>swarthy</t>
         </is>
       </c>
       <c r="B720" t="inlineStr">
@@ -9076,7 +9076,7 @@
     <row r="721">
       <c r="A721" t="inlineStr">
         <is>
-          <t>en:protuberant</t>
+          <t>protuberant</t>
         </is>
       </c>
       <c r="B721" t="inlineStr">
@@ -9088,7 +9088,7 @@
     <row r="722">
       <c r="A722" t="inlineStr">
         <is>
-          <t>en:samovar</t>
+          <t>samovar</t>
         </is>
       </c>
       <c r="B722" t="inlineStr">
@@ -9100,7 +9100,7 @@
     <row r="723">
       <c r="A723" t="inlineStr">
         <is>
-          <t>en:purling</t>
+          <t>purling</t>
         </is>
       </c>
       <c r="B723" t="inlineStr">
@@ -9112,7 +9112,7 @@
     <row r="724">
       <c r="A724" t="inlineStr">
         <is>
-          <t>en:sobriquet</t>
+          <t>sobriquet</t>
         </is>
       </c>
       <c r="B724" t="inlineStr">
@@ -9124,7 +9124,7 @@
     <row r="725">
       <c r="A725" t="inlineStr">
         <is>
-          <t>en:trenchantly</t>
+          <t>trenchantly</t>
         </is>
       </c>
       <c r="B725" t="inlineStr">
@@ -9136,7 +9136,7 @@
     <row r="726">
       <c r="A726" t="inlineStr">
         <is>
-          <t>en:sedately</t>
+          <t>sedately</t>
         </is>
       </c>
       <c r="B726" t="inlineStr">
@@ -9148,7 +9148,7 @@
     <row r="727">
       <c r="A727" t="inlineStr">
         <is>
-          <t>en:stoutness</t>
+          <t>stoutness</t>
         </is>
       </c>
       <c r="B727" t="inlineStr">
@@ -9160,7 +9160,7 @@
     <row r="728">
       <c r="A728" t="inlineStr">
         <is>
-          <t>en:versts</t>
+          <t>versts</t>
         </is>
       </c>
       <c r="B728" t="inlineStr">
@@ -9172,7 +9172,7 @@
     <row r="729">
       <c r="A729" t="inlineStr">
         <is>
-          <t>en:putrescent</t>
+          <t>putrescent</t>
         </is>
       </c>
       <c r="B729" t="inlineStr">
@@ -9184,7 +9184,7 @@
     <row r="730">
       <c r="A730" t="inlineStr">
         <is>
-          <t>en:guffaw</t>
+          <t>guffaw</t>
         </is>
       </c>
       <c r="B730" t="inlineStr">
@@ -9196,7 +9196,7 @@
     <row r="731">
       <c r="A731" t="inlineStr">
         <is>
-          <t>en:noxious</t>
+          <t>noxious</t>
         </is>
       </c>
       <c r="B731" t="inlineStr">
@@ -9208,7 +9208,7 @@
     <row r="732">
       <c r="A732" t="inlineStr">
         <is>
-          <t>en:thraldom</t>
+          <t>thraldom</t>
         </is>
       </c>
       <c r="B732" t="inlineStr">
@@ -9220,7 +9220,7 @@
     <row r="733">
       <c r="A733" t="inlineStr">
         <is>
-          <t>en:effervescing</t>
+          <t>effervescing</t>
         </is>
       </c>
       <c r="B733" t="inlineStr">
@@ -9232,7 +9232,7 @@
     <row r="734">
       <c r="A734" t="inlineStr">
         <is>
-          <t>en:palavering</t>
+          <t>palavering</t>
         </is>
       </c>
       <c r="B734" t="inlineStr">
@@ -9244,7 +9244,7 @@
     <row r="735">
       <c r="A735" t="inlineStr">
         <is>
-          <t>en:aslant</t>
+          <t>aslant</t>
         </is>
       </c>
       <c r="B735" t="inlineStr">
@@ -9256,7 +9256,7 @@
     <row r="736">
       <c r="A736" t="inlineStr">
         <is>
-          <t>en:muzhiks</t>
+          <t>muzhiks</t>
         </is>
       </c>
       <c r="B736" t="inlineStr">
@@ -9268,7 +9268,7 @@
     <row r="737">
       <c r="A737" t="inlineStr">
         <is>
-          <t>en:slake</t>
+          <t>slake</t>
         </is>
       </c>
       <c r="B737" t="inlineStr">
@@ -9280,7 +9280,7 @@
     <row r="738">
       <c r="A738" t="inlineStr">
         <is>
-          <t>en:deacon</t>
+          <t>deacon</t>
         </is>
       </c>
       <c r="B738" t="inlineStr">
@@ -9292,7 +9292,7 @@
     <row r="739">
       <c r="A739" t="inlineStr">
         <is>
-          <t>en:belfry</t>
+          <t>belfry</t>
         </is>
       </c>
       <c r="B739" t="inlineStr">
@@ -9304,7 +9304,7 @@
     <row r="740">
       <c r="A740" t="inlineStr">
         <is>
-          <t>en:sloven</t>
+          <t>sloven</t>
         </is>
       </c>
       <c r="B740" t="inlineStr">
@@ -9316,7 +9316,7 @@
     <row r="741">
       <c r="A741" t="inlineStr">
         <is>
-          <t>en:verdant</t>
+          <t>verdant</t>
         </is>
       </c>
       <c r="B741" t="inlineStr">
@@ -9328,7 +9328,7 @@
     <row r="742">
       <c r="A742" t="inlineStr">
         <is>
-          <t>en:wiseacre</t>
+          <t>wiseacre</t>
         </is>
       </c>
       <c r="B742" t="inlineStr">
@@ -9340,7 +9340,7 @@
     <row r="743">
       <c r="A743" t="inlineStr">
         <is>
-          <t>en:perforce</t>
+          <t>perforce</t>
         </is>
       </c>
       <c r="B743" t="inlineStr">
@@ -9352,7 +9352,7 @@
     <row r="744">
       <c r="A744" t="inlineStr">
         <is>
-          <t>en:intercede</t>
+          <t>intercede</t>
         </is>
       </c>
       <c r="B744" t="inlineStr">
@@ -9364,7 +9364,7 @@
     <row r="745">
       <c r="A745" t="inlineStr">
         <is>
-          <t>en:starched</t>
+          <t>starched</t>
         </is>
       </c>
       <c r="B745" t="inlineStr">
@@ -9376,7 +9376,7 @@
     <row r="746">
       <c r="A746" t="inlineStr">
         <is>
-          <t>en:consummate</t>
+          <t>consummate</t>
         </is>
       </c>
       <c r="B746" t="inlineStr">
@@ -9388,7 +9388,7 @@
     <row r="747">
       <c r="A747" t="inlineStr">
         <is>
-          <t>en:forsooth</t>
+          <t>forsooth</t>
         </is>
       </c>
       <c r="B747" t="inlineStr">
@@ -9400,7 +9400,7 @@
     <row r="748">
       <c r="A748" t="inlineStr">
         <is>
-          <t>en:greengrocers</t>
+          <t>greengrocers</t>
         </is>
       </c>
       <c r="B748" t="inlineStr">
@@ -9412,7 +9412,7 @@
     <row r="749">
       <c r="A749" t="inlineStr">
         <is>
-          <t>en:almshouses</t>
+          <t>almshouses</t>
         </is>
       </c>
       <c r="B749" t="inlineStr">
@@ -9424,7 +9424,7 @@
     <row r="750">
       <c r="A750" t="inlineStr">
         <is>
-          <t>en:wrought</t>
+          <t>wrought</t>
         </is>
       </c>
       <c r="B750" t="inlineStr">
@@ -9436,7 +9436,7 @@
     <row r="751">
       <c r="A751" t="inlineStr">
         <is>
-          <t>en:antecedents</t>
+          <t>antecedents</t>
         </is>
       </c>
       <c r="B751" t="inlineStr">
@@ -9448,7 +9448,7 @@
     <row r="752">
       <c r="A752" t="inlineStr">
         <is>
-          <t>en:henpeck</t>
+          <t>henpeck</t>
         </is>
       </c>
       <c r="B752" t="inlineStr">
@@ -9460,7 +9460,7 @@
     <row r="753">
       <c r="A753" t="inlineStr">
         <is>
-          <t>en:fetid</t>
+          <t>fetid</t>
         </is>
       </c>
       <c r="B753" t="inlineStr">
@@ -9472,7 +9472,7 @@
     <row r="754">
       <c r="A754" t="inlineStr">
         <is>
-          <t>en:parson</t>
+          <t>parson</t>
         </is>
       </c>
       <c r="B754" t="inlineStr">
@@ -9484,7 +9484,7 @@
     <row r="755">
       <c r="A755" t="inlineStr">
         <is>
-          <t>en:remonstrance</t>
+          <t>remonstrance</t>
         </is>
       </c>
       <c r="B755" t="inlineStr">
@@ -9496,7 +9496,7 @@
     <row r="756">
       <c r="A756" t="inlineStr">
         <is>
-          <t>en:vicarage</t>
+          <t>vicarage</t>
         </is>
       </c>
       <c r="B756" t="inlineStr">

--- a/result.xlsx
+++ b/result.xlsx
@@ -463,7 +463,7 @@
       </c>
       <c r="C2" t="inlineStr">
         <is>
-          <t>A foolish, frivolous, self-conscious, or affected smile; a smirk.To smile in a foolish, frivolous, self-conscious, coy, or smug manner.</t>
+          <t xml:space="preserve"> / A foolish, frivolous, self-conscious, or affected smile; a smirk. / To smile in a foolish, frivolous, self-conscious, coy, or smug manner.</t>
         </is>
       </c>
     </row>
@@ -480,7 +480,7 @@
       </c>
       <c r="C3" t="inlineStr">
         <is>
-          <t>A lord, master, or other person in authority, most commonly used vocatively: formerly in speaking to elders and superiors, later only when addressing a sovereign.(of a male) to procreate; to father, beget, impregnate.</t>
+          <t xml:space="preserve"> / A lord, master, or other person in authority, most commonly used vocatively: formerly in speaking to elders and superiors, later only when addressing a sovereign. / (of a male) to procreate; to father, beget, impregnate.</t>
         </is>
       </c>
     </row>
@@ -497,7 +497,7 @@
       </c>
       <c r="C4" t="inlineStr">
         <is>
-          <t>(Singlish) Used to contradict an underlying assumption held by the interlocutor.Something; thing; stuff.(usually followed by "with," but also sometimes "would" or "might," especially in finance) In some manner or degree; in part; partly. See also what with(interrogative) Which thing, event, circumstance, etc.: used interrogatively in asking for the specification of an identity, quantity, quality, etc.An expression of surprise or disbelief.</t>
+          <t xml:space="preserve"> / (Singlish) Used to contradict an underlying assumption held by the interlocutor. / Something; thing; stuff. / (usually followed by "with," but also sometimes "would" or "might," especially in finance) In some manner or degree; in part; partly. See also what with / (interrogative) Which thing, event, circumstance, etc.: used interrogatively in asking for the specification of an identity, quantity, quality, etc. / An expression of surprise or disbelief.</t>
         </is>
       </c>
     </row>
@@ -514,7 +514,7 @@
       </c>
       <c r="C5" t="inlineStr">
         <is>
-          <t>An English dessert made from a mixture of thick custard, fruit, sponge cake, jelly and whipped cream.To deal with something as if it were of little importance or worth.</t>
+          <t xml:space="preserve"> / An English dessert made from a mixture of thick custard, fruit, sponge cake, jelly and whipped cream. / To deal with something as if it were of little importance or worth.</t>
         </is>
       </c>
     </row>
@@ -531,7 +531,7 @@
       </c>
       <c r="C6" t="inlineStr">
         <is>
-          <t>A type of glove or garment that covers a hand with a separate sheath for the thumb, but not for other fingers, which are either enclosed in a single section or left uncovered.</t>
+          <t xml:space="preserve"> / A type of glove or garment that covers a hand with a separate sheath for the thumb, but not for other fingers, which are either enclosed in a single section or left uncovered.</t>
         </is>
       </c>
     </row>
@@ -548,7 +548,7 @@
       </c>
       <c r="C7" t="inlineStr">
         <is>
-          <t>Suitable; appropriate; fit or fitted; suited.</t>
+          <t xml:space="preserve"> / Suitable; appropriate; fit or fitted; suited.</t>
         </is>
       </c>
     </row>
@@ -565,7 +565,7 @@
       </c>
       <c r="C8" t="inlineStr">
         <is>
-          <t>The state or characteristic of being good.</t>
+          <t xml:space="preserve"> / The state or characteristic of being good.</t>
         </is>
       </c>
     </row>
@@ -582,7 +582,7 @@
       </c>
       <c r="C9" t="inlineStr">
         <is>
-          <t>A reddish-brown color.(of apples, pears, etc.) To develop reddish-brown spots; to cause russeting.</t>
+          <t xml:space="preserve"> / A reddish-brown color. / (of apples, pears, etc.) To develop reddish-brown spots; to cause russeting.</t>
         </is>
       </c>
     </row>
@@ -599,7 +599,7 @@
       </c>
       <c r="C10" t="inlineStr">
         <is>
-          <t>A small ring.</t>
+          <t xml:space="preserve"> / A small ring.</t>
         </is>
       </c>
     </row>
@@ -616,7 +616,7 @@
       </c>
       <c r="C11" t="inlineStr">
         <is>
-          <t>The movement (of someone or something) forward followed by a return to the same position. May refer to a concept such as an emotional state or a relationship as well as a physical thing.To go back and forth; to alternate.Pertaining to something or someone moving forward and back to the same position.Back and forth; with a reciprocating motion.</t>
+          <t xml:space="preserve"> / The movement (of someone or something) forward followed by a return to the same position. May refer to a concept such as an emotional state or a relationship as well as a physical thing. / To go back and forth; to alternate. / Pertaining to something or someone moving forward and back to the same position. / Back and forth; with a reciprocating motion.</t>
         </is>
       </c>
     </row>
@@ -633,7 +633,7 @@
       </c>
       <c r="C12" t="inlineStr">
         <is>
-          <t>That place.(location) In a place or location (stated, implied or otherwise indicated) at some distance from the speaker (compare here).Used as an expletive subject of be in its sense of “exist”, with the semantic, usually indefinite subject being postponed or (occasionally) implied.Used to offer encouragement or sympathy.</t>
+          <t xml:space="preserve"> / That place. / (location) In a place or location (stated, implied or otherwise indicated) at some distance from the speaker (compare here). / Used as an expletive subject of be in its sense of “exist”, with the semantic, usually indefinite subject being postponed or (occasionally) implied. / Used to offer encouragement or sympathy.</t>
         </is>
       </c>
     </row>
@@ -650,7 +650,7 @@
       </c>
       <c r="C13" t="inlineStr">
         <is>
-          <t>Of or pertaining to piety, exhibiting piety, devout, godfearing.</t>
+          <t xml:space="preserve"> / Of or pertaining to piety, exhibiting piety, devout, godfearing.</t>
         </is>
       </c>
     </row>
@@ -667,7 +667,7 @@
       </c>
       <c r="C14" t="inlineStr">
         <is>
-          <t>The suit, in a game of cards, that outranks all others.To play on (a card of another suit) with a trump.</t>
+          <t xml:space="preserve"> / The suit, in a game of cards, that outranks all others. / To play on (a card of another suit) with a trump.</t>
         </is>
       </c>
     </row>
@@ -684,7 +684,7 @@
       </c>
       <c r="C15" t="inlineStr">
         <is>
-          <t>A reddish-brown color.(of apples, pears, etc.) To develop reddish-brown spots; to cause russeting.Having a reddish-brown color.</t>
+          <t xml:space="preserve"> / A reddish-brown color. / (of apples, pears, etc.) To develop reddish-brown spots; to cause russeting. / Having a reddish-brown color.</t>
         </is>
       </c>
     </row>
@@ -701,7 +701,7 @@
       </c>
       <c r="C16" t="inlineStr">
         <is>
-          <t>To modulate a tone's frequency.</t>
+          <t xml:space="preserve"> / To modulate a tone's frequency.</t>
         </is>
       </c>
     </row>
@@ -718,7 +718,7 @@
       </c>
       <c r="C17" t="inlineStr">
         <is>
-          <t>Any of several plants, of the genus Arnica, considered to have medicinal properties, especially Arnica montana.</t>
+          <t xml:space="preserve"> / Any of several plants, of the genus Arnica, considered to have medicinal properties, especially Arnica montana.</t>
         </is>
       </c>
     </row>
@@ -735,7 +735,7 @@
       </c>
       <c r="C18" t="inlineStr">
         <is>
-          <t>Food.To provide or obtain edible provisions.</t>
+          <t xml:space="preserve"> / Food. / To provide or obtain edible provisions.</t>
         </is>
       </c>
     </row>
@@ -752,7 +752,7 @@
       </c>
       <c r="C19" t="inlineStr">
         <is>
-          <t>In a dismal manner.</t>
+          <t xml:space="preserve"> / In a dismal manner.</t>
         </is>
       </c>
     </row>
@@ -769,7 +769,7 @@
       </c>
       <c r="C20" t="inlineStr">
         <is>
-          <t>A container for arrows, crossbow bolts or darts, such as those fired from a bow, crossbow or blowgun.</t>
+          <t xml:space="preserve"> / A container for arrows, crossbow bolts or darts, such as those fired from a bow, crossbow or blowgun.</t>
         </is>
       </c>
     </row>
@@ -786,7 +786,7 @@
       </c>
       <c r="C21" t="inlineStr">
         <is>
-          <t>From; away; back or backward.</t>
+          <t xml:space="preserve"> / From; away; back or backward.</t>
         </is>
       </c>
     </row>
@@ -803,7 +803,7 @@
       </c>
       <c r="C22" t="inlineStr">
         <is>
-          <t>Gaiety; merriment.To make merry; to have fun; to romp; to behave playfully and uninhibitedly.Merry, joyous, full of mirth; later especially, frolicsome, sportive, full of playful mischief.</t>
+          <t xml:space="preserve"> / Gaiety; merriment. / To make merry; to have fun; to romp; to behave playfully and uninhibitedly. / Merry, joyous, full of mirth; later especially, frolicsome, sportive, full of playful mischief.</t>
         </is>
       </c>
     </row>
@@ -820,7 +820,7 @@
       </c>
       <c r="C23" t="inlineStr">
         <is>
-          <t>A member of a religious body (often, but not always, of the clergy) officially assigned to give pastoral care at an institution, group, private chapel, etc.</t>
+          <t xml:space="preserve"> / A member of a religious body (often, but not always, of the clergy) officially assigned to give pastoral care at an institution, group, private chapel, etc.</t>
         </is>
       </c>
     </row>
@@ -837,7 +837,7 @@
       </c>
       <c r="C24" t="inlineStr">
         <is>
-          <t>To make wrinkled, particularly fabric.The act by which something is rumpled.</t>
+          <t xml:space="preserve"> / To make wrinkled, particularly fabric. / The act by which something is rumpled.</t>
         </is>
       </c>
     </row>
@@ -854,7 +854,7 @@
       </c>
       <c r="C25" t="inlineStr">
         <is>
-          <t>A playful leap or jump.To leap or jump about in a sprightly or playful manner.A vessel formerly used by the Dutch; privateer.The pungent grayish green flower bud of the European and Oriental caper (Capparis spinosa), which is pickled and eaten.The capercaillie.</t>
+          <t xml:space="preserve"> / A playful leap or jump. / To leap or jump about in a sprightly or playful manner. / A vessel formerly used by the Dutch; privateer. / The pungent grayish green flower bud of the European and Oriental caper (Capparis spinosa), which is pickled and eaten. / The capercaillie.</t>
         </is>
       </c>
     </row>
@@ -871,7 +871,7 @@
       </c>
       <c r="C26" t="inlineStr">
         <is>
-          <t>A bed covering consisting of two layers of fabric stitched together, with insulation between, often having a decorative design.To construct a quilt.</t>
+          <t xml:space="preserve"> / A bed covering consisting of two layers of fabric stitched together, with insulation between, often having a decorative design. / To construct a quilt.</t>
         </is>
       </c>
     </row>
@@ -905,7 +905,7 @@
       </c>
       <c r="C28" t="inlineStr">
         <is>
-          <t>A fabric of many varieties, usually made of silk and worsted; used especially for women's dresses.</t>
+          <t xml:space="preserve"> / A fabric of many varieties, usually made of silk and worsted; used especially for women's dresses.</t>
         </is>
       </c>
     </row>
@@ -922,7 +922,7 @@
       </c>
       <c r="C29" t="inlineStr">
         <is>
-          <t>(originally nautical) To jump about joyfully, frolic; to play around, play tricks.(originally nautical) Playing around; frolicking; originally, running about the rigging of a vessel for fun; horseplay.</t>
+          <t xml:space="preserve"> / (originally nautical) To jump about joyfully, frolic; to play around, play tricks. / (originally nautical) Playing around; frolicking; originally, running about the rigging of a vessel for fun; horseplay.</t>
         </is>
       </c>
     </row>
@@ -939,7 +939,7 @@
       </c>
       <c r="C30" t="inlineStr">
         <is>
-          <t>(somewhat obsolete) The breast or chest of a human (or sometimes of another animal).To enclose or carry in the bosom; to keep with care; to take to heart; to cherish.In a very close relationship.</t>
+          <t xml:space="preserve"> / (somewhat obsolete) The breast or chest of a human (or sometimes of another animal). / To enclose or carry in the bosom; to keep with care; to take to heart; to cherish. / In a very close relationship.</t>
         </is>
       </c>
     </row>
@@ -956,7 +956,7 @@
       </c>
       <c r="C31" t="inlineStr">
         <is>
-          <t>A seat across a boat on which a rower may sit.To cause to fail; to frustrate, to prevent.Placed or situated across something else; cross, oblique, transverse.Across the direction of travel or length of; athwart, crosswise, obliquely, transversely.Across, athwart.</t>
+          <t xml:space="preserve"> / A seat across a boat on which a rower may sit. / To cause to fail; to frustrate, to prevent. / Placed or situated across something else; cross, oblique, transverse. / Across the direction of travel or length of; athwart, crosswise, obliquely, transversely. / Across, athwart.</t>
         </is>
       </c>
     </row>
@@ -973,7 +973,7 @@
       </c>
       <c r="C32" t="inlineStr">
         <is>
-          <t>To give or leave by will; to give by testament.</t>
+          <t xml:space="preserve"> / To give or leave by will; to give by testament.</t>
         </is>
       </c>
     </row>
@@ -990,7 +990,7 @@
       </c>
       <c r="C33" t="inlineStr">
         <is>
-          <t>A party, celebration, social function.(auxiliary) A syntactic marker.</t>
+          <t xml:space="preserve"> / A party, celebration, social function. / (auxiliary) A syntactic marker.</t>
         </is>
       </c>
     </row>
@@ -1007,7 +1007,7 @@
       </c>
       <c r="C34" t="inlineStr">
         <is>
-          <t>To take for granted; to conclude, with less than absolute supporting data; to believe.</t>
+          <t xml:space="preserve"> / To take for granted; to conclude, with less than absolute supporting data; to believe.</t>
         </is>
       </c>
     </row>
@@ -1024,7 +1024,7 @@
       </c>
       <c r="C35" t="inlineStr">
         <is>
-          <t>A dark and strong malt brew made with toasted grain.Large; bulky.</t>
+          <t xml:space="preserve"> / A dark and strong malt brew made with toasted grain. / Large; bulky.</t>
         </is>
       </c>
     </row>
@@ -1041,7 +1041,7 @@
       </c>
       <c r="C36" t="inlineStr">
         <is>
-          <t>A small piece of sparkling metallic material sewn on to a garment as decoration; a sequin.</t>
+          <t xml:space="preserve"> / A small piece of sparkling metallic material sewn on to a garment as decoration; a sequin.</t>
         </is>
       </c>
     </row>
@@ -1058,7 +1058,7 @@
       </c>
       <c r="C37" t="inlineStr">
         <is>
-          <t>Jolly and full of high spirits.</t>
+          <t xml:space="preserve"> / Jolly and full of high spirits.</t>
         </is>
       </c>
     </row>
@@ -1075,7 +1075,7 @@
       </c>
       <c r="C38" t="inlineStr">
         <is>
-          <t>A strip of pleated fabric or paper used as decoration or trim.To make into a frill.</t>
+          <t xml:space="preserve"> / A strip of pleated fabric or paper used as decoration or trim. / To make into a frill.</t>
         </is>
       </c>
     </row>
@@ -1092,7 +1092,7 @@
       </c>
       <c r="C39" t="inlineStr">
         <is>
-          <t>Full of longing or yearning.</t>
+          <t xml:space="preserve"> / Full of longing or yearning.</t>
         </is>
       </c>
     </row>
@@ -1109,7 +1109,7 @@
       </c>
       <c r="C40" t="inlineStr">
         <is>
-          <t>A thin, watery porridge, formerly eaten primarily by the poor and the ill.</t>
+          <t xml:space="preserve"> / A thin, watery porridge, formerly eaten primarily by the poor and the ill.</t>
         </is>
       </c>
     </row>
@@ -1126,7 +1126,7 @@
       </c>
       <c r="C41" t="inlineStr">
         <is>
-          <t>The extent or measure of how broad or wide something is.</t>
+          <t xml:space="preserve"> / The extent or measure of how broad or wide something is.</t>
         </is>
       </c>
     </row>
@@ -1143,7 +1143,7 @@
       </c>
       <c r="C42" t="inlineStr">
         <is>
-          <t>That which is vain, futile, or worthless; that which is of no value, use or profit.</t>
+          <t xml:space="preserve"> / That which is vain, futile, or worthless; that which is of no value, use or profit.</t>
         </is>
       </c>
     </row>
@@ -1160,7 +1160,7 @@
       </c>
       <c r="C43" t="inlineStr">
         <is>
-          <t>To fasten using a peg.The act of fastening with a peg.</t>
+          <t xml:space="preserve"> / To fasten using a peg. / The act of fastening with a peg.</t>
         </is>
       </c>
     </row>
@@ -1177,7 +1177,7 @@
       </c>
       <c r="C44" t="inlineStr">
         <is>
-          <t>An old style of muzzleloading firearm and early form of shotgun with a distinctive short, large caliber barrel that is flared at the muzzle, therefore able to fire scattered quantities of nails, stones, shot, etc. at short range.To shoot with a blunderbuss.</t>
+          <t xml:space="preserve"> / An old style of muzzleloading firearm and early form of shotgun with a distinctive short, large caliber barrel that is flared at the muzzle, therefore able to fire scattered quantities of nails, stones, shot, etc. at short range. / To shoot with a blunderbuss.</t>
         </is>
       </c>
     </row>
@@ -1194,7 +1194,7 @@
       </c>
       <c r="C45" t="inlineStr">
         <is>
-          <t>A wreath, especially one of plaited flowers or leaves, worn on the body or draped as a decoration.To deck or ornament something with a garland</t>
+          <t xml:space="preserve"> / A wreath, especially one of plaited flowers or leaves, worn on the body or draped as a decoration. / To deck or ornament something with a garland</t>
         </is>
       </c>
     </row>
@@ -1211,7 +1211,7 @@
       </c>
       <c r="C46" t="inlineStr">
         <is>
-          <t>A malleable, ductile, metallic element, resistant to corrosion, with atomic number 50 and symbol Sn.To place into a tin in order to preserve.Made of tin.</t>
+          <t xml:space="preserve"> / A malleable, ductile, metallic element, resistant to corrosion, with atomic number 50 and symbol Sn. / To place into a tin in order to preserve. / Made of tin.</t>
         </is>
       </c>
     </row>
@@ -1228,7 +1228,7 @@
       </c>
       <c r="C47" t="inlineStr">
         <is>
-          <t>To spoil; to ruin; to scathe; to damage.Of a person, perplexed or troubled</t>
+          <t xml:space="preserve"> / To spoil; to ruin; to scathe; to damage. / Of a person, perplexed or troubled</t>
         </is>
       </c>
     </row>
@@ -1245,7 +1245,7 @@
       </c>
       <c r="C48" t="inlineStr">
         <is>
-          <t>A flower; a bouquet; a nosegay.</t>
+          <t xml:space="preserve"> / A flower; a bouquet; a nosegay.</t>
         </is>
       </c>
     </row>
@@ -1262,7 +1262,7 @@
       </c>
       <c r="C49" t="inlineStr">
         <is>
-          <t>Without care, concern, or consideration.</t>
+          <t xml:space="preserve"> / Without care, concern, or consideration.</t>
         </is>
       </c>
     </row>
@@ -1279,7 +1279,7 @@
       </c>
       <c r="C50" t="inlineStr">
         <is>
-          <t>To cry out, as in sorrow or anguish.A loud drawn out scream or howl.To strike the skin in such a way as to produce a wale or welt.To choose, select.</t>
+          <t xml:space="preserve"> / To cry out, as in sorrow or anguish. / A loud drawn out scream or howl. / To strike the skin in such a way as to produce a wale or welt. / To choose, select.</t>
         </is>
       </c>
     </row>
@@ -1296,7 +1296,7 @@
       </c>
       <c r="C51" t="inlineStr">
         <is>
-          <t>To make ashamed; to embarrass; to destroy the self-possession of, as by exciting suddenly a consciousness of guilt, mistake, or inferiority; to disconcert; to discomfit.Embarrassed, disconcerted, or ashamed.</t>
+          <t xml:space="preserve"> / To make ashamed; to embarrass; to destroy the self-possession of, as by exciting suddenly a consciousness of guilt, mistake, or inferiority; to disconcert; to discomfit. / Embarrassed, disconcerted, or ashamed.</t>
         </is>
       </c>
     </row>
@@ -1313,7 +1313,7 @@
       </c>
       <c r="C52" t="inlineStr">
         <is>
-          <t>A painted or stained calico fabric, originally produced in India, and known for its brightly colored designs.</t>
+          <t xml:space="preserve"> / A painted or stained calico fabric, originally produced in India, and known for its brightly colored designs.</t>
         </is>
       </c>
     </row>
@@ -1347,7 +1347,7 @@
       </c>
       <c r="C54" t="inlineStr">
         <is>
-          <t>An administrative unit of government; office.</t>
+          <t xml:space="preserve"> / An administrative unit of government; office.</t>
         </is>
       </c>
     </row>
@@ -1381,7 +1381,7 @@
       </c>
       <c r="C56" t="inlineStr">
         <is>
-          <t>(possibly obsolete) Happy, joyful, and lively.</t>
+          <t xml:space="preserve"> / (possibly obsolete) Happy, joyful, and lively.</t>
         </is>
       </c>
     </row>
@@ -1398,7 +1398,7 @@
       </c>
       <c r="C57" t="inlineStr">
         <is>
-          <t>An idiosyncrasy; a slight glitch, mannerism; something unusual about the manner or style of something or someoneTo move with a wry jerk.</t>
+          <t xml:space="preserve"> / An idiosyncrasy; a slight glitch, mannerism; something unusual about the manner or style of something or someone / To move with a wry jerk.</t>
         </is>
       </c>
     </row>
@@ -1415,7 +1415,7 @@
       </c>
       <c r="C58" t="inlineStr">
         <is>
-          <t>Someone who romps; especially, a girl or young woman who indulges in boisterous play; a tomboy.To play about roughly, energetically or boisterously.</t>
+          <t xml:space="preserve"> / Someone who romps; especially, a girl or young woman who indulges in boisterous play; a tomboy. / To play about roughly, energetically or boisterously.</t>
         </is>
       </c>
     </row>
@@ -1432,7 +1432,7 @@
       </c>
       <c r="C59" t="inlineStr">
         <is>
-          <t>To make (a bill) into law</t>
+          <t xml:space="preserve"> / To make (a bill) into law</t>
         </is>
       </c>
     </row>
@@ -1449,7 +1449,7 @@
       </c>
       <c r="C60" t="inlineStr">
         <is>
-          <t>A giddy, rash person.Wild, careless, irresponsibleWildly, carelessly, irresponsibly</t>
+          <t xml:space="preserve"> / A giddy, rash person. / Wild, careless, irresponsible / Wildly, carelessly, irresponsibly</t>
         </is>
       </c>
     </row>
@@ -1466,7 +1466,7 @@
       </c>
       <c r="C61" t="inlineStr">
         <is>
-          <t>A small fragment or share of something, commonly applied to food.</t>
+          <t xml:space="preserve"> / A small fragment or share of something, commonly applied to food.</t>
         </is>
       </c>
     </row>
@@ -1483,7 +1483,7 @@
       </c>
       <c r="C62" t="inlineStr">
         <is>
-          <t>A small tray containing pens and an inkwell; by extension, a pot for holding ink, inkpot, inkwell.</t>
+          <t xml:space="preserve"> / A small tray containing pens and an inkwell; by extension, a pot for holding ink, inkpot, inkwell.</t>
         </is>
       </c>
     </row>
@@ -1500,7 +1500,7 @@
       </c>
       <c r="C63" t="inlineStr">
         <is>
-          <t>A light, brief snowfall.To agitate, bewilder, fluster.</t>
+          <t xml:space="preserve"> / A light, brief snowfall. / To agitate, bewilder, fluster.</t>
         </is>
       </c>
     </row>
@@ -1517,7 +1517,7 @@
       </c>
       <c r="C64" t="inlineStr">
         <is>
-          <t>Irritable, bad-tempered, grumpy or peevish.</t>
+          <t xml:space="preserve"> / Irritable, bad-tempered, grumpy or peevish.</t>
         </is>
       </c>
     </row>
@@ -1534,7 +1534,7 @@
       </c>
       <c r="C65" t="inlineStr">
         <is>
-          <t>An instance of merrymaking; a celebration.To make merry; to have a happy, lively time.</t>
+          <t xml:space="preserve"> / An instance of merrymaking; a celebration. / To make merry; to have a happy, lively time.</t>
         </is>
       </c>
     </row>
@@ -1551,7 +1551,7 @@
       </c>
       <c r="C66" t="inlineStr">
         <is>
-          <t>A storm, especially one with severe winds.To storm.</t>
+          <t xml:space="preserve"> / A storm, especially one with severe winds. / To storm.</t>
         </is>
       </c>
     </row>
@@ -1568,7 +1568,7 @@
       </c>
       <c r="C67" t="inlineStr">
         <is>
-          <t>Bearing; manner of presenting oneself.</t>
+          <t xml:space="preserve"> / Bearing; manner of presenting oneself.</t>
         </is>
       </c>
     </row>
@@ -1585,7 +1585,7 @@
       </c>
       <c r="C68" t="inlineStr">
         <is>
-          <t>Sounding sorrowful, mournful or melancholic.</t>
+          <t xml:space="preserve"> / Sounding sorrowful, mournful or melancholic.</t>
         </is>
       </c>
     </row>
@@ -1602,7 +1602,7 @@
       </c>
       <c r="C69" t="inlineStr">
         <is>
-          <t>A doll.To hit a dolly.</t>
+          <t xml:space="preserve"> / A doll. / To hit a dolly.</t>
         </is>
       </c>
     </row>
@@ -1619,7 +1619,7 @@
       </c>
       <c r="C70" t="inlineStr">
         <is>
-          <t>A faint, harsh sound made in the throat.To make a croak.</t>
+          <t xml:space="preserve"> / A faint, harsh sound made in the throat. / To make a croak.</t>
         </is>
       </c>
     </row>
@@ -1653,7 +1653,7 @@
       </c>
       <c r="C72" t="inlineStr">
         <is>
-          <t>To give out extremely generously; to squander.</t>
+          <t xml:space="preserve"> / To give out extremely generously; to squander.</t>
         </is>
       </c>
     </row>
@@ -1670,7 +1670,7 @@
       </c>
       <c r="C73" t="inlineStr">
         <is>
-          <t>Religious discourse; a written or spoken address on a religious or moral matter.</t>
+          <t xml:space="preserve"> / Religious discourse; a written or spoken address on a religious or moral matter.</t>
         </is>
       </c>
     </row>
@@ -1687,7 +1687,7 @@
       </c>
       <c r="C74" t="inlineStr">
         <is>
-          <t>A sharp, pointy object, such as a sliver or splinter.</t>
+          <t xml:space="preserve"> / A sharp, pointy object, such as a sliver or splinter.</t>
         </is>
       </c>
     </row>
@@ -1704,7 +1704,7 @@
       </c>
       <c r="C75" t="inlineStr">
         <is>
-          <t>A hard, reddish brown chalcedony; used in jewelery,</t>
+          <t xml:space="preserve"> / A hard, reddish brown chalcedony; used in jewelery,</t>
         </is>
       </c>
     </row>
@@ -1721,7 +1721,7 @@
       </c>
       <c r="C76" t="inlineStr">
         <is>
-          <t>In a meek manner; quietly and humbly.</t>
+          <t xml:space="preserve"> / In a meek manner; quietly and humbly.</t>
         </is>
       </c>
     </row>
@@ -1738,7 +1738,7 @@
       </c>
       <c r="C77" t="inlineStr">
         <is>
-          <t>Dangerous, full of peril.</t>
+          <t xml:space="preserve"> / Dangerous, full of peril.</t>
         </is>
       </c>
     </row>
@@ -1755,7 +1755,7 @@
       </c>
       <c r="C78" t="inlineStr">
         <is>
-          <t>Any of various small, singing passerine birds of the family Alaudidae.To catch larks (type of bird).</t>
+          <t xml:space="preserve"> / Any of various small, singing passerine birds of the family Alaudidae. / To catch larks (type of bird).</t>
         </is>
       </c>
     </row>
@@ -1772,7 +1772,7 @@
       </c>
       <c r="C79" t="inlineStr">
         <is>
-          <t>To kill with a missile fired by unmanned aircraft.To produce a low-pitched hum or buzz.A dull humming.</t>
+          <t xml:space="preserve"> / To kill with a missile fired by unmanned aircraft. / To produce a low-pitched hum or buzz. / A dull humming.</t>
         </is>
       </c>
     </row>
@@ -1789,7 +1789,7 @@
       </c>
       <c r="C80" t="inlineStr">
         <is>
-          <t>Especially when describing animals: to consume, devour, or eat.To decorate or ornament, especially with an interlaced or interwoven pattern, or with carving or relief (raised) work.To bind, to tie, originally with a loop or ring.Action of the verb to fret.</t>
+          <t xml:space="preserve"> / Especially when describing animals: to consume, devour, or eat. / To decorate or ornament, especially with an interlaced or interwoven pattern, or with carving or relief (raised) work. / To bind, to tie, originally with a loop or ring. / Action of the verb to fret.</t>
         </is>
       </c>
     </row>
@@ -1806,7 +1806,7 @@
       </c>
       <c r="C81" t="inlineStr">
         <is>
-          <t>Hard work.To toil, to work hard.</t>
+          <t xml:space="preserve"> / Hard work. / To toil, to work hard.</t>
         </is>
       </c>
     </row>
@@ -1823,7 +1823,7 @@
       </c>
       <c r="C82" t="inlineStr">
         <is>
-          <t>Idiotic or unthinkable, often to the point of being funny.</t>
+          <t xml:space="preserve"> / Idiotic or unthinkable, often to the point of being funny.</t>
         </is>
       </c>
     </row>
@@ -1840,7 +1840,7 @@
       </c>
       <c r="C83" t="inlineStr">
         <is>
-          <t>Easily provoked to outbursts of anger; irritable.</t>
+          <t xml:space="preserve"> / Easily provoked to outbursts of anger; irritable.</t>
         </is>
       </c>
     </row>
@@ -1857,7 +1857,7 @@
       </c>
       <c r="C84" t="inlineStr">
         <is>
-          <t>Labour, work, especially of a grueling nature.To labour; work.</t>
+          <t xml:space="preserve"> / Labour, work, especially of a grueling nature. / To labour; work.</t>
         </is>
       </c>
     </row>
@@ -1874,7 +1874,7 @@
       </c>
       <c r="C85" t="inlineStr">
         <is>
-          <t>To abandon, forsake.A forlorn hope.Abandoned, deserted, left behind.</t>
+          <t xml:space="preserve"> / To abandon, forsake. / A forlorn hope. / Abandoned, deserted, left behind.</t>
         </is>
       </c>
     </row>
@@ -1891,7 +1891,7 @@
       </c>
       <c r="C86" t="inlineStr">
         <is>
-          <t>A geometrical figure consisting of two straight lines or bars intersecting each other such that at least one of them is bisected by the other.To make or form a cross.Transverse; lying across the main direction.Across</t>
+          <t xml:space="preserve"> / A geometrical figure consisting of two straight lines or bars intersecting each other such that at least one of them is bisected by the other. / To make or form a cross. / Transverse; lying across the main direction. / Across</t>
         </is>
       </c>
     </row>
@@ -1908,7 +1908,7 @@
       </c>
       <c r="C87" t="inlineStr">
         <is>
-          <t>To signify by some visible object; show by signs or tokens.</t>
+          <t xml:space="preserve"> / To signify by some visible object; show by signs or tokens.</t>
         </is>
       </c>
     </row>
@@ -1925,7 +1925,7 @@
       </c>
       <c r="C88" t="inlineStr">
         <is>
-          <t>A shelf that is affixed to the wall above a fireplace.</t>
+          <t xml:space="preserve"> / A shelf that is affixed to the wall above a fireplace.</t>
         </is>
       </c>
     </row>
@@ -1942,7 +1942,7 @@
       </c>
       <c r="C89" t="inlineStr">
         <is>
-          <t>A crowd; a throng; a multitude or great number of people.To pile in a heap.Very much, a lot</t>
+          <t xml:space="preserve"> / A crowd; a throng; a multitude or great number of people. / To pile in a heap. / Very much, a lot</t>
         </is>
       </c>
     </row>
@@ -1959,7 +1959,7 @@
       </c>
       <c r="C90" t="inlineStr">
         <is>
-          <t>A state of enjoyable exuberance</t>
+          <t xml:space="preserve"> / A state of enjoyable exuberance</t>
         </is>
       </c>
     </row>
@@ -1976,7 +1976,7 @@
       </c>
       <c r="C91" t="inlineStr">
         <is>
-          <t>To speak gruffly.Having a rough, surly, and harsh demeanor and nature.</t>
+          <t xml:space="preserve"> / To speak gruffly. / Having a rough, surly, and harsh demeanor and nature.</t>
         </is>
       </c>
     </row>
@@ -1993,7 +1993,7 @@
       </c>
       <c r="C92" t="inlineStr">
         <is>
-          <t>The devil.</t>
+          <t xml:space="preserve"> / The devil.</t>
         </is>
       </c>
     </row>
@@ -2010,7 +2010,7 @@
       </c>
       <c r="C93" t="inlineStr">
         <is>
-          <t>Eliciting respect or fear; imposing; awe-inspiring.</t>
+          <t xml:space="preserve"> / Eliciting respect or fear; imposing; awe-inspiring.</t>
         </is>
       </c>
     </row>
@@ -2027,7 +2027,7 @@
       </c>
       <c r="C94" t="inlineStr">
         <is>
-          <t>The quality or state of being vivacious.</t>
+          <t xml:space="preserve"> / The quality or state of being vivacious.</t>
         </is>
       </c>
     </row>
@@ -2044,7 +2044,7 @@
       </c>
       <c r="C95" t="inlineStr">
         <is>
-          <t>A place in the middle of something; may be used of a literal or metaphorical location.Among, in the middle of; amid.</t>
+          <t xml:space="preserve"> / A place in the middle of something; may be used of a literal or metaphorical location. / Among, in the middle of; amid.</t>
         </is>
       </c>
     </row>
@@ -2061,7 +2061,7 @@
       </c>
       <c r="C96" t="inlineStr">
         <is>
-          <t>Habitually lazy, procrastinating, or resistant to physical labor</t>
+          <t xml:space="preserve"> / Habitually lazy, procrastinating, or resistant to physical labor</t>
         </is>
       </c>
     </row>
@@ -2078,7 +2078,7 @@
       </c>
       <c r="C97" t="inlineStr">
         <is>
-          <t>To treat gently or with great care.The act of one who coddles or pampers.A young small cod.A small, immature apple</t>
+          <t xml:space="preserve"> / To treat gently or with great care. / The act of one who coddles or pampers. / A young small cod. / A small, immature apple</t>
         </is>
       </c>
     </row>
@@ -2095,7 +2095,7 @@
       </c>
       <c r="C98" t="inlineStr">
         <is>
-          <t>A striking and vivid representation; a picture.</t>
+          <t xml:space="preserve"> / A striking and vivid representation; a picture.</t>
         </is>
       </c>
     </row>
@@ -2129,7 +2129,7 @@
       </c>
       <c r="C100" t="inlineStr">
         <is>
-          <t>Supreme, utmost bliss and happiness.</t>
+          <t xml:space="preserve"> / Supreme, utmost bliss and happiness.</t>
         </is>
       </c>
     </row>
@@ -2146,7 +2146,7 @@
       </c>
       <c r="C101" t="inlineStr">
         <is>
-          <t>Along, together with others, in a group, etc.Against.</t>
+          <t xml:space="preserve"> / Along, together with others, in a group, etc. / Against.</t>
         </is>
       </c>
     </row>
@@ -2163,7 +2163,7 @@
       </c>
       <c r="C102" t="inlineStr">
         <is>
-          <t>Adept at taking or grasping</t>
+          <t xml:space="preserve"> / Adept at taking or grasping</t>
         </is>
       </c>
     </row>
@@ -2180,7 +2180,7 @@
       </c>
       <c r="C103" t="inlineStr">
         <is>
-          <t>In a cordial, warm or friendly manner.</t>
+          <t xml:space="preserve"> / In a cordial, warm or friendly manner.</t>
         </is>
       </c>
     </row>
@@ -2197,7 +2197,7 @@
       </c>
       <c r="C104" t="inlineStr">
         <is>
-          <t>A clumsy or embarrassing mistake.To make a clumsy or stupid mistake.</t>
+          <t xml:space="preserve"> / A clumsy or embarrassing mistake. / To make a clumsy or stupid mistake.</t>
         </is>
       </c>
     </row>
@@ -2214,7 +2214,7 @@
       </c>
       <c r="C105" t="inlineStr">
         <is>
-          <t>Appearance, especially the features and expression of the face.To tolerate, support, sanction, patronise or approve of something.</t>
+          <t xml:space="preserve"> / Appearance, especially the features and expression of the face. / To tolerate, support, sanction, patronise or approve of something.</t>
         </is>
       </c>
     </row>
@@ -2231,7 +2231,7 @@
       </c>
       <c r="C106" t="inlineStr">
         <is>
-          <t>A break, pause or vacation.To inset into something, or to recede.Remote, distant (in time or place).</t>
+          <t xml:space="preserve"> / A break, pause or vacation. / To inset into something, or to recede. / Remote, distant (in time or place).</t>
         </is>
       </c>
     </row>
@@ -2248,7 +2248,7 @@
       </c>
       <c r="C107" t="inlineStr">
         <is>
-          <t>A boundary or border, especially of the Roman Empire.</t>
+          <t xml:space="preserve"> / A boundary or border, especially of the Roman Empire.</t>
         </is>
       </c>
     </row>
@@ -2265,7 +2265,7 @@
       </c>
       <c r="C108" t="inlineStr">
         <is>
-          <t>A band or cap (usually metal) placed around a shaft to reinforce it or to prevent splitting.To equip with a ferrule.</t>
+          <t xml:space="preserve"> / A band or cap (usually metal) placed around a shaft to reinforce it or to prevent splitting. / To equip with a ferrule.</t>
         </is>
       </c>
     </row>
@@ -2282,7 +2282,7 @@
       </c>
       <c r="C109" t="inlineStr">
         <is>
-          <t>An acute, severe, intermittent pain that radiates along a nerve.</t>
+          <t xml:space="preserve"> / An acute, severe, intermittent pain that radiates along a nerve.</t>
         </is>
       </c>
     </row>
@@ -2299,7 +2299,7 @@
       </c>
       <c r="C110" t="inlineStr">
         <is>
-          <t>Stay; stop; delay.To become less severe or intense; to become less hard, harsh, or cruel; to soften in temperSofthearted; yielding</t>
+          <t xml:space="preserve"> / Stay; stop; delay. / To become less severe or intense; to become less hard, harsh, or cruel; to soften in temper / Softhearted; yielding</t>
         </is>
       </c>
     </row>
@@ -2316,7 +2316,7 @@
       </c>
       <c r="C111" t="inlineStr">
         <is>
-          <t>Impossible to prevent or stop; inevitable.</t>
+          <t xml:space="preserve"> / Impossible to prevent or stop; inevitable.</t>
         </is>
       </c>
     </row>
@@ -2333,7 +2333,7 @@
       </c>
       <c r="C112" t="inlineStr">
         <is>
-          <t>Showing anger or indignation, especially at something unjust or wrong.</t>
+          <t xml:space="preserve"> / Showing anger or indignation, especially at something unjust or wrong.</t>
         </is>
       </c>
     </row>
@@ -2350,7 +2350,7 @@
       </c>
       <c r="C113" t="inlineStr">
         <is>
-          <t>A request.To beg or implore (a person)</t>
+          <t xml:space="preserve"> / A request. / To beg or implore (a person)</t>
         </is>
       </c>
     </row>
@@ -2367,7 +2367,7 @@
       </c>
       <c r="C114" t="inlineStr">
         <is>
-          <t>A damselfly of the family Calopterygidae.</t>
+          <t xml:space="preserve"> / A damselfly of the family Calopterygidae.</t>
         </is>
       </c>
     </row>
@@ -2384,7 +2384,7 @@
       </c>
       <c r="C115" t="inlineStr">
         <is>
-          <t>To make (an offence) worse or more severe; to increase in offensiveness or heinousness.</t>
+          <t xml:space="preserve"> / To make (an offence) worse or more severe; to increase in offensiveness or heinousness.</t>
         </is>
       </c>
     </row>
@@ -2401,7 +2401,7 @@
       </c>
       <c r="C116" t="inlineStr">
         <is>
-          <t>The handrail on the side of a staircase.</t>
+          <t xml:space="preserve"> / The handrail on the side of a staircase.</t>
         </is>
       </c>
     </row>
@@ -2418,7 +2418,7 @@
       </c>
       <c r="C117" t="inlineStr">
         <is>
-          <t>A bow used to play the fiddle.Nonsense! Expresses dismissal or disdain.</t>
+          <t xml:space="preserve"> / A bow used to play the fiddle. / Nonsense! Expresses dismissal or disdain.</t>
         </is>
       </c>
     </row>
@@ -2435,7 +2435,7 @@
       </c>
       <c r="C118" t="inlineStr">
         <is>
-          <t>A brief battle between small groups, usually part of a longer or larger battle or war.To engage in a minor battle or dispute</t>
+          <t xml:space="preserve"> / A brief battle between small groups, usually part of a longer or larger battle or war. / To engage in a minor battle or dispute</t>
         </is>
       </c>
     </row>
@@ -2452,7 +2452,7 @@
       </c>
       <c r="C119" t="inlineStr">
         <is>
-          <t>A lie, especially one that is more or less inconsequential.To lie, especially more or less inconsequentially.</t>
+          <t xml:space="preserve"> / A lie, especially one that is more or less inconsequential. / To lie, especially more or less inconsequentially.</t>
         </is>
       </c>
     </row>
@@ -2469,7 +2469,7 @@
       </c>
       <c r="C120" t="inlineStr">
         <is>
-          <t>An event resulting in great loss.</t>
+          <t xml:space="preserve"> / An event resulting in great loss.</t>
         </is>
       </c>
     </row>
@@ -2486,7 +2486,7 @@
       </c>
       <c r="C121" t="inlineStr">
         <is>
-          <t>Worthy of, or causing, abhorrence, as a thing of evil omen; odious in the utmost degree; very hateful; detestable; loathsome; execrable.</t>
+          <t xml:space="preserve"> / Worthy of, or causing, abhorrence, as a thing of evil omen; odious in the utmost degree; very hateful; detestable; loathsome; execrable.</t>
         </is>
       </c>
     </row>
@@ -2503,7 +2503,7 @@
       </c>
       <c r="C122" t="inlineStr">
         <is>
-          <t>An opening; a recess or chamber.</t>
+          <t xml:space="preserve"> / An opening; a recess or chamber.</t>
         </is>
       </c>
     </row>
@@ -2520,7 +2520,7 @@
       </c>
       <c r="C123" t="inlineStr">
         <is>
-          <t>To provide a harbor or safe place for.</t>
+          <t xml:space="preserve"> / To provide a harbor or safe place for.</t>
         </is>
       </c>
     </row>
@@ -2537,7 +2537,7 @@
       </c>
       <c r="C124" t="inlineStr">
         <is>
-          <t>To perplex or puzzle.Confused, astonished</t>
+          <t xml:space="preserve"> / To perplex or puzzle. / Confused, astonished</t>
         </is>
       </c>
     </row>
@@ -2554,7 +2554,7 @@
       </c>
       <c r="C125" t="inlineStr">
         <is>
-          <t>Having a great deal of fine detail or complexity.</t>
+          <t xml:space="preserve"> / Having a great deal of fine detail or complexity.</t>
         </is>
       </c>
     </row>
@@ -2571,7 +2571,7 @@
       </c>
       <c r="C126" t="inlineStr">
         <is>
-          <t>(modal) Probably not.</t>
+          <t xml:space="preserve"> / (modal) Probably not.</t>
         </is>
       </c>
     </row>
@@ -2588,7 +2588,7 @@
       </c>
       <c r="C127" t="inlineStr">
         <is>
-          <t>An act or instance of reproving or of reprobating; a rebuke.</t>
+          <t xml:space="preserve"> / An act or instance of reproving or of reprobating; a rebuke.</t>
         </is>
       </c>
     </row>
@@ -2605,7 +2605,7 @@
       </c>
       <c r="C128" t="inlineStr">
         <is>
-          <t>A place, as in clothing, which has been repaired by mending.To repair, as anything that is torn, broken, defaced, decayed, or the like; to restore from partial decay, injury, or defacement.</t>
+          <t xml:space="preserve"> / A place, as in clothing, which has been repaired by mending. / To repair, as anything that is torn, broken, defaced, decayed, or the like; to restore from partial decay, injury, or defacement.</t>
         </is>
       </c>
     </row>
@@ -2622,7 +2622,7 @@
       </c>
       <c r="C129" t="inlineStr">
         <is>
-          <t>To throw into disorder; upheave.(of a person) With the hair uncombed.</t>
+          <t xml:space="preserve"> / To throw into disorder; upheave. / (of a person) With the hair uncombed.</t>
         </is>
       </c>
     </row>
@@ -2639,7 +2639,7 @@
       </c>
       <c r="C130" t="inlineStr">
         <is>
-          <t>To criticise harshly; to reprove.</t>
+          <t xml:space="preserve"> / To criticise harshly; to reprove.</t>
         </is>
       </c>
     </row>
@@ -2656,7 +2656,7 @@
       </c>
       <c r="C131" t="inlineStr">
         <is>
-          <t>To cause sorrow or distress to.</t>
+          <t xml:space="preserve"> / To cause sorrow or distress to.</t>
         </is>
       </c>
     </row>
@@ -2673,7 +2673,7 @@
       </c>
       <c r="C132" t="inlineStr">
         <is>
-          <t>Rubeola, an acute highly contagious disease, often of childhood, caused by Measles virus, of genus Morbillivirus, featuring a spreading red skin rash, fever, runny nose, cough and red eyes</t>
+          <t xml:space="preserve"> / Rubeola, an acute highly contagious disease, often of childhood, caused by Measles virus, of genus Morbillivirus, featuring a spreading red skin rash, fever, runny nose, cough and red eyes</t>
         </is>
       </c>
     </row>
@@ -2690,7 +2690,7 @@
       </c>
       <c r="C133" t="inlineStr">
         <is>
-          <t>To fall into ruin or disuse.Having fallen into a state of disrepair or deterioration, especially through neglect.</t>
+          <t xml:space="preserve"> / To fall into ruin or disuse. / Having fallen into a state of disrepair or deterioration, especially through neglect.</t>
         </is>
       </c>
     </row>
@@ -2707,7 +2707,7 @@
       </c>
       <c r="C134" t="inlineStr">
         <is>
-          <t>A fabric of many varieties, usually made of silk and worsted; used especially for women's dresses.</t>
+          <t xml:space="preserve"> / A fabric of many varieties, usually made of silk and worsted; used especially for women's dresses.</t>
         </is>
       </c>
     </row>
@@ -2724,7 +2724,7 @@
       </c>
       <c r="C135" t="inlineStr">
         <is>
-          <t>To inspect, or take a view of; to view with attention, as from a high place; to overlookThe science of accurately determining the position of points and the distances between them.</t>
+          <t xml:space="preserve"> / To inspect, or take a view of; to view with attention, as from a high place; to overlook / The science of accurately determining the position of points and the distances between them.</t>
         </is>
       </c>
     </row>
@@ -2741,7 +2741,7 @@
       </c>
       <c r="C136" t="inlineStr">
         <is>
-          <t>A going; journey; travel; voyage; course; passage.</t>
+          <t xml:space="preserve"> / A going; journey; travel; voyage; course; passage.</t>
         </is>
       </c>
     </row>
@@ -2758,7 +2758,7 @@
       </c>
       <c r="C137" t="inlineStr">
         <is>
-          <t>The loss of hope or confidence; despair or dejection.</t>
+          <t xml:space="preserve"> / The loss of hope or confidence; despair or dejection.</t>
         </is>
       </c>
     </row>
@@ -2775,7 +2775,7 @@
       </c>
       <c r="C138" t="inlineStr">
         <is>
-          <t>Any of a group of some twenty thousand species of vascular plants classified in the division Pteridophyta that lack seeds and reproduce by shedding spores to initiate an alternation of generations.</t>
+          <t xml:space="preserve"> / Any of a group of some twenty thousand species of vascular plants classified in the division Pteridophyta that lack seeds and reproduce by shedding spores to initiate an alternation of generations.</t>
         </is>
       </c>
     </row>
@@ -2792,7 +2792,7 @@
       </c>
       <c r="C139" t="inlineStr">
         <is>
-          <t>A dawdler.To spend time idly and unfruitfully, to waste time.</t>
+          <t xml:space="preserve"> / A dawdler. / To spend time idly and unfruitfully, to waste time.</t>
         </is>
       </c>
     </row>
@@ -2809,7 +2809,7 @@
       </c>
       <c r="C140" t="inlineStr">
         <is>
-          <t>A darling, a cutie.(usually with on) To be weakly or foolishly fond of somebody.</t>
+          <t xml:space="preserve"> / A darling, a cutie. / (usually with on) To be weakly or foolishly fond of somebody.</t>
         </is>
       </c>
     </row>
@@ -2826,7 +2826,7 @@
       </c>
       <c r="C141" t="inlineStr">
         <is>
-          <t>A delicate and intricate ornamentation made from gold or silver (or sometimes other metal) twisted wire.To decorate something with intricate ornamentation made from gold or silver twisted wire.</t>
+          <t xml:space="preserve"> / A delicate and intricate ornamentation made from gold or silver (or sometimes other metal) twisted wire. / To decorate something with intricate ornamentation made from gold or silver twisted wire.</t>
         </is>
       </c>
     </row>
@@ -2843,7 +2843,7 @@
       </c>
       <c r="C142" t="inlineStr">
         <is>
-          <t>One of several kinds of bird in the family CorvidaeTo mark with patches of black and white or light and dark.</t>
+          <t xml:space="preserve"> / One of several kinds of bird in the family Corvidae / To mark with patches of black and white or light and dark.</t>
         </is>
       </c>
     </row>
@@ -2860,7 +2860,7 @@
       </c>
       <c r="C143" t="inlineStr">
         <is>
-          <t>For fear that; that not; in order to prevent something from happening; in case.</t>
+          <t xml:space="preserve"> / For fear that; that not; in order to prevent something from happening; in case.</t>
         </is>
       </c>
     </row>
@@ -2877,7 +2877,7 @@
       </c>
       <c r="C144" t="inlineStr">
         <is>
-          <t>(dated or literary) Happy, cheerful.</t>
+          <t xml:space="preserve"> / (dated or literary) Happy, cheerful.</t>
         </is>
       </c>
     </row>
@@ -2894,7 +2894,7 @@
       </c>
       <c r="C145" t="inlineStr">
         <is>
-          <t>A small argument; a petty quarrel.To quarrel.</t>
+          <t xml:space="preserve"> / A small argument; a petty quarrel. / To quarrel.</t>
         </is>
       </c>
     </row>
@@ -2911,7 +2911,7 @@
       </c>
       <c r="C146" t="inlineStr">
         <is>
-          <t>Eagerness; liveliness; enthusiasm.</t>
+          <t xml:space="preserve"> / Eagerness; liveliness; enthusiasm.</t>
         </is>
       </c>
     </row>
@@ -2928,7 +2928,7 @@
       </c>
       <c r="C147" t="inlineStr">
         <is>
-          <t>Lacking enthusiasm, energy, or strength; drooping or flagging from weakness, fatigue, or lack of energy</t>
+          <t xml:space="preserve"> / Lacking enthusiasm, energy, or strength; drooping or flagging from weakness, fatigue, or lack of energy</t>
         </is>
       </c>
     </row>
@@ -2945,7 +2945,7 @@
       </c>
       <c r="C148" t="inlineStr">
         <is>
-          <t>To confess; to admit.</t>
+          <t xml:space="preserve"> / To confess; to admit.</t>
         </is>
       </c>
     </row>
@@ -2962,7 +2962,7 @@
       </c>
       <c r="C149" t="inlineStr">
         <is>
-          <t>Deeply serious and somber.</t>
+          <t xml:space="preserve"> / Deeply serious and somber.</t>
         </is>
       </c>
     </row>
@@ -2979,7 +2979,7 @@
       </c>
       <c r="C150" t="inlineStr">
         <is>
-          <t>Any of the following symbols: ‒ (figure dash), – (en dash), — (em dash), or ― (horizontal bar).To run quickly or for a short distance.Damn!</t>
+          <t xml:space="preserve"> / Any of the following symbols: ‒ (figure dash), – (en dash), — (em dash), or ― (horizontal bar). / To run quickly or for a short distance. / Damn!</t>
         </is>
       </c>
     </row>
@@ -2996,7 +2996,7 @@
       </c>
       <c r="C151" t="inlineStr">
         <is>
-          <t>An attic or semi-finished room just beneath the roof of a house.</t>
+          <t xml:space="preserve"> / An attic or semi-finished room just beneath the roof of a house.</t>
         </is>
       </c>
     </row>
@@ -3013,7 +3013,7 @@
       </c>
       <c r="C152" t="inlineStr">
         <is>
-          <t>Veneration; profound awe and respect, normally in a sacred context.To show or feel reverence to.</t>
+          <t xml:space="preserve"> / Veneration; profound awe and respect, normally in a sacred context. / To show or feel reverence to.</t>
         </is>
       </c>
     </row>
@@ -3030,7 +3030,7 @@
       </c>
       <c r="C153" t="inlineStr">
         <is>
-          <t>(auxiliary) A syntactic marker.</t>
+          <t xml:space="preserve"> / (auxiliary) A syntactic marker.</t>
         </is>
       </c>
     </row>
@@ -3047,7 +3047,7 @@
       </c>
       <c r="C154" t="inlineStr">
         <is>
-          <t>The emotion usually following humour and accompanied by laughter; merriment; jollity; gaiety.</t>
+          <t xml:space="preserve"> / The emotion usually following humour and accompanied by laughter; merriment; jollity; gaiety.</t>
         </is>
       </c>
     </row>
@@ -3064,7 +3064,7 @@
       </c>
       <c r="C155" t="inlineStr">
         <is>
-          <t>To that place.The vast distance, particularly the sky or trackless forest.(with "the") The farther, the more distant of two choices.At or in a distant but indicated place.</t>
+          <t xml:space="preserve"> / To that place. / The vast distance, particularly the sky or trackless forest. / (with "the") The farther, the more distant of two choices. / At or in a distant but indicated place.</t>
         </is>
       </c>
     </row>
@@ -3081,7 +3081,7 @@
       </c>
       <c r="C156" t="inlineStr">
         <is>
-          <t>A group of people crowded or gathered closely together.To crowd into a place, especially to fill it.Filled with persons or objects; crowded.</t>
+          <t xml:space="preserve"> / A group of people crowded or gathered closely together. / To crowd into a place, especially to fill it. / Filled with persons or objects; crowded.</t>
         </is>
       </c>
     </row>
@@ -3115,7 +3115,7 @@
       </c>
       <c r="C158" t="inlineStr">
         <is>
-          <t>A joint of the horse's leg below the knee or hock and above the hoof.</t>
+          <t xml:space="preserve"> / A joint of the horse's leg below the knee or hock and above the hoof.</t>
         </is>
       </c>
     </row>
@@ -3132,7 +3132,7 @@
       </c>
       <c r="C159" t="inlineStr">
         <is>
-          <t>To lie flat or face-down.Lying flat, face-down.</t>
+          <t xml:space="preserve"> / To lie flat or face-down. / Lying flat, face-down.</t>
         </is>
       </c>
     </row>
@@ -3149,7 +3149,7 @@
       </c>
       <c r="C160" t="inlineStr">
         <is>
-          <t>A round, traditionally wooden container of lesser capacity than a barrel, often used to store beer.To store in a keg.</t>
+          <t xml:space="preserve"> / A round, traditionally wooden container of lesser capacity than a barrel, often used to store beer. / To store in a keg.</t>
         </is>
       </c>
     </row>
@@ -3166,7 +3166,7 @@
       </c>
       <c r="C161" t="inlineStr">
         <is>
-          <t>The state of being bereaved; deprivation; especially the loss of a relative by death</t>
+          <t xml:space="preserve"> / The state of being bereaved; deprivation; especially the loss of a relative by death</t>
         </is>
       </c>
     </row>
@@ -3183,7 +3183,7 @@
       </c>
       <c r="C162" t="inlineStr">
         <is>
-          <t>An act of tucking; a pleat or fold.To pull or gather up (an item of fabric).A rapier, a sword.The beat of a drum.</t>
+          <t xml:space="preserve"> / An act of tucking; a pleat or fold. / To pull or gather up (an item of fabric). / A rapier, a sword. / The beat of a drum.</t>
         </is>
       </c>
     </row>
@@ -3200,7 +3200,7 @@
       </c>
       <c r="C163" t="inlineStr">
         <is>
-          <t>A scoundrel, rascal or unprincipled, deceitful, and unreliable person.To cull; to destroy plants not meeting a required standard, especially when saving seed, rogue or unwanted plants are removed before pollination.(of an animal, especially an elephant) Vicious and solitary.</t>
+          <t xml:space="preserve"> / A scoundrel, rascal or unprincipled, deceitful, and unreliable person. / To cull; to destroy plants not meeting a required standard, especially when saving seed, rogue or unwanted plants are removed before pollination. / (of an animal, especially an elephant) Vicious and solitary.</t>
         </is>
       </c>
     </row>
@@ -3217,7 +3217,7 @@
       </c>
       <c r="C164" t="inlineStr">
         <is>
-          <t>A very short, unspecified length of time.</t>
+          <t xml:space="preserve"> / A very short, unspecified length of time.</t>
         </is>
       </c>
     </row>
@@ -3234,7 +3234,7 @@
       </c>
       <c r="C165" t="inlineStr">
         <is>
-          <t>To postpone.</t>
+          <t xml:space="preserve"> / To postpone.</t>
         </is>
       </c>
     </row>
@@ -3251,7 +3251,7 @@
       </c>
       <c r="C166" t="inlineStr">
         <is>
-          <t>A European songbird, Luscinia megarhynchos, of the family Muscicapidae.A kind of flannel scarf with sleeves, formerly worn by invalids when sitting up in bed.</t>
+          <t xml:space="preserve"> / A European songbird, Luscinia megarhynchos, of the family Muscicapidae. / A kind of flannel scarf with sleeves, formerly worn by invalids when sitting up in bed.</t>
         </is>
       </c>
     </row>
@@ -3268,7 +3268,7 @@
       </c>
       <c r="C167" t="inlineStr">
         <is>
-          <t>Any of various small passerine songbirds, especially of the family Sylviidae (Old World warblers) and Parulidae (New World warblers).</t>
+          <t xml:space="preserve"> / Any of various small passerine songbirds, especially of the family Sylviidae (Old World warblers) and Parulidae (New World warblers).</t>
         </is>
       </c>
     </row>
@@ -3285,7 +3285,7 @@
       </c>
       <c r="C168" t="inlineStr">
         <is>
-          <t>The extent or measure of how broad or wide something is.</t>
+          <t xml:space="preserve"> / The extent or measure of how broad or wide something is.</t>
         </is>
       </c>
     </row>
@@ -3302,7 +3302,7 @@
       </c>
       <c r="C169" t="inlineStr">
         <is>
-          <t>The state of being tranquil</t>
+          <t xml:space="preserve"> / The state of being tranquil</t>
         </is>
       </c>
     </row>
@@ -3319,7 +3319,7 @@
       </c>
       <c r="C170" t="inlineStr">
         <is>
-          <t>To go, travel.</t>
+          <t xml:space="preserve"> / To go, travel.</t>
         </is>
       </c>
     </row>
@@ -3336,7 +3336,7 @@
       </c>
       <c r="C171" t="inlineStr">
         <is>
-          <t>A gripping listlessness or melancholia caused by boredom; depression.To make bored or listless; to weary.</t>
+          <t xml:space="preserve"> / A gripping listlessness or melancholia caused by boredom; depression. / To make bored or listless; to weary.</t>
         </is>
       </c>
     </row>
@@ -3353,7 +3353,7 @@
       </c>
       <c r="C172" t="inlineStr">
         <is>
-          <t>A cool room in a domestic house where food is stored, but larger than a pantry.</t>
+          <t xml:space="preserve"> / A cool room in a domestic house where food is stored, but larger than a pantry.</t>
         </is>
       </c>
     </row>
@@ -3370,7 +3370,7 @@
       </c>
       <c r="C173" t="inlineStr">
         <is>
-          <t>Marked with dots or spots, spotted.</t>
+          <t xml:space="preserve"> / Marked with dots or spots, spotted.</t>
         </is>
       </c>
     </row>
@@ -3387,7 +3387,7 @@
       </c>
       <c r="C174" t="inlineStr">
         <is>
-          <t>Sodium bicarbonate</t>
+          <t xml:space="preserve"> / Sodium bicarbonate</t>
         </is>
       </c>
     </row>
@@ -3404,7 +3404,7 @@
       </c>
       <c r="C175" t="inlineStr">
         <is>
-          <t>An item of food eaten with rice.</t>
+          <t xml:space="preserve"> / An item of food eaten with rice.</t>
         </is>
       </c>
     </row>
@@ -3421,7 +3421,7 @@
       </c>
       <c r="C176" t="inlineStr">
         <is>
-          <t>Pleasing to the taste, tasty.</t>
+          <t xml:space="preserve"> / Pleasing to the taste, tasty.</t>
         </is>
       </c>
     </row>
@@ -3438,7 +3438,7 @@
       </c>
       <c r="C177" t="inlineStr">
         <is>
-          <t>Expressing distance or motion.</t>
+          <t xml:space="preserve"> / Expressing distance or motion.</t>
         </is>
       </c>
     </row>
@@ -3455,7 +3455,7 @@
       </c>
       <c r="C178" t="inlineStr">
         <is>
-          <t>Distress of mind caused by a failure of aims or plans, want of appreciation, mistakes etc; vexation or mortification.To bother or vex; to mortify.Feeling chagrin; annoyed; vexed, fretful.</t>
+          <t xml:space="preserve"> / Distress of mind caused by a failure of aims or plans, want of appreciation, mistakes etc; vexation or mortification. / To bother or vex; to mortify. / Feeling chagrin; annoyed; vexed, fretful.</t>
         </is>
       </c>
     </row>
@@ -3472,7 +3472,7 @@
       </c>
       <c r="C179" t="inlineStr">
         <is>
-          <t>A large body of salt water.</t>
+          <t xml:space="preserve"> / A large body of salt water.</t>
         </is>
       </c>
     </row>
@@ -3489,7 +3489,7 @@
       </c>
       <c r="C180" t="inlineStr">
         <is>
-          <t>Distortion.To turn (away); to swerve or deviate.Turned away, contorted (of the face or body).</t>
+          <t xml:space="preserve"> / Distortion. / To turn (away); to swerve or deviate. / Turned away, contorted (of the face or body).</t>
         </is>
       </c>
     </row>
@@ -3506,7 +3506,7 @@
       </c>
       <c r="C181" t="inlineStr">
         <is>
-          <t>To put (something) in a place where it will be harder to discover or out of sight.</t>
+          <t xml:space="preserve"> / To put (something) in a place where it will be harder to discover or out of sight.</t>
         </is>
       </c>
     </row>
@@ -3540,7 +3540,7 @@
       </c>
       <c r="C183" t="inlineStr">
         <is>
-          <t>Rest; sleep.To lie at rest; to rest.</t>
+          <t xml:space="preserve"> / Rest; sleep. / To lie at rest; to rest.</t>
         </is>
       </c>
     </row>
@@ -3557,7 +3557,7 @@
       </c>
       <c r="C184" t="inlineStr">
         <is>
-          <t>To make affectedly precise or proper.</t>
+          <t xml:space="preserve"> / To make affectedly precise or proper.</t>
         </is>
       </c>
     </row>
@@ -3574,7 +3574,7 @@
       </c>
       <c r="C185" t="inlineStr">
         <is>
-          <t>A festival open to the public, the proceeds from which are often given to charity.(usually in the passive) To celebrate (a person).</t>
+          <t xml:space="preserve"> / A festival open to the public, the proceeds from which are often given to charity. / (usually in the passive) To celebrate (a person).</t>
         </is>
       </c>
     </row>
@@ -3591,7 +3591,7 @@
       </c>
       <c r="C186" t="inlineStr">
         <is>
-          <t>To smear or rub over with oil or an unctuous substance; also, to spread over, as oil.A person who has been anointed, especially for religious reasonsHaving undergone the process of anointing.</t>
+          <t xml:space="preserve"> / To smear or rub over with oil or an unctuous substance; also, to spread over, as oil. / A person who has been anointed, especially for religious reasons / Having undergone the process of anointing.</t>
         </is>
       </c>
     </row>
@@ -3608,7 +3608,7 @@
       </c>
       <c r="C187" t="inlineStr">
         <is>
-          <t>A concentrated noncarbonated soft drink which is diluted with water before drinking.Hearty; sincere; warm; affectionate.</t>
+          <t xml:space="preserve"> / A concentrated noncarbonated soft drink which is diluted with water before drinking. / Hearty; sincere; warm; affectionate.</t>
         </is>
       </c>
     </row>
@@ -3625,7 +3625,7 @@
       </c>
       <c r="C188" t="inlineStr">
         <is>
-          <t>A light ship used to navigate inland waterways.</t>
+          <t xml:space="preserve"> / A light ship used to navigate inland waterways.</t>
         </is>
       </c>
     </row>
@@ -3642,7 +3642,7 @@
       </c>
       <c r="C189" t="inlineStr">
         <is>
-          <t>Having the characteristics of a riot</t>
+          <t xml:space="preserve"> / Having the characteristics of a riot</t>
         </is>
       </c>
     </row>
@@ -3659,7 +3659,7 @@
       </c>
       <c r="C190" t="inlineStr">
         <is>
-          <t>To make a ruffle in; to curl or flute, as an edge of fabric.Having ruffles.</t>
+          <t xml:space="preserve"> / To make a ruffle in; to curl or flute, as an edge of fabric. / Having ruffles.</t>
         </is>
       </c>
     </row>
@@ -3676,7 +3676,7 @@
       </c>
       <c r="C191" t="inlineStr">
         <is>
-          <t>A small door or gate, especially one beside a larger one.</t>
+          <t xml:space="preserve"> / A small door or gate, especially one beside a larger one.</t>
         </is>
       </c>
     </row>
@@ -3693,7 +3693,7 @@
       </c>
       <c r="C192" t="inlineStr">
         <is>
-          <t>The act of exulting; great joy at success or victory, or at any advantage gained; rapturous delight</t>
+          <t xml:space="preserve"> / The act of exulting; great joy at success or victory, or at any advantage gained; rapturous delight</t>
         </is>
       </c>
     </row>
@@ -3710,7 +3710,7 @@
       </c>
       <c r="C193" t="inlineStr">
         <is>
-          <t>To rejoice; to be very happy, especially in triumph.</t>
+          <t xml:space="preserve"> / To rejoice; to be very happy, especially in triumph.</t>
         </is>
       </c>
     </row>
@@ -3727,7 +3727,7 @@
       </c>
       <c r="C194" t="inlineStr">
         <is>
-          <t>Any plant whose foliage is covered with stinging, mildly poisonous hairs, causing an instant rash.Of the nettle plant and similar physical causes, to sting, causing a rash in someone.</t>
+          <t xml:space="preserve"> / Any plant whose foliage is covered with stinging, mildly poisonous hairs, causing an instant rash. / Of the nettle plant and similar physical causes, to sting, causing a rash in someone.</t>
         </is>
       </c>
     </row>
@@ -3744,7 +3744,7 @@
       </c>
       <c r="C195" t="inlineStr">
         <is>
-          <t>To cook or undergo heating slowly at or below the boiling point.The act of something that simmers.</t>
+          <t xml:space="preserve"> / To cook or undergo heating slowly at or below the boiling point. / The act of something that simmers.</t>
         </is>
       </c>
     </row>
@@ -3761,7 +3761,7 @@
       </c>
       <c r="C196" t="inlineStr">
         <is>
-          <t>A dyspeptic person.Of, relating to, or having dyspepsia or indigestion.</t>
+          <t xml:space="preserve"> / A dyspeptic person. / Of, relating to, or having dyspepsia or indigestion.</t>
         </is>
       </c>
     </row>
@@ -3778,7 +3778,7 @@
       </c>
       <c r="C197" t="inlineStr">
         <is>
-          <t>In rhythm, the second half of a divided beat.As a coordinating conjunction; expressing two elements to be taken together or in addition to each other.</t>
+          <t xml:space="preserve"> / In rhythm, the second half of a divided beat. / As a coordinating conjunction; expressing two elements to be taken together or in addition to each other.</t>
         </is>
       </c>
     </row>
@@ -3795,7 +3795,7 @@
       </c>
       <c r="C198" t="inlineStr">
         <is>
-          <t>To postpone.(of a meeting, event or trial) Having been adjourned; suspended or paused.</t>
+          <t xml:space="preserve"> / To postpone. / (of a meeting, event or trial) Having been adjourned; suspended or paused.</t>
         </is>
       </c>
     </row>
@@ -3812,7 +3812,7 @@
       </c>
       <c r="C199" t="inlineStr">
         <is>
-          <t>A young male horse.To horse; to get with young.</t>
+          <t xml:space="preserve"> / A young male horse. / To horse; to get with young.</t>
         </is>
       </c>
     </row>
@@ -3829,7 +3829,7 @@
       </c>
       <c r="C200" t="inlineStr">
         <is>
-          <t>Causing ruin; destructive, calamitous</t>
+          <t xml:space="preserve"> / Causing ruin; destructive, calamitous</t>
         </is>
       </c>
     </row>
@@ -3846,7 +3846,7 @@
       </c>
       <c r="C201" t="inlineStr">
         <is>
-          <t>A bright purple synthetic dye.Having a pale purple colour.</t>
+          <t xml:space="preserve"> / A bright purple synthetic dye. / Having a pale purple colour.</t>
         </is>
       </c>
     </row>
@@ -3863,7 +3863,7 @@
       </c>
       <c r="C202" t="inlineStr">
         <is>
-          <t>The vocabulary of a language.</t>
+          <t xml:space="preserve"> / The vocabulary of a language.</t>
         </is>
       </c>
     </row>
@@ -3880,7 +3880,7 @@
       </c>
       <c r="C203" t="inlineStr">
         <is>
-          <t>Something hung up or spread out to hide or protect the face, or hide an object from view; usually of gauze, crepe, or similar diaphanous material.To dress in, or decorate with, a veil.</t>
+          <t xml:space="preserve"> / Something hung up or spread out to hide or protect the face, or hide an object from view; usually of gauze, crepe, or similar diaphanous material. / To dress in, or decorate with, a veil.</t>
         </is>
       </c>
     </row>
@@ -3897,7 +3897,7 @@
       </c>
       <c r="C204" t="inlineStr">
         <is>
-          <t>A narrow hall or passage with rooms leading off it, as in a building or in a railway carriage.</t>
+          <t xml:space="preserve"> / A narrow hall or passage with rooms leading off it, as in a building or in a railway carriage.</t>
         </is>
       </c>
     </row>
@@ -3914,7 +3914,7 @@
       </c>
       <c r="C205" t="inlineStr">
         <is>
-          <t>A dummy or other crude representation of a person, group or object that is hated.</t>
+          <t xml:space="preserve"> / A dummy or other crude representation of a person, group or object that is hated.</t>
         </is>
       </c>
     </row>
@@ -3931,7 +3931,7 @@
       </c>
       <c r="C206" t="inlineStr">
         <is>
-          <t>A small box or container to hold snuff or loose tobacco.</t>
+          <t xml:space="preserve"> / A small box or container to hold snuff or loose tobacco.</t>
         </is>
       </c>
     </row>
@@ -3948,7 +3948,7 @@
       </c>
       <c r="C207" t="inlineStr">
         <is>
-          <t>Relating to a grave or to death; funereal.</t>
+          <t xml:space="preserve"> / Relating to a grave or to death; funereal.</t>
         </is>
       </c>
     </row>
@@ -3965,7 +3965,7 @@
       </c>
       <c r="C208" t="inlineStr">
         <is>
-          <t>A musical instrument consisting of a wooden pipe, with holes at intervals.To dance the hornpipe.</t>
+          <t xml:space="preserve"> / A musical instrument consisting of a wooden pipe, with holes at intervals. / To dance the hornpipe.</t>
         </is>
       </c>
     </row>
@@ -3982,7 +3982,7 @@
       </c>
       <c r="C209" t="inlineStr">
         <is>
-          <t>A protected cove or harbor, out of the wind.Facing away from the flow of a fluid, usually air.</t>
+          <t xml:space="preserve"> / A protected cove or harbor, out of the wind. / Facing away from the flow of a fluid, usually air.</t>
         </is>
       </c>
     </row>
@@ -3999,7 +3999,7 @@
       </c>
       <c r="C210" t="inlineStr">
         <is>
-          <t>A drainage hole on the deck of a ship.Thwart or destroy, especially something belonging or pertaining to another; compare scuttle.</t>
+          <t xml:space="preserve"> / A drainage hole on the deck of a ship. / Thwart or destroy, especially something belonging or pertaining to another; compare scuttle.</t>
         </is>
       </c>
     </row>
@@ -4016,7 +4016,7 @@
       </c>
       <c r="C211" t="inlineStr">
         <is>
-          <t>A short sword with a curved blade, and a convex edge; once used by sailors when boarding an enemy ship.</t>
+          <t xml:space="preserve"> / A short sword with a curved blade, and a convex edge; once used by sailors when boarding an enemy ship.</t>
         </is>
       </c>
     </row>
@@ -4033,7 +4033,7 @@
       </c>
       <c r="C212" t="inlineStr">
         <is>
-          <t>(Singlish) Used to contradict an underlying assumption held by the interlocutor.Something; thing; stuff.(usually followed by "with," but also sometimes "would" or "might," especially in finance) In some manner or degree; in part; partly. See also what with(interrogative) Which thing, event, circumstance, etc.: used interrogatively in asking for the specification of an identity, quantity, quality, etc.An expression of surprise or disbelief.</t>
+          <t xml:space="preserve"> / (Singlish) Used to contradict an underlying assumption held by the interlocutor. / Something; thing; stuff. / (usually followed by "with," but also sometimes "would" or "might," especially in finance) In some manner or degree; in part; partly. See also what with / (interrogative) Which thing, event, circumstance, etc.: used interrogatively in asking for the specification of an identity, quantity, quality, etc. / An expression of surprise or disbelief.</t>
         </is>
       </c>
     </row>
@@ -4050,7 +4050,7 @@
       </c>
       <c r="C213" t="inlineStr">
         <is>
-          <t>A long and complicated procedure that seems tiresome or pointless.Prolix; tedious.</t>
+          <t xml:space="preserve"> / A long and complicated procedure that seems tiresome or pointless. / Prolix; tedious.</t>
         </is>
       </c>
     </row>
@@ -4067,7 +4067,7 @@
       </c>
       <c r="C214" t="inlineStr">
         <is>
-          <t>Relating to or involving ships or shipping or navigation or seamen.</t>
+          <t xml:space="preserve"> / Relating to or involving ships or shipping or navigation or seamen.</t>
         </is>
       </c>
     </row>
@@ -4084,7 +4084,7 @@
       </c>
       <c r="C215" t="inlineStr">
         <is>
-          <t>A 17th-century game in which a ball was driven along an alley and through a hoop using a mallet.Hasty and uncontrolled.In haste and chaos; uncontrolledly, confusedly.</t>
+          <t xml:space="preserve"> / A 17th-century game in which a ball was driven along an alley and through a hoop using a mallet. / Hasty and uncontrolled. / In haste and chaos; uncontrolledly, confusedly.</t>
         </is>
       </c>
     </row>
@@ -4101,7 +4101,7 @@
       </c>
       <c r="C216" t="inlineStr">
         <is>
-          <t>Someone who dives, especially as a sport.</t>
+          <t xml:space="preserve"> / Someone who dives, especially as a sport.</t>
         </is>
       </c>
     </row>
@@ -4135,7 +4135,7 @@
       </c>
       <c r="C218" t="inlineStr">
         <is>
-          <t>Showing contempt or scorn; having a pronounced lack of concern for others viewed as unworthy.</t>
+          <t xml:space="preserve"> / Showing contempt or scorn; having a pronounced lack of concern for others viewed as unworthy.</t>
         </is>
       </c>
     </row>
@@ -4152,7 +4152,7 @@
       </c>
       <c r="C219" t="inlineStr">
         <is>
-          <t>A woman paid to educate children in their own home.To work as governess; to educate children in their own home.</t>
+          <t xml:space="preserve"> / A woman paid to educate children in their own home. / To work as governess; to educate children in their own home.</t>
         </is>
       </c>
     </row>
@@ -4169,7 +4169,7 @@
       </c>
       <c r="C220" t="inlineStr">
         <is>
-          <t>To play about roughly, energetically or boisterously.The act of one who romps.</t>
+          <t xml:space="preserve"> / To play about roughly, energetically or boisterously. / The act of one who romps.</t>
         </is>
       </c>
     </row>
@@ -4186,7 +4186,7 @@
       </c>
       <c r="C221" t="inlineStr">
         <is>
-          <t>An older person who accompanies other younger people to ensure the propriety of their behaviour, often an older woman accompanying a young woman.To act as a chaperone.</t>
+          <t xml:space="preserve"> / An older person who accompanies other younger people to ensure the propriety of their behaviour, often an older woman accompanying a young woman. / To act as a chaperone.</t>
         </is>
       </c>
     </row>
@@ -4203,7 +4203,7 @@
       </c>
       <c r="C222" t="inlineStr">
         <is>
-          <t>Excessively particular, demanding, or fussy about details, especially about tidiness and cleanliness.</t>
+          <t xml:space="preserve"> / Excessively particular, demanding, or fussy about details, especially about tidiness and cleanliness.</t>
         </is>
       </c>
     </row>
@@ -4220,7 +4220,7 @@
       </c>
       <c r="C223" t="inlineStr">
         <is>
-          <t>To avoid, especially persistently.</t>
+          <t xml:space="preserve"> / To avoid, especially persistently.</t>
         </is>
       </c>
     </row>
@@ -4237,7 +4237,7 @@
       </c>
       <c r="C224" t="inlineStr">
         <is>
-          <t>To catch sight of; to see; to spot (said especially of something not easy to see)</t>
+          <t xml:space="preserve"> / To catch sight of; to see; to spot (said especially of something not easy to see)</t>
         </is>
       </c>
     </row>
@@ -4254,7 +4254,7 @@
       </c>
       <c r="C225" t="inlineStr">
         <is>
-          <t>A period of time spent doing or being something; a spell.To stop (an action); cease, desist.Any of several very small wading birds in the genus Calidris. Types of sandpiper, such as the dunlin or the sanderling.</t>
+          <t xml:space="preserve"> / A period of time spent doing or being something; a spell. / To stop (an action); cease, desist. / Any of several very small wading birds in the genus Calidris. Types of sandpiper, such as the dunlin or the sanderling.</t>
         </is>
       </c>
     </row>
@@ -4271,7 +4271,7 @@
       </c>
       <c r="C226" t="inlineStr">
         <is>
-          <t>The cutting of grass and subsequently curing it to make hay as fodder for animals</t>
+          <t xml:space="preserve"> / The cutting of grass and subsequently curing it to make hay as fodder for animals</t>
         </is>
       </c>
     </row>
@@ -4288,7 +4288,7 @@
       </c>
       <c r="C227" t="inlineStr">
         <is>
-          <t>A surface of revolution formed by rotating a segment of a line around another line that intersects the first line.To fashion into the shape of a cone.</t>
+          <t xml:space="preserve"> / A surface of revolution formed by rotating a segment of a line around another line that intersects the first line. / To fashion into the shape of a cone.</t>
         </is>
       </c>
     </row>
@@ -4305,7 +4305,7 @@
       </c>
       <c r="C228" t="inlineStr">
         <is>
-          <t>To scatter in different directionsScattered or spread out.</t>
+          <t xml:space="preserve"> / To scatter in different directions / Scattered or spread out.</t>
         </is>
       </c>
     </row>
@@ -4322,7 +4322,7 @@
       </c>
       <c r="C229" t="inlineStr">
         <is>
-          <t>Any small insect of the order Diptera, specifically within the suborder Nematocera.</t>
+          <t xml:space="preserve"> / Any small insect of the order Diptera, specifically within the suborder Nematocera.</t>
         </is>
       </c>
     </row>
@@ -4356,7 +4356,7 @@
       </c>
       <c r="C231" t="inlineStr">
         <is>
-          <t>The act of snivelling.To breathe heavily through the nose while it is congested with nasal mucus.</t>
+          <t xml:space="preserve"> / The act of snivelling. / To breathe heavily through the nose while it is congested with nasal mucus.</t>
         </is>
       </c>
     </row>
@@ -4373,7 +4373,7 @@
       </c>
       <c r="C232" t="inlineStr">
         <is>
-          <t>A blanket used as a bed covering, usually quilted.</t>
+          <t xml:space="preserve"> / A blanket used as a bed covering, usually quilted.</t>
         </is>
       </c>
     </row>
@@ -4390,7 +4390,7 @@
       </c>
       <c r="C233" t="inlineStr">
         <is>
-          <t>Kind; gracious; favorable.</t>
+          <t xml:space="preserve"> / Kind; gracious; favorable.</t>
         </is>
       </c>
     </row>
@@ -4407,7 +4407,7 @@
       </c>
       <c r="C234" t="inlineStr">
         <is>
-          <t>Comfort or consolation in a time of loneliness or distress.To give solace to; comfort; cheer; console.</t>
+          <t xml:space="preserve"> / Comfort or consolation in a time of loneliness or distress. / To give solace to; comfort; cheer; console.</t>
         </is>
       </c>
     </row>
@@ -4424,7 +4424,7 @@
       </c>
       <c r="C235" t="inlineStr">
         <is>
-          <t>A flexible tube conveying water or other fluid.To water or spray with a hose.</t>
+          <t xml:space="preserve"> / A flexible tube conveying water or other fluid. / To water or spray with a hose.</t>
         </is>
       </c>
     </row>
@@ -4441,7 +4441,7 @@
       </c>
       <c r="C236" t="inlineStr">
         <is>
-          <t>A type of fruit in which the often edible flesh arises from the swollen base of the flower and not from the carpels.To grow to a head, or form a head in growing.</t>
+          <t xml:space="preserve"> / A type of fruit in which the often edible flesh arises from the swollen base of the flower and not from the carpels. / To grow to a head, or form a head in growing.</t>
         </is>
       </c>
     </row>
@@ -4458,7 +4458,7 @@
       </c>
       <c r="C237" t="inlineStr">
         <is>
-          <t>To cut, originally with a sword or other bladed weapon, now usually with shears, or as if using shears.</t>
+          <t xml:space="preserve"> / To cut, originally with a sword or other bladed weapon, now usually with shears, or as if using shears.</t>
         </is>
       </c>
     </row>
@@ -4475,7 +4475,7 @@
       </c>
       <c r="C238" t="inlineStr">
         <is>
-          <t>A white transparent waxy crystalline isoprenoid ketone, 1,7,7-trimethylbicyclo[2.2.1]heptan-2-one, with a strong pungent odour, used in pharmacy.</t>
+          <t xml:space="preserve"> / A white transparent waxy crystalline isoprenoid ketone, 1,7,7-trimethylbicyclo[2.2.1]heptan-2-one, with a strong pungent odour, used in pharmacy.</t>
         </is>
       </c>
     </row>
@@ -4492,7 +4492,7 @@
       </c>
       <c r="C239" t="inlineStr">
         <is>
-          <t>A streptococcal infection, mainly occurring among children, and characterized by a red skin rash, sore throat and fever.</t>
+          <t xml:space="preserve"> / A streptococcal infection, mainly occurring among children, and characterized by a red skin rash, sore throat and fever.</t>
         </is>
       </c>
     </row>
@@ -4509,7 +4509,7 @@
       </c>
       <c r="C240" t="inlineStr">
         <is>
-          <t>A plant, Atropa belladonna, having purple bell-shaped flowers and poisonous black glossy berries.</t>
+          <t xml:space="preserve"> / A plant, Atropa belladonna, having purple bell-shaped flowers and poisonous black glossy berries.</t>
         </is>
       </c>
     </row>
@@ -4526,7 +4526,7 @@
       </c>
       <c r="C241" t="inlineStr">
         <is>
-          <t>To roam about for pleasure without any definite plan.Roaming about for pleasure.</t>
+          <t xml:space="preserve"> / To roam about for pleasure without any definite plan. / Roaming about for pleasure.</t>
         </is>
       </c>
     </row>
@@ -4543,7 +4543,7 @@
       </c>
       <c r="C242" t="inlineStr">
         <is>
-          <t>To move along briskly; specifically, to move at a pace between a walk and a run.The action of the verb trot.Of an animal that trots.</t>
+          <t xml:space="preserve"> / To move along briskly; specifically, to move at a pace between a walk and a run. / The action of the verb trot. / Of an animal that trots.</t>
         </is>
       </c>
     </row>
@@ -4560,7 +4560,7 @@
       </c>
       <c r="C243" t="inlineStr">
         <is>
-          <t>Any of several rodents of either of the taxonomic families Hystricidae (Old World porcupines) or Erethizontidae (New World porcupines), both from the infraorder Hystricognathi, noted for their sharp spines or quills, which are raised when the animal is attacked or surprised.</t>
+          <t xml:space="preserve"> / Any of several rodents of either of the taxonomic families Hystricidae (Old World porcupines) or Erethizontidae (New World porcupines), both from the infraorder Hystricognathi, noted for their sharp spines or quills, which are raised when the animal is attacked or surprised.</t>
         </is>
       </c>
     </row>
@@ -4577,7 +4577,7 @@
       </c>
       <c r="C244" t="inlineStr">
         <is>
-          <t>To restore a friendly relationship; to bring back to harmony.</t>
+          <t xml:space="preserve"> / To restore a friendly relationship; to bring back to harmony.</t>
         </is>
       </c>
     </row>
@@ -4594,7 +4594,7 @@
       </c>
       <c r="C245" t="inlineStr">
         <is>
-          <t>To move from one location to another in an apparently random and frivolous manner.The act of one who gads, or moves about frivolously.</t>
+          <t xml:space="preserve"> / To move from one location to another in an apparently random and frivolous manner. / The act of one who gads, or moves about frivolously.</t>
         </is>
       </c>
     </row>
@@ -4611,7 +4611,7 @@
       </c>
       <c r="C246" t="inlineStr">
         <is>
-          <t>Any of various edible European bivalve mollusks, of the family Cardiidae, having heart-shaped shells.To cause to contract into wrinkles or ridges, as some kinds of cloth after a wetting; to pucker.Any of several field weeds, such as the common corncockle (Agrostemma githago) and darnel ryegrass (Lolium temulentum).A £10 note; a tenner.</t>
+          <t xml:space="preserve"> / Any of various edible European bivalve mollusks, of the family Cardiidae, having heart-shaped shells. / To cause to contract into wrinkles or ridges, as some kinds of cloth after a wetting; to pucker. / Any of several field weeds, such as the common corncockle (Agrostemma githago) and darnel ryegrass (Lolium temulentum). / A £10 note; a tenner.</t>
         </is>
       </c>
     </row>
@@ -4628,7 +4628,7 @@
       </c>
       <c r="C247" t="inlineStr">
         <is>
-          <t>The act of one who looks; a glance.</t>
+          <t xml:space="preserve"> / The act of one who looks; a glance.</t>
         </is>
       </c>
     </row>
@@ -4645,7 +4645,7 @@
       </c>
       <c r="C248" t="inlineStr">
         <is>
-          <t>A period of 2 weeks.</t>
+          <t xml:space="preserve"> / A period of 2 weeks.</t>
         </is>
       </c>
     </row>
@@ -4679,7 +4679,7 @@
       </c>
       <c r="C250" t="inlineStr">
         <is>
-          <t>(obsolete outside Britain and Australia) A man, a fellow.</t>
+          <t xml:space="preserve"> / (obsolete outside Britain and Australia) A man, a fellow.</t>
         </is>
       </c>
     </row>
@@ -4696,7 +4696,7 @@
       </c>
       <c r="C251" t="inlineStr">
         <is>
-          <t>An instance of keeping awake during normal sleeping hours, especially to keep watch or pray.</t>
+          <t xml:space="preserve"> / An instance of keeping awake during normal sleeping hours, especially to keep watch or pray.</t>
         </is>
       </c>
     </row>
@@ -4730,7 +4730,7 @@
       </c>
       <c r="C253" t="inlineStr">
         <is>
-          <t>Receiving others kindly and conversing with them in a free and friendly manner; friendly, courteous, sociable.</t>
+          <t xml:space="preserve"> / Receiving others kindly and conversing with them in a free and friendly manner; friendly, courteous, sociable.</t>
         </is>
       </c>
     </row>
@@ -4747,7 +4747,7 @@
       </c>
       <c r="C254" t="inlineStr">
         <is>
-          <t>An incorrigibly bad individual.Defective and impossible to materially correct or set aright.</t>
+          <t xml:space="preserve"> / An incorrigibly bad individual. / Defective and impossible to materially correct or set aright.</t>
         </is>
       </c>
     </row>
@@ -4764,7 +4764,7 @@
       </c>
       <c r="C255" t="inlineStr">
         <is>
-          <t>The game of tag, or it, in which the player attempting to catch the others is called "he".(personal) A male person or animal already known or implied.</t>
+          <t xml:space="preserve"> / The game of tag, or it, in which the player attempting to catch the others is called "he". / (personal) A male person or animal already known or implied.</t>
         </is>
       </c>
     </row>
@@ -4781,7 +4781,7 @@
       </c>
       <c r="C256" t="inlineStr">
         <is>
-          <t>Violent or otherwise punitive response to an act of harm or perceived injustice; a hitting back; revenge.</t>
+          <t xml:space="preserve"> / Violent or otherwise punitive response to an act of harm or perceived injustice; a hitting back; revenge.</t>
         </is>
       </c>
     </row>
@@ -4798,7 +4798,7 @@
       </c>
       <c r="C257" t="inlineStr">
         <is>
-          <t>To divide into portions and dispense.</t>
+          <t xml:space="preserve"> / To divide into portions and dispense.</t>
         </is>
       </c>
     </row>
@@ -4815,7 +4815,7 @@
       </c>
       <c r="C258" t="inlineStr">
         <is>
-          <t>A broad, shallow injury left by scraping (rather than a cut or a scratch).To draw (an object, especially a sharp or angular one), along (something) while exerting pressure.</t>
+          <t xml:space="preserve"> / A broad, shallow injury left by scraping (rather than a cut or a scratch). / To draw (an object, especially a sharp or angular one), along (something) while exerting pressure.</t>
         </is>
       </c>
     </row>
@@ -4832,7 +4832,7 @@
       </c>
       <c r="C259" t="inlineStr">
         <is>
-          <t>Unprincipled or unscrupulous.</t>
+          <t xml:space="preserve"> / Unprincipled or unscrupulous.</t>
         </is>
       </c>
     </row>
@@ -4849,7 +4849,7 @@
       </c>
       <c r="C260" t="inlineStr">
         <is>
-          <t>A sentry, watch, or guard.To watch over as a guard.</t>
+          <t xml:space="preserve"> / A sentry, watch, or guard. / To watch over as a guard.</t>
         </is>
       </c>
     </row>
@@ -4866,7 +4866,7 @@
       </c>
       <c r="C261" t="inlineStr">
         <is>
-          <t>To lower, as in condition in life, office, rank, etc., so as to cause pain or hurt feelings; to degrade, to depress, to humble, to humiliate.</t>
+          <t xml:space="preserve"> / To lower, as in condition in life, office, rank, etc., so as to cause pain or hurt feelings; to degrade, to depress, to humble, to humiliate.</t>
         </is>
       </c>
     </row>
@@ -4883,7 +4883,7 @@
       </c>
       <c r="C262" t="inlineStr">
         <is>
-          <t>A young woman (of noble birth).</t>
+          <t xml:space="preserve"> / A young woman (of noble birth).</t>
         </is>
       </c>
     </row>
@@ -4900,7 +4900,7 @@
       </c>
       <c r="C263" t="inlineStr">
         <is>
-          <t>To become less severe or intense; to become less hard, harsh, or cruel; to soften in temperThe act of one who relents.</t>
+          <t xml:space="preserve"> / To become less severe or intense; to become less hard, harsh, or cruel; to soften in temper / The act of one who relents.</t>
         </is>
       </c>
     </row>
@@ -4917,7 +4917,7 @@
       </c>
       <c r="C264" t="inlineStr">
         <is>
-          <t>A contrite person; a penitent.Sincerely penitent or feeling regret or sorrow, especially for one’s own actions; apologetic.</t>
+          <t xml:space="preserve"> / A contrite person; a penitent. / Sincerely penitent or feeling regret or sorrow, especially for one’s own actions; apologetic.</t>
         </is>
       </c>
     </row>
@@ -4934,7 +4934,7 @@
       </c>
       <c r="C265" t="inlineStr">
         <is>
-          <t>To grab or seize by the collar or neck.Having a collar (or other encircling demarcation).</t>
+          <t xml:space="preserve"> / To grab or seize by the collar or neck. / Having a collar (or other encircling demarcation).</t>
         </is>
       </c>
     </row>
@@ -4951,7 +4951,7 @@
       </c>
       <c r="C266" t="inlineStr">
         <is>
-          <t>To hit or strike heavily and repeatedly.</t>
+          <t xml:space="preserve"> / To hit or strike heavily and repeatedly.</t>
         </is>
       </c>
     </row>
@@ -4968,7 +4968,7 @@
       </c>
       <c r="C267" t="inlineStr">
         <is>
-          <t>To conciliate, appease, or make peace with someone, particularly a god or spirit.</t>
+          <t xml:space="preserve"> / To conciliate, appease, or make peace with someone, particularly a god or spirit.</t>
         </is>
       </c>
     </row>
@@ -4985,7 +4985,7 @@
       </c>
       <c r="C268" t="inlineStr">
         <is>
-          <t>Calm and quiet; peaceful; tranquil</t>
+          <t xml:space="preserve"> / Calm and quiet; peaceful; tranquil</t>
         </is>
       </c>
     </row>
@@ -5002,7 +5002,7 @@
       </c>
       <c r="C269" t="inlineStr">
         <is>
-          <t>A housewife or housekeeper.</t>
+          <t xml:space="preserve"> / A housewife or housekeeper.</t>
         </is>
       </c>
     </row>
@@ -5019,7 +5019,7 @@
       </c>
       <c r="C270" t="inlineStr">
         <is>
-          <t>A card with two pips, one of four in a standard deck of playing cards.</t>
+          <t xml:space="preserve"> / A card with two pips, one of four in a standard deck of playing cards.</t>
         </is>
       </c>
     </row>
@@ -5053,7 +5053,7 @@
       </c>
       <c r="C272" t="inlineStr">
         <is>
-          <t>To refer to something indirectly or by suggestion.</t>
+          <t xml:space="preserve"> / To refer to something indirectly or by suggestion.</t>
         </is>
       </c>
     </row>
@@ -5070,7 +5070,7 @@
       </c>
       <c r="C273" t="inlineStr">
         <is>
-          <t>To move or act in a quick fashion.</t>
+          <t xml:space="preserve"> / To move or act in a quick fashion.</t>
         </is>
       </c>
     </row>
@@ -5087,7 +5087,7 @@
       </c>
       <c r="C274" t="inlineStr">
         <is>
-          <t>Starting on one's feet, an instance of rotating one's body 360 degree while airborne or on the ground, with one's feet going over one's head.To perform a somersault.</t>
+          <t xml:space="preserve"> / Starting on one's feet, an instance of rotating one's body 360 degree while airborne or on the ground, with one's feet going over one's head. / To perform a somersault.</t>
         </is>
       </c>
     </row>
@@ -5104,7 +5104,7 @@
       </c>
       <c r="C275" t="inlineStr">
         <is>
-          <t>To cut, originally with a sword or other bladed weapon, now usually with shears, or as if using shears.The act or operation of clipping with shears or a shearing machine, as the wool from sheep, or the nap from cloth.Tending to cut or tear.A sheep that has been shorn for the first time</t>
+          <t xml:space="preserve"> / To cut, originally with a sword or other bladed weapon, now usually with shears, or as if using shears. / The act or operation of clipping with shears or a shearing machine, as the wool from sheep, or the nap from cloth. / Tending to cut or tear. / A sheep that has been shorn for the first time</t>
         </is>
       </c>
     </row>
@@ -5121,7 +5121,7 @@
       </c>
       <c r="C276" t="inlineStr">
         <is>
-          <t>Brand or kind; model.To create.</t>
+          <t xml:space="preserve"> / Brand or kind; model. / To create.</t>
         </is>
       </c>
     </row>
@@ -5155,7 +5155,7 @@
       </c>
       <c r="C278" t="inlineStr">
         <is>
-          <t>To fetter by tying the legs; to restrict (a horse) with hobbles.The movement of one who hobbles.</t>
+          <t xml:space="preserve"> / To fetter by tying the legs; to restrict (a horse) with hobbles. / The movement of one who hobbles.</t>
         </is>
       </c>
     </row>
@@ -5172,7 +5172,7 @@
       </c>
       <c r="C279" t="inlineStr">
         <is>
-          <t>Foolishness.</t>
+          <t xml:space="preserve"> / Foolishness.</t>
         </is>
       </c>
     </row>
@@ -5189,7 +5189,7 @@
       </c>
       <c r="C280" t="inlineStr">
         <is>
-          <t>The bottom-most part of a doorway that one crosses to enter; a sill.</t>
+          <t xml:space="preserve"> / The bottom-most part of a doorway that one crosses to enter; a sill.</t>
         </is>
       </c>
     </row>
@@ -5206,7 +5206,7 @@
       </c>
       <c r="C281" t="inlineStr">
         <is>
-          <t>Previously stated; said or named before.</t>
+          <t xml:space="preserve"> / Previously stated; said or named before.</t>
         </is>
       </c>
     </row>
@@ -5223,7 +5223,7 @@
       </c>
       <c r="C282" t="inlineStr">
         <is>
-          <t>A person in the lowest and most despicable condition; a castaway; outcast.Sunk to or existing in a low condition, state, or position.</t>
+          <t xml:space="preserve"> / A person in the lowest and most despicable condition; a castaway; outcast. / Sunk to or existing in a low condition, state, or position.</t>
         </is>
       </c>
     </row>
@@ -5240,7 +5240,7 @@
       </c>
       <c r="C283" t="inlineStr">
         <is>
-          <t>One of two usually roughly equal parts into which anything may be divided, or considered as divided.To reduce to half the original amount.</t>
+          <t xml:space="preserve"> / One of two usually roughly equal parts into which anything may be divided, or considered as divided. / To reduce to half the original amount.</t>
         </is>
       </c>
     </row>
@@ -5257,7 +5257,7 @@
       </c>
       <c r="C284" t="inlineStr">
         <is>
-          <t>In a perilous manner.</t>
+          <t xml:space="preserve"> / In a perilous manner.</t>
         </is>
       </c>
     </row>
@@ -5274,7 +5274,7 @@
       </c>
       <c r="C285" t="inlineStr">
         <is>
-          <t>Without fault or weakness; incapable of error or fallacy.</t>
+          <t xml:space="preserve"> / Without fault or weakness; incapable of error or fallacy.</t>
         </is>
       </c>
     </row>
@@ -5308,7 +5308,7 @@
       </c>
       <c r="C287" t="inlineStr">
         <is>
-          <t>A sleeveless dress, often similar to an apron, generally worn over other clothes. Most often worn by young girls as an overdress.</t>
+          <t xml:space="preserve"> / A sleeveless dress, often similar to an apron, generally worn over other clothes. Most often worn by young girls as an overdress.</t>
         </is>
       </c>
     </row>
@@ -5325,7 +5325,7 @@
       </c>
       <c r="C288" t="inlineStr">
         <is>
-          <t>To make quiet; to calm; to reduce to a state of peace; to dispel (anger or hatred).</t>
+          <t xml:space="preserve"> / To make quiet; to calm; to reduce to a state of peace; to dispel (anger or hatred).</t>
         </is>
       </c>
     </row>
@@ -5342,7 +5342,7 @@
       </c>
       <c r="C289" t="inlineStr">
         <is>
-          <t>A sound made by loose objects shaking or vibrating against one another.To create a rattling sound by shaking or striking.</t>
+          <t xml:space="preserve"> / A sound made by loose objects shaking or vibrating against one another. / To create a rattling sound by shaking or striking.</t>
         </is>
       </c>
     </row>
@@ -5359,7 +5359,7 @@
       </c>
       <c r="C290" t="inlineStr">
         <is>
-          <t>A small mound of earth created by a mole's burrowing underneath the surface of the ground.</t>
+          <t xml:space="preserve"> / A small mound of earth created by a mole's burrowing underneath the surface of the ground.</t>
         </is>
       </c>
     </row>
@@ -5376,7 +5376,7 @@
       </c>
       <c r="C291" t="inlineStr">
         <is>
-          <t>To range at large, or without restraint.Expatiation</t>
+          <t xml:space="preserve"> / To range at large, or without restraint. / Expatiation</t>
         </is>
       </c>
     </row>
@@ -5393,7 +5393,7 @@
       </c>
       <c r="C292" t="inlineStr">
         <is>
-          <t>Making arbitrary decisions, especially in an impulsive and forceful manner.</t>
+          <t xml:space="preserve"> / Making arbitrary decisions, especially in an impulsive and forceful manner.</t>
         </is>
       </c>
     </row>
@@ -5410,7 +5410,7 @@
       </c>
       <c r="C293" t="inlineStr">
         <is>
-          <t>(sometimes derogatory) A woman who has never been married, especially one past the typical marrying age according to social traditions.</t>
+          <t xml:space="preserve"> / (sometimes derogatory) A woman who has never been married, especially one past the typical marrying age according to social traditions.</t>
         </is>
       </c>
     </row>
@@ -5427,7 +5427,7 @@
       </c>
       <c r="C294" t="inlineStr">
         <is>
-          <t>A prancing movement.(of a horse) To spring forward on the hind legs.</t>
+          <t xml:space="preserve"> / A prancing movement. / (of a horse) To spring forward on the hind legs.</t>
         </is>
       </c>
     </row>
@@ -5444,7 +5444,7 @@
       </c>
       <c r="C295" t="inlineStr">
         <is>
-          <t>Great warmth of feeling; fervor; passion.</t>
+          <t xml:space="preserve"> / Great warmth of feeling; fervor; passion.</t>
         </is>
       </c>
     </row>
@@ -5461,7 +5461,7 @@
       </c>
       <c r="C296" t="inlineStr">
         <is>
-          <t>A swarthy person.Tawny, dusky, dark.</t>
+          <t xml:space="preserve"> / A swarthy person. / Tawny, dusky, dark.</t>
         </is>
       </c>
     </row>
@@ -5478,7 +5478,7 @@
       </c>
       <c r="C297" t="inlineStr">
         <is>
-          <t>To make a hole in (something); to hollow.</t>
+          <t xml:space="preserve"> / To make a hole in (something); to hollow.</t>
         </is>
       </c>
     </row>
@@ -5495,7 +5495,7 @@
       </c>
       <c r="C298" t="inlineStr">
         <is>
-          <t>Able to be done in practice.</t>
+          <t xml:space="preserve"> / Able to be done in practice.</t>
         </is>
       </c>
     </row>
@@ -5512,7 +5512,7 @@
       </c>
       <c r="C299" t="inlineStr">
         <is>
-          <t>Any of several plants of the tribe Cassieae, especially those of the genera Cassia and Senna, whose leaves and pods are used as a purgative and laxative.</t>
+          <t xml:space="preserve"> / Any of several plants of the tribe Cassieae, especially those of the genera Cassia and Senna, whose leaves and pods are used as a purgative and laxative.</t>
         </is>
       </c>
     </row>
@@ -5529,7 +5529,7 @@
       </c>
       <c r="C300" t="inlineStr">
         <is>
-          <t>To hone or rub on with some substance, as a piece of stone, for the purpose of sharpening – see whetstone.(of a surface) exposed to a working fluid</t>
+          <t xml:space="preserve"> / To hone or rub on with some substance, as a piece of stone, for the purpose of sharpening – see whetstone. / (of a surface) exposed to a working fluid</t>
         </is>
       </c>
     </row>
@@ -5546,7 +5546,7 @@
       </c>
       <c r="C301" t="inlineStr">
         <is>
-          <t>Affectedly proper or refined; somewhat prudish refinement; excessively polite.</t>
+          <t xml:space="preserve"> / Affectedly proper or refined; somewhat prudish refinement; excessively polite.</t>
         </is>
       </c>
     </row>
@@ -5563,7 +5563,7 @@
       </c>
       <c r="C302" t="inlineStr">
         <is>
-          <t>To deceive or delude (using guile).</t>
+          <t xml:space="preserve"> / To deceive or delude (using guile).</t>
         </is>
       </c>
     </row>
@@ -5580,7 +5580,7 @@
       </c>
       <c r="C303" t="inlineStr">
         <is>
-          <t>The quality of being sweet or pleasing to the mind; agreeableness; pleasantness</t>
+          <t xml:space="preserve"> / The quality of being sweet or pleasing to the mind; agreeableness; pleasantness</t>
         </is>
       </c>
     </row>
@@ -5597,7 +5597,7 @@
       </c>
       <c r="C304" t="inlineStr">
         <is>
-          <t>A quirk, idiosyncrasy, or mannerism; unusual habit or way (usage is typically plural), that is slightly strange or silly.</t>
+          <t xml:space="preserve"> / A quirk, idiosyncrasy, or mannerism; unusual habit or way (usage is typically plural), that is slightly strange or silly.</t>
         </is>
       </c>
     </row>
@@ -5614,7 +5614,7 @@
       </c>
       <c r="C305" t="inlineStr">
         <is>
-          <t>To erase (as anything impressed or inscribed upon a surface); to render illegible or indiscernible.</t>
+          <t xml:space="preserve"> / To erase (as anything impressed or inscribed upon a surface); to render illegible or indiscernible.</t>
         </is>
       </c>
     </row>
@@ -5631,7 +5631,7 @@
       </c>
       <c r="C306" t="inlineStr">
         <is>
-          <t>The mark of the foot left on the earth.</t>
+          <t xml:space="preserve"> / The mark of the foot left on the earth.</t>
         </is>
       </c>
     </row>
@@ -5648,7 +5648,7 @@
       </c>
       <c r="C307" t="inlineStr">
         <is>
-          <t>An excessive amount of something.To fill (something) to excess.</t>
+          <t xml:space="preserve"> / An excessive amount of something. / To fill (something) to excess.</t>
         </is>
       </c>
     </row>
@@ -5665,7 +5665,7 @@
       </c>
       <c r="C308" t="inlineStr">
         <is>
-          <t>A disagreeable mixture or confusion of things; hence, a situation resulting from blundering or from misunderstanding; disorder.(transitive, often used with "up") To make untidy or dirty.Mass; a church service.To take meals with a mess.</t>
+          <t xml:space="preserve"> / A disagreeable mixture or confusion of things; hence, a situation resulting from blundering or from misunderstanding; disorder. / (transitive, often used with "up") To make untidy or dirty. / Mass; a church service. / To take meals with a mess.</t>
         </is>
       </c>
     </row>
@@ -5699,7 +5699,7 @@
       </c>
       <c r="C310" t="inlineStr">
         <is>
-          <t>Turned or twisted to one side.Tilted to one side.</t>
+          <t xml:space="preserve"> / Turned or twisted to one side. / Tilted to one side.</t>
         </is>
       </c>
     </row>
@@ -5716,7 +5716,7 @@
       </c>
       <c r="C311" t="inlineStr">
         <is>
-          <t>To such an extent or degree; to the same extent or degree.Introducing a basis of comparison, with an object in the objective case.In the (same) way or manner that; to the (same) degree that.</t>
+          <t xml:space="preserve"> / To such an extent or degree; to the same extent or degree. / Introducing a basis of comparison, with an object in the objective case. / In the (same) way or manner that; to the (same) degree that.</t>
         </is>
       </c>
     </row>
@@ -5733,7 +5733,7 @@
       </c>
       <c r="C312" t="inlineStr">
         <is>
-          <t>To abandon, to give up, to leave (permanently), to renounce.</t>
+          <t xml:space="preserve"> / To abandon, to give up, to leave (permanently), to renounce.</t>
         </is>
       </c>
     </row>
@@ -5750,7 +5750,7 @@
       </c>
       <c r="C313" t="inlineStr">
         <is>
-          <t>To be alive; to have life.The state of being alive.Having life.</t>
+          <t xml:space="preserve"> / To be alive; to have life. / The state of being alive. / Having life.</t>
         </is>
       </c>
     </row>
@@ -5767,7 +5767,7 @@
       </c>
       <c r="C314" t="inlineStr">
         <is>
-          <t>A sudden rush of creative impulse or inspiration, often attributed to divine influence.</t>
+          <t xml:space="preserve"> / A sudden rush of creative impulse or inspiration, often attributed to divine influence.</t>
         </is>
       </c>
     </row>
@@ -5784,7 +5784,7 @@
       </c>
       <c r="C315" t="inlineStr">
         <is>
-          <t>To come into view.</t>
+          <t xml:space="preserve"> / To come into view.</t>
         </is>
       </c>
     </row>
@@ -5801,7 +5801,7 @@
       </c>
       <c r="C316" t="inlineStr">
         <is>
-          <t>In low spirits from loss of hope or courage.</t>
+          <t xml:space="preserve"> / In low spirits from loss of hope or courage.</t>
         </is>
       </c>
     </row>
@@ -5835,7 +5835,7 @@
       </c>
       <c r="C318" t="inlineStr">
         <is>
-          <t>(sometimes derogatory) A woman who has never been married, especially one past the typical marrying age according to social traditions.</t>
+          <t xml:space="preserve"> / (sometimes derogatory) A woman who has never been married, especially one past the typical marrying age according to social traditions.</t>
         </is>
       </c>
     </row>
@@ -5852,7 +5852,7 @@
       </c>
       <c r="C319" t="inlineStr">
         <is>
-          <t>A series of links united; a series or order of things depending on each other, as if linked together; a chain, a succession.</t>
+          <t xml:space="preserve"> / A series of links united; a series or order of things depending on each other, as if linked together; a chain, a succession.</t>
         </is>
       </c>
     </row>
@@ -5869,7 +5869,7 @@
       </c>
       <c r="C320" t="inlineStr">
         <is>
-          <t>Lack of quiet; absence of tranquility in body or mindTo make (someone or something) worried or anxious.Deprived of quiet; impatient, restless, uneasy.</t>
+          <t xml:space="preserve"> / Lack of quiet; absence of tranquility in body or mind / To make (someone or something) worried or anxious. / Deprived of quiet; impatient, restless, uneasy.</t>
         </is>
       </c>
     </row>
@@ -5886,7 +5886,7 @@
       </c>
       <c r="C321" t="inlineStr">
         <is>
-          <t>(authorship, often used metaphorically) The conclusion or resolution of a plot.</t>
+          <t xml:space="preserve"> / (authorship, often used metaphorically) The conclusion or resolution of a plot.</t>
         </is>
       </c>
     </row>
@@ -5903,7 +5903,7 @@
       </c>
       <c r="C322" t="inlineStr">
         <is>
-          <t>Whiteness; brilliance; purity.</t>
+          <t xml:space="preserve"> / Whiteness; brilliance; purity.</t>
         </is>
       </c>
     </row>
@@ -5920,7 +5920,7 @@
       </c>
       <c r="C323" t="inlineStr">
         <is>
-          <t>Of or relating to a young, flirtatious girl.</t>
+          <t xml:space="preserve"> / Of or relating to a young, flirtatious girl.</t>
         </is>
       </c>
     </row>
@@ -5937,7 +5937,7 @@
       </c>
       <c r="C324" t="inlineStr">
         <is>
-          <t>To smear upon; to soil.</t>
+          <t xml:space="preserve"> / To smear upon; to soil.</t>
         </is>
       </c>
     </row>
@@ -5954,7 +5954,7 @@
       </c>
       <c r="C325" t="inlineStr">
         <is>
-          <t>A derisive remark.Expressing or characterized by derision; mocking; ridiculing.</t>
+          <t xml:space="preserve"> / A derisive remark. / Expressing or characterized by derision; mocking; ridiculing.</t>
         </is>
       </c>
     </row>
@@ -5971,7 +5971,7 @@
       </c>
       <c r="C326" t="inlineStr">
         <is>
-          <t>Tending to contribute to, encourage, or bring about some result.</t>
+          <t xml:space="preserve"> / Tending to contribute to, encourage, or bring about some result.</t>
         </is>
       </c>
     </row>
@@ -5988,7 +5988,7 @@
       </c>
       <c r="C327" t="inlineStr">
         <is>
-          <t>To lessen the intensity of, to mitigate or relieve (hunger, emotion, pain etc.).</t>
+          <t xml:space="preserve"> / To lessen the intensity of, to mitigate or relieve (hunger, emotion, pain etc.).</t>
         </is>
       </c>
     </row>
@@ -6005,7 +6005,7 @@
       </c>
       <c r="C328" t="inlineStr">
         <is>
-          <t>(often in the plural) A paroxysm of extreme physical pain or anguish; a feeling of sudden and transitory agony; a throe.To cause to have great pain or suffering; to torment, to torture.</t>
+          <t xml:space="preserve"> / (often in the plural) A paroxysm of extreme physical pain or anguish; a feeling of sudden and transitory agony; a throe. / To cause to have great pain or suffering; to torment, to torture.</t>
         </is>
       </c>
     </row>
@@ -6022,7 +6022,7 @@
       </c>
       <c r="C329" t="inlineStr">
         <is>
-          <t>Having a hardness and severity of nature or manner.</t>
+          <t xml:space="preserve"> / Having a hardness and severity of nature or manner.</t>
         </is>
       </c>
     </row>
@@ -6039,7 +6039,7 @@
       </c>
       <c r="C330" t="inlineStr">
         <is>
-          <t>A frill, flounce, or ruffle, as on clothing; a decorative piece of fabric, especially one gathered or pleated as into a ruffle, etc.</t>
+          <t xml:space="preserve"> / A frill, flounce, or ruffle, as on clothing; a decorative piece of fabric, especially one gathered or pleated as into a ruffle, etc.</t>
         </is>
       </c>
     </row>
@@ -6056,7 +6056,7 @@
       </c>
       <c r="C331" t="inlineStr">
         <is>
-          <t>To avoid, especially a duty, responsibility, etc.; to stay away from.The act of one who shirks.</t>
+          <t xml:space="preserve"> / To avoid, especially a duty, responsibility, etc.; to stay away from. / The act of one who shirks.</t>
         </is>
       </c>
     </row>
@@ -6073,7 +6073,7 @@
       </c>
       <c r="C332" t="inlineStr">
         <is>
-          <t>An article of loose clothing popular in 17th- and 18th century France.</t>
+          <t xml:space="preserve"> / An article of loose clothing popular in 17th- and 18th century France.</t>
         </is>
       </c>
     </row>
@@ -6090,7 +6090,7 @@
       </c>
       <c r="C333" t="inlineStr">
         <is>
-          <t>(often with up) To make or become sober.Not drunk; not intoxicated</t>
+          <t xml:space="preserve"> / (often with up) To make or become sober. / Not drunk; not intoxicated</t>
         </is>
       </c>
     </row>
@@ -6107,7 +6107,7 @@
       </c>
       <c r="C334" t="inlineStr">
         <is>
-          <t>A fine, transparent fabric made from cotton, and usually stiffened.</t>
+          <t xml:space="preserve"> / A fine, transparent fabric made from cotton, and usually stiffened.</t>
         </is>
       </c>
     </row>
@@ -6124,7 +6124,7 @@
       </c>
       <c r="C335" t="inlineStr">
         <is>
-          <t>(in combination) clothingTo carry or have equipped on or about one's body, as an item of clothing, equipment, decoration, etc.</t>
+          <t xml:space="preserve"> / (in combination) clothing / To carry or have equipped on or about one's body, as an item of clothing, equipment, decoration, etc.</t>
         </is>
       </c>
     </row>
@@ -6158,7 +6158,7 @@
       </c>
       <c r="C337" t="inlineStr">
         <is>
-          <t>That place.(location) In a place or location (stated, implied or otherwise indicated) at some distance from the speaker (compare here).Used as an expletive subject of be in its sense of “exist”, with the semantic, usually indefinite subject being postponed or (occasionally) implied.Used to offer encouragement or sympathy.</t>
+          <t xml:space="preserve"> / That place. / (location) In a place or location (stated, implied or otherwise indicated) at some distance from the speaker (compare here). / Used as an expletive subject of be in its sense of “exist”, with the semantic, usually indefinite subject being postponed or (occasionally) implied. / Used to offer encouragement or sympathy.</t>
         </is>
       </c>
     </row>
@@ -6175,7 +6175,7 @@
       </c>
       <c r="C338" t="inlineStr">
         <is>
-          <t>A square or rectangular piece of cloth worn as a covering for the head, neck, and shoulders, typically by women.To wrap in a shawl.</t>
+          <t xml:space="preserve"> / A square or rectangular piece of cloth worn as a covering for the head, neck, and shoulders, typically by women. / To wrap in a shawl.</t>
         </is>
       </c>
     </row>
@@ -6192,7 +6192,7 @@
       </c>
       <c r="C339" t="inlineStr">
         <is>
-          <t>To cover or adorn with drapery or folds of cloth, or as with drapery</t>
+          <t xml:space="preserve"> / To cover or adorn with drapery or folds of cloth, or as with drapery</t>
         </is>
       </c>
     </row>
@@ -6209,7 +6209,7 @@
       </c>
       <c r="C340" t="inlineStr">
         <is>
-          <t>Conveying in demeanour the assumption of superiority; disdainful, supercilious.</t>
+          <t xml:space="preserve"> / Conveying in demeanour the assumption of superiority; disdainful, supercilious.</t>
         </is>
       </c>
     </row>
@@ -6226,7 +6226,7 @@
       </c>
       <c r="C341" t="inlineStr">
         <is>
-          <t>Having or showing pluck, courage or spirit in trying circumstances.</t>
+          <t xml:space="preserve"> / Having or showing pluck, courage or spirit in trying circumstances.</t>
         </is>
       </c>
     </row>
@@ -6243,7 +6243,7 @@
       </c>
       <c r="C342" t="inlineStr">
         <is>
-          <t>A campsite.</t>
+          <t xml:space="preserve"> / A campsite.</t>
         </is>
       </c>
     </row>
@@ -6260,7 +6260,7 @@
       </c>
       <c r="C343" t="inlineStr">
         <is>
-          <t>To spatter or cover with something; sprinkle with anything liquid, or with any wet or adhesive substance.</t>
+          <t xml:space="preserve"> / To spatter or cover with something; sprinkle with anything liquid, or with any wet or adhesive substance.</t>
         </is>
       </c>
     </row>
@@ -6277,7 +6277,7 @@
       </c>
       <c r="C344" t="inlineStr">
         <is>
-          <t>To ease a burden, particularly worry; make less painful; to comfort.</t>
+          <t xml:space="preserve"> / To ease a burden, particularly worry; make less painful; to comfort.</t>
         </is>
       </c>
     </row>
@@ -6294,7 +6294,7 @@
       </c>
       <c r="C345" t="inlineStr">
         <is>
-          <t>One who holds puritanical attitudes.Of or pertaining to the Puritans, or to their doctrines and practice.</t>
+          <t xml:space="preserve"> / One who holds puritanical attitudes. / Of or pertaining to the Puritans, or to their doctrines and practice.</t>
         </is>
       </c>
     </row>
@@ -6311,7 +6311,7 @@
       </c>
       <c r="C346" t="inlineStr">
         <is>
-          <t>To trust, have faith (in).The telling of something in confidence.Having or showing confidence or trust in another person.</t>
+          <t xml:space="preserve"> / To trust, have faith (in). / The telling of something in confidence. / Having or showing confidence or trust in another person.</t>
         </is>
       </c>
     </row>
@@ -6328,7 +6328,7 @@
       </c>
       <c r="C347" t="inlineStr">
         <is>
-          <t>Sullen, gloomy; showing a brooding ill humour.</t>
+          <t xml:space="preserve"> / Sullen, gloomy; showing a brooding ill humour.</t>
         </is>
       </c>
     </row>
@@ -6362,7 +6362,7 @@
       </c>
       <c r="C349" t="inlineStr">
         <is>
-          <t>To stick fast or cleave, as a glutinous substance does; to become joined or united.</t>
+          <t xml:space="preserve"> / To stick fast or cleave, as a glutinous substance does; to become joined or united.</t>
         </is>
       </c>
     </row>
@@ -6379,7 +6379,7 @@
       </c>
       <c r="C350" t="inlineStr">
         <is>
-          <t>A type of parchment paper made from the skin of a lamb, baby goat, or calf.</t>
+          <t xml:space="preserve"> / A type of parchment paper made from the skin of a lamb, baby goat, or calf.</t>
         </is>
       </c>
     </row>
@@ -6396,7 +6396,7 @@
       </c>
       <c r="C351" t="inlineStr">
         <is>
-          <t>The condition of a martyr; the death of a martyr; the suffering of death on account of adherence to the Christian faith, or to any cause.</t>
+          <t xml:space="preserve"> / The condition of a martyr; the death of a martyr; the suffering of death on account of adherence to the Christian faith, or to any cause.</t>
         </is>
       </c>
     </row>
@@ -6413,7 +6413,7 @@
       </c>
       <c r="C352" t="inlineStr">
         <is>
-          <t>To become/get married to.</t>
+          <t xml:space="preserve"> / To become/get married to.</t>
         </is>
       </c>
     </row>
@@ -6430,7 +6430,7 @@
       </c>
       <c r="C353" t="inlineStr">
         <is>
-          <t>To relieve (someone or something) of a load; to unburden (a load).Freed from an obligation; freed from accusation or blame; acquitted, exonerated.</t>
+          <t xml:space="preserve"> / To relieve (someone or something) of a load; to unburden (a load). / Freed from an obligation; freed from accusation or blame; acquitted, exonerated.</t>
         </is>
       </c>
     </row>
@@ -6447,7 +6447,7 @@
       </c>
       <c r="C354" t="inlineStr">
         <is>
-          <t>The quality of being magnanimous; greatness of mind; elevation or dignity of soul.</t>
+          <t xml:space="preserve"> / The quality of being magnanimous; greatness of mind; elevation or dignity of soul.</t>
         </is>
       </c>
     </row>
@@ -6464,7 +6464,7 @@
       </c>
       <c r="C355" t="inlineStr">
         <is>
-          <t>(plural phalanxes) An ancient Greek and Macedonian military unit that consisted of several ranks and files (lines) of soldiers in close array with joined shields and long spears.</t>
+          <t xml:space="preserve"> / (plural phalanxes) An ancient Greek and Macedonian military unit that consisted of several ranks and files (lines) of soldiers in close array with joined shields and long spears.</t>
         </is>
       </c>
     </row>
@@ -6481,7 +6481,7 @@
       </c>
       <c r="C356" t="inlineStr">
         <is>
-          <t>A passageway through which to enter or leave, such as one between seating areas in an auditorium, or between two buildings.To serve as, furnish with, or conduct oneself as though proceeding on a gangway.(to a crowd) Make way! Clear a path!</t>
+          <t xml:space="preserve"> / A passageway through which to enter or leave, such as one between seating areas in an auditorium, or between two buildings. / To serve as, furnish with, or conduct oneself as though proceeding on a gangway. / (to a crowd) Make way! Clear a path!</t>
         </is>
       </c>
     </row>
@@ -6515,7 +6515,7 @@
       </c>
       <c r="C358" t="inlineStr">
         <is>
-          <t>A female chicken (Gallus gallus), particularly a sexually mature one kept for its eggs.</t>
+          <t xml:space="preserve"> / A female chicken (Gallus gallus), particularly a sexually mature one kept for its eggs.</t>
         </is>
       </c>
     </row>
@@ -6532,7 +6532,7 @@
       </c>
       <c r="C359" t="inlineStr">
         <is>
-          <t>To drive away, disperse.Wasteful of health or possessions in the pursuit of pleasure.</t>
+          <t xml:space="preserve"> / To drive away, disperse. / Wasteful of health or possessions in the pursuit of pleasure.</t>
         </is>
       </c>
     </row>
@@ -6549,7 +6549,7 @@
       </c>
       <c r="C360" t="inlineStr">
         <is>
-          <t>A state of disquiet, uneasiness, or anxiety.</t>
+          <t xml:space="preserve"> / A state of disquiet, uneasiness, or anxiety.</t>
         </is>
       </c>
     </row>
@@ -6566,7 +6566,7 @@
       </c>
       <c r="C361" t="inlineStr">
         <is>
-          <t>To make feeble; to enfeeble.Deficient in physical strength</t>
+          <t xml:space="preserve"> / To make feeble; to enfeeble. / Deficient in physical strength</t>
         </is>
       </c>
     </row>
@@ -6583,7 +6583,7 @@
       </c>
       <c r="C362" t="inlineStr">
         <is>
-          <t>Full of ardor; fervent, passionate.</t>
+          <t xml:space="preserve"> / Full of ardor; fervent, passionate.</t>
         </is>
       </c>
     </row>
@@ -6600,7 +6600,7 @@
       </c>
       <c r="C363" t="inlineStr">
         <is>
-          <t>(of a man) Honourable, especially to women; gallant.</t>
+          <t xml:space="preserve"> / (of a man) Honourable, especially to women; gallant.</t>
         </is>
       </c>
     </row>
@@ -6617,7 +6617,7 @@
       </c>
       <c r="C364" t="inlineStr">
         <is>
-          <t>(with in (or sometimes with, to)) To rest satisfied, or apparently satisfied, or to rest without opposition and discontent (usually implying previous opposition or discontent); to accept or consent by silence or by omitting to object.</t>
+          <t xml:space="preserve"> / (with in (or sometimes with, to)) To rest satisfied, or apparently satisfied, or to rest without opposition and discontent (usually implying previous opposition or discontent); to accept or consent by silence or by omitting to object.</t>
         </is>
       </c>
     </row>
@@ -6634,7 +6634,7 @@
       </c>
       <c r="C365" t="inlineStr">
         <is>
-          <t>The escape of gas from solution in a liquid, especially the escape of carbon dioxide from a carbonated drink.</t>
+          <t xml:space="preserve"> / The escape of gas from solution in a liquid, especially the escape of carbon dioxide from a carbonated drink.</t>
         </is>
       </c>
     </row>
@@ -6651,7 +6651,7 @@
       </c>
       <c r="C366" t="inlineStr">
         <is>
-          <t>A soft white mineral, chiefly used for smoking-pipes and cigar holders.</t>
+          <t xml:space="preserve"> / A soft white mineral, chiefly used for smoking-pipes and cigar holders.</t>
         </is>
       </c>
     </row>
@@ -6668,7 +6668,7 @@
       </c>
       <c r="C367" t="inlineStr">
         <is>
-          <t>A shelf that is affixed to the wall above a fireplace.</t>
+          <t xml:space="preserve"> / A shelf that is affixed to the wall above a fireplace.</t>
         </is>
       </c>
     </row>
@@ -6685,7 +6685,7 @@
       </c>
       <c r="C368" t="inlineStr">
         <is>
-          <t>To leave out or exclude.An act of omission.</t>
+          <t xml:space="preserve"> / To leave out or exclude. / An act of omission.</t>
         </is>
       </c>
     </row>
@@ -6702,7 +6702,7 @@
       </c>
       <c r="C369" t="inlineStr">
         <is>
-          <t>A pen name or pseudonym.</t>
+          <t xml:space="preserve"> / A pen name or pseudonym.</t>
         </is>
       </c>
     </row>
@@ -6719,7 +6719,7 @@
       </c>
       <c r="C370" t="inlineStr">
         <is>
-          <t>To loot or pillage. See also sack.</t>
+          <t xml:space="preserve"> / To loot or pillage. See also sack.</t>
         </is>
       </c>
     </row>
@@ -6736,7 +6736,7 @@
       </c>
       <c r="C371" t="inlineStr">
         <is>
-          <t>Disposition to do good.</t>
+          <t xml:space="preserve"> / Disposition to do good.</t>
         </is>
       </c>
     </row>
@@ -6753,7 +6753,7 @@
       </c>
       <c r="C372" t="inlineStr">
         <is>
-          <t>Talkativeness; the quality of being loquacious.</t>
+          <t xml:space="preserve"> / Talkativeness; the quality of being loquacious.</t>
         </is>
       </c>
     </row>
@@ -6770,7 +6770,7 @@
       </c>
       <c r="C373" t="inlineStr">
         <is>
-          <t>A soft-bodied invertebrate of the phylum Mollusca, typically with a hard shell of one or more pieces.</t>
+          <t xml:space="preserve"> / A soft-bodied invertebrate of the phylum Mollusca, typically with a hard shell of one or more pieces.</t>
         </is>
       </c>
     </row>
@@ -6787,7 +6787,7 @@
       </c>
       <c r="C374" t="inlineStr">
         <is>
-          <t>A venomous snake in the family Viperidae.</t>
+          <t xml:space="preserve"> / A venomous snake in the family Viperidae.</t>
         </is>
       </c>
     </row>
@@ -6804,7 +6804,7 @@
       </c>
       <c r="C375" t="inlineStr">
         <is>
-          <t>Unwieldy because of its weight; cumbersome.</t>
+          <t xml:space="preserve"> / Unwieldy because of its weight; cumbersome.</t>
         </is>
       </c>
     </row>
@@ -6821,7 +6821,7 @@
       </c>
       <c r="C376" t="inlineStr">
         <is>
-          <t>The first existence of anything; act or fact of commencing</t>
+          <t xml:space="preserve"> / The first existence of anything; act or fact of commencing</t>
         </is>
       </c>
     </row>
@@ -6838,7 +6838,7 @@
       </c>
       <c r="C377" t="inlineStr">
         <is>
-          <t>One who has a strong build.Firmly or solidly built.</t>
+          <t xml:space="preserve"> / One who has a strong build. / Firmly or solidly built.</t>
         </is>
       </c>
     </row>
@@ -6855,7 +6855,7 @@
       </c>
       <c r="C378" t="inlineStr">
         <is>
-          <t>A greeting, salute, or address; a hello.</t>
+          <t xml:space="preserve"> / A greeting, salute, or address; a hello.</t>
         </is>
       </c>
     </row>
@@ -6889,7 +6889,7 @@
       </c>
       <c r="C380" t="inlineStr">
         <is>
-          <t>Incapable of changing or being altered</t>
+          <t xml:space="preserve"> / Incapable of changing or being altered</t>
         </is>
       </c>
     </row>
@@ -6906,7 +6906,7 @@
       </c>
       <c r="C381" t="inlineStr">
         <is>
-          <t>A quiet sound, particularly one from a baby bird.To make a soft, shrill noise like a baby bird.A quick look or glimpse, especially a furtive one.To look, especially through a narrow opening, or while trying not to be seen or noticed.A spot on a die or domino.Person.</t>
+          <t xml:space="preserve"> / A quiet sound, particularly one from a baby bird. / To make a soft, shrill noise like a baby bird. / A quick look or glimpse, especially a furtive one. / To look, especially through a narrow opening, or while trying not to be seen or noticed. / A spot on a die or domino. / Person.</t>
         </is>
       </c>
     </row>
@@ -6923,7 +6923,7 @@
       </c>
       <c r="C382" t="inlineStr">
         <is>
-          <t>Self-confidence; poise; composure.</t>
+          <t xml:space="preserve"> / Self-confidence; poise; composure.</t>
         </is>
       </c>
     </row>
@@ -6957,7 +6957,7 @@
       </c>
       <c r="C384" t="inlineStr">
         <is>
-          <t>To disclaim and expel from the family, as a father his child; to disown; to disinherit.</t>
+          <t xml:space="preserve"> / To disclaim and expel from the family, as a father his child; to disown; to disinherit.</t>
         </is>
       </c>
     </row>
@@ -6974,7 +6974,7 @@
       </c>
       <c r="C385" t="inlineStr">
         <is>
-          <t>To deprive by or as if by violence; to rob; to strip; to benim.(of a person) Pained by the loss of someone.</t>
+          <t xml:space="preserve"> / To deprive by or as if by violence; to rob; to strip; to benim. / (of a person) Pained by the loss of someone.</t>
         </is>
       </c>
     </row>
@@ -7008,7 +7008,7 @@
       </c>
       <c r="C387" t="inlineStr">
         <is>
-          <t>Attended by, or making, a loud and tumultuous noise; boisterous.</t>
+          <t xml:space="preserve"> / Attended by, or making, a loud and tumultuous noise; boisterous.</t>
         </is>
       </c>
     </row>
@@ -7025,7 +7025,7 @@
       </c>
       <c r="C388" t="inlineStr">
         <is>
-          <t>Not conquerable; indomitable.</t>
+          <t xml:space="preserve"> / Not conquerable; indomitable.</t>
         </is>
       </c>
     </row>
@@ -7042,7 +7042,7 @@
       </c>
       <c r="C389" t="inlineStr">
         <is>
-          <t>To knowingly and willfully make a false statement of witness while in court.</t>
+          <t xml:space="preserve"> / To knowingly and willfully make a false statement of witness while in court.</t>
         </is>
       </c>
     </row>
@@ -7076,7 +7076,7 @@
       </c>
       <c r="C391" t="inlineStr">
         <is>
-          <t>An impassioned, disputatious public speech.To give a forceful and lengthy lecture or criticism to someone.</t>
+          <t xml:space="preserve"> / An impassioned, disputatious public speech. / To give a forceful and lengthy lecture or criticism to someone.</t>
         </is>
       </c>
     </row>
@@ -7093,7 +7093,7 @@
       </c>
       <c r="C392" t="inlineStr">
         <is>
-          <t>Women's hats.</t>
+          <t xml:space="preserve"> / Women's hats.</t>
         </is>
       </c>
     </row>
@@ -7110,7 +7110,7 @@
       </c>
       <c r="C393" t="inlineStr">
         <is>
-          <t>A device to which a bundle of natural fibres (often wool, flax, or cotton) are attached for temporary storage, before being drawn off gradually to spin thread. A traditional distaff is a staff with flax fibres tied loosely to it (as indicated by the etymology of the word), but modern distaffs are often made of cords weighted with beads, and attached to the wrist.Of, relating to, or characteristic of women.</t>
+          <t xml:space="preserve"> / A device to which a bundle of natural fibres (often wool, flax, or cotton) are attached for temporary storage, before being drawn off gradually to spin thread. A traditional distaff is a staff with flax fibres tied loosely to it (as indicated by the etymology of the word), but modern distaffs are often made of cords weighted with beads, and attached to the wrist. / Of, relating to, or characteristic of women.</t>
         </is>
       </c>
     </row>
@@ -7127,7 +7127,7 @@
       </c>
       <c r="C394" t="inlineStr">
         <is>
-          <t>A dummy or other crude representation of a person, group or object that is hated.</t>
+          <t xml:space="preserve"> / A dummy or other crude representation of a person, group or object that is hated.</t>
         </is>
       </c>
     </row>
@@ -7144,7 +7144,7 @@
       </c>
       <c r="C395" t="inlineStr">
         <is>
-          <t>A small building (or "vault") for the remains of the dead, with walls, a roof, and (if it is to be used for more than one corpse) a door. It may be partly or wholly in the ground (except for its entrance) in a cemetery, or it may be inside a church proper or in its crypt. Single tombs may be permanently sealed; those for families (or other groups) have doors for access whenever needed.To bury.</t>
+          <t xml:space="preserve"> / A small building (or "vault") for the remains of the dead, with walls, a roof, and (if it is to be used for more than one corpse) a door. It may be partly or wholly in the ground (except for its entrance) in a cemetery, or it may be inside a church proper or in its crypt. Single tombs may be permanently sealed; those for families (or other groups) have doors for access whenever needed. / To bury.</t>
         </is>
       </c>
     </row>
@@ -7161,7 +7161,7 @@
       </c>
       <c r="C396" t="inlineStr">
         <is>
-          <t>To shoot with arrows (at).A long and narrow bundle of fibre, usually used to spin woollen yarn.Wandering freely.</t>
+          <t xml:space="preserve"> / To shoot with arrows (at). / A long and narrow bundle of fibre, usually used to spin woollen yarn. / Wandering freely.</t>
         </is>
       </c>
     </row>
@@ -7178,7 +7178,7 @@
       </c>
       <c r="C397" t="inlineStr">
         <is>
-          <t>One who, or that which, daubs; especially, a coarse, unskillful painter.</t>
+          <t xml:space="preserve"> / One who, or that which, daubs; especially, a coarse, unskillful painter.</t>
         </is>
       </c>
     </row>
@@ -7195,7 +7195,7 @@
       </c>
       <c r="C398" t="inlineStr">
         <is>
-          <t>An instrument of torture on which people were secured before being burned by fire.</t>
+          <t xml:space="preserve"> / An instrument of torture on which people were secured before being burned by fire.</t>
         </is>
       </c>
     </row>
@@ -7212,7 +7212,7 @@
       </c>
       <c r="C399" t="inlineStr">
         <is>
-          <t>To prepare something by mixing various ingredients, especially to prepare food for cooking.</t>
+          <t xml:space="preserve"> / To prepare something by mixing various ingredients, especially to prepare food for cooking.</t>
         </is>
       </c>
     </row>
@@ -7229,7 +7229,7 @@
       </c>
       <c r="C400" t="inlineStr">
         <is>
-          <t>To deceive or delude (using guile).</t>
+          <t xml:space="preserve"> / To deceive or delude (using guile).</t>
         </is>
       </c>
     </row>
@@ -7246,7 +7246,7 @@
       </c>
       <c r="C401" t="inlineStr">
         <is>
-          <t>To burn something to charcoal.To turn, especially away or aside.Burnt, carbonized.</t>
+          <t xml:space="preserve"> / To burn something to charcoal. / To turn, especially away or aside. / Burnt, carbonized.</t>
         </is>
       </c>
     </row>
@@ -7263,7 +7263,7 @@
       </c>
       <c r="C402" t="inlineStr">
         <is>
-          <t>A firm branch of a tree.</t>
+          <t xml:space="preserve"> / A firm branch of a tree.</t>
         </is>
       </c>
     </row>
@@ -7280,7 +7280,7 @@
       </c>
       <c r="C403" t="inlineStr">
         <is>
-          <t>Jumping, or passing, from one thing or subject to another, without order, planning, or rational connection; lacking logical sequence.</t>
+          <t xml:space="preserve"> / Jumping, or passing, from one thing or subject to another, without order, planning, or rational connection; lacking logical sequence.</t>
         </is>
       </c>
     </row>
@@ -7297,7 +7297,7 @@
       </c>
       <c r="C404" t="inlineStr">
         <is>
-          <t>A hoax, jest, or prank.To play a trick on someone, to cheat, to swindle, to deceive.Balderdash!, nonsense!, rubbish!</t>
+          <t xml:space="preserve"> / A hoax, jest, or prank. / To play a trick on someone, to cheat, to swindle, to deceive. / Balderdash!, nonsense!, rubbish!</t>
         </is>
       </c>
     </row>
@@ -7314,7 +7314,7 @@
       </c>
       <c r="C405" t="inlineStr">
         <is>
-          <t>The quality of being fickle.</t>
+          <t xml:space="preserve"> / The quality of being fickle.</t>
         </is>
       </c>
     </row>
@@ -7331,7 +7331,7 @@
       </c>
       <c r="C406" t="inlineStr">
         <is>
-          <t>To move or develop something.</t>
+          <t xml:space="preserve"> / To move or develop something.</t>
         </is>
       </c>
     </row>
@@ -7365,7 +7365,7 @@
       </c>
       <c r="C408" t="inlineStr">
         <is>
-          <t>A biological structure found in many animals that is used for locomotion and that is frequently a separate organ at the terminal part of the leg.</t>
+          <t xml:space="preserve"> / A biological structure found in many animals that is used for locomotion and that is frequently a separate organ at the terminal part of the leg.</t>
         </is>
       </c>
     </row>
@@ -7399,7 +7399,7 @@
       </c>
       <c r="C410" t="inlineStr">
         <is>
-          <t>To impart vigor, strength, or vitality to.Giving strength, energy and vitality.</t>
+          <t xml:space="preserve"> / To impart vigor, strength, or vitality to. / Giving strength, energy and vitality.</t>
         </is>
       </c>
     </row>
@@ -7416,7 +7416,7 @@
       </c>
       <c r="C411" t="inlineStr">
         <is>
-          <t>A denial; a renunciation; denial of desire or self-interest.</t>
+          <t xml:space="preserve"> / A denial; a renunciation; denial of desire or self-interest.</t>
         </is>
       </c>
     </row>
@@ -7433,7 +7433,7 @@
       </c>
       <c r="C412" t="inlineStr">
         <is>
-          <t>The quality of lacking variety or excitement.Lacking variety or excitement; dull; boring.</t>
+          <t xml:space="preserve"> / The quality of lacking variety or excitement. / Lacking variety or excitement; dull; boring.</t>
         </is>
       </c>
     </row>
@@ -7450,7 +7450,7 @@
       </c>
       <c r="C413" t="inlineStr">
         <is>
-          <t>Unsteadiness.To waver or be unsteady; to weaken or trail off.</t>
+          <t xml:space="preserve"> / Unsteadiness. / To waver or be unsteady; to weaken or trail off.</t>
         </is>
       </c>
     </row>
@@ -7467,7 +7467,7 @@
       </c>
       <c r="C414" t="inlineStr">
         <is>
-          <t>The claw of a predatory animal or bird.To seize, as though with claws.A brood of chickens or a sitting of eggs.To hatch.An important or critical situation.</t>
+          <t xml:space="preserve"> / The claw of a predatory animal or bird. / To seize, as though with claws. / A brood of chickens or a sitting of eggs. / To hatch. / An important or critical situation.</t>
         </is>
       </c>
     </row>
@@ -7484,7 +7484,7 @@
       </c>
       <c r="C415" t="inlineStr">
         <is>
-          <t>(of a person) Pleasing or attractive to the eye.</t>
+          <t xml:space="preserve"> / (of a person) Pleasing or attractive to the eye.</t>
         </is>
       </c>
     </row>
@@ -7501,7 +7501,7 @@
       </c>
       <c r="C416" t="inlineStr">
         <is>
-          <t>(particularly of husbands or boyfriends) Intimidated or overwhelmed by a nagging or overbearing wife or girlfriend.</t>
+          <t xml:space="preserve"> / (particularly of husbands or boyfriends) Intimidated or overwhelmed by a nagging or overbearing wife or girlfriend.</t>
         </is>
       </c>
     </row>
@@ -7518,7 +7518,7 @@
       </c>
       <c r="C417" t="inlineStr">
         <is>
-          <t>The quality or condition of being base.</t>
+          <t xml:space="preserve"> / The quality or condition of being base.</t>
         </is>
       </c>
     </row>
@@ -7535,7 +7535,7 @@
       </c>
       <c r="C418" t="inlineStr">
         <is>
-          <t>The mistress of a castle or large household.</t>
+          <t xml:space="preserve"> / The mistress of a castle or large household.</t>
         </is>
       </c>
     </row>
@@ -7552,7 +7552,7 @@
       </c>
       <c r="C419" t="inlineStr">
         <is>
-          <t>A pinch; a tweak; a twitch.To pull with a twitch; to pinch; to tweak.</t>
+          <t xml:space="preserve"> / A pinch; a tweak; a twitch. / To pull with a twitch; to pinch; to tweak.</t>
         </is>
       </c>
     </row>
@@ -7569,7 +7569,7 @@
       </c>
       <c r="C420" t="inlineStr">
         <is>
-          <t>Promoting health or well-being; wholesome, especially as related to air.</t>
+          <t xml:space="preserve"> / Promoting health or well-being; wholesome, especially as related to air.</t>
         </is>
       </c>
     </row>
@@ -7586,7 +7586,7 @@
       </c>
       <c r="C421" t="inlineStr">
         <is>
-          <t>Producing balm.</t>
+          <t xml:space="preserve"> / Producing balm.</t>
         </is>
       </c>
     </row>
@@ -7603,7 +7603,7 @@
       </c>
       <c r="C422" t="inlineStr">
         <is>
-          <t>In an obliging manner; so as to oblige another; as a favour to another.</t>
+          <t xml:space="preserve"> / In an obliging manner; so as to oblige another; as a favour to another.</t>
         </is>
       </c>
     </row>
@@ -7620,7 +7620,7 @@
       </c>
       <c r="C423" t="inlineStr">
         <is>
-          <t>Of or resembling paradise.</t>
+          <t xml:space="preserve"> / Of or resembling paradise.</t>
         </is>
       </c>
     </row>
@@ -7637,7 +7637,7 @@
       </c>
       <c r="C424" t="inlineStr">
         <is>
-          <t>A dirty, shabbily-clothed child; an urchin.</t>
+          <t xml:space="preserve"> / A dirty, shabbily-clothed child; an urchin.</t>
         </is>
       </c>
     </row>
@@ -7654,7 +7654,7 @@
       </c>
       <c r="C425" t="inlineStr">
         <is>
-          <t>(chiefly in the plural) An enclosed space having defined limits, normally marked by walls.</t>
+          <t xml:space="preserve"> / (chiefly in the plural) An enclosed space having defined limits, normally marked by walls.</t>
         </is>
       </c>
     </row>
@@ -7671,7 +7671,7 @@
       </c>
       <c r="C426" t="inlineStr">
         <is>
-          <t>Despondency.To give up the will, courage, or spirit; to become dejected, lose heart.</t>
+          <t xml:space="preserve"> / Despondency. / To give up the will, courage, or spirit; to become dejected, lose heart.</t>
         </is>
       </c>
     </row>
@@ -7688,7 +7688,7 @@
       </c>
       <c r="C427" t="inlineStr">
         <is>
-          <t>Whiteness; brilliance; purity.</t>
+          <t xml:space="preserve"> / Whiteness; brilliance; purity.</t>
         </is>
       </c>
     </row>
@@ -7705,7 +7705,7 @@
       </c>
       <c r="C428" t="inlineStr">
         <is>
-          <t>Arrogantly superior; showing contemptuous indifference; haughty.</t>
+          <t xml:space="preserve"> / Arrogantly superior; showing contemptuous indifference; haughty.</t>
         </is>
       </c>
     </row>
@@ -7722,7 +7722,7 @@
       </c>
       <c r="C429" t="inlineStr">
         <is>
-          <t>A person who makes and provides/sells drugs and/or medicines.</t>
+          <t xml:space="preserve"> / A person who makes and provides/sells drugs and/or medicines.</t>
         </is>
       </c>
     </row>
@@ -7739,7 +7739,7 @@
       </c>
       <c r="C430" t="inlineStr">
         <is>
-          <t>A stew of meat and vegetables mixed togetherTo prepare (food) as a ragout.</t>
+          <t xml:space="preserve"> / A stew of meat and vegetables mixed together / To prepare (food) as a ragout.</t>
         </is>
       </c>
     </row>
@@ -7756,7 +7756,7 @@
       </c>
       <c r="C431" t="inlineStr">
         <is>
-          <t>An alteration or change for the better; correction of a fault or of faults; reformation of life by quitting vices.</t>
+          <t xml:space="preserve"> / An alteration or change for the better; correction of a fault or of faults; reformation of life by quitting vices.</t>
         </is>
       </c>
     </row>
@@ -7773,7 +7773,7 @@
       </c>
       <c r="C432" t="inlineStr">
         <is>
-          <t>A witty remark</t>
+          <t xml:space="preserve"> / A witty remark</t>
         </is>
       </c>
     </row>
@@ -7790,7 +7790,7 @@
       </c>
       <c r="C433" t="inlineStr">
         <is>
-          <t>The act of blaming, criticizing, or condemning as wrong; reprehension.To criticize harshly.</t>
+          <t xml:space="preserve"> / The act of blaming, criticizing, or condemning as wrong; reprehension. / To criticize harshly.</t>
         </is>
       </c>
     </row>
@@ -7807,7 +7807,7 @@
       </c>
       <c r="C434" t="inlineStr">
         <is>
-          <t>Arousing or meriting strong dislike, aversion, or intense displeasure.</t>
+          <t xml:space="preserve"> / Arousing or meriting strong dislike, aversion, or intense displeasure.</t>
         </is>
       </c>
     </row>
@@ -7824,7 +7824,7 @@
       </c>
       <c r="C435" t="inlineStr">
         <is>
-          <t>To invent by an exercise of ingenuity; to devise</t>
+          <t xml:space="preserve"> / To invent by an exercise of ingenuity; to devise</t>
         </is>
       </c>
     </row>
@@ -7841,7 +7841,7 @@
       </c>
       <c r="C436" t="inlineStr">
         <is>
-          <t>A physical tilt or bend.</t>
+          <t xml:space="preserve"> / A physical tilt or bend.</t>
         </is>
       </c>
     </row>
@@ -7858,7 +7858,7 @@
       </c>
       <c r="C437" t="inlineStr">
         <is>
-          <t>A shaky or unsteady gait.To wind on a reel.</t>
+          <t xml:space="preserve"> / A shaky or unsteady gait. / To wind on a reel.</t>
         </is>
       </c>
     </row>
@@ -7875,7 +7875,7 @@
       </c>
       <c r="C438" t="inlineStr">
         <is>
-          <t>An open or intentional offense, slight, or insult.To insult intentionally, especially openly.</t>
+          <t xml:space="preserve"> / An open or intentional offense, slight, or insult. / To insult intentionally, especially openly.</t>
         </is>
       </c>
     </row>
@@ -7892,7 +7892,7 @@
       </c>
       <c r="C439" t="inlineStr">
         <is>
-          <t>Wicked or sinful</t>
+          <t xml:space="preserve"> / Wicked or sinful</t>
         </is>
       </c>
     </row>
@@ -7909,7 +7909,7 @@
       </c>
       <c r="C440" t="inlineStr">
         <is>
-          <t>An ordained (male) Christian minister, a male member of the clergy.</t>
+          <t xml:space="preserve"> / An ordained (male) Christian minister, a male member of the clergy.</t>
         </is>
       </c>
     </row>
@@ -7926,7 +7926,7 @@
       </c>
       <c r="C441" t="inlineStr">
         <is>
-          <t>A member of a parish.</t>
+          <t xml:space="preserve"> / A member of a parish.</t>
         </is>
       </c>
     </row>
@@ -7943,7 +7943,7 @@
       </c>
       <c r="C442" t="inlineStr">
         <is>
-          <t>The condition of being servile.</t>
+          <t xml:space="preserve"> / The condition of being servile.</t>
         </is>
       </c>
     </row>
@@ -7960,7 +7960,7 @@
       </c>
       <c r="C443" t="inlineStr">
         <is>
-          <t>The act of condescending; a manner of behaving toward others in an outwardly polite way that nevertheless implies one’s own superiority to the others; patronizing courtesy toward inferiors.</t>
+          <t xml:space="preserve"> / The act of condescending; a manner of behaving toward others in an outwardly polite way that nevertheless implies one’s own superiority to the others; patronizing courtesy toward inferiors.</t>
         </is>
       </c>
     </row>
@@ -7977,7 +7977,7 @@
       </c>
       <c r="C444" t="inlineStr">
         <is>
-          <t>The state or quality of being affable, friendly, or approachable.</t>
+          <t xml:space="preserve"> / The state or quality of being affable, friendly, or approachable.</t>
         </is>
       </c>
     </row>
@@ -7994,7 +7994,7 @@
       </c>
       <c r="C445" t="inlineStr">
         <is>
-          <t>The wife or widow of a duke.To court or curry favour for political or business advantage; to flatter obsequiously.</t>
+          <t xml:space="preserve"> / The wife or widow of a duke. / To court or curry favour for political or business advantage; to flatter obsequiously.</t>
         </is>
       </c>
     </row>
@@ -8045,7 +8045,7 @@
       </c>
       <c r="C448" t="inlineStr">
         <is>
-          <t>A ceasing or discontinuance, for example of an action, whether temporary or final.</t>
+          <t xml:space="preserve"> / A ceasing or discontinuance, for example of an action, whether temporary or final.</t>
         </is>
       </c>
     </row>
@@ -8062,7 +8062,7 @@
       </c>
       <c r="C449" t="inlineStr">
         <is>
-          <t>With a comparative or with more and a verb phrase, establishes a correlation with one or more other such comparatives.</t>
+          <t xml:space="preserve"> / With a comparative or with more and a verb phrase, establishes a correlation with one or more other such comparatives.</t>
         </is>
       </c>
     </row>
@@ -8079,7 +8079,7 @@
       </c>
       <c r="C450" t="inlineStr">
         <is>
-          <t>(of a person) The quality of speaking or stating the truth; truthfulness.</t>
+          <t xml:space="preserve"> / (of a person) The quality of speaking or stating the truth; truthfulness.</t>
         </is>
       </c>
     </row>
@@ -8096,7 +8096,7 @@
       </c>
       <c r="C451" t="inlineStr">
         <is>
-          <t>A weight of 1/288 of a pound, that is, twenty grains or one third of a dram, about 1.3 grams (symbol: ℈).To hesitate or be reluctant to act due to considerations of conscience or expedience.</t>
+          <t xml:space="preserve"> / A weight of 1/288 of a pound, that is, twenty grains or one third of a dram, about 1.3 grams (symbol: ℈). / To hesitate or be reluctant to act due to considerations of conscience or expedience.</t>
         </is>
       </c>
     </row>
@@ -8113,7 +8113,7 @@
       </c>
       <c r="C452" t="inlineStr">
         <is>
-          <t>Silent; temperamentally untalkative; disinclined to speak.</t>
+          <t xml:space="preserve"> / Silent; temperamentally untalkative; disinclined to speak.</t>
         </is>
       </c>
     </row>
@@ -8130,7 +8130,7 @@
       </c>
       <c r="C453" t="inlineStr">
         <is>
-          <t>Haughtiness or arrogance; loftiness.</t>
+          <t xml:space="preserve"> / Haughtiness or arrogance; loftiness.</t>
         </is>
       </c>
     </row>
@@ -8147,7 +8147,7 @@
       </c>
       <c r="C454" t="inlineStr">
         <is>
-          <t>To criticize severely.An instance of severe criticism or rebuke.Reproachful; chiding; censorious.</t>
+          <t xml:space="preserve"> / To criticize severely. / An instance of severe criticism or rebuke. / Reproachful; chiding; censorious.</t>
         </is>
       </c>
     </row>
@@ -8164,7 +8164,7 @@
       </c>
       <c r="C455" t="inlineStr">
         <is>
-          <t>The current holder of an office, such as ecclesiastical benefice or an elected office.Imposed on someone as an obligation, especially due to one's office.</t>
+          <t xml:space="preserve"> / The current holder of an office, such as ecclesiastical benefice or an elected office. / Imposed on someone as an obligation, especially due to one's office.</t>
         </is>
       </c>
     </row>
@@ -8181,7 +8181,7 @@
       </c>
       <c r="C456" t="inlineStr">
         <is>
-          <t>A unit of a poem, written or printed as a paragraph; equivalent to a verse.</t>
+          <t xml:space="preserve"> / A unit of a poem, written or printed as a paragraph; equivalent to a verse.</t>
         </is>
       </c>
     </row>
@@ -8198,7 +8198,7 @@
       </c>
       <c r="C457" t="inlineStr">
         <is>
-          <t>A tenth.To give one-tenth or a tithe of something, particularly:A boon (a grant or concession).To grant, concede.</t>
+          <t xml:space="preserve"> / A tenth. / To give one-tenth or a tithe of something, particularly: / A boon (a grant or concession). / To grant, concede.</t>
         </is>
       </c>
     </row>
@@ -8215,7 +8215,7 @@
       </c>
       <c r="C458" t="inlineStr">
         <is>
-          <t>(manner) In a special manner; specially.</t>
+          <t xml:space="preserve"> / (manner) In a special manner; specially.</t>
         </is>
       </c>
     </row>
@@ -8232,7 +8232,7 @@
       </c>
       <c r="C459" t="inlineStr">
         <is>
-          <t>Prior claim (on payment, or on purchasing something); the first rights to obtain a particular payment or product.</t>
+          <t xml:space="preserve"> / Prior claim (on payment, or on purchasing something); the first rights to obtain a particular payment or product.</t>
         </is>
       </c>
     </row>
@@ -8249,7 +8249,7 @@
       </c>
       <c r="C460" t="inlineStr">
         <is>
-          <t>A state of the body or mind caused by exhaustion or disease and characterized by a languid or weary feeling; lassitude; an instance of this.</t>
+          <t xml:space="preserve"> / A state of the body or mind caused by exhaustion or disease and characterized by a languid or weary feeling; lassitude; an instance of this.</t>
         </is>
       </c>
     </row>
@@ -8266,7 +8266,7 @@
       </c>
       <c r="C461" t="inlineStr">
         <is>
-          <t>Of astronomical bodies, to cause an eclipse.</t>
+          <t xml:space="preserve"> / Of astronomical bodies, to cause an eclipse.</t>
         </is>
       </c>
     </row>
@@ -8283,7 +8283,7 @@
       </c>
       <c r="C462" t="inlineStr">
         <is>
-          <t>Up to this or that time.</t>
+          <t xml:space="preserve"> / Up to this or that time.</t>
         </is>
       </c>
     </row>
@@ -8300,7 +8300,7 @@
       </c>
       <c r="C463" t="inlineStr">
         <is>
-          <t>The act of felicitating; a wishing of joy or happiness; congratulation.Congratulations! Well done!</t>
+          <t xml:space="preserve"> / The act of felicitating; a wishing of joy or happiness; congratulation. / Congratulations! Well done!</t>
         </is>
       </c>
     </row>
@@ -8317,7 +8317,7 @@
       </c>
       <c r="C464" t="inlineStr">
         <is>
-          <t>The state of being happy or merry.</t>
+          <t xml:space="preserve"> / The state of being happy or merry.</t>
         </is>
       </c>
     </row>
@@ -8334,7 +8334,7 @@
       </c>
       <c r="C465" t="inlineStr">
         <is>
-          <t>Hard-working, diligent or regular (in attendance or work); industrious.</t>
+          <t xml:space="preserve"> / Hard-working, diligent or regular (in attendance or work); industrious.</t>
         </is>
       </c>
     </row>
@@ -8351,7 +8351,7 @@
       </c>
       <c r="C466" t="inlineStr">
         <is>
-          <t>An other, another (person, etc), more often rendered as another.To regard, label or treat as an "other", as not part of the same group; to view as different and alien.See other (determiner) belowApart from; in the phrase "other than".</t>
+          <t xml:space="preserve"> / An other, another (person, etc), more often rendered as another. / To regard, label or treat as an "other", as not part of the same group; to view as different and alien. / See other (determiner) below / Apart from; in the phrase "other than".</t>
         </is>
       </c>
     </row>
@@ -8385,7 +8385,7 @@
       </c>
       <c r="C468" t="inlineStr">
         <is>
-          <t>Something given to the poor as charity, such as money, clothing or food.</t>
+          <t xml:space="preserve"> / Something given to the poor as charity, such as money, clothing or food.</t>
         </is>
       </c>
     </row>
@@ -8402,7 +8402,7 @@
       </c>
       <c r="C469" t="inlineStr">
         <is>
-          <t>As in a dream; resembling a dream.</t>
+          <t xml:space="preserve"> / As in a dream; resembling a dream.</t>
         </is>
       </c>
     </row>
@@ -8419,7 +8419,7 @@
       </c>
       <c r="C470" t="inlineStr">
         <is>
-          <t>Thought, meditation, contemplation</t>
+          <t xml:space="preserve"> / Thought, meditation, contemplation</t>
         </is>
       </c>
     </row>
@@ -8436,7 +8436,7 @@
       </c>
       <c r="C471" t="inlineStr">
         <is>
-          <t>To examine something with great care.</t>
+          <t xml:space="preserve"> / To examine something with great care.</t>
         </is>
       </c>
     </row>
@@ -8453,7 +8453,7 @@
       </c>
       <c r="C472" t="inlineStr">
         <is>
-          <t>To make poor.Reduced to poverty.</t>
+          <t xml:space="preserve"> / To make poor. / Reduced to poverty.</t>
         </is>
       </c>
     </row>
@@ -8470,7 +8470,7 @@
       </c>
       <c r="C473" t="inlineStr">
         <is>
-          <t>Suggestive of or characterized by full, generous, pleasurable sensation.</t>
+          <t xml:space="preserve"> / Suggestive of or characterized by full, generous, pleasurable sensation.</t>
         </is>
       </c>
     </row>
@@ -8487,7 +8487,7 @@
       </c>
       <c r="C474" t="inlineStr">
         <is>
-          <t>A chant, hymn or song, especially a nonmetrical one, with words from a biblical text.</t>
+          <t xml:space="preserve"> / A chant, hymn or song, especially a nonmetrical one, with words from a biblical text.</t>
         </is>
       </c>
     </row>
@@ -8504,7 +8504,7 @@
       </c>
       <c r="C475" t="inlineStr">
         <is>
-          <t>An intense concentration, force or power.</t>
+          <t xml:space="preserve"> / An intense concentration, force or power.</t>
         </is>
       </c>
     </row>
@@ -8521,7 +8521,7 @@
       </c>
       <c r="C476" t="inlineStr">
         <is>
-          <t>A strong chest or box used for keeping money or valuables safe.To put money or valuables in a coffer</t>
+          <t xml:space="preserve"> / A strong chest or box used for keeping money or valuables safe. / To put money or valuables in a coffer</t>
         </is>
       </c>
     </row>
@@ -8538,7 +8538,7 @@
       </c>
       <c r="C477" t="inlineStr">
         <is>
-          <t>Filled with grief, mournful, bringing feelings of sadness.</t>
+          <t xml:space="preserve"> / Filled with grief, mournful, bringing feelings of sadness.</t>
         </is>
       </c>
     </row>
@@ -8555,7 +8555,7 @@
       </c>
       <c r="C478" t="inlineStr">
         <is>
-          <t>A brief interval of rest or relief.To delay or postpone (an event).</t>
+          <t xml:space="preserve"> / A brief interval of rest or relief. / To delay or postpone (an event).</t>
         </is>
       </c>
     </row>
@@ -8572,7 +8572,7 @@
       </c>
       <c r="C479" t="inlineStr">
         <is>
-          <t>The state or quality of being intricate or entangled.</t>
+          <t xml:space="preserve"> / The state or quality of being intricate or entangled.</t>
         </is>
       </c>
     </row>
@@ -8589,7 +8589,7 @@
       </c>
       <c r="C480" t="inlineStr">
         <is>
-          <t>Corpselike; hinting of death; imitating a cadaver.</t>
+          <t xml:space="preserve"> / Corpselike; hinting of death; imitating a cadaver.</t>
         </is>
       </c>
     </row>
@@ -8623,7 +8623,7 @@
       </c>
       <c r="C482" t="inlineStr">
         <is>
-          <t>Beyond expression in words; unspeakable.</t>
+          <t xml:space="preserve"> / Beyond expression in words; unspeakable.</t>
         </is>
       </c>
     </row>
@@ -8640,7 +8640,7 @@
       </c>
       <c r="C483" t="inlineStr">
         <is>
-          <t>The support about which a lever pivots.</t>
+          <t xml:space="preserve"> / The support about which a lever pivots.</t>
         </is>
       </c>
     </row>
@@ -8657,7 +8657,7 @@
       </c>
       <c r="C484" t="inlineStr">
         <is>
-          <t>The state of being profound or abstruse.</t>
+          <t xml:space="preserve"> / The state of being profound or abstruse.</t>
         </is>
       </c>
     </row>
@@ -8674,7 +8674,7 @@
       </c>
       <c r="C485" t="inlineStr">
         <is>
-          <t>Needing or using up much energy; testing powers of endurance.</t>
+          <t xml:space="preserve"> / Needing or using up much energy; testing powers of endurance.</t>
         </is>
       </c>
     </row>
@@ -8691,7 +8691,7 @@
       </c>
       <c r="C486" t="inlineStr">
         <is>
-          <t>One who or that which cannot be satiated.Not satiable; incapable of being satisfied or appeased; very greedy</t>
+          <t xml:space="preserve"> / One who or that which cannot be satiated. / Not satiable; incapable of being satisfied or appeased; very greedy</t>
         </is>
       </c>
     </row>
@@ -8708,7 +8708,7 @@
       </c>
       <c r="C487" t="inlineStr">
         <is>
-          <t>Clear, transparent or bright.</t>
+          <t xml:space="preserve"> / Clear, transparent or bright.</t>
         </is>
       </c>
     </row>
@@ -8725,7 +8725,7 @@
       </c>
       <c r="C488" t="inlineStr">
         <is>
-          <t>A shrub or tree of the tribe Acacieae.(history) A roll or bag, filled with dust, borne by Byzantine emperors, as a memento of mortality. It is represented on medals.</t>
+          <t xml:space="preserve"> / A shrub or tree of the tribe Acacieae. / (history) A roll or bag, filled with dust, borne by Byzantine emperors, as a memento of mortality. It is represented on medals.</t>
         </is>
       </c>
     </row>
@@ -8742,7 +8742,7 @@
       </c>
       <c r="C489" t="inlineStr">
         <is>
-          <t>Impossible to prevent or stop; inevitable.</t>
+          <t xml:space="preserve"> / Impossible to prevent or stop; inevitable.</t>
         </is>
       </c>
     </row>
@@ -8759,7 +8759,7 @@
       </c>
       <c r="C490" t="inlineStr">
         <is>
-          <t>Extreme aversion, repulsion.</t>
+          <t xml:space="preserve"> / Extreme aversion, repulsion.</t>
         </is>
       </c>
     </row>
@@ -8776,7 +8776,7 @@
       </c>
       <c r="C491" t="inlineStr">
         <is>
-          <t>Incapable of being passed over, surmounted, or overcome; insuperable</t>
+          <t xml:space="preserve"> / Incapable of being passed over, surmounted, or overcome; insuperable</t>
         </is>
       </c>
     </row>
@@ -8793,7 +8793,7 @@
       </c>
       <c r="C492" t="inlineStr">
         <is>
-          <t>A type of malignant tumor of the bone, cartilage, fat, muscle, blood vessels, or other connective or supportive tissue.</t>
+          <t xml:space="preserve"> / A type of malignant tumor of the bone, cartilage, fat, muscle, blood vessels, or other connective or supportive tissue.</t>
         </is>
       </c>
     </row>
@@ -8810,7 +8810,7 @@
       </c>
       <c r="C493" t="inlineStr">
         <is>
-          <t>To make uninteresting or trite by frequent use.Repeated too often.</t>
+          <t xml:space="preserve"> / To make uninteresting or trite by frequent use. / Repeated too often.</t>
         </is>
       </c>
     </row>
@@ -8827,7 +8827,7 @@
       </c>
       <c r="C494" t="inlineStr">
         <is>
-          <t>Grievous damage or havoc.To devastate or destroy something.Harsh damage.</t>
+          <t xml:space="preserve"> / Grievous damage or havoc. / To devastate or destroy something. / Harsh damage.</t>
         </is>
       </c>
     </row>
@@ -8844,7 +8844,7 @@
       </c>
       <c r="C495" t="inlineStr">
         <is>
-          <t>Arduous or painful exertion; excessive labor, suffering, hardship.The act of traveling; passage from place to place.A traditional North American Indian sled-like vehicle, pulled by person, dog, or horse.</t>
+          <t xml:space="preserve"> / Arduous or painful exertion; excessive labor, suffering, hardship. / The act of traveling; passage from place to place. / A traditional North American Indian sled-like vehicle, pulled by person, dog, or horse.</t>
         </is>
       </c>
     </row>
@@ -8861,7 +8861,7 @@
       </c>
       <c r="C496" t="inlineStr">
         <is>
-          <t>The state of extreme shock or astonishment.</t>
+          <t xml:space="preserve"> / The state of extreme shock or astonishment.</t>
         </is>
       </c>
     </row>
@@ -8895,7 +8895,7 @@
       </c>
       <c r="C498" t="inlineStr">
         <is>
-          <t>To dig or redig a trench where one already exists.</t>
+          <t xml:space="preserve"> / To dig or redig a trench where one already exists.</t>
         </is>
       </c>
     </row>
@@ -8912,7 +8912,7 @@
       </c>
       <c r="C499" t="inlineStr">
         <is>
-          <t>A eulogy.</t>
+          <t xml:space="preserve"> / A eulogy.</t>
         </is>
       </c>
     </row>
@@ -8929,7 +8929,7 @@
       </c>
       <c r="C500" t="inlineStr">
         <is>
-          <t>Rudely abrupt, unfriendly.</t>
+          <t xml:space="preserve"> / Rudely abrupt, unfriendly.</t>
         </is>
       </c>
     </row>
@@ -8946,7 +8946,7 @@
       </c>
       <c r="C501" t="inlineStr">
         <is>
-          <t>A miser or stingy person; a skinflint.To hoard; to act stingily.Sparing; stinting; parsimonious.</t>
+          <t xml:space="preserve"> / A miser or stingy person; a skinflint. / To hoard; to act stingily. / Sparing; stinting; parsimonious.</t>
         </is>
       </c>
     </row>
@@ -8963,7 +8963,7 @@
       </c>
       <c r="C502" t="inlineStr">
         <is>
-          <t>A village council meeting.To discuss with much talk.</t>
+          <t xml:space="preserve"> / A village council meeting. / To discuss with much talk.</t>
         </is>
       </c>
     </row>
@@ -8980,7 +8980,7 @@
       </c>
       <c r="C503" t="inlineStr">
         <is>
-          <t>The action or process of perspiring.</t>
+          <t xml:space="preserve"> / The action or process of perspiring.</t>
         </is>
       </c>
     </row>
@@ -8997,7 +8997,7 @@
       </c>
       <c r="C504" t="inlineStr">
         <is>
-          <t>To look at (someone or something) with a sideways glance.Turned to the side, especially of the eyes.(of a look or glance) With disapproval, skepticism, or suspicion.</t>
+          <t xml:space="preserve"> / To look at (someone or something) with a sideways glance. / Turned to the side, especially of the eyes. / (of a look or glance) With disapproval, skepticism, or suspicion.</t>
         </is>
       </c>
     </row>
@@ -9014,7 +9014,7 @@
       </c>
       <c r="C505" t="inlineStr">
         <is>
-          <t>Involuntary labor, especially military service, demanded by some established authority.</t>
+          <t xml:space="preserve"> / Involuntary labor, especially military service, demanded by some established authority.</t>
         </is>
       </c>
     </row>
@@ -9031,7 +9031,7 @@
       </c>
       <c r="C506" t="inlineStr">
         <is>
-          <t>To muddle, stupefy, or cause to act foolishly, as with alcoholic liquor or infatuation.Infatuated</t>
+          <t xml:space="preserve"> / To muddle, stupefy, or cause to act foolishly, as with alcoholic liquor or infatuation. / Infatuated</t>
         </is>
       </c>
     </row>
@@ -9048,7 +9048,7 @@
       </c>
       <c r="C507" t="inlineStr">
         <is>
-          <t>To take the place of; to replace, to supersede.</t>
+          <t xml:space="preserve"> / To take the place of; to replace, to supersede.</t>
         </is>
       </c>
     </row>
@@ -9082,7 +9082,7 @@
       </c>
       <c r="C509" t="inlineStr">
         <is>
-          <t>Of or pertaining to wedding and marriage.</t>
+          <t xml:space="preserve"> / Of or pertaining to wedding and marriage.</t>
         </is>
       </c>
     </row>
@@ -9099,7 +9099,7 @@
       </c>
       <c r="C510" t="inlineStr">
         <is>
-          <t>(past tense clad) To clothe.(in compounds) Wearing clothing of a specified type.To adorn or cover with clothing; to dress; to supply clothes or clothing.</t>
+          <t xml:space="preserve"> / (past tense clad) To clothe. / (in compounds) Wearing clothing of a specified type. / To adorn or cover with clothing; to dress; to supply clothes or clothing.</t>
         </is>
       </c>
     </row>
@@ -9116,7 +9116,7 @@
       </c>
       <c r="C511" t="inlineStr">
         <is>
-          <t>To give a written or spoken response, especially to a question, request, accusation or criticism; to answer.</t>
+          <t xml:space="preserve"> / To give a written or spoken response, especially to a question, request, accusation or criticism; to answer.</t>
         </is>
       </c>
     </row>
@@ -9133,7 +9133,7 @@
       </c>
       <c r="C512" t="inlineStr">
         <is>
-          <t>Fidelity to one's lord or master; the feudal obligation by which the tenant or vassal was bound to be faithful to his lord</t>
+          <t xml:space="preserve"> / Fidelity to one's lord or master; the feudal obligation by which the tenant or vassal was bound to be faithful to his lord</t>
         </is>
       </c>
     </row>
@@ -9150,7 +9150,7 @@
       </c>
       <c r="C513" t="inlineStr">
         <is>
-          <t>Someone who kills a relative, especially a parent.</t>
+          <t xml:space="preserve"> / Someone who kills a relative, especially a parent.</t>
         </is>
       </c>
     </row>
@@ -9167,7 +9167,7 @@
       </c>
       <c r="C514" t="inlineStr">
         <is>
-          <t>Willful neglect of one's duty.</t>
+          <t xml:space="preserve"> / Willful neglect of one's duty.</t>
         </is>
       </c>
     </row>
@@ -9184,7 +9184,7 @@
       </c>
       <c r="C515" t="inlineStr">
         <is>
-          <t>Leniency</t>
+          <t xml:space="preserve"> / Leniency</t>
         </is>
       </c>
     </row>
@@ -9201,7 +9201,7 @@
       </c>
       <c r="C516" t="inlineStr">
         <is>
-          <t>Having, or revealing, no emotion.</t>
+          <t xml:space="preserve"> / Having, or revealing, no emotion.</t>
         </is>
       </c>
     </row>
@@ -9218,7 +9218,7 @@
       </c>
       <c r="C517" t="inlineStr">
         <is>
-          <t>To show, exhibit.</t>
+          <t xml:space="preserve"> / To show, exhibit.</t>
         </is>
       </c>
     </row>
@@ -9235,7 +9235,7 @@
       </c>
       <c r="C518" t="inlineStr">
         <is>
-          <t>Meriting condemnation, censure or blame, especially as something wrong, harmful or injurious; blameworthy.</t>
+          <t xml:space="preserve"> / Meriting condemnation, censure or blame, especially as something wrong, harmful or injurious; blameworthy.</t>
         </is>
       </c>
     </row>
@@ -9269,7 +9269,7 @@
       </c>
       <c r="C520" t="inlineStr">
         <is>
-          <t>A member of the gendarmerie, a military body charged with police duties.</t>
+          <t xml:space="preserve"> / A member of the gendarmerie, a military body charged with police duties.</t>
         </is>
       </c>
     </row>
@@ -9286,7 +9286,7 @@
       </c>
       <c r="C521" t="inlineStr">
         <is>
-          <t>Foul-smelling or noxious, particularly of a gas or atmosphere.</t>
+          <t xml:space="preserve"> / Foul-smelling or noxious, particularly of a gas or atmosphere.</t>
         </is>
       </c>
     </row>
@@ -9303,7 +9303,7 @@
       </c>
       <c r="C522" t="inlineStr">
         <is>
-          <t>To increase; to make larger or supplement.Increased in number, amount or strength.</t>
+          <t xml:space="preserve"> / To increase; to make larger or supplement. / Increased in number, amount or strength.</t>
         </is>
       </c>
     </row>
@@ -9320,7 +9320,7 @@
       </c>
       <c r="C523" t="inlineStr">
         <is>
-          <t>To make something happen suddenly and quickly.Headlong; falling steeply or vertically.</t>
+          <t xml:space="preserve"> / To make something happen suddenly and quickly. / Headlong; falling steeply or vertically.</t>
         </is>
       </c>
     </row>
@@ -9337,7 +9337,7 @@
       </c>
       <c r="C524" t="inlineStr">
         <is>
-          <t>The name of the Latin-script letter I.</t>
+          <t xml:space="preserve"> / The name of the Latin-script letter I.</t>
         </is>
       </c>
     </row>
@@ -9354,7 +9354,7 @@
       </c>
       <c r="C525" t="inlineStr">
         <is>
-          <t>A French abbot, the (male) head of an abbey.</t>
+          <t xml:space="preserve"> / A French abbot, the (male) head of an abbey.</t>
         </is>
       </c>
     </row>
@@ -9371,7 +9371,7 @@
       </c>
       <c r="C526" t="inlineStr">
         <is>
-          <t>A papular disease of the skin, with intense itching as the main symptom.</t>
+          <t xml:space="preserve"> / A papular disease of the skin, with intense itching as the main symptom.</t>
         </is>
       </c>
     </row>
@@ -9388,7 +9388,7 @@
       </c>
       <c r="C527" t="inlineStr">
         <is>
-          <t>Fashion, style of dressing oneself up.To dress in garb.</t>
+          <t xml:space="preserve"> / Fashion, style of dressing oneself up. / To dress in garb.</t>
         </is>
       </c>
     </row>
@@ -9405,7 +9405,7 @@
       </c>
       <c r="C528" t="inlineStr">
         <is>
-          <t>To feel loathing for; to abhor</t>
+          <t xml:space="preserve"> / To feel loathing for; to abhor</t>
         </is>
       </c>
     </row>
@@ -9422,7 +9422,7 @@
       </c>
       <c r="C529" t="inlineStr">
         <is>
-          <t>Terrified; struck with amazement; showing signs of terror or horror.</t>
+          <t xml:space="preserve"> / Terrified; struck with amazement; showing signs of terror or horror.</t>
         </is>
       </c>
     </row>
@@ -9439,7 +9439,7 @@
       </c>
       <c r="C530" t="inlineStr">
         <is>
-          <t>The quality of being inept.</t>
+          <t xml:space="preserve"> / The quality of being inept.</t>
         </is>
       </c>
     </row>
@@ -9456,7 +9456,7 @@
       </c>
       <c r="C531" t="inlineStr">
         <is>
-          <t>Acute discernment or understanding; insight.</t>
+          <t xml:space="preserve"> / Acute discernment or understanding; insight.</t>
         </is>
       </c>
     </row>
@@ -9473,7 +9473,7 @@
       </c>
       <c r="C532" t="inlineStr">
         <is>
-          <t>Not similar or congruent; not matching or fitting in.</t>
+          <t xml:space="preserve"> / Not similar or congruent; not matching or fitting in.</t>
         </is>
       </c>
     </row>
@@ -9490,7 +9490,7 @@
       </c>
       <c r="C533" t="inlineStr">
         <is>
-          <t>A warder or jailer/gaoler; keeper of the keys in a prison.To supply a turnkey product; to supply something fully assembled and ready to useReady to use without further assembly or test; supplied in a state that is ready to turn on and operate (typically refers to an assembly that is outsourced for manufacture)</t>
+          <t xml:space="preserve"> / A warder or jailer/gaoler; keeper of the keys in a prison. / To supply a turnkey product; to supply something fully assembled and ready to use / Ready to use without further assembly or test; supplied in a state that is ready to turn on and operate (typically refers to an assembly that is outsourced for manufacture)</t>
         </is>
       </c>
     </row>
@@ -9507,7 +9507,7 @@
       </c>
       <c r="C534" t="inlineStr">
         <is>
-          <t>To move or develop something.</t>
+          <t xml:space="preserve"> / To move or develop something.</t>
         </is>
       </c>
     </row>
@@ -9524,7 +9524,7 @@
       </c>
       <c r="C535" t="inlineStr">
         <is>
-          <t>To destroy an article of clothing etc. by shredding.Rent in tatters, torn, hanging in rags; ragged</t>
+          <t xml:space="preserve"> / To destroy an article of clothing etc. by shredding. / Rent in tatters, torn, hanging in rags; ragged</t>
         </is>
       </c>
     </row>
@@ -9541,7 +9541,7 @@
       </c>
       <c r="C536" t="inlineStr">
         <is>
-          <t>To tear, rip or wound.Having lacerations</t>
+          <t xml:space="preserve"> / To tear, rip or wound. / Having lacerations</t>
         </is>
       </c>
     </row>
@@ -9558,7 +9558,7 @@
       </c>
       <c r="C537" t="inlineStr">
         <is>
-          <t>The process of assembling or bringing together.</t>
+          <t xml:space="preserve"> / The process of assembling or bringing together.</t>
         </is>
       </c>
     </row>
@@ -9575,7 +9575,7 @@
       </c>
       <c r="C538" t="inlineStr">
         <is>
-          <t>To beg or implore (a person)To beseech; entreat.</t>
+          <t xml:space="preserve"> / To beg or implore (a person) / To beseech; entreat.</t>
         </is>
       </c>
     </row>
@@ -9592,7 +9592,7 @@
       </c>
       <c r="C539" t="inlineStr">
         <is>
-          <t>A very steep cliff.</t>
+          <t xml:space="preserve"> / A very steep cliff.</t>
         </is>
       </c>
     </row>
@@ -9609,7 +9609,7 @@
       </c>
       <c r="C540" t="inlineStr">
         <is>
-          <t>(modifying a clause or predicate) Perhaps; indicates that the proposition may be true (is not certainly false) regardless of any facts or circumstances known to, stated by or implied by the speaker.</t>
+          <t xml:space="preserve"> / (modifying a clause or predicate) Perhaps; indicates that the proposition may be true (is not certainly false) regardless of any facts or circumstances known to, stated by or implied by the speaker.</t>
         </is>
       </c>
     </row>
@@ -9626,7 +9626,7 @@
       </c>
       <c r="C541" t="inlineStr">
         <is>
-          <t>To spread through or over something, especially as a liquid, colour or light; to bathe.</t>
+          <t xml:space="preserve"> / To spread through or over something, especially as a liquid, colour or light; to bathe.</t>
         </is>
       </c>
     </row>
@@ -9643,7 +9643,7 @@
       </c>
       <c r="C542" t="inlineStr">
         <is>
-          <t>Having or showing keen discernment, sound judgment, and farsightedness; mentally shrewd.</t>
+          <t xml:space="preserve"> / Having or showing keen discernment, sound judgment, and farsightedness; mentally shrewd.</t>
         </is>
       </c>
     </row>
@@ -9660,7 +9660,7 @@
       </c>
       <c r="C543" t="inlineStr">
         <is>
-          <t>The quality of being munificent; generosity.</t>
+          <t xml:space="preserve"> / The quality of being munificent; generosity.</t>
         </is>
       </c>
     </row>
@@ -9677,7 +9677,7 @@
       </c>
       <c r="C544" t="inlineStr">
         <is>
-          <t>A right to receive amounts of money regularly over a certain fixed period, in perpetuity, or, especially, over the remaining life or lives of one or more beneficiaries.</t>
+          <t xml:space="preserve"> / A right to receive amounts of money regularly over a certain fixed period, in perpetuity, or, especially, over the remaining life or lives of one or more beneficiaries.</t>
         </is>
       </c>
     </row>
@@ -9694,7 +9694,7 @@
       </c>
       <c r="C545" t="inlineStr">
         <is>
-          <t>To swindle, deceive, or trick.To duplicate.</t>
+          <t xml:space="preserve"> / To swindle, deceive, or trick. / To duplicate.</t>
         </is>
       </c>
     </row>
@@ -9711,7 +9711,7 @@
       </c>
       <c r="C546" t="inlineStr">
         <is>
-          <t>A set of six legal balls bowled.To go over, or jump over.Discontinued; ended or concluded.Thoroughly; completely; from beginning to end.Physical positioning.In radio communications: end of sentence, ready to receive reply.</t>
+          <t xml:space="preserve"> / A set of six legal balls bowled. / To go over, or jump over. / Discontinued; ended or concluded. / Thoroughly; completely; from beginning to end. / Physical positioning. / In radio communications: end of sentence, ready to receive reply.</t>
         </is>
       </c>
     </row>
@@ -9745,7 +9745,7 @@
       </c>
       <c r="C548" t="inlineStr">
         <is>
-          <t>An Indian ruler within the Mogul empire.</t>
+          <t xml:space="preserve"> / An Indian ruler within the Mogul empire.</t>
         </is>
       </c>
     </row>
@@ -9762,7 +9762,7 @@
       </c>
       <c r="C549" t="inlineStr">
         <is>
-          <t>To say or do (something) for a second time, such as for emphasis.</t>
+          <t xml:space="preserve"> / To say or do (something) for a second time, such as for emphasis.</t>
         </is>
       </c>
     </row>
@@ -9779,7 +9779,7 @@
       </c>
       <c r="C550" t="inlineStr">
         <is>
-          <t>Extreme greed, especially for wealth.</t>
+          <t xml:space="preserve"> / Extreme greed, especially for wealth.</t>
         </is>
       </c>
     </row>
@@ -9796,7 +9796,7 @@
       </c>
       <c r="C551" t="inlineStr">
         <is>
-          <t>The state of being infamous.</t>
+          <t xml:space="preserve"> / The state of being infamous.</t>
         </is>
       </c>
     </row>
@@ -9813,7 +9813,7 @@
       </c>
       <c r="C552" t="inlineStr">
         <is>
-          <t>The condition quality of being frail, physically, mentally, or morally; weakness of resolution; liability to be deceived or seduced.</t>
+          <t xml:space="preserve"> / The condition quality of being frail, physically, mentally, or morally; weakness of resolution; liability to be deceived or seduced.</t>
         </is>
       </c>
     </row>
@@ -9830,7 +9830,7 @@
       </c>
       <c r="C553" t="inlineStr">
         <is>
-          <t>A vast space.Very large or wide (literally or figuratively).</t>
+          <t xml:space="preserve"> / A vast space. / Very large or wide (literally or figuratively).</t>
         </is>
       </c>
     </row>
@@ -9847,7 +9847,7 @@
       </c>
       <c r="C554" t="inlineStr">
         <is>
-          <t>A eulogy.</t>
+          <t xml:space="preserve"> / A eulogy.</t>
         </is>
       </c>
     </row>
@@ -9864,7 +9864,7 @@
       </c>
       <c r="C555" t="inlineStr">
         <is>
-          <t>Very big in size or quantity; gigantic; colossal; huge.</t>
+          <t xml:space="preserve"> / Very big in size or quantity; gigantic; colossal; huge.</t>
         </is>
       </c>
     </row>
@@ -9881,7 +9881,7 @@
       </c>
       <c r="C556" t="inlineStr">
         <is>
-          <t>To humble oneself before (another) in making a request; to beg or beseech.</t>
+          <t xml:space="preserve"> / To humble oneself before (another) in making a request; to beg or beseech.</t>
         </is>
       </c>
     </row>
@@ -9898,7 +9898,7 @@
       </c>
       <c r="C557" t="inlineStr">
         <is>
-          <t>A liquid that dissolves a solid, liquid, or gaseous solute, resulting in a solution.Able to pay all debts as they become due, and having no more liabilities than assets.</t>
+          <t xml:space="preserve"> / A liquid that dissolves a solid, liquid, or gaseous solute, resulting in a solution. / Able to pay all debts as they become due, and having no more liabilities than assets.</t>
         </is>
       </c>
     </row>
@@ -9915,7 +9915,7 @@
       </c>
       <c r="C558" t="inlineStr">
         <is>
-          <t>A building; a structure; an architectural fabric, especially a large and spectacular one</t>
+          <t xml:space="preserve"> / A building; a structure; an architectural fabric, especially a large and spectacular one</t>
         </is>
       </c>
     </row>
@@ -9932,7 +9932,7 @@
       </c>
       <c r="C559" t="inlineStr">
         <is>
-          <t>Appearing weak, pale or wan.</t>
+          <t xml:space="preserve"> / Appearing weak, pale or wan.</t>
         </is>
       </c>
     </row>
@@ -9949,7 +9949,7 @@
       </c>
       <c r="C560" t="inlineStr">
         <is>
-          <t>Having an odor or fragrance.</t>
+          <t xml:space="preserve"> / Having an odor or fragrance.</t>
         </is>
       </c>
     </row>
@@ -9966,7 +9966,7 @@
       </c>
       <c r="C561" t="inlineStr">
         <is>
-          <t>A crack or opening, as in a rock.To split, forming fissures.</t>
+          <t xml:space="preserve"> / A crack or opening, as in a rock. / To split, forming fissures.</t>
         </is>
       </c>
     </row>
@@ -9983,7 +9983,7 @@
       </c>
       <c r="C562" t="inlineStr">
         <is>
-          <t>Money paid for the freeing of a hostage.(14th century) To deliver, especially in context of sin or relevant penalties.</t>
+          <t xml:space="preserve"> / Money paid for the freeing of a hostage. / (14th century) To deliver, especially in context of sin or relevant penalties.</t>
         </is>
       </c>
     </row>
@@ -10017,7 +10017,7 @@
       </c>
       <c r="C564" t="inlineStr">
         <is>
-          <t>A silent or passive assent or submission, or a submission with apparent content, distinguished from avowed consent on the one hand, and on the other, from opposition or open discontent; quiet satisfaction.</t>
+          <t xml:space="preserve"> / A silent or passive assent or submission, or a submission with apparent content, distinguished from avowed consent on the one hand, and on the other, from opposition or open discontent; quiet satisfaction.</t>
         </is>
       </c>
     </row>
@@ -10034,7 +10034,7 @@
       </c>
       <c r="C565" t="inlineStr">
         <is>
-          <t>A holster for a sword; a scabbard.</t>
+          <t xml:space="preserve"> / A holster for a sword; a scabbard.</t>
         </is>
       </c>
     </row>
@@ -10051,7 +10051,7 @@
       </c>
       <c r="C566" t="inlineStr">
         <is>
-          <t>To make dizzy or unsteady.Dizzy, feeling dizzy or unsteady and as if about to fall down.</t>
+          <t xml:space="preserve"> / To make dizzy or unsteady. / Dizzy, feeling dizzy or unsteady and as if about to fall down.</t>
         </is>
       </c>
     </row>
@@ -10068,7 +10068,7 @@
       </c>
       <c r="C567" t="inlineStr">
         <is>
-          <t>A large fire extending to many objects, or over a large space; a general burning.</t>
+          <t xml:space="preserve"> / A large fire extending to many objects, or over a large space; a general burning.</t>
         </is>
       </c>
     </row>
@@ -10085,7 +10085,7 @@
       </c>
       <c r="C568" t="inlineStr">
         <is>
-          <t>Resplendent, or shining brightly and radiantly.</t>
+          <t xml:space="preserve"> / Resplendent, or shining brightly and radiantly.</t>
         </is>
       </c>
     </row>
@@ -10102,7 +10102,7 @@
       </c>
       <c r="C569" t="inlineStr">
         <is>
-          <t>A member of the peerage, above a baron but below a count or earl.</t>
+          <t xml:space="preserve"> / A member of the peerage, above a baron but below a count or earl.</t>
         </is>
       </c>
     </row>
@@ -10119,7 +10119,7 @@
       </c>
       <c r="C570" t="inlineStr">
         <is>
-          <t>Usually in a negative sense: conspicuous, exceptional, outstanding.</t>
+          <t xml:space="preserve"> / Usually in a negative sense: conspicuous, exceptional, outstanding.</t>
         </is>
       </c>
     </row>
@@ -10136,7 +10136,7 @@
       </c>
       <c r="C571" t="inlineStr">
         <is>
-          <t>An indirect or deceptive device or stratagem; a blind. Refers especially to war and diplomatics.</t>
+          <t xml:space="preserve"> / An indirect or deceptive device or stratagem; a blind. Refers especially to war and diplomatics.</t>
         </is>
       </c>
     </row>
@@ -10153,7 +10153,7 @@
       </c>
       <c r="C572" t="inlineStr">
         <is>
-          <t>Containing an error; inaccurate.</t>
+          <t xml:space="preserve"> / Containing an error; inaccurate.</t>
         </is>
       </c>
     </row>
@@ -10170,7 +10170,7 @@
       </c>
       <c r="C573" t="inlineStr">
         <is>
-          <t>An act of atonement for a sin or wrongdoing.</t>
+          <t xml:space="preserve"> / An act of atonement for a sin or wrongdoing.</t>
         </is>
       </c>
     </row>
@@ -10187,7 +10187,7 @@
       </c>
       <c r="C574" t="inlineStr">
         <is>
-          <t>True; genuine.</t>
+          <t xml:space="preserve"> / True; genuine.</t>
         </is>
       </c>
     </row>
@@ -10204,7 +10204,7 @@
       </c>
       <c r="C575" t="inlineStr">
         <is>
-          <t>A cigar, especially one made with tobacco from a single country.</t>
+          <t xml:space="preserve"> / A cigar, especially one made with tobacco from a single country.</t>
         </is>
       </c>
     </row>
@@ -10221,7 +10221,7 @@
       </c>
       <c r="C576" t="inlineStr">
         <is>
-          <t>A sweet delicacy; a confection</t>
+          <t xml:space="preserve"> / A sweet delicacy; a confection</t>
         </is>
       </c>
     </row>
@@ -10238,7 +10238,7 @@
       </c>
       <c r="C577" t="inlineStr">
         <is>
-          <t>A letter, or a literary composition in the form of a letter.To write; to communicate in a letter or by writing.</t>
+          <t xml:space="preserve"> / A letter, or a literary composition in the form of a letter. / To write; to communicate in a letter or by writing.</t>
         </is>
       </c>
     </row>
@@ -10255,7 +10255,7 @@
       </c>
       <c r="C578" t="inlineStr">
         <is>
-          <t>Harsh and sharp, or bitter and not pleasant to the taste; acrid, pungent.</t>
+          <t xml:space="preserve"> / Harsh and sharp, or bitter and not pleasant to the taste; acrid, pungent.</t>
         </is>
       </c>
     </row>
@@ -10272,7 +10272,7 @@
       </c>
       <c r="C579" t="inlineStr">
         <is>
-          <t>Paleness; want of color; pallidity; wanness.</t>
+          <t xml:space="preserve"> / Paleness; want of color; pallidity; wanness.</t>
         </is>
       </c>
     </row>
@@ -10289,7 +10289,7 @@
       </c>
       <c r="C580" t="inlineStr">
         <is>
-          <t>One who fights with his fists; especially a professional prize fighter; a boxer.</t>
+          <t xml:space="preserve"> / One who fights with his fists; especially a professional prize fighter; a boxer.</t>
         </is>
       </c>
     </row>
@@ -10306,7 +10306,7 @@
       </c>
       <c r="C581" t="inlineStr">
         <is>
-          <t>A Muslim council of state, specifically that of viziers of the Ottoman Empire that discussed and recommended new laws and law changes to a higher authority (the sultan).</t>
+          <t xml:space="preserve"> / A Muslim council of state, specifically that of viziers of the Ottoman Empire that discussed and recommended new laws and law changes to a higher authority (the sultan).</t>
         </is>
       </c>
     </row>
@@ -10323,7 +10323,7 @@
       </c>
       <c r="C582" t="inlineStr">
         <is>
-          <t>(now usually derogatory) One who does not believe in a certain religion.</t>
+          <t xml:space="preserve"> / (now usually derogatory) One who does not believe in a certain religion.</t>
         </is>
       </c>
     </row>
@@ -10340,7 +10340,7 @@
       </c>
       <c r="C583" t="inlineStr">
         <is>
-          <t>A rifle with a short barrel.</t>
+          <t xml:space="preserve"> / A rifle with a short barrel.</t>
         </is>
       </c>
     </row>
@@ -10357,7 +10357,7 @@
       </c>
       <c r="C584" t="inlineStr">
         <is>
-          <t>To examine or consider with care.A process of studying something carefully.</t>
+          <t xml:space="preserve"> / To examine or consider with care. / A process of studying something carefully.</t>
         </is>
       </c>
     </row>
@@ -10374,7 +10374,7 @@
       </c>
       <c r="C585" t="inlineStr">
         <is>
-          <t>To build, construct.EdificationThat educates, informs, illuminates or instructs.</t>
+          <t xml:space="preserve"> / To build, construct. / Edification / That educates, informs, illuminates or instructs.</t>
         </is>
       </c>
     </row>
@@ -10391,7 +10391,7 @@
       </c>
       <c r="C586" t="inlineStr">
         <is>
-          <t>One who attends to the wishes of hotel guests.</t>
+          <t xml:space="preserve"> / One who attends to the wishes of hotel guests.</t>
         </is>
       </c>
     </row>
@@ -10408,7 +10408,7 @@
       </c>
       <c r="C587" t="inlineStr">
         <is>
-          <t>A large Oriental tobacco pipe wherein the smoke is drawn through water to filter and cool it.</t>
+          <t xml:space="preserve"> / A large Oriental tobacco pipe wherein the smoke is drawn through water to filter and cool it.</t>
         </is>
       </c>
     </row>
@@ -10425,7 +10425,7 @@
       </c>
       <c r="C588" t="inlineStr">
         <is>
-          <t>A deep, often metal-lined drawer in a sideboard used for storing wines and liquors.</t>
+          <t xml:space="preserve"> / A deep, often metal-lined drawer in a sideboard used for storing wines and liquors.</t>
         </is>
       </c>
     </row>
@@ -10442,7 +10442,7 @@
       </c>
       <c r="C589" t="inlineStr">
         <is>
-          <t>Of the poorest quality.</t>
+          <t xml:space="preserve"> / Of the poorest quality.</t>
         </is>
       </c>
     </row>
@@ -10459,7 +10459,7 @@
       </c>
       <c r="C590" t="inlineStr">
         <is>
-          <t>A fortified wine produced in Jerez de la Frontera in Spain, or a similar wine produced elsewhere.</t>
+          <t xml:space="preserve"> / A fortified wine produced in Jerez de la Frontera in Spain, or a similar wine produced elsewhere.</t>
         </is>
       </c>
     </row>
@@ -10493,7 +10493,7 @@
       </c>
       <c r="C592" t="inlineStr">
         <is>
-          <t>A bird, the martin.</t>
+          <t xml:space="preserve"> / A bird, the martin.</t>
         </is>
       </c>
     </row>
@@ -10510,7 +10510,7 @@
       </c>
       <c r="C593" t="inlineStr">
         <is>
-          <t>A rider mounted on the near (left) leading horse who guides the team pulling a carriage.</t>
+          <t xml:space="preserve"> / A rider mounted on the near (left) leading horse who guides the team pulling a carriage.</t>
         </is>
       </c>
     </row>
@@ -10527,7 +10527,7 @@
       </c>
       <c r="C594" t="inlineStr">
         <is>
-          <t>Advantageous; profitable.</t>
+          <t xml:space="preserve"> / Advantageous; profitable.</t>
         </is>
       </c>
     </row>
@@ -10544,7 +10544,7 @@
       </c>
       <c r="C595" t="inlineStr">
         <is>
-          <t>To administer the vows of a religious order to (someone); to admit to a religious order. (Chiefly in passive.)</t>
+          <t xml:space="preserve"> / To administer the vows of a religious order to (someone); to admit to a religious order. (Chiefly in passive.)</t>
         </is>
       </c>
     </row>
@@ -10561,7 +10561,7 @@
       </c>
       <c r="C596" t="inlineStr">
         <is>
-          <t>Not noticeably; too small to be detected; too little to be perceived.</t>
+          <t xml:space="preserve"> / Not noticeably; too small to be detected; too little to be perceived.</t>
         </is>
       </c>
     </row>
@@ -10578,7 +10578,7 @@
       </c>
       <c r="C597" t="inlineStr">
         <is>
-          <t>A condition of being restless, uneasy or nervous.</t>
+          <t xml:space="preserve"> / A condition of being restless, uneasy or nervous.</t>
         </is>
       </c>
     </row>
@@ -10595,7 +10595,7 @@
       </c>
       <c r="C598" t="inlineStr">
         <is>
-          <t>A professional writer; one whose occupation is to draw contracts or prepare writings.</t>
+          <t xml:space="preserve"> / A professional writer; one whose occupation is to draw contracts or prepare writings.</t>
         </is>
       </c>
     </row>
@@ -10612,7 +10612,7 @@
       </c>
       <c r="C599" t="inlineStr">
         <is>
-          <t>(especially in plural) A surrounding areaTo surround; to encircle.</t>
+          <t xml:space="preserve"> / (especially in plural) A surrounding area / To surround; to encircle.</t>
         </is>
       </c>
     </row>
@@ -10629,7 +10629,7 @@
       </c>
       <c r="C600" t="inlineStr">
         <is>
-          <t>A hunting bird captured as an adult.Looking exhausted, worried, or poor in condition</t>
+          <t xml:space="preserve"> / A hunting bird captured as an adult. / Looking exhausted, worried, or poor in condition</t>
         </is>
       </c>
     </row>
@@ -10646,7 +10646,7 @@
       </c>
       <c r="C601" t="inlineStr">
         <is>
-          <t>Fearful; afraid; timid</t>
+          <t xml:space="preserve"> / Fearful; afraid; timid</t>
         </is>
       </c>
     </row>
@@ -10663,7 +10663,7 @@
       </c>
       <c r="C602" t="inlineStr">
         <is>
-          <t>A structure made of scaffolding for workers to stand on while working on a building.To set up a scaffolding; to surround a building with scaffolding.</t>
+          <t xml:space="preserve"> / A structure made of scaffolding for workers to stand on while working on a building. / To set up a scaffolding; to surround a building with scaffolding.</t>
         </is>
       </c>
     </row>
@@ -10680,7 +10680,7 @@
       </c>
       <c r="C603" t="inlineStr">
         <is>
-          <t>A dagger typically having a slender square or triangular blade.To stab with a poniard.</t>
+          <t xml:space="preserve"> / A dagger typically having a slender square or triangular blade. / To stab with a poniard.</t>
         </is>
       </c>
     </row>
@@ -10697,7 +10697,7 @@
       </c>
       <c r="C604" t="inlineStr">
         <is>
-          <t>Magnificent, luxurious, splendid.</t>
+          <t xml:space="preserve"> / Magnificent, luxurious, splendid.</t>
         </is>
       </c>
     </row>
@@ -10714,7 +10714,7 @@
       </c>
       <c r="C605" t="inlineStr">
         <is>
-          <t>(obsolete outside law) To put an end to; to cause to cease.To enter a tenement without permission after the owner has died and before the heir takes possession.(decorative arts) Lowered, beaten down, or cut away, as the background of an ornamental pattern in relief. Used specifically of stone-cutting; also of metal when the pattern or inscription is to show bright on dark, and the ground is therefore worked out with the graving-tool and left rough or hatched in lines.</t>
+          <t xml:space="preserve"> / (obsolete outside law) To put an end to; to cause to cease. / To enter a tenement without permission after the owner has died and before the heir takes possession. / (decorative arts) Lowered, beaten down, or cut away, as the background of an ornamental pattern in relief. Used specifically of stone-cutting; also of metal when the pattern or inscription is to show bright on dark, and the ground is therefore worked out with the graving-tool and left rough or hatched in lines.</t>
         </is>
       </c>
     </row>
@@ -10731,7 +10731,7 @@
       </c>
       <c r="C606" t="inlineStr">
         <is>
-          <t>Often complaining; suggesting a complaint in expression; fretful, whining.</t>
+          <t xml:space="preserve"> / Often complaining; suggesting a complaint in expression; fretful, whining.</t>
         </is>
       </c>
     </row>
@@ -10765,7 +10765,7 @@
       </c>
       <c r="C608" t="inlineStr">
         <is>
-          <t>A session or inquiry made before a court or jury.A trial or hearing before such a court.</t>
+          <t xml:space="preserve"> / A session or inquiry made before a court or jury. / A trial or hearing before such a court.</t>
         </is>
       </c>
     </row>
@@ -10782,7 +10782,7 @@
       </c>
       <c r="C609" t="inlineStr">
         <is>
-          <t>Gloomy, mournful or dismal, especially to an exaggerated degree.</t>
+          <t xml:space="preserve"> / Gloomy, mournful or dismal, especially to an exaggerated degree.</t>
         </is>
       </c>
     </row>
@@ -10799,7 +10799,7 @@
       </c>
       <c r="C610" t="inlineStr">
         <is>
-          <t>One who or that which is inscrutable; a person, etc. that cannot be comprehended.Difficult or impossible to comprehend, fathom or interpret.</t>
+          <t xml:space="preserve"> / One who or that which is inscrutable; a person, etc. that cannot be comprehended. / Difficult or impossible to comprehend, fathom or interpret.</t>
         </is>
       </c>
     </row>
@@ -10816,7 +10816,7 @@
       </c>
       <c r="C611" t="inlineStr">
         <is>
-          <t>Of a measurement: approximately, roughly.A certain number, at least two.</t>
+          <t xml:space="preserve"> / Of a measurement: approximately, roughly. / A certain number, at least two.</t>
         </is>
       </c>
     </row>
@@ -10833,7 +10833,7 @@
       </c>
       <c r="C612" t="inlineStr">
         <is>
-          <t>Capable of giving out a deep, resonant sound.</t>
+          <t xml:space="preserve"> / Capable of giving out a deep, resonant sound.</t>
         </is>
       </c>
     </row>
@@ -10850,7 +10850,7 @@
       </c>
       <c r="C613" t="inlineStr">
         <is>
-          <t>Tending to invite favor; attracting confidence, favor, esteem, or love; attractive</t>
+          <t xml:space="preserve"> / Tending to invite favor; attracting confidence, favor, esteem, or love; attractive</t>
         </is>
       </c>
     </row>
@@ -10867,7 +10867,7 @@
       </c>
       <c r="C614" t="inlineStr">
         <is>
-          <t>A harsh criticism.To criticise harshly; to reprove.</t>
+          <t xml:space="preserve"> / A harsh criticism. / To criticise harshly; to reprove.</t>
         </is>
       </c>
     </row>
@@ -10901,7 +10901,7 @@
       </c>
       <c r="C616" t="inlineStr">
         <is>
-          <t>Skeptical, disbelieving, or unable to believe.</t>
+          <t xml:space="preserve"> / Skeptical, disbelieving, or unable to believe.</t>
         </is>
       </c>
     </row>
@@ -10918,7 +10918,7 @@
       </c>
       <c r="C617" t="inlineStr">
         <is>
-          <t>At fault; failing to fulfill responsibility, duty, or obligations.</t>
+          <t xml:space="preserve"> / At fault; failing to fulfill responsibility, duty, or obligations.</t>
         </is>
       </c>
     </row>
@@ -10935,7 +10935,7 @@
       </c>
       <c r="C618" t="inlineStr">
         <is>
-          <t>To appropriate or lay claim to something for oneself without right.</t>
+          <t xml:space="preserve"> / To appropriate or lay claim to something for oneself without right.</t>
         </is>
       </c>
     </row>
@@ -10952,7 +10952,7 @@
       </c>
       <c r="C619" t="inlineStr">
         <is>
-          <t>To mark or become marked with mottling or spots.Having a mottled or spotted skin or coat, dapple.</t>
+          <t xml:space="preserve"> / To mark or become marked with mottling or spots. / Having a mottled or spotted skin or coat, dapple.</t>
         </is>
       </c>
     </row>
@@ -10969,7 +10969,7 @@
       </c>
       <c r="C620" t="inlineStr">
         <is>
-          <t>To defeat completely; to rout.</t>
+          <t xml:space="preserve"> / To defeat completely; to rout.</t>
         </is>
       </c>
     </row>
@@ -11003,7 +11003,7 @@
       </c>
       <c r="C622" t="inlineStr">
         <is>
-          <t>(clothing) To put on, to dress in.</t>
+          <t xml:space="preserve"> / (clothing) To put on, to dress in.</t>
         </is>
       </c>
     </row>
@@ -11020,7 +11020,7 @@
       </c>
       <c r="C623" t="inlineStr">
         <is>
-          <t>Argyrosomus regius, an edible fish of the family Sciaenidae.</t>
+          <t xml:space="preserve"> / Argyrosomus regius, an edible fish of the family Sciaenidae.</t>
         </is>
       </c>
     </row>
@@ -11037,7 +11037,7 @@
       </c>
       <c r="C624" t="inlineStr">
         <is>
-          <t>To sketch out, draw or trace an outline.</t>
+          <t xml:space="preserve"> / To sketch out, draw or trace an outline.</t>
         </is>
       </c>
     </row>
@@ -11054,7 +11054,7 @@
       </c>
       <c r="C625" t="inlineStr">
         <is>
-          <t>Deception by use of trickery, quibbling, or subterfuge.</t>
+          <t xml:space="preserve"> / Deception by use of trickery, quibbling, or subterfuge.</t>
         </is>
       </c>
     </row>
@@ -11071,7 +11071,7 @@
       </c>
       <c r="C626" t="inlineStr">
         <is>
-          <t>Not penetrable.</t>
+          <t xml:space="preserve"> / Not penetrable.</t>
         </is>
       </c>
     </row>
@@ -11088,7 +11088,7 @@
       </c>
       <c r="C627" t="inlineStr">
         <is>
-          <t>Preparation for the future; good governance, foresight.</t>
+          <t xml:space="preserve"> / Preparation for the future; good governance, foresight.</t>
         </is>
       </c>
     </row>
@@ -11105,7 +11105,7 @@
       </c>
       <c r="C628" t="inlineStr">
         <is>
-          <t>The art or science of cultivating gardens; gardening.</t>
+          <t xml:space="preserve"> / The art or science of cultivating gardens; gardening.</t>
         </is>
       </c>
     </row>
@@ -11122,7 +11122,7 @@
       </c>
       <c r="C629" t="inlineStr">
         <is>
-          <t>To admonish in blame; to reproach angrily.A scolding.</t>
+          <t xml:space="preserve"> / To admonish in blame; to reproach angrily. / A scolding.</t>
         </is>
       </c>
     </row>
@@ -11139,7 +11139,7 @@
       </c>
       <c r="C630" t="inlineStr">
         <is>
-          <t>Unduly confident; arrogant</t>
+          <t xml:space="preserve"> / Unduly confident; arrogant</t>
         </is>
       </c>
     </row>
@@ -11156,7 +11156,7 @@
       </c>
       <c r="C631" t="inlineStr">
         <is>
-          <t>To distribute or apportion by (or as if by) lot.</t>
+          <t xml:space="preserve"> / To distribute or apportion by (or as if by) lot.</t>
         </is>
       </c>
     </row>
@@ -11173,7 +11173,7 @@
       </c>
       <c r="C632" t="inlineStr">
         <is>
-          <t>Any of the three species of spiny-finned freshwater fish in the genus Perca.A rod, staff, or branch of a tree etc used as a roost by a bird</t>
+          <t xml:space="preserve"> / Any of the three species of spiny-finned freshwater fish in the genus Perca. / A rod, staff, or branch of a tree etc used as a roost by a bird</t>
         </is>
       </c>
     </row>
@@ -11207,7 +11207,7 @@
       </c>
       <c r="C634" t="inlineStr">
         <is>
-          <t>A piece of defensive armor, covering the body from the neck to the girdle.To cover with defensive armor; to armor-plate.</t>
+          <t xml:space="preserve"> / A piece of defensive armor, covering the body from the neck to the girdle. / To cover with defensive armor; to armor-plate.</t>
         </is>
       </c>
     </row>
@@ -11224,7 +11224,7 @@
       </c>
       <c r="C635" t="inlineStr">
         <is>
-          <t>A tactic or artifice designed to gain the upper hand, especially one involving underhanded dealings or deception.</t>
+          <t xml:space="preserve"> / A tactic or artifice designed to gain the upper hand, especially one involving underhanded dealings or deception.</t>
         </is>
       </c>
     </row>
@@ -11241,7 +11241,7 @@
       </c>
       <c r="C636" t="inlineStr">
         <is>
-          <t>Intense study of someone or something.To scrutinize.</t>
+          <t xml:space="preserve"> / Intense study of someone or something. / To scrutinize.</t>
         </is>
       </c>
     </row>
@@ -11258,7 +11258,7 @@
       </c>
       <c r="C637" t="inlineStr">
         <is>
-          <t>To temper or mix unduly; to make disproportionate; to change the due proportions of.Affected with or suffering from distemper.</t>
+          <t xml:space="preserve"> / To temper or mix unduly; to make disproportionate; to change the due proportions of. / Affected with or suffering from distemper.</t>
         </is>
       </c>
     </row>
@@ -11275,7 +11275,7 @@
       </c>
       <c r="C638" t="inlineStr">
         <is>
-          <t>(shapes) A quadrilateral with sides of equal length (rhombus), having two acute and two obtuse angles.</t>
+          <t xml:space="preserve"> / (shapes) A quadrilateral with sides of equal length (rhombus), having two acute and two obtuse angles.</t>
         </is>
       </c>
     </row>
@@ -11292,7 +11292,7 @@
       </c>
       <c r="C639" t="inlineStr">
         <is>
-          <t>The act or process of swallowing.</t>
+          <t xml:space="preserve"> / The act or process of swallowing.</t>
         </is>
       </c>
     </row>
@@ -11309,7 +11309,7 @@
       </c>
       <c r="C640" t="inlineStr">
         <is>
-          <t>To signify by some visible object; show by signs or tokens.</t>
+          <t xml:space="preserve"> / To signify by some visible object; show by signs or tokens.</t>
         </is>
       </c>
     </row>
@@ -11326,7 +11326,7 @@
       </c>
       <c r="C641" t="inlineStr">
         <is>
-          <t>A person, especially a man, who is socially regarded as able to marry, but has not yet.</t>
+          <t xml:space="preserve"> / A person, especially a man, who is socially regarded as able to marry, but has not yet.</t>
         </is>
       </c>
     </row>
@@ -11343,7 +11343,7 @@
       </c>
       <c r="C642" t="inlineStr">
         <is>
-          <t>Disagreement with the ideas, doctrines, decrees, etc. of a political party, government or religion.To disagree; to withhold assent. Construed with from (or, formerly, to).</t>
+          <t xml:space="preserve"> / Disagreement with the ideas, doctrines, decrees, etc. of a political party, government or religion. / To disagree; to withhold assent. Construed with from (or, formerly, to).</t>
         </is>
       </c>
     </row>
@@ -11360,7 +11360,7 @@
       </c>
       <c r="C643" t="inlineStr">
         <is>
-          <t>To render (someone) bolder or more courageous.Having been made bold.</t>
+          <t xml:space="preserve"> / To render (someone) bolder or more courageous. / Having been made bold.</t>
         </is>
       </c>
     </row>
@@ -11377,7 +11377,7 @@
       </c>
       <c r="C644" t="inlineStr">
         <is>
-          <t>An owner.</t>
+          <t xml:space="preserve"> / An owner.</t>
         </is>
       </c>
     </row>
@@ -11394,7 +11394,7 @@
       </c>
       <c r="C645" t="inlineStr">
         <is>
-          <t>The act of perusing; studying something carefully.</t>
+          <t xml:space="preserve"> / The act of perusing; studying something carefully.</t>
         </is>
       </c>
     </row>
@@ -11411,7 +11411,7 @@
       </c>
       <c r="C646" t="inlineStr">
         <is>
-          <t>A lachrymatory (vase intended for collecting tears)Of or relating to tears, or the tear glands.</t>
+          <t xml:space="preserve"> / A lachrymatory (vase intended for collecting tears) / Of or relating to tears, or the tear glands.</t>
         </is>
       </c>
     </row>
@@ -11428,7 +11428,7 @@
       </c>
       <c r="C647" t="inlineStr">
         <is>
-          <t>In excess of what is required or sufficient.</t>
+          <t xml:space="preserve"> / In excess of what is required or sufficient.</t>
         </is>
       </c>
     </row>
@@ -11445,7 +11445,7 @@
       </c>
       <c r="C648" t="inlineStr">
         <is>
-          <t>A thing that is not dispensable; a necessity.Not admitting ecclesiastical dispensation; not subject to release or exemption; that cannot be allowed by bending the canonical rules.</t>
+          <t xml:space="preserve"> / A thing that is not dispensable; a necessity. / Not admitting ecclesiastical dispensation; not subject to release or exemption; that cannot be allowed by bending the canonical rules.</t>
         </is>
       </c>
     </row>
@@ -11462,7 +11462,7 @@
       </c>
       <c r="C649" t="inlineStr">
         <is>
-          <t>Insolent and shameless audacity.</t>
+          <t xml:space="preserve"> / Insolent and shameless audacity.</t>
         </is>
       </c>
     </row>
@@ -11479,7 +11479,7 @@
       </c>
       <c r="C650" t="inlineStr">
         <is>
-          <t>Actuated by avarice; extremely greedy for wealth or material gain; immoderately desirous of accumulating property.</t>
+          <t xml:space="preserve"> / Actuated by avarice; extremely greedy for wealth or material gain; immoderately desirous of accumulating property.</t>
         </is>
       </c>
     </row>
@@ -11496,7 +11496,7 @@
       </c>
       <c r="C651" t="inlineStr">
         <is>
-          <t>Apparent, evident; meant for open display.</t>
+          <t xml:space="preserve"> / Apparent, evident; meant for open display.</t>
         </is>
       </c>
     </row>
@@ -11513,7 +11513,7 @@
       </c>
       <c r="C652" t="inlineStr">
         <is>
-          <t>A lawyer of noncontentious private civil law who drafts, takes, and records legal instruments for private parties, and provides legal advice, but does not appear in court on clients' behalf.</t>
+          <t xml:space="preserve"> / A lawyer of noncontentious private civil law who drafts, takes, and records legal instruments for private parties, and provides legal advice, but does not appear in court on clients' behalf.</t>
         </is>
       </c>
     </row>
@@ -11530,7 +11530,7 @@
       </c>
       <c r="C653" t="inlineStr">
         <is>
-          <t>Excessive or inordinate desire of gain; greed for wealth</t>
+          <t xml:space="preserve"> / Excessive or inordinate desire of gain; greed for wealth</t>
         </is>
       </c>
     </row>
@@ -11547,7 +11547,7 @@
       </c>
       <c r="C654" t="inlineStr">
         <is>
-          <t>(used mainly in passive form) To make exhausted, tired out.</t>
+          <t xml:space="preserve"> / (used mainly in passive form) To make exhausted, tired out.</t>
         </is>
       </c>
     </row>
@@ -11564,7 +11564,7 @@
       </c>
       <c r="C655" t="inlineStr">
         <is>
-          <t>To swell up (of water, waves etc.); to overflow, to surge (of bodily fluids).</t>
+          <t xml:space="preserve"> / To swell up (of water, waves etc.); to overflow, to surge (of bodily fluids).</t>
         </is>
       </c>
     </row>
@@ -11581,7 +11581,7 @@
       </c>
       <c r="C656" t="inlineStr">
         <is>
-          <t>Any of several species of small, mostly European rodents of the family Gliridae; also called Myoxidae or Muscardinidae by some taxonomists.</t>
+          <t xml:space="preserve"> / Any of several species of small, mostly European rodents of the family Gliridae; also called Myoxidae or Muscardinidae by some taxonomists.</t>
         </is>
       </c>
     </row>
@@ -11598,7 +11598,7 @@
       </c>
       <c r="C657" t="inlineStr">
         <is>
-          <t>An apparatus, or a process, for communicating rapidly between distant points, especially by means of established visible or audible signals representing words or ideas, or by means of words and signs, transmitted by electrical means.To send a message by telegraph.</t>
+          <t xml:space="preserve"> / An apparatus, or a process, for communicating rapidly between distant points, especially by means of established visible or audible signals representing words or ideas, or by means of words and signs, transmitted by electrical means. / To send a message by telegraph.</t>
         </is>
       </c>
     </row>
@@ -11615,7 +11615,7 @@
       </c>
       <c r="C658" t="inlineStr">
         <is>
-          <t>To practise deception by concealment or omission, or by feigning a false appearance.Feigning; simulating; pretending.</t>
+          <t xml:space="preserve"> / To practise deception by concealment or omission, or by feigning a false appearance. / Feigning; simulating; pretending.</t>
         </is>
       </c>
     </row>
@@ -11632,7 +11632,7 @@
       </c>
       <c r="C659" t="inlineStr">
         <is>
-          <t>The murder of an infant.</t>
+          <t xml:space="preserve"> / The murder of an infant.</t>
         </is>
       </c>
     </row>
@@ -11649,7 +11649,7 @@
       </c>
       <c r="C660" t="inlineStr">
         <is>
-          <t>A deep-red or fiery colored garnet or other dark red precious stone, especially when cut cabochon.</t>
+          <t xml:space="preserve"> / A deep-red or fiery colored garnet or other dark red precious stone, especially when cut cabochon.</t>
         </is>
       </c>
     </row>
@@ -11666,7 +11666,7 @@
       </c>
       <c r="C661" t="inlineStr">
         <is>
-          <t>To tax the patience of, irk, frustrate, vex, provoke, annoy; to make angry.Having one's patience greatly taxed; greatly annoyed; made furious.</t>
+          <t xml:space="preserve"> / To tax the patience of, irk, frustrate, vex, provoke, annoy; to make angry. / Having one's patience greatly taxed; greatly annoyed; made furious.</t>
         </is>
       </c>
     </row>
@@ -11683,7 +11683,7 @@
       </c>
       <c r="C662" t="inlineStr">
         <is>
-          <t>The condition of being infamous or notorious.</t>
+          <t xml:space="preserve"> / The condition of being infamous or notorious.</t>
         </is>
       </c>
     </row>
@@ -11700,7 +11700,7 @@
       </c>
       <c r="C663" t="inlineStr">
         <is>
-          <t>A bloodthirsty person.(of an event) Involving bloodshed.</t>
+          <t xml:space="preserve"> / A bloodthirsty person. / (of an event) Involving bloodshed.</t>
         </is>
       </c>
     </row>
@@ -11717,7 +11717,7 @@
       </c>
       <c r="C664" t="inlineStr">
         <is>
-          <t>Like a fop, a man overly concerned with his appearance; vain and showy.</t>
+          <t xml:space="preserve"> / Like a fop, a man overly concerned with his appearance; vain and showy.</t>
         </is>
       </c>
     </row>
@@ -11734,7 +11734,7 @@
       </c>
       <c r="C665" t="inlineStr">
         <is>
-          <t>A dance, in triple time and related to the flamenco and fandango, from Andalusia</t>
+          <t xml:space="preserve"> / A dance, in triple time and related to the flamenco and fandango, from Andalusia</t>
         </is>
       </c>
     </row>
@@ -11751,7 +11751,7 @@
       </c>
       <c r="C666" t="inlineStr">
         <is>
-          <t>A soft drink or a soda with an orange flavor.</t>
+          <t xml:space="preserve"> / A soft drink or a soda with an orange flavor.</t>
         </is>
       </c>
     </row>
@@ -11768,7 +11768,7 @@
       </c>
       <c r="C667" t="inlineStr">
         <is>
-          <t>(chiefly in the plural) Patronage or protection.</t>
+          <t xml:space="preserve"> / (chiefly in the plural) Patronage or protection.</t>
         </is>
       </c>
     </row>
@@ -11785,7 +11785,7 @@
       </c>
       <c r="C668" t="inlineStr">
         <is>
-          <t>A ghostly apparition, a phantom.</t>
+          <t xml:space="preserve"> / A ghostly apparition, a phantom.</t>
         </is>
       </c>
     </row>
@@ -11802,7 +11802,7 @@
       </c>
       <c r="C669" t="inlineStr">
         <is>
-          <t>A hind knee of various mammals, especially horses.To interrupt or cut off.</t>
+          <t xml:space="preserve"> / A hind knee of various mammals, especially horses. / To interrupt or cut off.</t>
         </is>
       </c>
     </row>
@@ -11819,7 +11819,7 @@
       </c>
       <c r="C670" t="inlineStr">
         <is>
-          <t>To drive away or cause to vanish by scattering.</t>
+          <t xml:space="preserve"> / To drive away or cause to vanish by scattering.</t>
         </is>
       </c>
     </row>
@@ -11836,7 +11836,7 @@
       </c>
       <c r="C671" t="inlineStr">
         <is>
-          <t>To put (something such as a knife or sword) into a sheath.</t>
+          <t xml:space="preserve"> / To put (something such as a knife or sword) into a sheath.</t>
         </is>
       </c>
     </row>
@@ -11853,7 +11853,7 @@
       </c>
       <c r="C672" t="inlineStr">
         <is>
-          <t>Cajolement</t>
+          <t xml:space="preserve"> / Cajolement</t>
         </is>
       </c>
     </row>
@@ -11870,7 +11870,7 @@
       </c>
       <c r="C673" t="inlineStr">
         <is>
-          <t>To stay behind while others withdraw; to be left after others have been removed or destroyed; to be left after a number or quantity has been subtracted or cut off; to be left as not included or comprised.</t>
+          <t xml:space="preserve"> / To stay behind while others withdraw; to be left after others have been removed or destroyed; to be left after a number or quantity has been subtracted or cut off; to be left as not included or comprised.</t>
         </is>
       </c>
     </row>
@@ -11887,7 +11887,7 @@
       </c>
       <c r="C674" t="inlineStr">
         <is>
-          <t>The act of boiling.</t>
+          <t xml:space="preserve"> / The act of boiling.</t>
         </is>
       </c>
     </row>
@@ -11904,7 +11904,7 @@
       </c>
       <c r="C675" t="inlineStr">
         <is>
-          <t>A false accusation or charge brought to tarnish another's reputation or standing.To make false accusations or levy false charges against a person with the intent to tarnish that person's reputation or standing; to calumniate.</t>
+          <t xml:space="preserve"> / A false accusation or charge brought to tarnish another's reputation or standing. / To make false accusations or levy false charges against a person with the intent to tarnish that person's reputation or standing; to calumniate.</t>
         </is>
       </c>
     </row>
@@ -11921,7 +11921,7 @@
       </c>
       <c r="C676" t="inlineStr">
         <is>
-          <t>(of an idea or plan etc) Absurd, foolish or stupid.</t>
+          <t xml:space="preserve"> / (of an idea or plan etc) Absurd, foolish or stupid.</t>
         </is>
       </c>
     </row>
@@ -11938,7 +11938,7 @@
       </c>
       <c r="C677" t="inlineStr">
         <is>
-          <t>An agent that induces vomiting(pharmaceutical effect) causing nausea and vomiting</t>
+          <t xml:space="preserve"> / An agent that induces vomiting / (pharmaceutical effect) causing nausea and vomiting</t>
         </is>
       </c>
     </row>
@@ -11955,7 +11955,7 @@
       </c>
       <c r="C678" t="inlineStr">
         <is>
-          <t>Extremely keen or desirous, especially to obtain and possess something belonging to someone else; avaricious.</t>
+          <t xml:space="preserve"> / Extremely keen or desirous, especially to obtain and possess something belonging to someone else; avaricious.</t>
         </is>
       </c>
     </row>
@@ -11972,7 +11972,7 @@
       </c>
       <c r="C679" t="inlineStr">
         <is>
-          <t>To cause someone to become accustomed to something (usually) unpleasant.</t>
+          <t xml:space="preserve"> / To cause someone to become accustomed to something (usually) unpleasant.</t>
         </is>
       </c>
     </row>
@@ -11989,7 +11989,7 @@
       </c>
       <c r="C680" t="inlineStr">
         <is>
-          <t>A situation of serious and immediate danger.To cause to be in danger; to imperil; to risk.</t>
+          <t xml:space="preserve"> / A situation of serious and immediate danger. / To cause to be in danger; to imperil; to risk.</t>
         </is>
       </c>
     </row>
@@ -12006,7 +12006,7 @@
       </c>
       <c r="C681" t="inlineStr">
         <is>
-          <t>A member of the Christian clergy; a minister.Worthy of reverence or respect; reverent.</t>
+          <t xml:space="preserve"> / A member of the Christian clergy; a minister. / Worthy of reverence or respect; reverent.</t>
         </is>
       </c>
     </row>
@@ -12023,7 +12023,7 @@
       </c>
       <c r="C682" t="inlineStr">
         <is>
-          <t>One that abets an offender; one that incites; instigates; encourages.</t>
+          <t xml:space="preserve"> / One that abets an offender; one that incites; instigates; encourages.</t>
         </is>
       </c>
     </row>
@@ -12040,7 +12040,7 @@
       </c>
       <c r="C683" t="inlineStr">
         <is>
-          <t>A roundabout or indirect way of speaking; the use of more words than necessary to express an idea.</t>
+          <t xml:space="preserve"> / A roundabout or indirect way of speaking; the use of more words than necessary to express an idea.</t>
         </is>
       </c>
     </row>
@@ -12057,7 +12057,7 @@
       </c>
       <c r="C684" t="inlineStr">
         <is>
-          <t>To keep in possession or use.</t>
+          <t xml:space="preserve"> / To keep in possession or use.</t>
         </is>
       </c>
     </row>
@@ -12074,7 +12074,7 @@
       </c>
       <c r="C685" t="inlineStr">
         <is>
-          <t>An act of renouncing.To give up, resign, surrender, atsake.</t>
+          <t xml:space="preserve"> / An act of renouncing. / To give up, resign, surrender, atsake.</t>
         </is>
       </c>
     </row>
@@ -12091,7 +12091,7 @@
       </c>
       <c r="C686" t="inlineStr">
         <is>
-          <t>A hot, dry, suffocating, dust-laden wind of the desert, particularly of Arabia, Syria, and neighboring countries, generated by the extreme heat of the parched deserts or sandy plains.</t>
+          <t xml:space="preserve"> / A hot, dry, suffocating, dust-laden wind of the desert, particularly of Arabia, Syria, and neighboring countries, generated by the extreme heat of the parched deserts or sandy plains.</t>
         </is>
       </c>
     </row>
@@ -12108,7 +12108,7 @@
       </c>
       <c r="C687" t="inlineStr">
         <is>
-          <t>An addition or supplement that explains, modifies, or revokes a will or part of one.</t>
+          <t xml:space="preserve"> / An addition or supplement that explains, modifies, or revokes a will or part of one.</t>
         </is>
       </c>
     </row>
@@ -12142,7 +12142,7 @@
       </c>
       <c r="C689" t="inlineStr">
         <is>
-          <t>Something that encumbers; a burden that must be carried.</t>
+          <t xml:space="preserve"> / Something that encumbers; a burden that must be carried.</t>
         </is>
       </c>
     </row>
@@ -12159,7 +12159,7 @@
       </c>
       <c r="C690" t="inlineStr">
         <is>
-          <t>To drink (used frequently of alcoholic beverages).</t>
+          <t xml:space="preserve"> / To drink (used frequently of alcoholic beverages).</t>
         </is>
       </c>
     </row>
@@ -12176,7 +12176,7 @@
       </c>
       <c r="C691" t="inlineStr">
         <is>
-          <t>Causing vexation or annoyance; teasing; troublesome.</t>
+          <t xml:space="preserve"> / Causing vexation or annoyance; teasing; troublesome.</t>
         </is>
       </c>
     </row>
@@ -12193,7 +12193,7 @@
       </c>
       <c r="C692" t="inlineStr">
         <is>
-          <t>Wealth</t>
+          <t xml:space="preserve"> / Wealth</t>
         </is>
       </c>
     </row>
@@ -12210,7 +12210,7 @@
       </c>
       <c r="C693" t="inlineStr">
         <is>
-          <t>A person who takes part in dialogue or conversation.</t>
+          <t xml:space="preserve"> / A person who takes part in dialogue or conversation.</t>
         </is>
       </c>
     </row>
@@ -12227,7 +12227,7 @@
       </c>
       <c r="C694" t="inlineStr">
         <is>
-          <t>(often capitalized) A member of one of various Ancient Equatorial African tribal peoples, notable for their very short stature.Relating or belonging to the Pygmy people.</t>
+          <t xml:space="preserve"> / (often capitalized) A member of one of various Ancient Equatorial African tribal peoples, notable for their very short stature. / Relating or belonging to the Pygmy people.</t>
         </is>
       </c>
     </row>
@@ -12244,7 +12244,7 @@
       </c>
       <c r="C695" t="inlineStr">
         <is>
-          <t>An upholstered sofa, without arms or a back, sometimes with a compartment for storing linen, etc.</t>
+          <t xml:space="preserve"> / An upholstered sofa, without arms or a back, sometimes with a compartment for storing linen, etc.</t>
         </is>
       </c>
     </row>
@@ -12261,7 +12261,7 @@
       </c>
       <c r="C696" t="inlineStr">
         <is>
-          <t>To cry out with vehemence</t>
+          <t xml:space="preserve"> / To cry out with vehemence</t>
         </is>
       </c>
     </row>
@@ -12278,7 +12278,7 @@
       </c>
       <c r="C697" t="inlineStr">
         <is>
-          <t>Characterized by exceptionally early development or maturity.</t>
+          <t xml:space="preserve"> / Characterized by exceptionally early development or maturity.</t>
         </is>
       </c>
     </row>
@@ -12295,7 +12295,7 @@
       </c>
       <c r="C698" t="inlineStr">
         <is>
-          <t>Committing sacrilege; acting or speaking very disrespectfully toward what is held to be sacred.</t>
+          <t xml:space="preserve"> / Committing sacrilege; acting or speaking very disrespectfully toward what is held to be sacred.</t>
         </is>
       </c>
     </row>
@@ -12312,7 +12312,7 @@
       </c>
       <c r="C699" t="inlineStr">
         <is>
-          <t>To lie flat or face-down.</t>
+          <t xml:space="preserve"> / To lie flat or face-down.</t>
         </is>
       </c>
     </row>
@@ -12346,7 +12346,7 @@
       </c>
       <c r="C701" t="inlineStr">
         <is>
-          <t>To sway unsteadily from one side to the other; oscillate.VacillationLiable to vacillate; wavering, irresolute.</t>
+          <t xml:space="preserve"> / To sway unsteadily from one side to the other; oscillate. / Vacillation / Liable to vacillate; wavering, irresolute.</t>
         </is>
       </c>
     </row>
@@ -12363,7 +12363,7 @@
       </c>
       <c r="C702" t="inlineStr">
         <is>
-          <t>In an astute manner.</t>
+          <t xml:space="preserve"> / In an astute manner.</t>
         </is>
       </c>
     </row>
@@ -12380,7 +12380,7 @@
       </c>
       <c r="C703" t="inlineStr">
         <is>
-          <t>To say something in contradiction to.</t>
+          <t xml:space="preserve"> / To say something in contradiction to.</t>
         </is>
       </c>
     </row>
@@ -12397,7 +12397,7 @@
       </c>
       <c r="C704" t="inlineStr">
         <is>
-          <t>A pampered or coddled person.To rove and ramble without restraint, rule, or limit; to revel; to play loosely; to frolic.Undisciplined, unruly; not able to be controlled.</t>
+          <t xml:space="preserve"> / A pampered or coddled person. / To rove and ramble without restraint, rule, or limit; to revel; to play loosely; to frolic. / Undisciplined, unruly; not able to be controlled.</t>
         </is>
       </c>
     </row>
@@ -12414,7 +12414,7 @@
       </c>
       <c r="C705" t="inlineStr">
         <is>
-          <t>An official providing honorable service in a royal or high noble household, ranking between a squire and a page. Especially, a Yeoman of the Guard, a member of a ceremonial bodyguard to the UK monarch (not to be confused with a Yeoman Warder).</t>
+          <t xml:space="preserve"> / An official providing honorable service in a royal or high noble household, ranking between a squire and a page. Especially, a Yeoman of the Guard, a member of a ceremonial bodyguard to the UK monarch (not to be confused with a Yeoman Warder).</t>
         </is>
       </c>
     </row>
@@ -12431,7 +12431,7 @@
       </c>
       <c r="C706" t="inlineStr">
         <is>
-          <t>To confirm or support something with additional evidence; to attest or vouch for.Strengthened; confirmed; rendered more certain.</t>
+          <t xml:space="preserve"> / To confirm or support something with additional evidence; to attest or vouch for. / Strengthened; confirmed; rendered more certain.</t>
         </is>
       </c>
     </row>
@@ -12448,7 +12448,7 @@
       </c>
       <c r="C707" t="inlineStr">
         <is>
-          <t>Excessively or tiresomely talkative.</t>
+          <t xml:space="preserve"> / Excessively or tiresomely talkative.</t>
         </is>
       </c>
     </row>
@@ -12465,7 +12465,7 @@
       </c>
       <c r="C708" t="inlineStr">
         <is>
-          <t>To punish (in order to bring about improvement in behavior, attitude, etc.); to restrain, moderate.Made chaste; purified; modest.</t>
+          <t xml:space="preserve"> / To punish (in order to bring about improvement in behavior, attitude, etc.); to restrain, moderate. / Made chaste; purified; modest.</t>
         </is>
       </c>
     </row>
@@ -12482,7 +12482,7 @@
       </c>
       <c r="C709" t="inlineStr">
         <is>
-          <t>To have a tussle.The act of one who tussles; a struggle.</t>
+          <t xml:space="preserve"> / To have a tussle. / The act of one who tussles; a struggle.</t>
         </is>
       </c>
     </row>
@@ -12499,7 +12499,7 @@
       </c>
       <c r="C710" t="inlineStr">
         <is>
-          <t>A four-wheeled horse-drawn carriage, designed in 1839. It had an open seat for the driver in front of the closed cabin for two or four passengers.</t>
+          <t xml:space="preserve"> / A four-wheeled horse-drawn carriage, designed in 1839. It had an open seat for the driver in front of the closed cabin for two or four passengers.</t>
         </is>
       </c>
     </row>
@@ -12516,7 +12516,7 @@
       </c>
       <c r="C711" t="inlineStr">
         <is>
-          <t>The base or foot of a column, statue, vase, lamp.To set or support on (or as if on) a pedestal.</t>
+          <t xml:space="preserve"> / The base or foot of a column, statue, vase, lamp. / To set or support on (or as if on) a pedestal.</t>
         </is>
       </c>
     </row>
@@ -12533,7 +12533,7 @@
       </c>
       <c r="C712" t="inlineStr">
         <is>
-          <t>The act of commiserating; sorrow for the hardships or afflictions of another; pity; compassion.</t>
+          <t xml:space="preserve"> / The act of commiserating; sorrow for the hardships or afflictions of another; pity; compassion.</t>
         </is>
       </c>
     </row>
@@ -12550,7 +12550,7 @@
       </c>
       <c r="C713" t="inlineStr">
         <is>
-          <t>The time of the day between dusk and night, when it gets dark.</t>
+          <t xml:space="preserve"> / The time of the day between dusk and night, when it gets dark.</t>
         </is>
       </c>
     </row>
@@ -12584,7 +12584,7 @@
       </c>
       <c r="C715" t="inlineStr">
         <is>
-          <t>Joking or humorous language or behaviour used in a vulgar or lewd fashion.</t>
+          <t xml:space="preserve"> / Joking or humorous language or behaviour used in a vulgar or lewd fashion.</t>
         </is>
       </c>
     </row>
@@ -12601,7 +12601,7 @@
       </c>
       <c r="C716" t="inlineStr">
         <is>
-          <t>Unwillingness or inability to believe; doubt about the truth or verisimilitude of something; disbelief.</t>
+          <t xml:space="preserve"> / Unwillingness or inability to believe; doubt about the truth or verisimilitude of something; disbelief.</t>
         </is>
       </c>
     </row>
@@ -12618,7 +12618,7 @@
       </c>
       <c r="C717" t="inlineStr">
         <is>
-          <t>A small screw-tipped tool for boring holes.To pierce or bore holes (as if using a gimlet).</t>
+          <t xml:space="preserve"> / A small screw-tipped tool for boring holes. / To pierce or bore holes (as if using a gimlet).</t>
         </is>
       </c>
     </row>
@@ -12635,7 +12635,7 @@
       </c>
       <c r="C718" t="inlineStr">
         <is>
-          <t>A light brown to brownish orange colour.Of a light brown to brownish orange color.</t>
+          <t xml:space="preserve"> / A light brown to brownish orange colour. / Of a light brown to brownish orange color.</t>
         </is>
       </c>
     </row>
@@ -12652,7 +12652,7 @@
       </c>
       <c r="C719" t="inlineStr">
         <is>
-          <t>Severity of manners or life; extreme rigor or strictness; harsh discipline.</t>
+          <t xml:space="preserve"> / Severity of manners or life; extreme rigor or strictness; harsh discipline.</t>
         </is>
       </c>
     </row>
@@ -12669,7 +12669,7 @@
       </c>
       <c r="C720" t="inlineStr">
         <is>
-          <t>A swarthy person.Tawny, dusky, dark.</t>
+          <t xml:space="preserve"> / A swarthy person. / Tawny, dusky, dark.</t>
         </is>
       </c>
     </row>
@@ -12686,7 +12686,7 @@
       </c>
       <c r="C721" t="inlineStr">
         <is>
-          <t>Swelling or bulging outward.</t>
+          <t xml:space="preserve"> / Swelling or bulging outward.</t>
         </is>
       </c>
     </row>
@@ -12703,7 +12703,7 @@
       </c>
       <c r="C722" t="inlineStr">
         <is>
-          <t>A metal urn with a spigot, for boiling water for making tea. Traditionally, the water is heated by hot coals or charcoal in a chimney-like tube which runs through the center of the urn. Today, it is more likely that the water is heated by an electric coil.</t>
+          <t xml:space="preserve"> / A metal urn with a spigot, for boiling water for making tea. Traditionally, the water is heated by hot coals or charcoal in a chimney-like tube which runs through the center of the urn. Today, it is more likely that the water is heated by an electric coil.</t>
         </is>
       </c>
     </row>
@@ -12720,7 +12720,7 @@
       </c>
       <c r="C723" t="inlineStr">
         <is>
-          <t>To decorate with fringe or embroidered edgeTo upset, to spin, capsize, fall heavily, fall headlong.To flow with a murmuring sound in swirls and eddies.The motion of a small stream among obstructions; flowing with a murmuring sound.That purls; rippling, eddying.</t>
+          <t xml:space="preserve"> / To decorate with fringe or embroidered edge / To upset, to spin, capsize, fall heavily, fall headlong. / To flow with a murmuring sound in swirls and eddies. / The motion of a small stream among obstructions; flowing with a murmuring sound. / That purls; rippling, eddying.</t>
         </is>
       </c>
     </row>
@@ -12737,7 +12737,7 @@
       </c>
       <c r="C724" t="inlineStr">
         <is>
-          <t>A familiar name for a person (typically a shortened version of a person’s given name).</t>
+          <t xml:space="preserve"> / A familiar name for a person (typically a shortened version of a person’s given name).</t>
         </is>
       </c>
     </row>
@@ -12754,7 +12754,7 @@
       </c>
       <c r="C725" t="inlineStr">
         <is>
-          <t>In a trenchant manner.</t>
+          <t xml:space="preserve"> / In a trenchant manner.</t>
         </is>
       </c>
     </row>
@@ -12788,7 +12788,7 @@
       </c>
       <c r="C727" t="inlineStr">
         <is>
-          <t>(usually uncountable) The state or quality of being stout.</t>
+          <t xml:space="preserve"> / (usually uncountable) The state or quality of being stout.</t>
         </is>
       </c>
     </row>
@@ -12805,7 +12805,7 @@
       </c>
       <c r="C728" t="inlineStr">
         <is>
-          <t>A Russian unit of length, equivalent to about 1.07 kilometres or about 2/3 of a mile.</t>
+          <t xml:space="preserve"> / A Russian unit of length, equivalent to about 1.07 kilometres or about 2/3 of a mile.</t>
         </is>
       </c>
     </row>
@@ -12822,7 +12822,7 @@
       </c>
       <c r="C729" t="inlineStr">
         <is>
-          <t>Becoming putrid; putrefying.</t>
+          <t xml:space="preserve"> / Becoming putrid; putrefying.</t>
         </is>
       </c>
     </row>
@@ -12839,7 +12839,7 @@
       </c>
       <c r="C730" t="inlineStr">
         <is>
-          <t>A boisterous laugh.To laugh boisterously.</t>
+          <t xml:space="preserve"> / A boisterous laugh. / To laugh boisterously.</t>
         </is>
       </c>
     </row>
@@ -12856,7 +12856,7 @@
       </c>
       <c r="C731" t="inlineStr">
         <is>
-          <t>Harmful; injurious.</t>
+          <t xml:space="preserve"> / Harmful; injurious.</t>
         </is>
       </c>
     </row>
@@ -12890,7 +12890,7 @@
       </c>
       <c r="C733" t="inlineStr">
         <is>
-          <t>(of a liquid) to emit small bubbles of dissolved gas; to froth or fizzEffervescence</t>
+          <t xml:space="preserve"> / (of a liquid) to emit small bubbles of dissolved gas; to froth or fizz / Effervescence</t>
         </is>
       </c>
     </row>
@@ -12907,7 +12907,7 @@
       </c>
       <c r="C734" t="inlineStr">
         <is>
-          <t>To discuss with much talk.The act of one who palavers.</t>
+          <t xml:space="preserve"> / To discuss with much talk. / The act of one who palavers.</t>
         </is>
       </c>
     </row>
@@ -12924,7 +12924,7 @@
       </c>
       <c r="C735" t="inlineStr">
         <is>
-          <t>SlantingAt a slantDiagonally over or across</t>
+          <t xml:space="preserve"> / Slanting / At a slant / Diagonally over or across</t>
         </is>
       </c>
     </row>
@@ -12941,7 +12941,7 @@
       </c>
       <c r="C736" t="inlineStr">
         <is>
-          <t>A (male) peasant, especially in pre-revolutionary (imperial) Russia.</t>
+          <t xml:space="preserve"> / A (male) peasant, especially in pre-revolutionary (imperial) Russia.</t>
         </is>
       </c>
     </row>
@@ -12958,7 +12958,7 @@
       </c>
       <c r="C737" t="inlineStr">
         <is>
-          <t>To satisfy (thirst, or other desires).</t>
+          <t xml:space="preserve"> / To satisfy (thirst, or other desires).</t>
         </is>
       </c>
     </row>
@@ -12975,7 +12975,7 @@
       </c>
       <c r="C738" t="inlineStr">
         <is>
-          <t>(Church history) A designated minister of charity in the early Church (see Acts 6:1-6).For a choir leader to lead a hymn by speaking one or two lines at a time, which are then sung by the choir.</t>
+          <t xml:space="preserve"> / (Church history) A designated minister of charity in the early Church (see Acts 6:1-6). / For a choir leader to lead a hymn by speaking one or two lines at a time, which are then sung by the choir.</t>
         </is>
       </c>
     </row>
@@ -12992,7 +12992,7 @@
       </c>
       <c r="C739" t="inlineStr">
         <is>
-          <t>A movable tower used in sieges.</t>
+          <t xml:space="preserve"> / A movable tower used in sieges.</t>
         </is>
       </c>
     </row>
@@ -13009,7 +13009,7 @@
       </c>
       <c r="C740" t="inlineStr">
         <is>
-          <t>A habitually dirty or untidy man or boy; the male equivalent of slattern, or slut.</t>
+          <t xml:space="preserve"> / A habitually dirty or untidy man or boy; the male equivalent of slattern, or slut.</t>
         </is>
       </c>
     </row>
@@ -13026,7 +13026,7 @@
       </c>
       <c r="C741" t="inlineStr">
         <is>
-          <t>Green in colour.</t>
+          <t xml:space="preserve"> / Green in colour.</t>
         </is>
       </c>
     </row>
@@ -13043,7 +13043,7 @@
       </c>
       <c r="C742" t="inlineStr">
         <is>
-          <t>One who feigns knowledge or cleverness; one who is wisecracking; an insolent upstart.</t>
+          <t xml:space="preserve"> / One who feigns knowledge or cleverness; one who is wisecracking; an insolent upstart.</t>
         </is>
       </c>
     </row>
@@ -13060,7 +13060,7 @@
       </c>
       <c r="C743" t="inlineStr">
         <is>
-          <t>To force; to compel.By force.</t>
+          <t xml:space="preserve"> / To force; to compel. / By force.</t>
         </is>
       </c>
     </row>
@@ -13077,7 +13077,7 @@
       </c>
       <c r="C744" t="inlineStr">
         <is>
-          <t>To plead on someone else's behalf.</t>
+          <t xml:space="preserve"> / To plead on someone else's behalf.</t>
         </is>
       </c>
     </row>
@@ -13094,7 +13094,7 @@
       </c>
       <c r="C745" t="inlineStr">
         <is>
-          <t>To apply or treat with laundry starch, to create a hard, smooth surface.Of a garment: having had starch applied.</t>
+          <t xml:space="preserve"> / To apply or treat with laundry starch, to create a hard, smooth surface. / Of a garment: having had starch applied.</t>
         </is>
       </c>
     </row>
@@ -13111,7 +13111,7 @@
       </c>
       <c r="C746" t="inlineStr">
         <is>
-          <t>To bring (a task, project, goal etc.) to completion; to accomplish.Complete in every detail, perfect, absolute.</t>
+          <t xml:space="preserve"> / To bring (a task, project, goal etc.) to completion; to accomplish. / Complete in every detail, perfect, absolute.</t>
         </is>
       </c>
     </row>
@@ -13128,7 +13128,7 @@
       </c>
       <c r="C747" t="inlineStr">
         <is>
-          <t>Used as an intensifier, often ironic: indeed, really, truthfully.</t>
+          <t xml:space="preserve"> / Used as an intensifier, often ironic: indeed, really, truthfully.</t>
         </is>
       </c>
     </row>
@@ -13145,7 +13145,7 @@
       </c>
       <c r="C748" t="inlineStr">
         <is>
-          <t>A person who sells fresh vegetables and fruit, normally from a relatively small shop</t>
+          <t xml:space="preserve"> / A person who sells fresh vegetables and fruit, normally from a relatively small shop</t>
         </is>
       </c>
     </row>
@@ -13162,7 +13162,7 @@
       </c>
       <c r="C749" t="inlineStr">
         <is>
-          <t>A building of residence for the poor, sick or elderly of a parish. Originally founded by the Church. Usually a charity relying on donations for funding.</t>
+          <t xml:space="preserve"> / A building of residence for the poor, sick or elderly of a parish. Originally founded by the Church. Usually a charity relying on donations for funding.</t>
         </is>
       </c>
     </row>
@@ -13179,7 +13179,7 @@
       </c>
       <c r="C750" t="inlineStr">
         <is>
-          <t>To do a specific task by employing physical or mental powers.To cause something harmful; to afflict; to inflict; to harm or injury; to let out something harmful; .Having been worked or prepared somehow.</t>
+          <t xml:space="preserve"> / To do a specific task by employing physical or mental powers. / To cause something harmful; to afflict; to inflict; to harm or injury; to let out something harmful; . / Having been worked or prepared somehow.</t>
         </is>
       </c>
     </row>
@@ -13196,7 +13196,7 @@
       </c>
       <c r="C751" t="inlineStr">
         <is>
-          <t>Any thing that precedes another thing, especially the cause of the second thing.</t>
+          <t xml:space="preserve"> / Any thing that precedes another thing, especially the cause of the second thing.</t>
         </is>
       </c>
     </row>
@@ -13213,7 +13213,7 @@
       </c>
       <c r="C752" t="inlineStr">
         <is>
-          <t>A man who is meekly subservient to his wife.(chiefly by a wife) To nag persistently.</t>
+          <t xml:space="preserve"> / A man who is meekly subservient to his wife. / (chiefly by a wife) To nag persistently.</t>
         </is>
       </c>
     </row>
@@ -13230,7 +13230,7 @@
       </c>
       <c r="C753" t="inlineStr">
         <is>
-          <t>The foul-smelling asafoetida plant, or its extracts.Foul-smelling, stinking.</t>
+          <t xml:space="preserve"> / The foul-smelling asafoetida plant, or its extracts. / Foul-smelling, stinking.</t>
         </is>
       </c>
     </row>
@@ -13247,7 +13247,7 @@
       </c>
       <c r="C754" t="inlineStr">
         <is>
-          <t>An Anglican cleric having full legal control of a parish under ecclesiastical law; a rector.</t>
+          <t xml:space="preserve"> / An Anglican cleric having full legal control of a parish under ecclesiastical law; a rector.</t>
         </is>
       </c>
     </row>
@@ -13264,7 +13264,7 @@
       </c>
       <c r="C755" t="inlineStr">
         <is>
-          <t>A remonstration; disapproval; a formal, usually written, objection or protest.</t>
+          <t xml:space="preserve"> / A remonstration; disapproval; a formal, usually written, objection or protest.</t>
         </is>
       </c>
     </row>
@@ -13281,7 +13281,7 @@
       </c>
       <c r="C756" t="inlineStr">
         <is>
-          <t>The residence of a vicar.</t>
+          <t xml:space="preserve"> / The residence of a vicar.</t>
         </is>
       </c>
     </row>
